--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -15,7 +15,7 @@
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$M$1:$M$716</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$H$1:$H$716</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="825">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -2582,6 +2582,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>イチバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trail184回</t>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2946,7 +2953,7 @@
   <dimension ref="A1:N716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2960,23 +2967,23 @@
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E2" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3033,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3102,7 +3109,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3197,6 +3204,9 @@
       <c r="H10" s="1">
         <v>-0.10100000000000001</v>
       </c>
+      <c r="I10" t="s">
+        <v>824</v>
+      </c>
       <c r="K10" s="5">
         <v>42802.916608796295</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -4135,7 +4145,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -4222,7 +4232,7 @@
         <v>-2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -4280,7 +4290,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -4309,7 +4319,7 @@
         <v>-0.1115</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -4338,7 +4348,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -4367,7 +4377,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -4483,7 +4493,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -4512,7 +4522,7 @@
         <v>1.0115000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4541,7 +4551,7 @@
         <v>-2.9999999999899998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -4570,7 +4580,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -4599,7 +4609,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>-0.151</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -4657,7 +4667,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -4686,7 +4696,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -4715,7 +4725,7 @@
         <v>-0.1595</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>0.79749999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>-0.109</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -4918,7 +4928,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>-2.35E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>-0.1065</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -5063,7 +5073,7 @@
         <v>-0.1125</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -5092,7 +5102,7 @@
         <v>-0.1065</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -5121,7 +5131,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -5150,7 +5160,7 @@
         <v>-0.1125</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -5179,7 +5189,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -5208,7 +5218,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -5237,7 +5247,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -5324,7 +5334,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -5382,7 +5392,7 @@
         <v>-0.1245</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -5411,7 +5421,7 @@
         <v>-3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>-0.1105</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>-0.13250000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5556,7 +5566,7 @@
         <v>-0.11550000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>-0.19450000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -5672,7 +5682,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -5701,7 +5711,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>0.71750000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -5817,7 +5827,7 @@
         <v>-2.0000000000099999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -5904,7 +5914,7 @@
         <v>1.5674999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -5933,7 +5943,7 @@
         <v>0.77149999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -5962,7 +5972,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -6020,7 +6030,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -6049,7 +6059,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -6078,7 +6088,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -6107,7 +6117,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -6136,7 +6146,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -6165,7 +6175,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -6194,7 +6204,7 @@
         <v>-4.9999999998799995E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -6223,7 +6233,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -6252,7 +6262,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -6310,7 +6320,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -6397,7 +6407,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -6426,7 +6436,7 @@
         <v>-5.4999999999800001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -6455,7 +6465,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -6484,7 +6494,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -6513,7 +6523,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -6542,7 +6552,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>-0.1145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -6629,7 +6639,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -6687,7 +6697,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -6716,7 +6726,7 @@
         <v>-0.11749999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6745,7 +6755,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -6774,7 +6784,7 @@
         <v>-0.11749999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>-8.0000000000100008E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -6832,7 +6842,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -6861,7 +6871,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -6919,7 +6929,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -6948,7 +6958,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -7006,7 +7016,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -7035,7 +7045,7 @@
         <v>-0.11749999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -7064,7 +7074,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -7209,7 +7219,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -7267,7 +7277,7 @@
         <v>-0.11550000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -7296,7 +7306,7 @@
         <v>-0.1565</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -7325,7 +7335,7 @@
         <v>1.1825000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -7412,7 +7422,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -7441,7 +7451,7 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -7470,7 +7480,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -7528,7 +7538,7 @@
         <v>-6.4999999999899999E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -7557,7 +7567,7 @@
         <v>-0.1135</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>313</v>
       </c>
@@ -7586,7 +7596,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -7615,7 +7625,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -7673,7 +7683,7 @@
         <v>-1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -7702,7 +7712,7 @@
         <v>-0.1065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>-1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -7760,7 +7770,7 @@
         <v>-0.1225</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>327</v>
       </c>
@@ -7789,7 +7799,7 @@
         <v>-0.2515</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>329</v>
       </c>
@@ -7818,7 +7828,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>331</v>
       </c>
@@ -7847,7 +7857,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>335</v>
       </c>
@@ -7905,7 +7915,7 @@
         <v>-0.13700000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>339</v>
       </c>
@@ -7963,7 +7973,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>341</v>
       </c>
@@ -7992,7 +8002,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>343</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>345</v>
       </c>
@@ -8050,7 +8060,7 @@
         <v>-1.15E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -8079,7 +8089,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>349</v>
       </c>
@@ -8108,7 +8118,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>351</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>0.86850000000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -8166,7 +8176,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>-7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -8224,7 +8234,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -8282,7 +8292,7 @@
         <v>-7.9500000000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -8311,7 +8321,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>365</v>
       </c>
@@ -8340,7 +8350,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>367</v>
       </c>
@@ -8369,7 +8379,7 @@
         <v>4.5000000000100003E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>369</v>
       </c>
@@ -8398,7 +8408,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>-7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>8.0000000000100008E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -8485,7 +8495,7 @@
         <v>-8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>377</v>
       </c>
@@ -8514,7 +8524,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -8543,7 +8553,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>381</v>
       </c>
@@ -8572,7 +8582,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>383</v>
       </c>
@@ -8601,7 +8611,7 @@
         <v>-6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -8630,7 +8640,7 @@
         <v>-8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -8659,7 +8669,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -8688,7 +8698,7 @@
         <v>9.00000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>391</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>4.5000000000100003E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -8746,7 +8756,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>395</v>
       </c>
@@ -8775,7 +8785,7 @@
         <v>-8.1500000000000003E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>397</v>
       </c>
@@ -8804,7 +8814,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -8833,7 +8843,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -8862,7 +8872,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -8891,7 +8901,7 @@
         <v>6.9999999999799997E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -8920,7 +8930,7 @@
         <v>9.9999999999899995E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -8949,7 +8959,7 @@
         <v>-6.8500000000000005E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>409</v>
       </c>
@@ -8978,7 +8988,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>411</v>
       </c>
@@ -9007,7 +9017,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -9036,7 +9046,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -9065,7 +9075,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>417</v>
       </c>
@@ -9094,7 +9104,7 @@
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>419</v>
       </c>
@@ -9123,7 +9133,7 @@
         <v>-4.4499999999999998E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -9152,7 +9162,7 @@
         <v>-7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>423</v>
       </c>
@@ -9181,7 +9191,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>425</v>
       </c>
@@ -9210,7 +9220,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>427</v>
       </c>
@@ -9239,7 +9249,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>429</v>
       </c>
@@ -9268,7 +9278,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>431</v>
       </c>
@@ -9297,7 +9307,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>433</v>
       </c>
@@ -9326,7 +9336,7 @@
         <v>-7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>435</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>437</v>
       </c>
@@ -9384,7 +9394,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>439</v>
       </c>
@@ -9413,7 +9423,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>441</v>
       </c>
@@ -9442,7 +9452,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>443</v>
       </c>
@@ -9462,7 +9472,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>445</v>
       </c>
@@ -9482,7 +9492,7 @@
         <v>-1.95E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>447</v>
       </c>
@@ -9502,7 +9512,7 @@
         <v>-0.1125</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>449</v>
       </c>
@@ -9522,7 +9532,7 @@
         <v>-0.128</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -9542,7 +9552,7 @@
         <v>0.73550000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>453</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -9582,7 +9592,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -9602,7 +9612,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -9622,7 +9632,7 @@
         <v>-3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -9642,7 +9652,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -9662,7 +9672,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -9682,7 +9692,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -9702,7 +9712,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -9722,7 +9732,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -9742,7 +9752,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -9762,7 +9772,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -9782,7 +9792,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -9802,7 +9812,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -9822,7 +9832,7 @@
         <v>-0.1215</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>481</v>
       </c>
@@ -9842,7 +9852,7 @@
         <v>-5.4990000000000004E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -9862,7 +9872,7 @@
         <v>-0.1065</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -9882,7 +9892,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -9902,7 +9912,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -9922,7 +9932,7 @@
         <v>-0.1245</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -9942,7 +9952,7 @@
         <v>-0.1105</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>493</v>
       </c>
@@ -9962,7 +9972,7 @@
         <v>-0.13250000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>495</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>-0.1135</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>497</v>
       </c>
@@ -10002,7 +10012,7 @@
         <v>-0.109</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>499</v>
       </c>
@@ -10022,7 +10032,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>501</v>
       </c>
@@ -10042,7 +10052,7 @@
         <v>-2.75E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>503</v>
       </c>
@@ -10062,7 +10072,7 @@
         <v>-0.1095</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>505</v>
       </c>
@@ -10082,7 +10092,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>507</v>
       </c>
@@ -10102,7 +10112,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>509</v>
       </c>
@@ -10122,7 +10132,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>511</v>
       </c>
@@ -10142,7 +10152,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>513</v>
       </c>
@@ -10162,7 +10172,7 @@
         <v>-0.19450000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>515</v>
       </c>
@@ -10182,7 +10192,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>517</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>0.73850000000000005</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>519</v>
       </c>
@@ -10222,7 +10232,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>521</v>
       </c>
@@ -10242,7 +10252,7 @@
         <v>-0.1085</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>523</v>
       </c>
@@ -10262,7 +10272,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>525</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>527</v>
       </c>
@@ -10302,7 +10312,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>529</v>
       </c>
@@ -10322,7 +10332,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>531</v>
       </c>
@@ -10342,7 +10352,7 @@
         <v>-0.23549999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>533</v>
       </c>
@@ -10362,7 +10372,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>535</v>
       </c>
@@ -10382,7 +10392,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>537</v>
       </c>
@@ -10402,7 +10412,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>539</v>
       </c>
@@ -10422,7 +10432,7 @@
         <v>0.71750000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>541</v>
       </c>
@@ -10442,7 +10452,7 @@
         <v>-0.1125</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -10462,7 +10472,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -10482,7 +10492,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>547</v>
       </c>
@@ -10502,7 +10512,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>549</v>
       </c>
@@ -10522,7 +10532,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>551</v>
       </c>
@@ -10542,7 +10552,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>553</v>
       </c>
@@ -10562,7 +10572,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>555</v>
       </c>
@@ -10582,7 +10592,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>557</v>
       </c>
@@ -10602,7 +10612,7 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>559</v>
       </c>
@@ -10622,7 +10632,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>561</v>
       </c>
@@ -10642,7 +10652,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>563</v>
       </c>
@@ -10662,7 +10672,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>565</v>
       </c>
@@ -10682,7 +10692,7 @@
         <v>1.1054999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>567</v>
       </c>
@@ -10702,7 +10712,7 @@
         <v>-0.1085</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>569</v>
       </c>
@@ -10722,7 +10732,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>571</v>
       </c>
@@ -10742,7 +10752,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -10762,7 +10772,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>575</v>
       </c>
@@ -10782,7 +10792,7 @@
         <v>-1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>577</v>
       </c>
@@ -10802,7 +10812,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -10822,7 +10832,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>581</v>
       </c>
@@ -10842,7 +10852,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>583</v>
       </c>
@@ -10862,7 +10872,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>585</v>
       </c>
@@ -10882,7 +10892,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>587</v>
       </c>
@@ -10902,7 +10912,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -10922,7 +10932,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>591</v>
       </c>
@@ -10942,7 +10952,7 @@
         <v>0.70850000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>593</v>
       </c>
@@ -10962,7 +10972,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>595</v>
       </c>
@@ -10982,7 +10992,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -11002,7 +11012,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>599</v>
       </c>
@@ -11022,7 +11032,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -11042,7 +11052,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -11062,7 +11072,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -11082,7 +11092,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -11102,7 +11112,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -11122,7 +11132,7 @@
         <v>-0.109</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -11142,7 +11152,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>613</v>
       </c>
@@ -11162,7 +11172,7 @@
         <v>-0.1085</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>615</v>
       </c>
@@ -11182,7 +11192,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>617</v>
       </c>
@@ -11202,7 +11212,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>619</v>
       </c>
@@ -11222,7 +11232,7 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>621</v>
       </c>
@@ -11242,7 +11252,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>623</v>
       </c>
@@ -11262,7 +11272,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>625</v>
       </c>
@@ -11282,7 +11292,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>627</v>
       </c>
@@ -11302,7 +11312,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>629</v>
       </c>
@@ -11322,7 +11332,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -11342,7 +11352,7 @@
         <v>0.71050000000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>633</v>
       </c>
@@ -11362,7 +11372,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>635</v>
       </c>
@@ -11382,7 +11392,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>637</v>
       </c>
@@ -11402,7 +11412,7 @@
         <v>-0.128</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>639</v>
       </c>
@@ -11422,7 +11432,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>641</v>
       </c>
@@ -11442,7 +11452,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>643</v>
       </c>
@@ -11462,7 +11472,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>645</v>
       </c>
@@ -11482,7 +11492,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>647</v>
       </c>
@@ -11502,7 +11512,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>649</v>
       </c>
@@ -11522,7 +11532,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>651</v>
       </c>
@@ -11542,7 +11552,7 @@
         <v>-0.1145</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>653</v>
       </c>
@@ -11562,7 +11572,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>655</v>
       </c>
@@ -11582,7 +11592,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>657</v>
       </c>
@@ -11602,7 +11612,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>659</v>
       </c>
@@ -11622,7 +11632,7 @@
         <v>-8.9990000000000001E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>661</v>
       </c>
@@ -11642,7 +11652,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>663</v>
       </c>
@@ -11662,7 +11672,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>665</v>
       </c>
@@ -11682,7 +11692,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>667</v>
       </c>
@@ -11702,7 +11712,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>669</v>
       </c>
@@ -11722,7 +11732,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>671</v>
       </c>
@@ -11742,7 +11752,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>673</v>
       </c>
@@ -11762,7 +11772,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>675</v>
       </c>
@@ -11782,7 +11792,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>677</v>
       </c>
@@ -11802,7 +11812,7 @@
         <v>-0.1135</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>679</v>
       </c>
@@ -11822,7 +11832,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>681</v>
       </c>
@@ -11842,7 +11852,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>683</v>
       </c>
@@ -11862,7 +11872,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>685</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>687</v>
       </c>
@@ -11902,7 +11912,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>689</v>
       </c>
@@ -11922,7 +11932,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>691</v>
       </c>
@@ -11942,7 +11952,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>693</v>
       </c>
@@ -11962,7 +11972,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>695</v>
       </c>
@@ -11982,7 +11992,7 @@
         <v>-4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>697</v>
       </c>
@@ -12002,7 +12012,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>699</v>
       </c>
@@ -12022,7 +12032,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>701</v>
       </c>
@@ -12042,7 +12052,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>703</v>
       </c>
@@ -12062,7 +12072,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>705</v>
       </c>
@@ -12082,7 +12092,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>707</v>
       </c>
@@ -12102,7 +12112,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>709</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>711</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>713</v>
       </c>
@@ -12162,7 +12172,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>715</v>
       </c>
@@ -12182,7 +12192,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>717</v>
       </c>
@@ -12202,7 +12212,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>719</v>
       </c>
@@ -12222,7 +12232,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>721</v>
       </c>
@@ -12242,7 +12252,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -12262,7 +12272,7 @@
         <v>-0.10349999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>725</v>
       </c>
@@ -12282,7 +12292,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>727</v>
       </c>
@@ -12302,7 +12312,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>729</v>
       </c>
@@ -12322,7 +12332,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>731</v>
       </c>
@@ -12342,7 +12352,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>733</v>
       </c>
@@ -12362,7 +12372,7 @@
         <v>-0.114</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>735</v>
       </c>
@@ -12382,7 +12392,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>737</v>
       </c>
@@ -12402,7 +12412,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>739</v>
       </c>
@@ -12422,7 +12432,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>741</v>
       </c>
@@ -12442,7 +12452,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>743</v>
       </c>
@@ -12462,7 +12472,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>745</v>
       </c>
@@ -12482,7 +12492,7 @@
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>747</v>
       </c>
@@ -12502,7 +12512,7 @@
         <v>-0.11650000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>749</v>
       </c>
@@ -12522,7 +12532,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>751</v>
       </c>
@@ -12542,7 +12552,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>753</v>
       </c>
@@ -12562,7 +12572,7 @@
         <v>0.76049999999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>755</v>
       </c>
@@ -12582,7 +12592,7 @@
         <v>-0.1075</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>757</v>
       </c>
@@ -12602,7 +12612,7 @@
         <v>-0.1045</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>759</v>
       </c>
@@ -12622,7 +12632,7 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>761</v>
       </c>
@@ -12642,7 +12652,7 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>763</v>
       </c>
@@ -12662,7 +12672,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>765</v>
       </c>
@@ -12682,7 +12692,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>767</v>
       </c>
@@ -12702,7 +12712,7 @@
         <v>-1.15E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>769</v>
       </c>
@@ -12722,7 +12732,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>771</v>
       </c>
@@ -12742,7 +12752,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>773</v>
       </c>
@@ -12762,7 +12772,7 @@
         <v>-0.10050000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>775</v>
       </c>
@@ -12782,7 +12792,7 @@
         <v>-0.1135</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>777</v>
       </c>
@@ -12802,7 +12812,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>779</v>
       </c>
@@ -12822,7 +12832,7 @@
         <v>-0.10249999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>781</v>
       </c>
@@ -12842,7 +12852,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>783</v>
       </c>
@@ -12862,7 +12872,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>785</v>
       </c>
@@ -12882,7 +12892,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>787</v>
       </c>
@@ -12902,7 +12912,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>789</v>
       </c>
@@ -12922,7 +12932,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>791</v>
       </c>
@@ -12942,7 +12952,7 @@
         <v>0.98350000000000004</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>793</v>
       </c>
@@ -12962,7 +12972,7 @@
         <v>-0.10150000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>795</v>
       </c>
@@ -12982,7 +12992,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>797</v>
       </c>
@@ -13002,7 +13012,7 @@
         <v>-0.11550000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>799</v>
       </c>
@@ -13022,7 +13032,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>801</v>
       </c>
@@ -13042,7 +13052,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>803</v>
       </c>
@@ -16465,7 +16475,7 @@
       <c r="F716" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M716"/>
+  <autoFilter ref="H1:H716"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$BL$1:$BW$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CE$1:$CE$823</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="1617">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5352,7 +5352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5381,6 +5381,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5665,57 +5668,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CC10" sqref="CC10"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CB11" sqref="CB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
     <col min="15" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
     <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.26953125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
     <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
     <col min="36" max="39" width="0" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.26953125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.26953125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
     <col min="42" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.26953125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
     <col min="47" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.08984375" customWidth="1"/>
-    <col min="51" max="51" width="15.90625" customWidth="1"/>
-    <col min="52" max="52" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.109375" customWidth="1"/>
+    <col min="51" max="51" width="15.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="22" customWidth="1"/>
-    <col min="56" max="56" width="17.6328125" customWidth="1"/>
-    <col min="57" max="57" width="22.26953125" customWidth="1"/>
-    <col min="58" max="58" width="8.7265625" style="4"/>
-    <col min="64" max="64" width="18.08984375" customWidth="1"/>
-    <col min="65" max="65" width="15.90625" customWidth="1"/>
-    <col min="71" max="71" width="16.81640625" customWidth="1"/>
-    <col min="72" max="72" width="19.26953125" customWidth="1"/>
-    <col min="73" max="73" width="13.08984375" customWidth="1"/>
+    <col min="56" max="56" width="17.6640625" customWidth="1"/>
+    <col min="57" max="57" width="22.21875" customWidth="1"/>
+    <col min="58" max="58" width="8.77734375" style="4"/>
+    <col min="64" max="64" width="18.109375" customWidth="1"/>
+    <col min="65" max="65" width="15.88671875" customWidth="1"/>
+    <col min="71" max="71" width="16.77734375" customWidth="1"/>
+    <col min="72" max="72" width="19.21875" customWidth="1"/>
+    <col min="73" max="73" width="13.109375" customWidth="1"/>
+    <col min="79" max="79" width="24.6640625" customWidth="1"/>
+    <col min="80" max="80" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
@@ -6170,6 +6175,21 @@
       <c r="BX6" t="s">
         <v>1615</v>
       </c>
+      <c r="CA6" s="7">
+        <v>42796.638773148145</v>
+      </c>
+      <c r="CB6" s="7">
+        <v>42797.770949074074</v>
+      </c>
+      <c r="CC6" s="4">
+        <v>2.4928100000100002E-2</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>-0.33350000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6356,6 +6376,21 @@
       <c r="BX7" t="s">
         <v>1614</v>
       </c>
+      <c r="CA7" s="7">
+        <v>42800.37835648148</v>
+      </c>
+      <c r="CB7" s="7">
+        <v>42801.708912037036</v>
+      </c>
+      <c r="CC7" s="4">
+        <v>-0.103645907</v>
+      </c>
+      <c r="CD7" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE7">
+        <v>0.85599999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6536,8 +6571,23 @@
       <c r="BW8" s="1">
         <v>-0.34250000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA8" s="7">
+        <v>42801.715162037035</v>
+      </c>
+      <c r="CB8" s="7">
+        <v>42802.927662037036</v>
+      </c>
+      <c r="CC8" s="4">
+        <v>-0.159032439</v>
+      </c>
+      <c r="CD8" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>-0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6707,6 +6757,21 @@
       <c r="BW9">
         <v>0.73599999999999999</v>
       </c>
+      <c r="CA9" s="7">
+        <v>42803.725578703707</v>
+      </c>
+      <c r="CB9" s="7">
+        <v>42804.542245370372</v>
+      </c>
+      <c r="CC9" s="4">
+        <v>9.7902679000000006E-2</v>
+      </c>
+      <c r="CD9" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE9">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6869,8 +6934,23 @@
       <c r="BW10" s="1">
         <v>-0.309</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" ht="221" x14ac:dyDescent="0.2">
+      <c r="CA10" s="7">
+        <v>42804.579745370371</v>
+      </c>
+      <c r="CB10" s="7">
+        <v>42804.99895833333</v>
+      </c>
+      <c r="CC10" s="4">
+        <v>0.30253688099999998</v>
+      </c>
+      <c r="CD10" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>-0.309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84" ht="224.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7031,8 +7111,23 @@
       <c r="BW11" s="1">
         <v>-0.30399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA11" s="7">
+        <v>42809.774189814816</v>
+      </c>
+      <c r="CB11" s="7">
+        <v>42810.001620370371</v>
+      </c>
+      <c r="CC11" s="4">
+        <v>-2.4540550999900001E-2</v>
+      </c>
+      <c r="CD11" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>-0.311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7181,8 +7276,23 @@
       <c r="BW12" s="1">
         <v>-0.311</v>
       </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA12" s="7">
+        <v>42814.874884259261</v>
+      </c>
+      <c r="CB12" s="7">
+        <v>42815.125578703701</v>
+      </c>
+      <c r="CC12" s="4">
+        <v>-6.8557761000099998E-2</v>
+      </c>
+      <c r="CD12" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE12">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7331,8 +7441,23 @@
       <c r="BW13">
         <v>0.81950000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA13" s="7">
+        <v>42817.683912037035</v>
+      </c>
+      <c r="CB13" s="7">
+        <v>42817.99664351852</v>
+      </c>
+      <c r="CC13" s="4">
+        <v>-8.6176538000200004E-2</v>
+      </c>
+      <c r="CD13" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>-0.3075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7481,8 +7606,23 @@
       <c r="BW14" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA14" s="7">
+        <v>42818.62835648148</v>
+      </c>
+      <c r="CB14" s="7">
+        <v>42818.687384259261</v>
+      </c>
+      <c r="CC14" s="4">
+        <v>3.6862377000200001E-2</v>
+      </c>
+      <c r="CD14" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>-0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -7631,8 +7771,23 @@
       <c r="BW15" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CA15" s="7">
+        <v>42818.767245370371</v>
+      </c>
+      <c r="CB15" s="7">
+        <v>42822.021874999999</v>
+      </c>
+      <c r="CC15" s="4">
+        <v>-3.0345760000099999E-2</v>
+      </c>
+      <c r="CD15" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>-0.3145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7781,8 +7936,23 @@
       <c r="BW16" s="1">
         <v>-0.24399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA16" s="7">
+        <v>42822.360995370371</v>
+      </c>
+      <c r="CB16" s="7">
+        <v>42822.629282407404</v>
+      </c>
+      <c r="CC16" s="4">
+        <v>0.14029789300000001</v>
+      </c>
+      <c r="CD16" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>-0.30549999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7931,8 +8101,23 @@
       <c r="BW17" s="1">
         <v>-0.3145</v>
       </c>
-    </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA17" s="7">
+        <v>42824.767245370371</v>
+      </c>
+      <c r="CB17" s="7">
+        <v>42825.250578703701</v>
+      </c>
+      <c r="CC17" s="4">
+        <v>1.01267849998E-2</v>
+      </c>
+      <c r="CD17" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE17">
+        <v>1.4155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8081,8 +8266,23 @@
       <c r="BW18" s="1">
         <v>-0.30549999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA18" s="7">
+        <v>42826.246412037035</v>
+      </c>
+      <c r="CB18" s="7">
+        <v>42828.365856481483</v>
+      </c>
+      <c r="CC18" s="4">
+        <v>0.21958730100000001</v>
+      </c>
+      <c r="CD18" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>-0.3075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -8231,8 +8431,23 @@
       <c r="BW19">
         <v>1.4155</v>
       </c>
-    </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA19" s="7">
+        <v>42828.590162037035</v>
+      </c>
+      <c r="CB19" s="7">
+        <v>42828.729629629626</v>
+      </c>
+      <c r="CC19" s="4">
+        <v>3.93849199999E-2</v>
+      </c>
+      <c r="CD19" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8381,8 +8596,23 @@
       <c r="BW20" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA20" s="7">
+        <v>42828.735995370371</v>
+      </c>
+      <c r="CB20" s="7">
+        <v>42829.500578703701</v>
+      </c>
+      <c r="CC20" s="4">
+        <v>-5.6347519999999998E-2</v>
+      </c>
+      <c r="CD20" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE20">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8531,8 +8761,23 @@
       <c r="BW21" s="1">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA21" s="7">
+        <v>42830.52071759259</v>
+      </c>
+      <c r="CB21" s="7">
+        <v>42830.729513888888</v>
+      </c>
+      <c r="CC21" s="4">
+        <v>-0.20651108500000001</v>
+      </c>
+      <c r="CD21" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>-0.38450000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -8681,8 +8926,23 @@
       <c r="BW22">
         <v>1.0509999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA22" s="7">
+        <v>42830.87835648148</v>
+      </c>
+      <c r="CB22" s="7">
+        <v>42831.182986111111</v>
+      </c>
+      <c r="CC22" s="4">
+        <v>0.26571941799999999</v>
+      </c>
+      <c r="CD22" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>-0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -8831,8 +9091,23 @@
       <c r="BW23" s="1">
         <v>-0.38450000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA23" s="7">
+        <v>42832.430439814816</v>
+      </c>
+      <c r="CB23" s="7">
+        <v>42835.41851851852</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>-0.102829166</v>
+      </c>
+      <c r="CD23" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>-0.312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -8981,8 +9256,23 @@
       <c r="BW24" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA24" s="7">
+        <v>42835.954745370371</v>
+      </c>
+      <c r="CB24" s="7">
+        <v>42836.03020833333</v>
+      </c>
+      <c r="CC24" s="4">
+        <v>5.6281622000000003E-2</v>
+      </c>
+      <c r="CD24" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>-0.3075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -9131,8 +9421,23 @@
       <c r="BW25" s="1">
         <v>-0.312</v>
       </c>
-    </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA25" s="7">
+        <v>42836.663078703707</v>
+      </c>
+      <c r="CB25" s="7">
+        <v>42836.733217592591</v>
+      </c>
+      <c r="CC25" s="4">
+        <v>-0.109786707</v>
+      </c>
+      <c r="CD25" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE25" s="1">
+        <v>-0.3085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -9281,8 +9586,23 @@
       <c r="BW26" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA26" s="7">
+        <v>42836.916550925926</v>
+      </c>
+      <c r="CB26" s="7">
+        <v>42839.083912037036</v>
+      </c>
+      <c r="CC26" s="4">
+        <v>-0.196683409</v>
+      </c>
+      <c r="CD26" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE26">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9431,8 +9751,23 @@
       <c r="BW27" s="1">
         <v>-0.3085</v>
       </c>
-    </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA27" s="7">
+        <v>42839.090162037035</v>
+      </c>
+      <c r="CB27" s="7">
+        <v>42843.136574074073</v>
+      </c>
+      <c r="CC27" s="4">
+        <v>-8.77220230001E-2</v>
+      </c>
+      <c r="CD27" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE27" s="1">
+        <v>-0.309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -9581,8 +9916,23 @@
       <c r="BW28">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA28" s="7">
+        <v>42843.183912037035</v>
+      </c>
+      <c r="CB28" s="7">
+        <v>42843.757291666669</v>
+      </c>
+      <c r="CC28" s="4">
+        <v>0.152726686</v>
+      </c>
+      <c r="CD28" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE28" s="1">
+        <v>-0.3105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -9731,8 +10081,23 @@
       <c r="BW29" s="1">
         <v>-0.309</v>
       </c>
-    </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA29" s="7">
+        <v>42845.69085648148</v>
+      </c>
+      <c r="CB29" s="7">
+        <v>42846.734606481485</v>
+      </c>
+      <c r="CC29" s="4">
+        <v>3.34084819999E-2</v>
+      </c>
+      <c r="CD29" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>-0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -9881,8 +10246,23 @@
       <c r="BW30" s="1">
         <v>-0.3105</v>
       </c>
-    </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA30" s="7">
+        <v>42847.00335648148</v>
+      </c>
+      <c r="CB30" s="7">
+        <v>42847.121990740743</v>
+      </c>
+      <c r="CC30" s="4">
+        <v>-0.120309101</v>
+      </c>
+      <c r="CD30" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -10031,8 +10411,23 @@
       <c r="BW31" s="1">
         <v>-0.33250000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA31" s="7">
+        <v>42852.305439814816</v>
+      </c>
+      <c r="CB31" s="7">
+        <v>42852.667245370372</v>
+      </c>
+      <c r="CC31" s="4">
+        <v>0.181907912</v>
+      </c>
+      <c r="CD31" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE31">
+        <v>0.70350000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -10181,8 +10576,23 @@
       <c r="BW32" s="1">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA32" s="7">
+        <v>42852.673495370371</v>
+      </c>
+      <c r="CB32" s="7">
+        <v>42852.709143518521</v>
+      </c>
+      <c r="CC32" s="4">
+        <v>0.14183596200000001</v>
+      </c>
+      <c r="CD32" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>-0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -10331,8 +10741,23 @@
       <c r="BW33">
         <v>0.70350000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA33" s="7">
+        <v>42852.906134259261</v>
+      </c>
+      <c r="CB33" s="7">
+        <v>42852.920370370368</v>
+      </c>
+      <c r="CC33" s="4">
+        <v>0.24897812599999999</v>
+      </c>
+      <c r="CD33" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE33" s="1">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -10481,8 +10906,23 @@
       <c r="BW34" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA34" s="7">
+        <v>42853.680439814816</v>
+      </c>
+      <c r="CB34" s="7">
+        <v>42856.667245370372</v>
+      </c>
+      <c r="CC34" s="4">
+        <v>0.177918874</v>
+      </c>
+      <c r="CD34" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE34">
+        <v>0.70950000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -10631,8 +11071,23 @@
       <c r="BW35" s="1">
         <v>-0.308</v>
       </c>
-    </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA35" s="7">
+        <v>42858.385300925926</v>
+      </c>
+      <c r="CB35" s="7">
+        <v>42858.570717592593</v>
+      </c>
+      <c r="CC35" s="4">
+        <v>0.19895302500000001</v>
+      </c>
+      <c r="CD35" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -10781,8 +11236,23 @@
       <c r="BW36">
         <v>0.70950000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA36" s="7">
+        <v>42858.694328703707</v>
+      </c>
+      <c r="CB36" s="7">
+        <v>42859.65520833333</v>
+      </c>
+      <c r="CC36" s="4">
+        <v>0.15859989899999999</v>
+      </c>
+      <c r="CD36" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE36" s="1">
+        <v>-0.35649999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -10931,8 +11401,23 @@
       <c r="BW37" s="1">
         <v>-0.248</v>
       </c>
-    </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA37" s="7">
+        <v>42860.39571759259</v>
+      </c>
+      <c r="CB37" s="7">
+        <v>42860.444328703707</v>
+      </c>
+      <c r="CC37" s="4">
+        <v>8.8641690999999995E-2</v>
+      </c>
+      <c r="CD37" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE37" s="1">
+        <v>-0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -11081,8 +11566,23 @@
       <c r="BW38" s="1">
         <v>-0.35649999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA38" s="7">
+        <v>42861.242939814816</v>
+      </c>
+      <c r="CB38" s="7">
+        <v>42863.361805555556</v>
+      </c>
+      <c r="CC38" s="4">
+        <v>0.163281967</v>
+      </c>
+      <c r="CD38" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE38" s="1">
+        <v>-0.313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -11231,8 +11731,23 @@
       <c r="BW39" s="1">
         <v>-0.27600000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA39" s="7">
+        <v>42864.08321759259</v>
+      </c>
+      <c r="CB39" s="7">
+        <v>42865.042245370372</v>
+      </c>
+      <c r="CC39" s="4">
+        <v>0.236601688</v>
+      </c>
+      <c r="CD39" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE39">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11381,8 +11896,23 @@
       <c r="BW40" s="1">
         <v>-0.313</v>
       </c>
-    </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA40" s="7">
+        <v>42866.107523148145</v>
+      </c>
+      <c r="CB40" s="7">
+        <v>42866.444907407407</v>
+      </c>
+      <c r="CC40" s="4">
+        <v>0.139244073</v>
+      </c>
+      <c r="CD40" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE40" s="1">
+        <v>-0.30049999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -11531,8 +12061,23 @@
       <c r="BW41">
         <v>1.5649999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA41" s="7">
+        <v>42871.388773148145</v>
+      </c>
+      <c r="CB41" s="7">
+        <v>42871.477662037039</v>
+      </c>
+      <c r="CC41" s="4">
+        <v>0.223510021</v>
+      </c>
+      <c r="CD41" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE41" s="1">
+        <v>-0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -11681,8 +12226,23 @@
       <c r="BW42" s="1">
         <v>-0.30049999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA42" s="7">
+        <v>42871.982523148145</v>
+      </c>
+      <c r="CB42" s="7">
+        <v>42872.917245370372</v>
+      </c>
+      <c r="CC42" s="4">
+        <v>-0.13344375</v>
+      </c>
+      <c r="CD42" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE42">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11831,8 +12391,23 @@
       <c r="BW43" s="1">
         <v>-0.30399999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA43" s="7">
+        <v>42874.548495370371</v>
+      </c>
+      <c r="CB43" s="7">
+        <v>42877.542245370372</v>
+      </c>
+      <c r="CC43" s="4">
+        <v>8.2166392999900001E-2</v>
+      </c>
+      <c r="CD43" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE43">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11981,8 +12556,23 @@
       <c r="BW44">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA44" s="7">
+        <v>42877.798495370371</v>
+      </c>
+      <c r="CB44" s="7">
+        <v>42877.992129629631</v>
+      </c>
+      <c r="CC44" s="4">
+        <v>0.14633722800000001</v>
+      </c>
+      <c r="CD44" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE44" s="1">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -12131,8 +12721,23 @@
       <c r="BW45">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA45" s="7">
+        <v>42878.006828703707</v>
+      </c>
+      <c r="CB45" s="7">
+        <v>42879.005671296298</v>
+      </c>
+      <c r="CC45" s="4">
+        <v>-1.7655927999900001E-2</v>
+      </c>
+      <c r="CD45" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE45" s="1">
+        <v>-0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -12281,8 +12886,23 @@
       <c r="BW46" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA46" s="7">
+        <v>42879.308912037035</v>
+      </c>
+      <c r="CB46" s="7">
+        <v>42879.81863425926</v>
+      </c>
+      <c r="CC46" s="4">
+        <v>0.114738466</v>
+      </c>
+      <c r="CD46" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE46" s="1">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -12431,8 +13051,23 @@
       <c r="BW47" s="1">
         <v>-0.35399999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA47" s="7">
+        <v>42881.17696759259</v>
+      </c>
+      <c r="CB47" s="7">
+        <v>42882.125578703701</v>
+      </c>
+      <c r="CC47" s="4">
+        <v>-6.7921105000099999E-2</v>
+      </c>
+      <c r="CD47" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE47">
+        <v>2.1395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -12581,8 +13216,23 @@
       <c r="BW48" s="1">
         <v>-0.193</v>
       </c>
-    </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA48" s="7">
+        <v>42884.94085648148</v>
+      </c>
+      <c r="CB48" s="7">
+        <v>42885.417245370372</v>
+      </c>
+      <c r="CC48" s="4">
+        <v>-0.13018078</v>
+      </c>
+      <c r="CD48" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE48">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -12731,8 +13381,23 @@
       <c r="BW49" s="1">
         <v>-0.34050000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA49" s="7">
+        <v>42886.274189814816</v>
+      </c>
+      <c r="CB49" s="7">
+        <v>42886.427083333336</v>
+      </c>
+      <c r="CC49" s="10">
+        <v>-0.18364950299999999</v>
+      </c>
+      <c r="CD49" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE49" s="1">
+        <v>-0.34050000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -12881,8 +13546,23 @@
       <c r="BW50">
         <v>2.1395</v>
       </c>
-    </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA50" s="7">
+        <v>42887.586689814816</v>
+      </c>
+      <c r="CB50" s="7">
+        <v>42887.613078703704</v>
+      </c>
+      <c r="CC50" s="4">
+        <v>0.293732614</v>
+      </c>
+      <c r="CD50" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE50" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -13031,8 +13711,23 @@
       <c r="BW51">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA51" s="7">
+        <v>42887.72210648148</v>
+      </c>
+      <c r="CB51" s="7">
+        <v>42887.764467592591</v>
+      </c>
+      <c r="CC51" s="4">
+        <v>0.16599414800000001</v>
+      </c>
+      <c r="CD51" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE51" s="1">
+        <v>-0.316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -13181,8 +13876,23 @@
       <c r="BW52" s="1">
         <v>-0.34050000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA52" s="7">
+        <v>42892.104050925926</v>
+      </c>
+      <c r="CB52" s="7">
+        <v>42893.125578703701</v>
+      </c>
+      <c r="CC52" s="4">
+        <v>-0.18497973700000001</v>
+      </c>
+      <c r="CD52" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE52">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -13331,8 +14041,23 @@
       <c r="BW53" s="1">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA53" s="7">
+        <v>42898.621412037035</v>
+      </c>
+      <c r="CB53" s="7">
+        <v>42898.651273148149</v>
+      </c>
+      <c r="CC53" s="4">
+        <v>0.106789037</v>
+      </c>
+      <c r="CD53" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE53" s="1">
+        <v>-0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -13481,8 +14206,23 @@
       <c r="BW54" s="1">
         <v>-0.316</v>
       </c>
-    </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA54" s="7">
+        <v>42905.53460648148</v>
+      </c>
+      <c r="CB54" s="7">
+        <v>42906.689930555556</v>
+      </c>
+      <c r="CC54" s="4">
+        <v>0.107180927</v>
+      </c>
+      <c r="CD54" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE54" s="1">
+        <v>-0.34050000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -13631,8 +14371,23 @@
       <c r="BW55">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA55" s="7">
+        <v>42906.888773148145</v>
+      </c>
+      <c r="CB55" s="7">
+        <v>42907.708912037036</v>
+      </c>
+      <c r="CC55" s="4">
+        <v>-0.135122571</v>
+      </c>
+      <c r="CD55" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE55">
+        <v>0.98050000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -13781,8 +14536,23 @@
       <c r="BW56" s="1">
         <v>-0.25700000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA56" s="7">
+        <v>42909.392245370371</v>
+      </c>
+      <c r="CB56" s="7">
+        <v>42912.500578703701</v>
+      </c>
+      <c r="CC56" s="4">
+        <v>4.4706424000099998E-2</v>
+      </c>
+      <c r="CD56" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE56">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -13931,8 +14701,23 @@
       <c r="BW57" s="1">
         <v>-0.34050000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA57" s="7">
+        <v>42912.642245370371</v>
+      </c>
+      <c r="CB57" s="7">
+        <v>42913.875578703701</v>
+      </c>
+      <c r="CC57" s="4">
+        <v>0.26272668700000001</v>
+      </c>
+      <c r="CD57" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE57">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -14081,8 +14866,23 @@
       <c r="BW58">
         <v>0.98050000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA58" s="7">
+        <v>42916.569328703707</v>
+      </c>
+      <c r="CB58" s="7">
+        <v>42916.669328703705</v>
+      </c>
+      <c r="CC58" s="4">
+        <v>0.165411111</v>
+      </c>
+      <c r="CD58" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE58" s="1">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -14230,8 +15030,23 @@
       <c r="BW59">
         <v>0.71499999999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA59" s="7">
+        <v>42921.308912037035</v>
+      </c>
+      <c r="CB59" s="7">
+        <v>42921.649189814816</v>
+      </c>
+      <c r="CC59" s="4">
+        <v>-0.14016726299999999</v>
+      </c>
+      <c r="CD59" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE59" s="1">
+        <v>-0.2225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -14379,8 +15194,23 @@
       <c r="BW60">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA60" s="7">
+        <v>42922.788078703707</v>
+      </c>
+      <c r="CB60" s="7">
+        <v>42922.833101851851</v>
+      </c>
+      <c r="CC60" s="4">
+        <v>0.113294643</v>
+      </c>
+      <c r="CD60" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE60" s="1">
+        <v>-0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -14528,8 +15358,23 @@
       <c r="BW61" s="1">
         <v>-0.192</v>
       </c>
-    </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA61" s="7">
+        <v>42923.385300925926</v>
+      </c>
+      <c r="CB61" s="7">
+        <v>42923.799884259257</v>
+      </c>
+      <c r="CC61" s="4">
+        <v>0.13820711899999999</v>
+      </c>
+      <c r="CD61" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE61" s="1">
+        <v>-0.25950000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -14677,8 +15522,23 @@
       <c r="BW62" s="1">
         <v>-0.2225</v>
       </c>
-    </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA62" s="7">
+        <v>42926.420023148145</v>
+      </c>
+      <c r="CB62" s="7">
+        <v>42926.751620370371</v>
+      </c>
+      <c r="CC62" s="4">
+        <v>2.6266046000000001E-2</v>
+      </c>
+      <c r="CD62" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE62" s="1">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -14826,8 +15686,23 @@
       <c r="BW63" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA63" s="7">
+        <v>42927.58321759259</v>
+      </c>
+      <c r="CB63" s="7">
+        <v>42927.922337962962</v>
+      </c>
+      <c r="CC63" s="4">
+        <v>5.1469864999999997E-2</v>
+      </c>
+      <c r="CD63" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE63" s="1">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -14975,8 +15850,23 @@
       <c r="BW64" s="1">
         <v>-0.25950000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA64" s="7">
+        <v>42930.166550925926</v>
+      </c>
+      <c r="CB64" s="7">
+        <v>42930.895949074074</v>
+      </c>
+      <c r="CC64" s="4">
+        <v>0.20748603700000001</v>
+      </c>
+      <c r="CD64" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE64" s="1">
+        <v>-0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -15124,8 +16014,23 @@
       <c r="BW65" s="1">
         <v>-0.33300000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA65" s="7">
+        <v>42933.992939814816</v>
+      </c>
+      <c r="CB65" s="7">
+        <v>42934.379976851851</v>
+      </c>
+      <c r="CC65" s="10">
+        <v>5.6008408000099999E-2</v>
+      </c>
+      <c r="CD65" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE65" s="1">
+        <v>-0.3085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -15273,8 +16178,23 @@
       <c r="BW66" s="1">
         <v>-0.32800000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA66" s="7">
+        <v>42934.413078703707</v>
+      </c>
+      <c r="CB66" s="7">
+        <v>42934.672453703701</v>
+      </c>
+      <c r="CC66" s="4">
+        <v>-9.6386581999800006E-2</v>
+      </c>
+      <c r="CD66" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE66" s="1">
+        <v>-0.3135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -15422,8 +16342,23 @@
       <c r="BW67" s="1">
         <v>-0.3085</v>
       </c>
-    </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA67" s="7">
+        <v>42934.735995370371</v>
+      </c>
+      <c r="CB67" s="7">
+        <v>42935.917245370372</v>
+      </c>
+      <c r="CC67" s="4">
+        <v>-0.22035126499999999</v>
+      </c>
+      <c r="CD67" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE67">
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -15571,8 +16506,23 @@
       <c r="BW68" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA68" s="7">
+        <v>42936.98946759259</v>
+      </c>
+      <c r="CB68" s="7">
+        <v>42937.167361111111</v>
+      </c>
+      <c r="CC68" s="4">
+        <v>-0.23116463200000001</v>
+      </c>
+      <c r="CD68" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE68" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -15720,8 +16670,23 @@
       <c r="BW69">
         <v>0.90849999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA69" s="7">
+        <v>42937.826273148145</v>
+      </c>
+      <c r="CB69" s="7">
+        <v>42938.042245370372</v>
+      </c>
+      <c r="CC69" s="4">
+        <v>-0.25958147300000001</v>
+      </c>
+      <c r="CD69" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE69">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -15869,8 +16834,23 @@
       <c r="BW70" s="1">
         <v>-0.503</v>
       </c>
-    </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA70" s="7">
+        <v>42941.354050925926</v>
+      </c>
+      <c r="CB70" s="7">
+        <v>42941.472800925927</v>
+      </c>
+      <c r="CC70" s="4">
+        <v>0.18750310000000001</v>
+      </c>
+      <c r="CD70" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE70" s="1">
+        <v>-0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -16018,8 +16998,23 @@
       <c r="BW71">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA71" s="7">
+        <v>42941.850578703707</v>
+      </c>
+      <c r="CB71" s="7">
+        <v>42943.000578703701</v>
+      </c>
+      <c r="CC71" s="4">
+        <v>0.17068459799999999</v>
+      </c>
+      <c r="CD71" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE71">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -16167,8 +17162,23 @@
       <c r="BW72" s="1">
         <v>-0.19750000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA72" s="7">
+        <v>42943.791550925926</v>
+      </c>
+      <c r="CB72" s="7">
+        <v>42943.955208333333</v>
+      </c>
+      <c r="CC72" s="4">
+        <v>8.3630580999999996E-2</v>
+      </c>
+      <c r="CD72" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE72" s="1">
+        <v>-0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -16316,8 +17326,23 @@
       <c r="BW73">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA73" s="7">
+        <v>42948.249884259261</v>
+      </c>
+      <c r="CB73" s="7">
+        <v>42950.250578703701</v>
+      </c>
+      <c r="CC73" s="4">
+        <v>7.3105210000000004E-2</v>
+      </c>
+      <c r="CD73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE73">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -16465,8 +17490,23 @@
       <c r="BW74" s="1">
         <v>-0.30249999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA74" s="7">
+        <v>42950.36446759259</v>
+      </c>
+      <c r="CB74" s="7">
+        <v>42950.434606481482</v>
+      </c>
+      <c r="CC74" s="4">
+        <v>0.25183628600000002</v>
+      </c>
+      <c r="CD74" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE74" s="1">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -16614,8 +17654,23 @@
       <c r="BW75" s="1">
         <v>-0.34549999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA75" s="7">
+        <v>42950.735995370371</v>
+      </c>
+      <c r="CB75" s="7">
+        <v>42950.79074074074</v>
+      </c>
+      <c r="CC75" s="4">
+        <v>0.15410022400000001</v>
+      </c>
+      <c r="CD75" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE75" s="1">
+        <v>-0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -16763,8 +17818,23 @@
       <c r="BW76">
         <v>0.71799999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA76" s="7">
+        <v>42954.888773148145</v>
+      </c>
+      <c r="CB76" s="7">
+        <v>42956.625578703701</v>
+      </c>
+      <c r="CC76" s="4">
+        <v>-2.1193649999900002E-2</v>
+      </c>
+      <c r="CD76" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE76">
+        <v>1.7164999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -16912,8 +17982,23 @@
       <c r="BW77" s="1">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA77" s="7">
+        <v>42957.621412037035</v>
+      </c>
+      <c r="CB77" s="7">
+        <v>42958.500578703701</v>
+      </c>
+      <c r="CC77" s="4">
+        <v>-1.4789236000000001E-2</v>
+      </c>
+      <c r="CD77" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE77">
+        <v>1.2044999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -17061,8 +18146,23 @@
       <c r="BW78" s="1">
         <v>-0.30249999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA78" s="7">
+        <v>42961.541550925926</v>
+      </c>
+      <c r="CB78" s="7">
+        <v>42961.781828703701</v>
+      </c>
+      <c r="CC78" s="4">
+        <v>0.178402753</v>
+      </c>
+      <c r="CD78" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE78" s="1">
+        <v>-0.3075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -17210,8 +18310,23 @@
       <c r="BW79" s="1">
         <v>-0.1825</v>
       </c>
-    </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA79" s="7">
+        <v>42962.374884259261</v>
+      </c>
+      <c r="CB79" s="7">
+        <v>42962.794907407406</v>
+      </c>
+      <c r="CC79" s="4">
+        <v>0.14292184899999999</v>
+      </c>
+      <c r="CD79" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE79" s="1">
+        <v>-0.3075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -17359,8 +18474,23 @@
       <c r="BW80">
         <v>1.5880000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA80" s="7">
+        <v>42963.913078703707</v>
+      </c>
+      <c r="CB80" s="7">
+        <v>42964.833912037036</v>
+      </c>
+      <c r="CC80" s="4">
+        <v>-7.5629537999900007E-2</v>
+      </c>
+      <c r="CD80" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE80">
+        <v>0.82250000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -17508,8 +18638,23 @@
       <c r="BW81">
         <v>1.2044999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA81" s="7">
+        <v>42965.180439814816</v>
+      </c>
+      <c r="CB81" s="7">
+        <v>42965.917245370372</v>
+      </c>
+      <c r="CC81" s="4">
+        <v>-0.390624156</v>
+      </c>
+      <c r="CD81" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE81">
+        <v>0.74750000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -17657,8 +18802,23 @@
       <c r="BW82" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA82" s="7">
+        <v>42968.631828703707</v>
+      </c>
+      <c r="CB82" s="7">
+        <v>42969.37835648148</v>
+      </c>
+      <c r="CC82" s="4">
+        <v>-6.3883208999900007E-2</v>
+      </c>
+      <c r="CD82" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE82" s="1">
+        <v>-0.16350000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -17806,8 +18966,23 @@
       <c r="BW83" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA83" s="7">
+        <v>42969.670023148145</v>
+      </c>
+      <c r="CB83" s="7">
+        <v>42969.687384259261</v>
+      </c>
+      <c r="CC83" s="4">
+        <v>3.4687203000100003E-2</v>
+      </c>
+      <c r="CD83" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE83" s="1">
+        <v>-0.23649999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -17955,8 +19130,23 @@
       <c r="BW84">
         <v>0.82250000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA84" s="7">
+        <v>42971.058912037035</v>
+      </c>
+      <c r="CB84" s="7">
+        <v>42971.090162037035</v>
+      </c>
+      <c r="CC84" s="4">
+        <v>-0.24332651299999999</v>
+      </c>
+      <c r="CD84" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE84" s="1">
+        <v>-0.27750000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -18104,8 +19294,23 @@
       <c r="BW85">
         <v>0.74750000000000005</v>
       </c>
-    </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA85" s="7">
+        <v>42971.944328703707</v>
+      </c>
+      <c r="CB85" s="7">
+        <v>42972.411226851851</v>
+      </c>
+      <c r="CC85" s="4">
+        <v>-1.7482936000000001E-2</v>
+      </c>
+      <c r="CD85" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE85" s="1">
+        <v>-0.3135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -18253,8 +19458,23 @@
       <c r="BW86" s="1">
         <v>-0.16350000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA86" s="7">
+        <v>42972.416550925926</v>
+      </c>
+      <c r="CB86" s="7">
+        <v>42975.250578703701</v>
+      </c>
+      <c r="CC86" s="4">
+        <v>0.22922252000000001</v>
+      </c>
+      <c r="CD86" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE86">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -18402,8 +19622,23 @@
       <c r="BW87" s="1">
         <v>-0.23649999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA87" s="7">
+        <v>42975.256828703707</v>
+      </c>
+      <c r="CB87" s="7">
+        <v>42975.402314814812</v>
+      </c>
+      <c r="CC87" s="4">
+        <v>0.26258566500000002</v>
+      </c>
+      <c r="CD87" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE87" s="1">
+        <v>-0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -18551,8 +19786,23 @@
       <c r="BW88" s="1">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA88" s="7">
+        <v>42975.850578703707</v>
+      </c>
+      <c r="CB88" s="7">
+        <v>42976.280324074076</v>
+      </c>
+      <c r="CC88" s="4">
+        <v>0.15832306400000001</v>
+      </c>
+      <c r="CD88" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE88" s="1">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -18700,8 +19950,23 @@
       <c r="BW89" s="1">
         <v>-0.27750000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA89" s="7">
+        <v>42976.78460648148</v>
+      </c>
+      <c r="CB89" s="7">
+        <v>42976.812615740739</v>
+      </c>
+      <c r="CC89" s="4">
+        <v>6.75875490001E-2</v>
+      </c>
+      <c r="CD89" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE89" s="1">
+        <v>-0.33450000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -18849,8 +20114,23 @@
       <c r="BW90" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA90" s="7">
+        <v>42978.371412037035</v>
+      </c>
+      <c r="CB90" s="7">
+        <v>42978.71770833333</v>
+      </c>
+      <c r="CC90" s="4">
+        <v>0.49163911199999999</v>
+      </c>
+      <c r="CD90" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE90" s="1">
+        <v>-0.313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -18998,8 +20278,23 @@
       <c r="BW91">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA91" s="7">
+        <v>42979.548495370371</v>
+      </c>
+      <c r="CB91" s="7">
+        <v>42979.842245370368</v>
+      </c>
+      <c r="CC91" s="4">
+        <v>-3.04812990001E-2</v>
+      </c>
+      <c r="CD91" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE91" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -19147,8 +20442,23 @@
       <c r="BW92" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA92" s="7">
+        <v>42982.590162037035</v>
+      </c>
+      <c r="CB92" s="7">
+        <v>42983.500578703701</v>
+      </c>
+      <c r="CC92" s="4">
+        <v>-3.21752470001E-2</v>
+      </c>
+      <c r="CD92" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE92">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -19296,8 +20606,23 @@
       <c r="BW93" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA93" s="7">
+        <v>42984.06585648148</v>
+      </c>
+      <c r="CB93" s="7">
+        <v>42984.817708333336</v>
+      </c>
+      <c r="CC93" s="4">
+        <v>-3.7093402000100001E-2</v>
+      </c>
+      <c r="CD93" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE93" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -19445,8 +20770,23 @@
       <c r="BW94" s="1">
         <v>-0.33450000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA94" s="7">
+        <v>42984.822800925926</v>
+      </c>
+      <c r="CB94" s="7">
+        <v>42986.02175925926</v>
+      </c>
+      <c r="CC94" s="4">
+        <v>0.12262993599999999</v>
+      </c>
+      <c r="CD94" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE94" s="1">
+        <v>-0.30449999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -19594,8 +20934,23 @@
       <c r="BW95" s="1">
         <v>-0.313</v>
       </c>
-    </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA95" s="7">
+        <v>42986.586689814816</v>
+      </c>
+      <c r="CB95" s="7">
+        <v>42986.896527777775</v>
+      </c>
+      <c r="CC95" s="4">
+        <v>-0.15161259999999999</v>
+      </c>
+      <c r="CD95" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE95" s="1">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -19743,8 +21098,23 @@
       <c r="BW96" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA96" s="7">
+        <v>42987.183912037035</v>
+      </c>
+      <c r="CB96" s="7">
+        <v>42987.227662037039</v>
+      </c>
+      <c r="CC96" s="4">
+        <v>-5.9722246999900003E-2</v>
+      </c>
+      <c r="CD96" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE96" s="1">
+        <v>-0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -19892,8 +21262,23 @@
       <c r="BW97">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA97" s="7">
+        <v>42989.256828703707</v>
+      </c>
+      <c r="CB97" s="7">
+        <v>42989.833912037036</v>
+      </c>
+      <c r="CC97" s="4">
+        <v>8.1451139000099995E-2</v>
+      </c>
+      <c r="CD97" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE97">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -20041,8 +21426,23 @@
       <c r="BW98" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA98" s="7">
+        <v>42991.982523148145</v>
+      </c>
+      <c r="CB98" s="7">
+        <v>42992.085300925923</v>
+      </c>
+      <c r="CC98" s="4">
+        <v>0.41977864399999998</v>
+      </c>
+      <c r="CD98" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE98" s="1">
+        <v>-0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -20190,8 +21590,23 @@
       <c r="BW99" s="1">
         <v>-0.30449999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA99" s="7">
+        <v>42992.756828703707</v>
+      </c>
+      <c r="CB99" s="7">
+        <v>42992.833680555559</v>
+      </c>
+      <c r="CC99" s="4">
+        <v>-0.191478224</v>
+      </c>
+      <c r="CD99" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE99" s="1">
+        <v>-0.67049999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -20339,8 +21754,23 @@
       <c r="BW100" s="1">
         <v>-0.308</v>
       </c>
-    </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA100" s="7">
+        <v>42998.37835648148</v>
+      </c>
+      <c r="CB100" s="7">
+        <v>42998.572106481479</v>
+      </c>
+      <c r="CC100" s="4">
+        <v>0.123733406</v>
+      </c>
+      <c r="CD100" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE100" s="1">
+        <v>-0.2495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -20488,8 +21918,23 @@
       <c r="BW101" s="1">
         <v>-0.17150000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA101" s="7">
+        <v>42999.30196759259</v>
+      </c>
+      <c r="CB101" s="7">
+        <v>43000.042245370372</v>
+      </c>
+      <c r="CC101" s="4">
+        <v>0.27434756999999999</v>
+      </c>
+      <c r="CD101" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE101">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -20637,8 +22082,23 @@
       <c r="BW102">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA102" s="7">
+        <v>43003.711689814816</v>
+      </c>
+      <c r="CB102" s="7">
+        <v>43004.000578703701</v>
+      </c>
+      <c r="CC102" s="4">
+        <v>-5.1769245999999998E-2</v>
+      </c>
+      <c r="CD102" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE102">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -20786,8 +22246,23 @@
       <c r="BW103" s="1">
         <v>-0.46450000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA103" s="7">
+        <v>43004.006828703707</v>
+      </c>
+      <c r="CB103" s="7">
+        <v>43004.833912037036</v>
+      </c>
+      <c r="CC103" s="4">
+        <v>-0.14179766799999999</v>
+      </c>
+      <c r="CD103" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE103">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -20935,8 +22410,23 @@
       <c r="BW104" s="1">
         <v>-0.67049999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA104" s="7">
+        <v>43005.388773148145</v>
+      </c>
+      <c r="CB104" s="7">
+        <v>43005.526967592596</v>
+      </c>
+      <c r="CC104" s="4">
+        <v>0.27330453799999999</v>
+      </c>
+      <c r="CD104" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE104" s="1">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -21084,8 +22574,23 @@
       <c r="BW105" s="1">
         <v>-0.2495</v>
       </c>
-    </row>
-    <row r="106" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA105" s="7">
+        <v>43005.73946759259</v>
+      </c>
+      <c r="CB105" s="7">
+        <v>43005.99490740741</v>
+      </c>
+      <c r="CC105" s="4">
+        <v>0.13377551900000001</v>
+      </c>
+      <c r="CD105" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE105" s="1">
+        <v>-0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -21233,8 +22738,23 @@
       <c r="BW106">
         <v>0.76700000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA106" s="7">
+        <v>43006.416550925926</v>
+      </c>
+      <c r="CB106" s="7">
+        <v>43006.430439814816</v>
+      </c>
+      <c r="CC106" s="4">
+        <v>8.3797494000100003E-2</v>
+      </c>
+      <c r="CD106" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE106" s="1">
+        <v>-0.2195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -21382,8 +22902,23 @@
       <c r="BW107">
         <v>0.92300000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA107" s="7">
+        <v>43006.538078703707</v>
+      </c>
+      <c r="CB107" s="7">
+        <v>43006.675578703704</v>
+      </c>
+      <c r="CC107" s="4">
+        <v>4.6715054999999998E-2</v>
+      </c>
+      <c r="CD107" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE107" s="1">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -21531,8 +23066,23 @@
       <c r="BW108">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA108" s="7">
+        <v>43006.999884259261</v>
+      </c>
+      <c r="CB108" s="7">
+        <v>43007.071759259263</v>
+      </c>
+      <c r="CC108" s="4">
+        <v>6.2497022999999999E-2</v>
+      </c>
+      <c r="CD108" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE108" s="1">
+        <v>-0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -21680,8 +23230,23 @@
       <c r="BW109" s="1">
         <v>-0.20599999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA109" s="7">
+        <v>43007.673495370371</v>
+      </c>
+      <c r="CB109" s="7">
+        <v>43010.750578703701</v>
+      </c>
+      <c r="CC109" s="4">
+        <v>-2.3233284E-2</v>
+      </c>
+      <c r="CD109" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE109">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -21829,8 +23394,23 @@
       <c r="BW110" s="1">
         <v>-0.33400000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA110" s="7">
+        <v>43010.892245370371</v>
+      </c>
+      <c r="CB110" s="7">
+        <v>43011.507986111108</v>
+      </c>
+      <c r="CC110" s="4">
+        <v>-0.31791976599999999</v>
+      </c>
+      <c r="CD110" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE110" s="1">
+        <v>-0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -21978,8 +23558,23 @@
       <c r="BW111" s="1">
         <v>-0.2195</v>
       </c>
-    </row>
-    <row r="112" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA111" s="7">
+        <v>43011.888773148145</v>
+      </c>
+      <c r="CB111" s="7">
+        <v>43013.054629629631</v>
+      </c>
+      <c r="CC111" s="4">
+        <v>-0.34276733599999998</v>
+      </c>
+      <c r="CD111" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE111" s="1">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -22127,8 +23722,23 @@
       <c r="BW112" s="1">
         <v>-0.22500000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA112" s="7">
+        <v>43013.09710648148</v>
+      </c>
+      <c r="CB112" s="7">
+        <v>43014.208912037036</v>
+      </c>
+      <c r="CC112" s="4">
+        <v>-3.3161482999900002E-2</v>
+      </c>
+      <c r="CD112" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE112">
+        <v>1.5235000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -22276,8 +23886,23 @@
       <c r="BW113" s="1">
         <v>-0.32800000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA113" s="7">
+        <v>43014.992939814816</v>
+      </c>
+      <c r="CB113" s="7">
+        <v>43017.684259259258</v>
+      </c>
+      <c r="CC113" s="4">
+        <v>-0.37847254600000002</v>
+      </c>
+      <c r="CD113" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE113" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -22425,8 +24050,23 @@
       <c r="BW114">
         <v>0.77649999999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA114" s="7">
+        <v>43019.433912037035</v>
+      </c>
+      <c r="CB114" s="7">
+        <v>43019.61550925926</v>
+      </c>
+      <c r="CC114" s="4">
+        <v>0.102575472</v>
+      </c>
+      <c r="CD114" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE114" s="1">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -22574,8 +24214,23 @@
       <c r="BW115" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA115" s="7">
+        <v>43020.367939814816</v>
+      </c>
+      <c r="CB115" s="7">
+        <v>43020.653356481482</v>
+      </c>
+      <c r="CC115" s="4">
+        <v>0.17873546600000001</v>
+      </c>
+      <c r="CD115" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE115" s="1">
+        <v>-0.15049999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -22723,8 +24378,23 @@
       <c r="BW116" s="1">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="117" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA116" s="7">
+        <v>43024.610995370371</v>
+      </c>
+      <c r="CB116" s="7">
+        <v>43025.709606481483</v>
+      </c>
+      <c r="CC116" s="4">
+        <v>-3.1502901999900003E-2</v>
+      </c>
+      <c r="CD116" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE116" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -22872,8 +24542,23 @@
       <c r="BW117">
         <v>1.5235000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA117" s="7">
+        <v>43032.95821759259</v>
+      </c>
+      <c r="CB117" s="7">
+        <v>43033.730787037035</v>
+      </c>
+      <c r="CC117" s="4">
+        <v>-7.9964732999999996E-2</v>
+      </c>
+      <c r="CD117" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE117" s="1">
+        <v>-0.307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -23021,8 +24706,23 @@
       <c r="BW118" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA118" s="7">
+        <v>43035.704745370371</v>
+      </c>
+      <c r="CB118" s="7">
+        <v>43038.714004629626</v>
+      </c>
+      <c r="CC118" s="4">
+        <v>-0.30662522199999998</v>
+      </c>
+      <c r="CD118" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE118" s="1">
+        <v>-0.30549999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -23170,8 +24870,23 @@
       <c r="BW119" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA119" s="7">
+        <v>43039.916550925926</v>
+      </c>
+      <c r="CB119" s="7">
+        <v>43040.542245370372</v>
+      </c>
+      <c r="CC119" s="4">
+        <v>9.7771578000100001E-2</v>
+      </c>
+      <c r="CD119" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE119">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -23319,8 +25034,23 @@
       <c r="BW120" s="1">
         <v>-0.3115</v>
       </c>
-    </row>
-    <row r="121" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA120" s="7">
+        <v>43041.360995370371</v>
+      </c>
+      <c r="CB120" s="7">
+        <v>43041.696412037039</v>
+      </c>
+      <c r="CC120" s="4">
+        <v>0.152114112</v>
+      </c>
+      <c r="CD120" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE120" s="1">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -23468,8 +25198,23 @@
       <c r="BW121" s="1">
         <v>-0.15049999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA121" s="7">
+        <v>43041.881828703707</v>
+      </c>
+      <c r="CB121" s="7">
+        <v>43042.417245370372</v>
+      </c>
+      <c r="CC121" s="4">
+        <v>-6.9402652999999995E-2</v>
+      </c>
+      <c r="CD121" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE121">
+        <v>1.1665000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -23617,8 +25362,23 @@
       <c r="BW122" s="1">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="123" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA122" s="7">
+        <v>43045.343634259261</v>
+      </c>
+      <c r="CB122" s="7">
+        <v>43046.542245370372</v>
+      </c>
+      <c r="CC122" s="4">
+        <v>5.1260614000000003E-2</v>
+      </c>
+      <c r="CD122" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE122">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -23766,8 +25526,23 @@
       <c r="BW123" s="1">
         <v>-0.318</v>
       </c>
-    </row>
-    <row r="124" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA123" s="7">
+        <v>43047.701273148145</v>
+      </c>
+      <c r="CB123" s="7">
+        <v>43048.792245370372</v>
+      </c>
+      <c r="CC123" s="4">
+        <v>-1.18817950002E-2</v>
+      </c>
+      <c r="CD123" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE123">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="124" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -23915,8 +25690,23 @@
       <c r="BW124" s="1">
         <v>-0.307</v>
       </c>
-    </row>
-    <row r="125" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA124" s="7">
+        <v>43049.67696759259</v>
+      </c>
+      <c r="CB124" s="7">
+        <v>43049.712037037039</v>
+      </c>
+      <c r="CC124" s="4">
+        <v>-0.119067162</v>
+      </c>
+      <c r="CD124" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE124" s="1">
+        <v>-0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -24064,8 +25854,23 @@
       <c r="BW125" s="1">
         <v>-0.30549999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA125" s="7">
+        <v>43053.652662037035</v>
+      </c>
+      <c r="CB125" s="7">
+        <v>43053.716435185182</v>
+      </c>
+      <c r="CC125" s="4">
+        <v>-8.9235640000000005E-2</v>
+      </c>
+      <c r="CD125" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE125" s="1">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -24213,8 +26018,23 @@
       <c r="BW126">
         <v>1.4590000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA126" s="7">
+        <v>43054.038078703707</v>
+      </c>
+      <c r="CB126" s="7">
+        <v>43054.462384259263</v>
+      </c>
+      <c r="CC126" s="4">
+        <v>0.15177185100000001</v>
+      </c>
+      <c r="CD126" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE126" s="1">
+        <v>-0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -24362,8 +26182,23 @@
       <c r="BW127" s="1">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="128" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA127" s="7">
+        <v>43054.78460648148</v>
+      </c>
+      <c r="CB127" s="7">
+        <v>43054.79965277778</v>
+      </c>
+      <c r="CC127" s="4">
+        <v>-9.7577156000100002E-2</v>
+      </c>
+      <c r="CD127" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE127" s="1">
+        <v>-0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -24511,8 +26346,23 @@
       <c r="BW128">
         <v>1.1665000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA128" s="7">
+        <v>43055.149189814816</v>
+      </c>
+      <c r="CB128" s="7">
+        <v>43055.774189814816</v>
+      </c>
+      <c r="CC128" s="4">
+        <v>-4.0468028999800003E-2</v>
+      </c>
+      <c r="CD128" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE128" s="1">
+        <v>-0.23649999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -24660,8 +26510,23 @@
       <c r="BW129">
         <v>0.72699999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA129" s="7">
+        <v>43055.78460648148</v>
+      </c>
+      <c r="CB129" s="7">
+        <v>43055.984143518515</v>
+      </c>
+      <c r="CC129" s="4">
+        <v>6.3422272000000002E-2</v>
+      </c>
+      <c r="CD129" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE129" s="1">
+        <v>-0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -24809,8 +26674,23 @@
       <c r="BW130" s="1">
         <v>-0.121</v>
       </c>
-    </row>
-    <row r="131" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA130" s="7">
+        <v>43056.635300925926</v>
+      </c>
+      <c r="CB130" s="7">
+        <v>43056.831828703704</v>
+      </c>
+      <c r="CC130" s="4">
+        <v>7.6343204999999997E-2</v>
+      </c>
+      <c r="CD130" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE130" s="1">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -24958,8 +26838,23 @@
       <c r="BW131">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA131" s="7">
+        <v>43056.954745370371</v>
+      </c>
+      <c r="CB131" s="7">
+        <v>43059.738888888889</v>
+      </c>
+      <c r="CC131" s="4">
+        <v>-2.3630729999999999E-2</v>
+      </c>
+      <c r="CD131" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE131" s="1">
+        <v>-0.32350000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -25107,8 +27002,23 @@
       <c r="BW132" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA132" s="7">
+        <v>43060.89571759259</v>
+      </c>
+      <c r="CB132" s="7">
+        <v>43060.966319444444</v>
+      </c>
+      <c r="CC132" s="4">
+        <v>0.32859255900000001</v>
+      </c>
+      <c r="CD132" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE132" s="1">
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -25256,8 +27166,23 @@
       <c r="BW133" s="1">
         <v>-0.33750000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA133" s="7">
+        <v>43061.562384259261</v>
+      </c>
+      <c r="CB133" s="7">
+        <v>43062.750578703701</v>
+      </c>
+      <c r="CC133" s="4">
+        <v>-9.9835590000000002E-2</v>
+      </c>
+      <c r="CD133" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE133">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -25405,8 +27330,23 @@
       <c r="BW134" s="1">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="135" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA134" s="7">
+        <v>43063.97210648148</v>
+      </c>
+      <c r="CB134" s="7">
+        <v>43066.446643518517</v>
+      </c>
+      <c r="CC134" s="4">
+        <v>0.126789185</v>
+      </c>
+      <c r="CD134" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE134" s="1">
+        <v>-0.30049999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -25554,8 +27494,23 @@
       <c r="BW135" s="1">
         <v>-0.32200000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA135" s="7">
+        <v>43066.75335648148</v>
+      </c>
+      <c r="CB135" s="7">
+        <v>43066.907060185185</v>
+      </c>
+      <c r="CC135" s="4">
+        <v>9.4940278999899999E-2</v>
+      </c>
+      <c r="CD135" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE135" s="1">
+        <v>-0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -25703,8 +27658,23 @@
       <c r="BW136" s="1">
         <v>-0.32400000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA136" s="7">
+        <v>43067.913078703707</v>
+      </c>
+      <c r="CB136" s="7">
+        <v>43068.116435185184</v>
+      </c>
+      <c r="CC136" s="4">
+        <v>-9.7812899000200001E-2</v>
+      </c>
+      <c r="CD136" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE136" s="1">
+        <v>-0.30049999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -25852,8 +27822,23 @@
       <c r="BW137" s="1">
         <v>-0.23649999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA137" s="7">
+        <v>43075.33321759259</v>
+      </c>
+      <c r="CB137" s="7">
+        <v>43076.125578703701</v>
+      </c>
+      <c r="CC137" s="4">
+        <v>-0.271538591</v>
+      </c>
+      <c r="CD137" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE137">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -26001,8 +27986,23 @@
       <c r="BW138" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA138" s="7">
+        <v>43076.541550925926</v>
+      </c>
+      <c r="CB138" s="7">
+        <v>43076.653356481482</v>
+      </c>
+      <c r="CC138" s="4">
+        <v>-0.32632807600000002</v>
+      </c>
+      <c r="CD138" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE138" s="1">
+        <v>-0.1585</v>
+      </c>
+    </row>
+    <row r="139" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -26150,8 +28150,23 @@
       <c r="BW139" s="1">
         <v>-0.22500000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA139" s="7">
+        <v>43077.00335648148</v>
+      </c>
+      <c r="CB139" s="7">
+        <v>43077.667245370372</v>
+      </c>
+      <c r="CC139" s="4">
+        <v>0.178673463</v>
+      </c>
+      <c r="CD139" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE139">
+        <v>1.6065</v>
+      </c>
+    </row>
+    <row r="140" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -26299,8 +28314,23 @@
       <c r="BW140" s="1">
         <v>-0.32350000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA140" s="7">
+        <v>43081.666550925926</v>
+      </c>
+      <c r="CB140" s="7">
+        <v>43081.718634259261</v>
+      </c>
+      <c r="CC140" s="4">
+        <v>-0.25337462700000002</v>
+      </c>
+      <c r="CD140" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE140" s="1">
+        <v>-0.222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -26448,8 +28478,23 @@
       <c r="BW141" s="1">
         <v>-0.30299999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA141" s="7">
+        <v>43082.104050925926</v>
+      </c>
+      <c r="CB141" s="7">
+        <v>43082.765277777777</v>
+      </c>
+      <c r="CC141" s="4">
+        <v>-5.0172396000099997E-2</v>
+      </c>
+      <c r="CD141" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE141" s="1">
+        <v>-0.3115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -26597,8 +28642,23 @@
       <c r="BW142">
         <v>0.73699999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA142" s="7">
+        <v>43082.933912037035</v>
+      </c>
+      <c r="CB142" s="7">
+        <v>43083.024768518517</v>
+      </c>
+      <c r="CC142" s="4">
+        <v>-2.63481640001E-2</v>
+      </c>
+      <c r="CD142" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE142" s="1">
+        <v>-0.312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -26746,8 +28806,23 @@
       <c r="BW143" s="1">
         <v>-0.2145</v>
       </c>
-    </row>
-    <row r="144" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA143" s="7">
+        <v>43084.12835648148</v>
+      </c>
+      <c r="CB143" s="7">
+        <v>43085.083912037036</v>
+      </c>
+      <c r="CC143" s="4">
+        <v>-5.7339732000100001E-2</v>
+      </c>
+      <c r="CD143" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE143">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -26895,8 +28970,23 @@
       <c r="BW144" s="1">
         <v>-0.30049999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA144" s="7">
+        <v>43088.541550925926</v>
+      </c>
+      <c r="CB144" s="7">
+        <v>43088.799189814818</v>
+      </c>
+      <c r="CC144" s="4">
+        <v>0.195929093</v>
+      </c>
+      <c r="CD144" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE144" s="1">
+        <v>-0.2185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -27044,8 +29134,23 @@
       <c r="BW145">
         <v>0.96950000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA145" s="7">
+        <v>43089.024189814816</v>
+      </c>
+      <c r="CB145" s="7">
+        <v>43089.055671296293</v>
+      </c>
+      <c r="CC145" s="4">
+        <v>6.2715426000000005E-2</v>
+      </c>
+      <c r="CD145" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE145" s="1">
+        <v>-0.3135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -27193,8 +29298,23 @@
       <c r="BW146" s="1">
         <v>-0.1585</v>
       </c>
-    </row>
-    <row r="147" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA146" s="7">
+        <v>43089.12835648148</v>
+      </c>
+      <c r="CB146" s="7">
+        <v>43089.958912037036</v>
+      </c>
+      <c r="CC146" s="4">
+        <v>0.13427323999999999</v>
+      </c>
+      <c r="CD146" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE146">
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -27342,8 +29462,23 @@
       <c r="BW147">
         <v>1.6065</v>
       </c>
-    </row>
-    <row r="148" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA147" s="7">
+        <v>43090.496412037035</v>
+      </c>
+      <c r="CB147" s="7">
+        <v>43090.970023148147</v>
+      </c>
+      <c r="CC147" s="4">
+        <v>0.125552208</v>
+      </c>
+      <c r="CD147" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE147" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -27491,8 +29626,23 @@
       <c r="BW148" s="1">
         <v>-0.222</v>
       </c>
-    </row>
-    <row r="149" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA148" s="7">
+        <v>43091.652662037035</v>
+      </c>
+      <c r="CB148" s="7">
+        <v>43091.733912037038</v>
+      </c>
+      <c r="CC148" s="4">
+        <v>3.5891764999999999E-2</v>
+      </c>
+      <c r="CD148" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE148" s="1">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -27640,8 +29790,23 @@
       <c r="BW149" s="1">
         <v>-0.3115</v>
       </c>
-    </row>
-    <row r="150" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA149" s="7">
+        <v>43095.642245370371</v>
+      </c>
+      <c r="CB149" s="7">
+        <v>43095.742245370369</v>
+      </c>
+      <c r="CC149" s="4">
+        <v>5.02640120001E-2</v>
+      </c>
+      <c r="CD149" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE149" s="1">
+        <v>-5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -27789,8 +29954,23 @@
       <c r="BW150" s="1">
         <v>-0.312</v>
       </c>
-    </row>
-    <row r="151" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA150" s="7">
+        <v>43096.40960648148</v>
+      </c>
+      <c r="CB150" s="7">
+        <v>43102.375578703701</v>
+      </c>
+      <c r="CC150" s="4">
+        <v>1.1350967E-2</v>
+      </c>
+      <c r="CD150" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE150">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="151" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -27938,8 +30118,23 @@
       <c r="BW151">
         <v>0.9345</v>
       </c>
-    </row>
-    <row r="152" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA151" s="7">
+        <v>43102.673495370371</v>
+      </c>
+      <c r="CB151" s="7">
+        <v>43102.747106481482</v>
+      </c>
+      <c r="CC151" s="4">
+        <v>0.22818050500000001</v>
+      </c>
+      <c r="CD151" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE151" s="1">
+        <v>-0.16550000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -28087,8 +30282,23 @@
       <c r="BW152" s="1">
         <v>-0.2185</v>
       </c>
-    </row>
-    <row r="153" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA152" s="7">
+        <v>43103.048495370371</v>
+      </c>
+      <c r="CB152" s="7">
+        <v>43103.988657407404</v>
+      </c>
+      <c r="CC152" s="4">
+        <v>3.5694146000000003E-2</v>
+      </c>
+      <c r="CD152" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE152" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -28236,8 +30446,23 @@
       <c r="BW153" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="154" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA153" s="7">
+        <v>43103.992939814816</v>
+      </c>
+      <c r="CB153" s="7">
+        <v>43104.379629629628</v>
+      </c>
+      <c r="CC153" s="4">
+        <v>-3.2723808E-2</v>
+      </c>
+      <c r="CD153" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE153" s="1">
+        <v>-0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -28385,8 +30610,23 @@
       <c r="BW154">
         <v>0.73250000000000004</v>
       </c>
-    </row>
-    <row r="155" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA154" s="7">
+        <v>43104.64571759259</v>
+      </c>
+      <c r="CB154" s="7">
+        <v>43104.720023148147</v>
+      </c>
+      <c r="CC154" s="4">
+        <v>-0.118077976</v>
+      </c>
+      <c r="CD154" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE154" s="1">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -28534,8 +30774,23 @@
       <c r="BW155" s="1">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA155" s="7">
+        <v>43105.340162037035</v>
+      </c>
+      <c r="CB155" s="7">
+        <v>43108.333912037036</v>
+      </c>
+      <c r="CC155" s="4">
+        <v>0.32977269300000001</v>
+      </c>
+      <c r="CD155" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE155">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -28683,8 +30938,23 @@
       <c r="BW156" s="1">
         <v>-0.155</v>
       </c>
-    </row>
-    <row r="157" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA156" s="7">
+        <v>43108.340162037035</v>
+      </c>
+      <c r="CB156" s="7">
+        <v>43108.753009259257</v>
+      </c>
+      <c r="CC156" s="4">
+        <v>0.23872338700000001</v>
+      </c>
+      <c r="CD156" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE156" s="1">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -28832,8 +31102,23 @@
       <c r="BW157" s="1">
         <v>-5.0500000000000003E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA157" s="7">
+        <v>43108.937384259261</v>
+      </c>
+      <c r="CB157" s="7">
+        <v>43109.032638888886</v>
+      </c>
+      <c r="CC157" s="4">
+        <v>-5.8971280000000001E-2</v>
+      </c>
+      <c r="CD157" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE157" s="1">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -28981,8 +31266,23 @@
       <c r="BW158">
         <v>0.879</v>
       </c>
-    </row>
-    <row r="159" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA158" s="7">
+        <v>43109.433912037035</v>
+      </c>
+      <c r="CB158" s="7">
+        <v>43110.250578703701</v>
+      </c>
+      <c r="CC158" s="4">
+        <v>-1.0382117999899999E-2</v>
+      </c>
+      <c r="CD158" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE158">
+        <v>0.90449999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -29130,8 +31430,23 @@
       <c r="BW159" s="1">
         <v>-0.16550000000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA159" s="7">
+        <v>43110.656134259261</v>
+      </c>
+      <c r="CB159" s="7">
+        <v>43111.083912037036</v>
+      </c>
+      <c r="CC159" s="4">
+        <v>-0.52872154199999999</v>
+      </c>
+      <c r="CD159" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE159">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="160" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -29279,8 +31594,23 @@
       <c r="BW160" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA160" s="7">
+        <v>43111.871412037035</v>
+      </c>
+      <c r="CB160" s="7">
+        <v>43111.911458333336</v>
+      </c>
+      <c r="CC160" s="4">
+        <v>-0.45718735100000002</v>
+      </c>
+      <c r="CD160" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE160" s="1">
+        <v>-0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>313</v>
       </c>
@@ -29428,8 +31758,23 @@
       <c r="BW161" s="1">
         <v>-0.30249999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA161" s="7">
+        <v>43112.749884259261</v>
+      </c>
+      <c r="CB161" s="7">
+        <v>43115.417245370372</v>
+      </c>
+      <c r="CC161" s="4">
+        <v>1.23983939999E-2</v>
+      </c>
+      <c r="CD161" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE161">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -29577,8 +31922,23 @@
       <c r="BW162" s="1">
         <v>-0.156</v>
       </c>
-    </row>
-    <row r="163" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA162" s="7">
+        <v>43116.374884259261</v>
+      </c>
+      <c r="CB162" s="7">
+        <v>43116.747106481482</v>
+      </c>
+      <c r="CC162" s="4">
+        <v>5.9247016999999999E-2</v>
+      </c>
+      <c r="CD162" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE162" s="1">
+        <v>-0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -29726,8 +32086,23 @@
       <c r="BW163">
         <v>0.70899999999999996</v>
       </c>
-    </row>
-    <row r="164" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA163" s="7">
+        <v>43117.916550925926</v>
+      </c>
+      <c r="CB163" s="7">
+        <v>43117.963078703702</v>
+      </c>
+      <c r="CC163" s="4">
+        <v>-5.94393069999E-2</v>
+      </c>
+      <c r="CD163" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE163" s="1">
+        <v>-0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -29875,8 +32250,23 @@
       <c r="BW164" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA164" s="7">
+        <v>43118.041550925926</v>
+      </c>
+      <c r="CB164" s="7">
+        <v>43118.583912037036</v>
+      </c>
+      <c r="CC164" s="4">
+        <v>7.8175912000100004E-2</v>
+      </c>
+      <c r="CD164" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE164">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -30024,8 +32414,23 @@
       <c r="BW165" s="1">
         <v>-0.314</v>
       </c>
-    </row>
-    <row r="166" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA165" s="7">
+        <v>43125.03460648148</v>
+      </c>
+      <c r="CB165" s="7">
+        <v>43125.039814814816</v>
+      </c>
+      <c r="CC165" s="4">
+        <v>0.12943041199999999</v>
+      </c>
+      <c r="CD165" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE165" s="1">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -30173,8 +32578,23 @@
       <c r="BW166">
         <v>0.90449999999999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA166" s="7">
+        <v>43126.975578703707</v>
+      </c>
+      <c r="CB166" s="7">
+        <v>43129.625578703701</v>
+      </c>
+      <c r="CC166" s="4">
+        <v>-1.3213870000100001E-2</v>
+      </c>
+      <c r="CD166" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE166">
+        <v>1.2665</v>
+      </c>
+    </row>
+    <row r="167" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -30322,8 +32742,23 @@
       <c r="BW167">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="168" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA167" s="7">
+        <v>43130.392245370371</v>
+      </c>
+      <c r="CB167" s="7">
+        <v>43130.872800925928</v>
+      </c>
+      <c r="CC167" s="4">
+        <v>-0.17714186600000001</v>
+      </c>
+      <c r="CD167" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE167" s="1">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>327</v>
       </c>
@@ -30471,8 +32906,23 @@
       <c r="BW168" s="1">
         <v>-0.28100000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA168" s="7">
+        <v>43132.024189814816</v>
+      </c>
+      <c r="CB168" s="7">
+        <v>43132.458912037036</v>
+      </c>
+      <c r="CC168" s="4">
+        <v>0.49275670100000002</v>
+      </c>
+      <c r="CD168" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE168">
+        <v>0.71950000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>329</v>
       </c>
@@ -30620,8 +33070,23 @@
       <c r="BW169" s="1">
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA169" s="7">
+        <v>43136.340162037035</v>
+      </c>
+      <c r="CB169" s="7">
+        <v>43136.875578703701</v>
+      </c>
+      <c r="CC169" s="4">
+        <v>-9.9855014999900002E-2</v>
+      </c>
+      <c r="CD169" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE169">
+        <v>1.0455000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>331</v>
       </c>
@@ -30769,8 +33234,23 @@
       <c r="BW170">
         <v>1.069</v>
       </c>
-    </row>
-    <row r="171" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA170" s="7">
+        <v>43139.711689814816</v>
+      </c>
+      <c r="CB170" s="7">
+        <v>43139.832060185188</v>
+      </c>
+      <c r="CC170" s="4">
+        <v>-0.14879546099999999</v>
+      </c>
+      <c r="CD170" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE170" s="1">
+        <v>-0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -30918,8 +33398,23 @@
       <c r="BW171" s="1">
         <v>-0.19600000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA171" s="7">
+        <v>43144.343634259261</v>
+      </c>
+      <c r="CB171" s="7">
+        <v>43144.552546296298</v>
+      </c>
+      <c r="CC171" s="4">
+        <v>0.22625715299999999</v>
+      </c>
+      <c r="CD171" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE171" s="1">
+        <v>-0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>335</v>
       </c>
@@ -31067,8 +33562,23 @@
       <c r="BW172" s="1">
         <v>-0.27800000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA172" s="7">
+        <v>43144.673495370371</v>
+      </c>
+      <c r="CB172" s="7">
+        <v>43145.542245370372</v>
+      </c>
+      <c r="CC172" s="4">
+        <v>-6.7119260000100003E-2</v>
+      </c>
+      <c r="CD172" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE172">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -31216,8 +33726,23 @@
       <c r="BW173">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="174" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA173" s="7">
+        <v>43145.944328703707</v>
+      </c>
+      <c r="CB173" s="7">
+        <v>43145.994675925926</v>
+      </c>
+      <c r="CC173" s="4">
+        <v>-0.26500374900000001</v>
+      </c>
+      <c r="CD173" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE173" s="1">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>339</v>
       </c>
@@ -31365,8 +33890,23 @@
       <c r="BW174" s="1">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA174" s="7">
+        <v>43147.402662037035</v>
+      </c>
+      <c r="CB174" s="7">
+        <v>43147.545486111114</v>
+      </c>
+      <c r="CC174" s="4">
+        <v>2.0684757999900001E-2</v>
+      </c>
+      <c r="CD174" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE174" s="1">
+        <v>-0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>341</v>
       </c>
@@ -31514,8 +34054,23 @@
       <c r="BW175">
         <v>1.2665</v>
       </c>
-    </row>
-    <row r="176" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA175" s="7">
+        <v>43150.888773148145</v>
+      </c>
+      <c r="CB175" s="7">
+        <v>43151.742939814816</v>
+      </c>
+      <c r="CC175" s="4">
+        <v>-4.3578815999999999E-2</v>
+      </c>
+      <c r="CD175" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE175" s="1">
+        <v>-0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>343</v>
       </c>
@@ -31663,8 +34218,23 @@
       <c r="BW176" s="1">
         <v>-0.17799999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA176" s="7">
+        <v>43151.78460648148</v>
+      </c>
+      <c r="CB176" s="7">
+        <v>43151.795949074076</v>
+      </c>
+      <c r="CC176" s="4">
+        <v>3.9609184999999998E-2</v>
+      </c>
+      <c r="CD176" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE176" s="1">
+        <v>-0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>345</v>
       </c>
@@ -31812,8 +34382,23 @@
       <c r="BW177">
         <v>0.71950000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA177" s="7">
+        <v>43154.715162037035</v>
+      </c>
+      <c r="CB177" s="7">
+        <v>43154.732638888891</v>
+      </c>
+      <c r="CC177" s="4">
+        <v>-5.68961699999E-2</v>
+      </c>
+      <c r="CD177" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE177" s="1">
+        <v>-0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -31961,8 +34546,23 @@
       <c r="BW178">
         <v>1.0455000000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA178" s="7">
+        <v>43154.843634259261</v>
+      </c>
+      <c r="CB178" s="7">
+        <v>43154.873148148145</v>
+      </c>
+      <c r="CC178" s="4">
+        <v>-2.4714281000100001E-2</v>
+      </c>
+      <c r="CD178" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE178" s="1">
+        <v>-0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>349</v>
       </c>
@@ -32110,8 +34710,23 @@
       <c r="BW179" s="1">
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA179" s="7">
+        <v>43155.20821759259</v>
+      </c>
+      <c r="CB179" s="7">
+        <v>43159.625231481485</v>
+      </c>
+      <c r="CC179" s="4">
+        <v>6.1503944000100001E-2</v>
+      </c>
+      <c r="CD179" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE179" s="1">
+        <v>-0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>351</v>
       </c>
@@ -32259,8 +34874,23 @@
       <c r="BW180" s="1">
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="181" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA180" s="7">
+        <v>43159.635300925926</v>
+      </c>
+      <c r="CB180" s="7">
+        <v>43159.780324074076</v>
+      </c>
+      <c r="CC180" s="4">
+        <v>-0.13766647800000001</v>
+      </c>
+      <c r="CD180" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE180" s="1">
+        <v>-0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -32408,8 +35038,23 @@
       <c r="BW181">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA181" s="7">
+        <v>43159.867939814816</v>
+      </c>
+      <c r="CB181" s="7">
+        <v>43160.417245370372</v>
+      </c>
+      <c r="CC181" s="4">
+        <v>-0.154670695</v>
+      </c>
+      <c r="CD181" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE181">
+        <v>1.4924999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -32557,8 +35202,23 @@
       <c r="BW182" s="1">
         <v>-0.29599999999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA182" s="7">
+        <v>43161.329745370371</v>
+      </c>
+      <c r="CB182" s="7">
+        <v>43162.083912037036</v>
+      </c>
+      <c r="CC182" s="4">
+        <v>-0.37387316599999998</v>
+      </c>
+      <c r="CD182" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE182">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -32706,8 +35366,23 @@
       <c r="BW183" s="1">
         <v>-0.29199999999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA183" s="7">
+        <v>43164.67696759259</v>
+      </c>
+      <c r="CB183" s="7">
+        <v>43164.737268518518</v>
+      </c>
+      <c r="CC183" s="4">
+        <v>-0.25069322500000002</v>
+      </c>
+      <c r="CD183" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE183" s="1">
+        <v>-0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -32855,8 +35530,23 @@
       <c r="BW184" s="1">
         <v>-0.22800000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA184" s="7">
+        <v>43164.985995370371</v>
+      </c>
+      <c r="CB184" s="7">
+        <v>43165.625578703701</v>
+      </c>
+      <c r="CC184" s="4">
+        <v>7.4583244000099996E-2</v>
+      </c>
+      <c r="CD184" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE184">
+        <v>0.87350000000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -33004,8 +35694,23 @@
       <c r="BW185" s="1">
         <v>-0.28699999999999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA185" s="7">
+        <v>43171.881828703707</v>
+      </c>
+      <c r="CB185" s="7">
+        <v>43173.167245370372</v>
+      </c>
+      <c r="CC185" s="4">
+        <v>0.132406886</v>
+      </c>
+      <c r="CD185" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE185">
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -33153,8 +35858,23 @@
       <c r="BW186" s="1">
         <v>-0.28199999999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA186" s="7">
+        <v>43174.367939814816</v>
+      </c>
+      <c r="CB186" s="7">
+        <v>43174.833912037036</v>
+      </c>
+      <c r="CC186" s="4">
+        <v>-0.21680685</v>
+      </c>
+      <c r="CD186" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE186">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="187" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>365</v>
       </c>
@@ -33302,8 +36022,23 @@
       <c r="BW187" s="1">
         <v>-0.29399999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA187" s="7">
+        <v>43175.381828703707</v>
+      </c>
+      <c r="CB187" s="7">
+        <v>43178.583912037036</v>
+      </c>
+      <c r="CC187" s="4">
+        <v>-7.9363535999999998E-2</v>
+      </c>
+      <c r="CD187" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="CE187">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>367</v>
       </c>
@@ -33451,8 +36186,23 @@
       <c r="BW188" s="1">
         <v>-0.28199999999999997</v>
       </c>
-    </row>
-    <row r="189" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA188" s="7">
+        <v>43180.777662037035</v>
+      </c>
+      <c r="CB188" s="7">
+        <v>43180.863541666666</v>
+      </c>
+      <c r="CC188" s="4">
+        <v>1.6196052000099999E-2</v>
+      </c>
+      <c r="CD188" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE188" s="1">
+        <v>-0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>369</v>
       </c>
@@ -33600,8 +36350,23 @@
       <c r="BW189" s="1">
         <v>-0.27800000000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA189" s="7">
+        <v>43181.12835648148</v>
+      </c>
+      <c r="CB189" s="7">
+        <v>43181.407407407409</v>
+      </c>
+      <c r="CC189" s="4">
+        <v>0.13644872899999999</v>
+      </c>
+      <c r="CD189" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE189" s="1">
+        <v>-0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -33749,8 +36514,23 @@
       <c r="BW190">
         <v>1.4924999999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA190" s="7">
+        <v>43181.590162037035</v>
+      </c>
+      <c r="CB190" s="7">
+        <v>43181.710300925923</v>
+      </c>
+      <c r="CC190" s="4">
+        <v>0.18916903800000001</v>
+      </c>
+      <c r="CD190" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="CE190" s="1">
+        <v>-0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -33898,8 +36678,18 @@
       <c r="BW191">
         <v>0.76149999999999995</v>
       </c>
-    </row>
-    <row r="192" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA191" s="7">
+        <v>43185.67696759259</v>
+      </c>
+      <c r="CB191" s="7"/>
+      <c r="CC191" s="4">
+        <v>0.20299755999999999</v>
+      </c>
+      <c r="CD191" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="192" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -34047,8 +36837,13 @@
       <c r="BW192" s="1">
         <v>-0.28899999999999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA192" s="7"/>
+      <c r="CB192" s="7"/>
+      <c r="CC192" s="4"/>
+      <c r="CD192" s="4"/>
+      <c r="CE192" s="4"/>
+    </row>
+    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>377</v>
       </c>
@@ -34196,8 +36991,13 @@
       <c r="BW193">
         <v>0.87350000000000005</v>
       </c>
-    </row>
-    <row r="194" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA193" s="7"/>
+      <c r="CB193" s="7"/>
+      <c r="CC193" s="4"/>
+      <c r="CD193" s="4"/>
+      <c r="CE193" s="4"/>
+    </row>
+    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -34345,8 +37145,13 @@
       <c r="BW194">
         <v>1.345</v>
       </c>
-    </row>
-    <row r="195" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA194" s="7"/>
+      <c r="CB194" s="7"/>
+      <c r="CC194" s="4"/>
+      <c r="CD194" s="4"/>
+      <c r="CE194" s="4"/>
+    </row>
+    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>381</v>
       </c>
@@ -34494,8 +37299,13 @@
       <c r="BW195">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="196" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA195" s="7"/>
+      <c r="CB195" s="7"/>
+      <c r="CC195" s="4"/>
+      <c r="CD195" s="4"/>
+      <c r="CE195" s="4"/>
+    </row>
+    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>383</v>
       </c>
@@ -34643,8 +37453,13 @@
       <c r="BW196">
         <v>0.98650000000000004</v>
       </c>
-    </row>
-    <row r="197" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA196" s="7"/>
+      <c r="CB196" s="7"/>
+      <c r="CC196" s="4"/>
+      <c r="CD196" s="4"/>
+      <c r="CE196" s="4"/>
+    </row>
+    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -34792,8 +37607,13 @@
       <c r="BW197" s="1">
         <v>-0.27550000000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA197" s="7"/>
+      <c r="CB197" s="7"/>
+      <c r="CC197" s="4"/>
+      <c r="CD197" s="4"/>
+      <c r="CE197" s="4"/>
+    </row>
+    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -34941,8 +37761,13 @@
       <c r="BW198" s="1">
         <v>-0.30499999999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA198" s="7"/>
+      <c r="CB198" s="7"/>
+      <c r="CC198" s="4"/>
+      <c r="CD198" s="4"/>
+      <c r="CE198" s="4"/>
+    </row>
+    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -35084,8 +37909,13 @@
       <c r="BV199" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="200" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="CA199" s="7"/>
+      <c r="CB199" s="4"/>
+      <c r="CC199" s="4"/>
+      <c r="CD199" s="4"/>
+      <c r="CE199" s="4"/>
+    </row>
+    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>391</v>
       </c>
@@ -35219,7 +38049,7 @@
         <v>-0.1545</v>
       </c>
     </row>
-    <row r="201" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -35353,7 +38183,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>395</v>
       </c>
@@ -35487,7 +38317,7 @@
         <v>-0.30099999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>397</v>
       </c>
@@ -35621,7 +38451,7 @@
         <v>-0.30049999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -35755,7 +38585,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="205" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -35889,7 +38719,7 @@
         <v>1.0435000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -36023,7 +38853,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -36157,7 +38987,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -39069,7 +41899,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -39325,7 +42155,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -39453,7 +42283,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -39581,7 +42411,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -39709,7 +42539,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -39837,7 +42667,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -39965,7 +42795,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -40093,7 +42923,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -40221,7 +43051,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -40349,7 +43179,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -40477,7 +43307,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -40605,7 +43435,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -40733,7 +43563,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -40861,7 +43691,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -41117,7 +43947,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -41245,7 +44075,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -41373,7 +44203,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -41495,7 +44325,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -41608,7 +44438,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -69578,7 +72408,7 @@
       <c r="BF823"/>
     </row>
   </sheetData>
-  <autoFilter ref="BL1:BW823"/>
+  <autoFilter ref="CE1:CE823"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -15,9 +15,9 @@
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CE$1:$CE$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CN$1:$CN$823</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="1630">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5287,13 +5287,111 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>保持日数</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保持時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約定時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済時間</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>68,6000Pips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52,-2700Pips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13,-2300Pips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reverse STL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0以上負け</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trailモードをOFFにした（持てるだけ持ってドテンしたほうが良い）　★2018/04/05時点のmaster</t>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify_entry_logic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StopLossは3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -5352,7 +5450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5384,6 +5482,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5666,64 +5773,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF823"/>
+  <dimension ref="A1:CR823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CB11" sqref="CB11"/>
+    <sheetView tabSelected="1" topLeftCell="CD5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CN7" sqref="CN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
     <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="0" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.109375" customWidth="1"/>
-    <col min="51" max="51" width="15.88671875" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22" customWidth="1"/>
-    <col min="56" max="56" width="17.6640625" customWidth="1"/>
-    <col min="57" max="57" width="22.21875" customWidth="1"/>
-    <col min="58" max="58" width="8.77734375" style="4"/>
+    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="18.109375" customWidth="1"/>
     <col min="65" max="65" width="15.88671875" customWidth="1"/>
+    <col min="66" max="70" width="8.88671875" customWidth="1"/>
     <col min="71" max="71" width="16.77734375" customWidth="1"/>
     <col min="72" max="72" width="19.21875" customWidth="1"/>
     <col min="73" max="73" width="13.109375" customWidth="1"/>
+    <col min="74" max="78" width="8.88671875" customWidth="1"/>
     <col min="79" max="79" width="24.6640625" customWidth="1"/>
     <col min="80" max="80" width="18.6640625" customWidth="1"/>
+    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.77734375" customWidth="1"/>
+    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -5746,7 +5866,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -5767,7 +5887,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -5785,8 +5905,11 @@
       <c r="CA3" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CH3" s="11" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -5820,10 +5943,13 @@
         <v>1608</v>
       </c>
       <c r="CA4" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+        <v>1627</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5989,8 +6115,38 @@
       <c r="CF5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CL5" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6190,8 +6346,37 @@
       <c r="CE6" s="1">
         <v>-0.33350000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CH6" s="11">
+        <v>42796</v>
+      </c>
+      <c r="CI6" s="12">
+        <v>0.63877314814814812</v>
+      </c>
+      <c r="CJ6" s="11">
+        <v>42800</v>
+      </c>
+      <c r="CK6" s="12">
+        <v>0.37835648148148149</v>
+      </c>
+      <c r="CL6" s="13">
+        <v>2.4928100000130501E-2</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>-0.2485</v>
+      </c>
+      <c r="CO6">
+        <f>CJ6-CH6</f>
+        <v>4</v>
+      </c>
+      <c r="CP6" s="12"/>
+      <c r="CQ6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6391,8 +6576,40 @@
       <c r="CE7">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CH7" s="11">
+        <v>42800</v>
+      </c>
+      <c r="CI7" s="12">
+        <v>0.38182870370370375</v>
+      </c>
+      <c r="CJ7" s="11">
+        <v>42801</v>
+      </c>
+      <c r="CK7" s="12">
+        <v>0.70891203703703709</v>
+      </c>
+      <c r="CL7" s="13">
+        <v>-0.103645907000026</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="CO7">
+        <f>CJ7-CH7</f>
+        <v>1</v>
+      </c>
+      <c r="CP7" s="12"/>
+      <c r="CQ7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6586,8 +6803,39 @@
       <c r="CE8" s="1">
         <v>-0.34250000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH8" s="11">
+        <v>42801</v>
+      </c>
+      <c r="CI8" s="12">
+        <v>0.71516203703703696</v>
+      </c>
+      <c r="CJ8" s="11">
+        <v>42803</v>
+      </c>
+      <c r="CK8" s="12">
+        <v>0.7255787037037037</v>
+      </c>
+      <c r="CL8" s="13">
+        <v>-0.15903243899996</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>-0.33650000000000002</v>
+      </c>
+      <c r="CO8">
+        <f>CJ8-CH8</f>
+        <v>2</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6772,8 +7020,33 @@
       <c r="CE9">
         <v>0.73599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="CH9" s="11">
+        <v>42803</v>
+      </c>
+      <c r="CI9" s="12">
+        <v>0.72905092592592602</v>
+      </c>
+      <c r="CJ9" s="11">
+        <v>42804</v>
+      </c>
+      <c r="CK9" s="12">
+        <v>0.58391203703703709</v>
+      </c>
+      <c r="CL9" s="13">
+        <v>9.7902678999995996E-2</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN9">
+        <v>0.79</v>
+      </c>
+      <c r="CO9">
+        <f>CJ9-CH9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6949,8 +7222,33 @@
       <c r="CE10" s="1">
         <v>-0.309</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" ht="224.4" x14ac:dyDescent="0.2">
+      <c r="CH10" s="11">
+        <v>42809</v>
+      </c>
+      <c r="CI10" s="12">
+        <v>0.77418981481481486</v>
+      </c>
+      <c r="CJ10" s="11">
+        <v>42810</v>
+      </c>
+      <c r="CK10" s="12">
+        <v>0.83391203703703709</v>
+      </c>
+      <c r="CL10" s="13">
+        <v>-2.4540550999876499E-2</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN10">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="CO10">
+        <f t="shared" ref="CO10:CO73" si="0">CJ10-CH10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="224.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7126,8 +7424,33 @@
       <c r="CE11" s="1">
         <v>-0.311</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH11" s="11">
+        <v>42814</v>
+      </c>
+      <c r="CI11" s="12">
+        <v>0.87488425925925928</v>
+      </c>
+      <c r="CJ11" s="11">
+        <v>42815</v>
+      </c>
+      <c r="CK11" s="12">
+        <v>0.12557870370370369</v>
+      </c>
+      <c r="CL11" s="13">
+        <v>-6.8557761000133596E-2</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN11">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="CO11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7291,8 +7614,33 @@
       <c r="CE12">
         <v>0.81950000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH12" s="11">
+        <v>42817</v>
+      </c>
+      <c r="CI12" s="12">
+        <v>0.68391203703703696</v>
+      </c>
+      <c r="CJ12" s="11">
+        <v>42818</v>
+      </c>
+      <c r="CK12" s="12">
+        <v>0.62835648148148149</v>
+      </c>
+      <c r="CL12" s="13">
+        <v>-8.6176538000175398E-2</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>-0.26150000000000001</v>
+      </c>
+      <c r="CO12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7456,8 +7804,37 @@
       <c r="CE13" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="14" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH13" s="11">
+        <v>42818</v>
+      </c>
+      <c r="CI13" s="12">
+        <v>0.6318287037037037</v>
+      </c>
+      <c r="CJ13" s="11">
+        <v>42818</v>
+      </c>
+      <c r="CK13" s="12">
+        <v>0.76724537037037033</v>
+      </c>
+      <c r="CL13" s="13">
+        <v>3.6862377000217897E-2</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP13" s="12">
+        <f>CK13-CI13</f>
+        <v>0.13541666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7621,8 +7998,33 @@
       <c r="CE14" s="1">
         <v>-0.24399999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH14" s="11">
+        <v>42818</v>
+      </c>
+      <c r="CI14" s="12">
+        <v>0.77071759259259265</v>
+      </c>
+      <c r="CJ14" s="11">
+        <v>42822</v>
+      </c>
+      <c r="CK14" s="12">
+        <v>0.36099537037037038</v>
+      </c>
+      <c r="CL14" s="13">
+        <v>-3.03457600000758E-2</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="CO14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -7786,8 +8188,33 @@
       <c r="CE15" s="1">
         <v>-0.3145</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH15" s="11">
+        <v>42822</v>
+      </c>
+      <c r="CI15" s="12">
+        <v>0.36446759259259259</v>
+      </c>
+      <c r="CJ15" s="11">
+        <v>42825</v>
+      </c>
+      <c r="CK15" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL15" s="13">
+        <v>0.140297893000044</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN15">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="CO15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7951,8 +8378,33 @@
       <c r="CE16" s="1">
         <v>-0.30549999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH16" s="11">
+        <v>42826</v>
+      </c>
+      <c r="CI16" s="12">
+        <v>0.24641203703703704</v>
+      </c>
+      <c r="CJ16" s="11">
+        <v>42828</v>
+      </c>
+      <c r="CK16" s="12">
+        <v>0.73252314814814812</v>
+      </c>
+      <c r="CL16" s="13">
+        <v>0.21958730099995999</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="CO16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8116,8 +8568,33 @@
       <c r="CE17">
         <v>1.4155</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH17" s="11">
+        <v>42828</v>
+      </c>
+      <c r="CI17" s="12">
+        <v>0.73599537037037033</v>
+      </c>
+      <c r="CJ17" s="11">
+        <v>42829</v>
+      </c>
+      <c r="CK17" s="12">
+        <v>0.50057870370370372</v>
+      </c>
+      <c r="CL17" s="13">
+        <v>-5.634751999998E-2</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN17">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="CO17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8281,8 +8758,37 @@
       <c r="CE18" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="19" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH18" s="11">
+        <v>42830</v>
+      </c>
+      <c r="CI18" s="12">
+        <v>0.52071759259259254</v>
+      </c>
+      <c r="CJ18" s="11">
+        <v>42830</v>
+      </c>
+      <c r="CK18" s="12">
+        <v>0.87835648148148149</v>
+      </c>
+      <c r="CL18" s="13">
+        <v>-0.20651108499992901</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="CO18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP18" s="12">
+        <f>CK18-CI18</f>
+        <v>0.35763888888888895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -8446,8 +8952,33 @@
       <c r="CE19" s="1">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH19" s="11">
+        <v>42830</v>
+      </c>
+      <c r="CI19" s="12">
+        <v>0.8818287037037037</v>
+      </c>
+      <c r="CJ19" s="11">
+        <v>42832</v>
+      </c>
+      <c r="CK19" s="12">
+        <v>0.4304398148148148</v>
+      </c>
+      <c r="CL19" s="13">
+        <v>0.26571941799986498</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>-0.75049999999999994</v>
+      </c>
+      <c r="CO19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8611,8 +9142,33 @@
       <c r="CE20">
         <v>1.0509999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH20" s="11">
+        <v>42832</v>
+      </c>
+      <c r="CI20" s="12">
+        <v>0.43391203703703707</v>
+      </c>
+      <c r="CJ20" s="11">
+        <v>42835</v>
+      </c>
+      <c r="CK20" s="12">
+        <v>0.95474537037037033</v>
+      </c>
+      <c r="CL20" s="13">
+        <v>-0.102829166</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="CO20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8776,8 +9332,33 @@
       <c r="CE21" s="1">
         <v>-0.38450000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH21" s="11">
+        <v>42835</v>
+      </c>
+      <c r="CI21" s="12">
+        <v>0.95821759259259265</v>
+      </c>
+      <c r="CJ21" s="11">
+        <v>42836</v>
+      </c>
+      <c r="CK21" s="12">
+        <v>0.6630787037037037</v>
+      </c>
+      <c r="CL21" s="13">
+        <v>5.6281622000011897E-2</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="CO21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -8941,8 +9522,33 @@
       <c r="CE22" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH22" s="11">
+        <v>42836</v>
+      </c>
+      <c r="CI22" s="12">
+        <v>0.66655092592592591</v>
+      </c>
+      <c r="CJ22" s="11">
+        <v>42839</v>
+      </c>
+      <c r="CK22" s="12">
+        <v>8.3912037037037035E-2</v>
+      </c>
+      <c r="CL22" s="13">
+        <v>-0.10978670700000701</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN22">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="CO22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -9106,8 +9712,33 @@
       <c r="CE23" s="1">
         <v>-0.312</v>
       </c>
-    </row>
-    <row r="24" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH23" s="11">
+        <v>42839</v>
+      </c>
+      <c r="CI23" s="12">
+        <v>9.0162037037037027E-2</v>
+      </c>
+      <c r="CJ23" s="11">
+        <v>42843</v>
+      </c>
+      <c r="CK23" s="12">
+        <v>0.18043981481481483</v>
+      </c>
+      <c r="CL23" s="13">
+        <v>-8.7722023000065805E-2</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="CO23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -9271,8 +9902,37 @@
       <c r="CE24" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="25" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CH24" s="11">
+        <v>42843</v>
+      </c>
+      <c r="CI24" s="12">
+        <v>0.18391203703703704</v>
+      </c>
+      <c r="CJ24" s="11">
+        <v>42843</v>
+      </c>
+      <c r="CK24" s="12">
+        <v>0.83391203703703709</v>
+      </c>
+      <c r="CL24" s="13">
+        <v>0.15272668599998901</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN24">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="CO24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP24" s="12">
+        <f>CK24-CI24</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -9436,8 +10096,33 @@
       <c r="CE25" s="1">
         <v>-0.3085</v>
       </c>
-    </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH25" s="11">
+        <v>42845</v>
+      </c>
+      <c r="CI25" s="12">
+        <v>0.69085648148148149</v>
+      </c>
+      <c r="CJ25" s="11">
+        <v>42847</v>
+      </c>
+      <c r="CK25" s="12">
+        <v>3.3564814814814811E-3</v>
+      </c>
+      <c r="CL25" s="13">
+        <v>3.3408481999936103E-2</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN25" s="1">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="CO25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -9601,8 +10286,33 @@
       <c r="CE26">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH26" s="11">
+        <v>42847</v>
+      </c>
+      <c r="CI26" s="12">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="CJ26" s="11">
+        <v>42851</v>
+      </c>
+      <c r="CK26" s="12">
+        <v>1.2037037037037035E-2</v>
+      </c>
+      <c r="CL26" s="13">
+        <v>-0.120309100999901</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN26" s="6">
+        <v>-3.0070000000000001</v>
+      </c>
+      <c r="CO26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9766,8 +10476,37 @@
       <c r="CE27" s="1">
         <v>-0.309</v>
       </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH27" s="11">
+        <v>42852</v>
+      </c>
+      <c r="CI27" s="12">
+        <v>0.3054398148148148</v>
+      </c>
+      <c r="CJ27" s="11">
+        <v>42852</v>
+      </c>
+      <c r="CK27" s="12">
+        <v>0.66724537037037035</v>
+      </c>
+      <c r="CL27" s="13">
+        <v>0.18190791200006801</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN27">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="CO27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP27" s="12">
+        <f>CK27-CI27</f>
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -9931,8 +10670,33 @@
       <c r="CE28" s="1">
         <v>-0.3105</v>
       </c>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH28" s="11">
+        <v>42852</v>
+      </c>
+      <c r="CI28" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CJ28" s="11">
+        <v>42856</v>
+      </c>
+      <c r="CK28" s="12">
+        <v>0.66724537037037035</v>
+      </c>
+      <c r="CL28" s="13">
+        <v>0.141835961999906</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN28">
+        <v>0.8095</v>
+      </c>
+      <c r="CO28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -10096,8 +10860,33 @@
       <c r="CE29" s="1">
         <v>-0.33250000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH29" s="11">
+        <v>42858</v>
+      </c>
+      <c r="CI29" s="12">
+        <v>0.38530092592592591</v>
+      </c>
+      <c r="CJ29" s="11">
+        <v>42860</v>
+      </c>
+      <c r="CK29" s="12">
+        <v>0.91724537037037035</v>
+      </c>
+      <c r="CL29" s="13">
+        <v>0.19895302499999001</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN29">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="CO29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -10261,8 +11050,33 @@
       <c r="CE30" s="1">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH30" s="11">
+        <v>42861</v>
+      </c>
+      <c r="CI30" s="12">
+        <v>0.24293981481481483</v>
+      </c>
+      <c r="CJ30" s="11">
+        <v>42865</v>
+      </c>
+      <c r="CK30" s="12">
+        <v>4.2245370370370371E-2</v>
+      </c>
+      <c r="CL30" s="13">
+        <v>0.16328196700004199</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN30">
+        <v>1.3185</v>
+      </c>
+      <c r="CO30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -10426,8 +11240,33 @@
       <c r="CE31">
         <v>0.70350000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH31" s="11">
+        <v>42866</v>
+      </c>
+      <c r="CI31" s="12">
+        <v>0.10752314814814816</v>
+      </c>
+      <c r="CJ31" s="11">
+        <v>42871</v>
+      </c>
+      <c r="CK31" s="12">
+        <v>0.98252314814814812</v>
+      </c>
+      <c r="CL31" s="13">
+        <v>0.13924407299990499</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN31" s="6">
+        <v>-1.7809999999999999</v>
+      </c>
+      <c r="CO31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -10591,8 +11430,33 @@
       <c r="CE32" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH32" s="11">
+        <v>42871</v>
+      </c>
+      <c r="CI32" s="12">
+        <v>0.98599537037037033</v>
+      </c>
+      <c r="CJ32" s="11">
+        <v>42872</v>
+      </c>
+      <c r="CK32" s="12">
+        <v>0.91724537037037035</v>
+      </c>
+      <c r="CL32" s="13">
+        <v>-0.13344375000002601</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN32">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="CO32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -10756,8 +11620,33 @@
       <c r="CE33" s="1">
         <v>-0.308</v>
       </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH33" s="11">
+        <v>42874</v>
+      </c>
+      <c r="CI33" s="12">
+        <v>0.54849537037037044</v>
+      </c>
+      <c r="CJ33" s="11">
+        <v>42877</v>
+      </c>
+      <c r="CK33" s="12">
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="CL33" s="13">
+        <v>8.2166392999947699E-2</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN33">
+        <v>0.749</v>
+      </c>
+      <c r="CO33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -10921,8 +11810,33 @@
       <c r="CE34">
         <v>0.70950000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH34" s="11">
+        <v>42877</v>
+      </c>
+      <c r="CI34" s="12">
+        <v>0.79849537037037033</v>
+      </c>
+      <c r="CJ34" s="11">
+        <v>42878</v>
+      </c>
+      <c r="CK34" s="12">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="CL34" s="13">
+        <v>0.146337228000048</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN34" s="1">
+        <v>-0.46450000000000002</v>
+      </c>
+      <c r="CO34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -11086,8 +12000,33 @@
       <c r="CE35" s="1">
         <v>-0.248</v>
       </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH35" s="11">
+        <v>42878</v>
+      </c>
+      <c r="CI35" s="12">
+        <v>1.0300925925925927E-2</v>
+      </c>
+      <c r="CJ35" s="11">
+        <v>42879</v>
+      </c>
+      <c r="CK35" s="12">
+        <v>0.30891203703703701</v>
+      </c>
+      <c r="CL35" s="13">
+        <v>-1.76559279998947E-2</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="CO35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -11251,8 +12190,33 @@
       <c r="CE36" s="1">
         <v>-0.35649999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH36" s="11">
+        <v>42879</v>
+      </c>
+      <c r="CI36" s="12">
+        <v>0.31238425925925922</v>
+      </c>
+      <c r="CJ36" s="11">
+        <v>42881</v>
+      </c>
+      <c r="CK36" s="12">
+        <v>0.17696759259259257</v>
+      </c>
+      <c r="CL36" s="13">
+        <v>0.114738466000002</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN36" s="1">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="CO36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -11416,8 +12380,33 @@
       <c r="CE37" s="1">
         <v>-0.27600000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH37" s="11">
+        <v>42881</v>
+      </c>
+      <c r="CI37" s="12">
+        <v>0.18043981481481483</v>
+      </c>
+      <c r="CJ37" s="11">
+        <v>42882</v>
+      </c>
+      <c r="CK37" s="12">
+        <v>0.12557870370370369</v>
+      </c>
+      <c r="CL37" s="13">
+        <v>-6.7921105000091603E-2</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN37">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="CO37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -11581,8 +12570,33 @@
       <c r="CE38" s="1">
         <v>-0.313</v>
       </c>
-    </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH38" s="11">
+        <v>42884</v>
+      </c>
+      <c r="CI38" s="12">
+        <v>0.94085648148148149</v>
+      </c>
+      <c r="CJ38" s="11">
+        <v>42885</v>
+      </c>
+      <c r="CK38" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL38" s="13">
+        <v>-0.13018078000014299</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN38">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="CO38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -11746,8 +12760,33 @@
       <c r="CE39">
         <v>1.5649999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH39" s="11">
+        <v>42886</v>
+      </c>
+      <c r="CI39" s="12">
+        <v>0.2741898148148148</v>
+      </c>
+      <c r="CJ39" s="11">
+        <v>42887</v>
+      </c>
+      <c r="CK39" s="12">
+        <v>0.58668981481481486</v>
+      </c>
+      <c r="CL39" s="13">
+        <v>-0.18364950300008401</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN39" s="1">
+        <v>-0.89549999999999996</v>
+      </c>
+      <c r="CO39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11911,8 +12950,33 @@
       <c r="CE40" s="1">
         <v>-0.30049999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH40" s="11">
+        <v>42887</v>
+      </c>
+      <c r="CI40" s="12">
+        <v>0.59016203703703707</v>
+      </c>
+      <c r="CJ40" s="11">
+        <v>42888</v>
+      </c>
+      <c r="CK40" s="12">
+        <v>0.37557870370370372</v>
+      </c>
+      <c r="CL40" s="13">
+        <v>0.29373261399982298</v>
+      </c>
+      <c r="CM40" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN40">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="CO40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -12076,8 +13140,33 @@
       <c r="CE41" s="1">
         <v>-0.30399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH41" s="11">
+        <v>42892</v>
+      </c>
+      <c r="CI41" s="12">
+        <v>0.10405092592592592</v>
+      </c>
+      <c r="CJ41" s="11">
+        <v>42893</v>
+      </c>
+      <c r="CK41" s="12">
+        <v>0.12557870370370369</v>
+      </c>
+      <c r="CL41" s="13">
+        <v>-0.18497973700010001</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN41">
+        <v>1.77</v>
+      </c>
+      <c r="CO41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -12241,8 +13330,33 @@
       <c r="CE42">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH42" s="11">
+        <v>42898</v>
+      </c>
+      <c r="CI42" s="12">
+        <v>0.62141203703703707</v>
+      </c>
+      <c r="CJ42" s="11">
+        <v>42902</v>
+      </c>
+      <c r="CK42" s="12">
+        <v>0.58391203703703709</v>
+      </c>
+      <c r="CL42" s="13">
+        <v>0.106789036999988</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN42">
+        <v>1.2095</v>
+      </c>
+      <c r="CO42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -12406,8 +13520,33 @@
       <c r="CE43">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH43" s="11">
+        <v>42905</v>
+      </c>
+      <c r="CI43" s="12">
+        <v>0.53460648148148149</v>
+      </c>
+      <c r="CJ43" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CK43" s="12">
+        <v>1.0300925925925927E-2</v>
+      </c>
+      <c r="CL43" s="13">
+        <v>0.107180926999973</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN43" s="1">
+        <v>-0.17549999999999999</v>
+      </c>
+      <c r="CO43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -12571,8 +13710,37 @@
       <c r="CE44" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH44" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CI44" s="12">
+        <v>1.3773148148148147E-2</v>
+      </c>
+      <c r="CJ44" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CK44" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CL44" s="13">
+        <v>-1.3712597999937E-2</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN44" s="1">
+        <v>-0.74850000000000005</v>
+      </c>
+      <c r="CO44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP44" s="12">
+        <f t="shared" ref="CP44:CP45" si="1">CK44-CI44</f>
+        <v>0.65972222222222221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -12736,8 +13904,37 @@
       <c r="CE45" s="1">
         <v>-0.35399999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH45" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CI45" s="12">
+        <v>0.67696759259259265</v>
+      </c>
+      <c r="CJ45" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CK45" s="12">
+        <v>0.88877314814814812</v>
+      </c>
+      <c r="CL45" s="13">
+        <v>0.16068794699994801</v>
+      </c>
+      <c r="CM45" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN45" s="6">
+        <v>-1.583</v>
+      </c>
+      <c r="CO45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP45" s="12">
+        <f t="shared" si="1"/>
+        <v>0.21180555555555547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -12901,8 +14098,33 @@
       <c r="CE46" s="1">
         <v>-0.193</v>
       </c>
-    </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH46" s="11">
+        <v>42906</v>
+      </c>
+      <c r="CI46" s="12">
+        <v>0.89224537037037033</v>
+      </c>
+      <c r="CJ46" s="11">
+        <v>42907</v>
+      </c>
+      <c r="CK46" s="12">
+        <v>0.70891203703703709</v>
+      </c>
+      <c r="CL46" s="13">
+        <v>-0.135122571000036</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN46">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="CO46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -13066,8 +14288,33 @@
       <c r="CE47">
         <v>2.1395</v>
       </c>
-    </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH47" s="11">
+        <v>42909</v>
+      </c>
+      <c r="CI47" s="12">
+        <v>0.39224537037037038</v>
+      </c>
+      <c r="CJ47" s="11">
+        <v>42912</v>
+      </c>
+      <c r="CK47" s="12">
+        <v>0.50057870370370372</v>
+      </c>
+      <c r="CL47" s="13">
+        <v>4.4706424000072902E-2</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN47">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="CO47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -13231,8 +14478,33 @@
       <c r="CE48">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH48" s="11">
+        <v>42912</v>
+      </c>
+      <c r="CI48" s="12">
+        <v>0.64224537037037044</v>
+      </c>
+      <c r="CJ48" s="11">
+        <v>42913</v>
+      </c>
+      <c r="CK48" s="12">
+        <v>0.87557870370370372</v>
+      </c>
+      <c r="CL48" s="13">
+        <v>0.26272668699990798</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN48">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="CO48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -13396,8 +14668,33 @@
       <c r="CE49" s="1">
         <v>-0.34050000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH49" s="11">
+        <v>42916</v>
+      </c>
+      <c r="CI49" s="12">
+        <v>0.5693287037037037</v>
+      </c>
+      <c r="CJ49" s="11">
+        <v>42917</v>
+      </c>
+      <c r="CK49" s="12">
+        <v>0.16724537037037038</v>
+      </c>
+      <c r="CL49" s="13">
+        <v>0.16541111100005501</v>
+      </c>
+      <c r="CM49" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN49">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="CO49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -13561,8 +14858,33 @@
       <c r="CE50" s="1">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH50" s="11">
+        <v>42921</v>
+      </c>
+      <c r="CI50" s="12">
+        <v>0.30891203703703701</v>
+      </c>
+      <c r="CJ50" s="11">
+        <v>42922</v>
+      </c>
+      <c r="CK50" s="12">
+        <v>0.7880787037037037</v>
+      </c>
+      <c r="CL50" s="13">
+        <v>-0.14016726300003601</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN50" s="1">
+        <v>-0.76449999999999996</v>
+      </c>
+      <c r="CO50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -13726,8 +15048,33 @@
       <c r="CE51" s="1">
         <v>-0.316</v>
       </c>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH51" s="11">
+        <v>42922</v>
+      </c>
+      <c r="CI51" s="12">
+        <v>0.79155092592592602</v>
+      </c>
+      <c r="CJ51" s="11">
+        <v>42934</v>
+      </c>
+      <c r="CK51" s="12">
+        <v>0.41307870370370375</v>
+      </c>
+      <c r="CL51" s="13">
+        <v>0.113294642999918</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN51" s="1">
+        <v>-0.28349999999999997</v>
+      </c>
+      <c r="CO51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -13891,8 +15238,37 @@
       <c r="CE52">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH52" s="11">
+        <v>42934</v>
+      </c>
+      <c r="CI52" s="12">
+        <v>0.41655092592592591</v>
+      </c>
+      <c r="CJ52" s="11">
+        <v>42934</v>
+      </c>
+      <c r="CK52" s="12">
+        <v>0.83391203703703709</v>
+      </c>
+      <c r="CL52" s="13">
+        <v>-9.6386581999845206E-2</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN52">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="CO52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP52" s="12">
+        <f>CK52-CI52</f>
+        <v>0.41736111111111118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -14056,8 +15432,33 @@
       <c r="CE53" s="1">
         <v>-0.25700000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH53" s="11">
+        <v>42935</v>
+      </c>
+      <c r="CI53" s="12">
+        <v>0.90960648148148149</v>
+      </c>
+      <c r="CJ53" s="11">
+        <v>42937</v>
+      </c>
+      <c r="CK53" s="12">
+        <v>0.91724537037037035</v>
+      </c>
+      <c r="CL53" s="13">
+        <v>-0.32064952899988303</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN53">
+        <v>0.9355</v>
+      </c>
+      <c r="CO53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -14221,8 +15622,33 @@
       <c r="CE54" s="1">
         <v>-0.34050000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH54" s="11">
+        <v>42941</v>
+      </c>
+      <c r="CI54" s="12">
+        <v>0.35405092592592591</v>
+      </c>
+      <c r="CJ54" s="11">
+        <v>42942</v>
+      </c>
+      <c r="CK54" s="12">
+        <v>0.16724537037037038</v>
+      </c>
+      <c r="CL54" s="13">
+        <v>0.187503100000005</v>
+      </c>
+      <c r="CM54" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN54">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="CO54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -14386,8 +15812,33 @@
       <c r="CE55">
         <v>0.98050000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH55" s="11">
+        <v>42942</v>
+      </c>
+      <c r="CI55" s="12">
+        <v>0.98599537037037033</v>
+      </c>
+      <c r="CJ55" s="11">
+        <v>42954</v>
+      </c>
+      <c r="CK55" s="12">
+        <v>0.88877314814814812</v>
+      </c>
+      <c r="CL55" s="13">
+        <v>0.37657832399989</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN55" s="6">
+        <v>-1.5295000000000001</v>
+      </c>
+      <c r="CO55">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14551,8 +16002,33 @@
       <c r="CE56">
         <v>0.71499999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH56" s="11">
+        <v>42954</v>
+      </c>
+      <c r="CI56" s="12">
+        <v>0.89224537037037033</v>
+      </c>
+      <c r="CJ56" s="11">
+        <v>42956</v>
+      </c>
+      <c r="CK56" s="12">
+        <v>0.62557870370370372</v>
+      </c>
+      <c r="CL56" s="13">
+        <v>-2.1193649999942998E-2</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN56">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="CO56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -14716,8 +16192,33 @@
       <c r="CE57">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH57" s="11">
+        <v>42957</v>
+      </c>
+      <c r="CI57" s="12">
+        <v>0.62141203703703707</v>
+      </c>
+      <c r="CJ57" s="11">
+        <v>42958</v>
+      </c>
+      <c r="CK57" s="12">
+        <v>0.50057870370370372</v>
+      </c>
+      <c r="CL57" s="13">
+        <v>-1.4789236000029401E-2</v>
+      </c>
+      <c r="CM57" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN57">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="CO57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -14881,8 +16382,33 @@
       <c r="CE58" s="1">
         <v>-0.192</v>
       </c>
-    </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH58" s="11">
+        <v>42961</v>
+      </c>
+      <c r="CI58" s="12">
+        <v>0.54155092592592591</v>
+      </c>
+      <c r="CJ58" s="11">
+        <v>42963</v>
+      </c>
+      <c r="CK58" s="12">
+        <v>0.9130787037037037</v>
+      </c>
+      <c r="CL58" s="13">
+        <v>0.17840275299994501</v>
+      </c>
+      <c r="CM58" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN58" s="1">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="CO58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -15045,8 +16571,33 @@
       <c r="CE59" s="1">
         <v>-0.2225</v>
       </c>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH59" s="11">
+        <v>42963</v>
+      </c>
+      <c r="CI59" s="12">
+        <v>0.91655092592592602</v>
+      </c>
+      <c r="CJ59" s="11">
+        <v>42964</v>
+      </c>
+      <c r="CK59" s="12">
+        <v>0.79224537037037035</v>
+      </c>
+      <c r="CL59" s="13">
+        <v>-7.5629537999887697E-2</v>
+      </c>
+      <c r="CM59" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN59">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="CO59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -15209,8 +16760,37 @@
       <c r="CE60" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH60" s="11">
+        <v>42965</v>
+      </c>
+      <c r="CI60" s="12">
+        <v>0.18043981481481483</v>
+      </c>
+      <c r="CJ60" s="11">
+        <v>42965</v>
+      </c>
+      <c r="CK60" s="12">
+        <v>0.91724537037037035</v>
+      </c>
+      <c r="CL60" s="13">
+        <v>-0.39062415599997102</v>
+      </c>
+      <c r="CM60" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN60">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="CO60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP60" s="12">
+        <f>CK60-CI60</f>
+        <v>0.73680555555555549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -15373,8 +16953,33 @@
       <c r="CE61" s="1">
         <v>-0.25950000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH61" s="11">
+        <v>42968</v>
+      </c>
+      <c r="CI61" s="12">
+        <v>0.6318287037037037</v>
+      </c>
+      <c r="CJ61" s="11">
+        <v>42969</v>
+      </c>
+      <c r="CK61" s="12">
+        <v>0.67002314814814812</v>
+      </c>
+      <c r="CL61" s="13">
+        <v>-6.3883208999864105E-2</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN61" s="1">
+        <v>-0.3115</v>
+      </c>
+      <c r="CO61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -15537,8 +17142,33 @@
       <c r="CE62" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH62" s="11">
+        <v>42969</v>
+      </c>
+      <c r="CI62" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CJ62" s="11">
+        <v>42971</v>
+      </c>
+      <c r="CK62" s="12">
+        <v>5.8912037037037034E-2</v>
+      </c>
+      <c r="CL62" s="13">
+        <v>3.4687203000063498E-2</v>
+      </c>
+      <c r="CM62" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN62" s="6">
+        <v>-1.4125000000000001</v>
+      </c>
+      <c r="CO62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -15701,8 +17331,33 @@
       <c r="CE63" s="1">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH63" s="11">
+        <v>42971</v>
+      </c>
+      <c r="CI63" s="12">
+        <v>6.2384259259259257E-2</v>
+      </c>
+      <c r="CJ63" s="11">
+        <v>42972</v>
+      </c>
+      <c r="CK63" s="12">
+        <v>0.41307870370370375</v>
+      </c>
+      <c r="CL63" s="13">
+        <v>-0.24332651300004399</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN63" s="6">
+        <v>-1.0745</v>
+      </c>
+      <c r="CO63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -15865,8 +17520,33 @@
       <c r="CE64" s="1">
         <v>-0.32800000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH64" s="11">
+        <v>42972</v>
+      </c>
+      <c r="CI64" s="12">
+        <v>0.41655092592592591</v>
+      </c>
+      <c r="CJ64" s="11">
+        <v>42975</v>
+      </c>
+      <c r="CK64" s="12">
+        <v>0.25057870370370372</v>
+      </c>
+      <c r="CL64" s="13">
+        <v>0.229222520000152</v>
+      </c>
+      <c r="CM64" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN64">
+        <v>0.72</v>
+      </c>
+      <c r="CO64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -16029,8 +17709,33 @@
       <c r="CE65" s="1">
         <v>-0.3085</v>
       </c>
-    </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH65" s="11">
+        <v>42975</v>
+      </c>
+      <c r="CI65" s="12">
+        <v>0.2568287037037037</v>
+      </c>
+      <c r="CJ65" s="11">
+        <v>42977</v>
+      </c>
+      <c r="CK65" s="12">
+        <v>0.58391203703703709</v>
+      </c>
+      <c r="CL65" s="13">
+        <v>0.26258566500005798</v>
+      </c>
+      <c r="CM65" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN65">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="CO65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -16193,8 +17898,33 @@
       <c r="CE66" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH66" s="11">
+        <v>42978</v>
+      </c>
+      <c r="CI66" s="12">
+        <v>0.37141203703703707</v>
+      </c>
+      <c r="CJ66" s="11">
+        <v>42979</v>
+      </c>
+      <c r="CK66" s="12">
+        <v>0.54849537037037044</v>
+      </c>
+      <c r="CL66" s="13">
+        <v>0.49163911200003801</v>
+      </c>
+      <c r="CM66" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN66" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="CO66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -16357,8 +18087,33 @@
       <c r="CE67">
         <v>0.90849999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH67" s="11">
+        <v>42979</v>
+      </c>
+      <c r="CI67" s="12">
+        <v>0.55196759259259254</v>
+      </c>
+      <c r="CJ67" s="11">
+        <v>42983</v>
+      </c>
+      <c r="CK67" s="12">
+        <v>0.45891203703703703</v>
+      </c>
+      <c r="CL67" s="13">
+        <v>-3.0481299000064001E-2</v>
+      </c>
+      <c r="CM67" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN67">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="CO67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -16521,8 +18276,37 @@
       <c r="CE68" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH68" s="11">
+        <v>42984</v>
+      </c>
+      <c r="CI68" s="12">
+        <v>4.5023148148148145E-2</v>
+      </c>
+      <c r="CJ68" s="11">
+        <v>42984</v>
+      </c>
+      <c r="CK68" s="12">
+        <v>0.82280092592592602</v>
+      </c>
+      <c r="CL68" s="13">
+        <v>-3.7093402000115197E-2</v>
+      </c>
+      <c r="CM68" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN68" s="1">
+        <v>-0.36649999999999999</v>
+      </c>
+      <c r="CO68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP68" s="12">
+        <f>CK68-CI68</f>
+        <v>0.7777777777777779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -16685,8 +18469,33 @@
       <c r="CE69">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH69" s="11">
+        <v>42984</v>
+      </c>
+      <c r="CI69" s="12">
+        <v>0.82627314814814812</v>
+      </c>
+      <c r="CJ69" s="11">
+        <v>42986</v>
+      </c>
+      <c r="CK69" s="12">
+        <v>0.58668981481481486</v>
+      </c>
+      <c r="CL69" s="13">
+        <v>0.12262993600010701</v>
+      </c>
+      <c r="CM69" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN69" s="1">
+        <v>-0.251</v>
+      </c>
+      <c r="CO69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -16849,8 +18658,33 @@
       <c r="CE70" s="1">
         <v>-0.19750000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH70" s="11">
+        <v>42986</v>
+      </c>
+      <c r="CI70" s="12">
+        <v>0.59016203703703707</v>
+      </c>
+      <c r="CJ70" s="11">
+        <v>42989</v>
+      </c>
+      <c r="CK70" s="12">
+        <v>0.2568287037037037</v>
+      </c>
+      <c r="CL70" s="13">
+        <v>-0.151612600000018</v>
+      </c>
+      <c r="CM70" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN70" s="1">
+        <v>-0.87949999999999995</v>
+      </c>
+      <c r="CO70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -17013,8 +18847,37 @@
       <c r="CE71">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH71" s="11">
+        <v>42989</v>
+      </c>
+      <c r="CI71" s="12">
+        <v>0.26030092592592591</v>
+      </c>
+      <c r="CJ71" s="11">
+        <v>42989</v>
+      </c>
+      <c r="CK71" s="12">
+        <v>0.87557870370370372</v>
+      </c>
+      <c r="CL71" s="13">
+        <v>8.1451139000074002E-2</v>
+      </c>
+      <c r="CM71" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN71">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="CO71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP71" s="12">
+        <f>CK71-CI71</f>
+        <v>0.61527777777777781</v>
+      </c>
+    </row>
+    <row r="72" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -17177,8 +19040,33 @@
       <c r="CE72" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH72" s="11">
+        <v>42991</v>
+      </c>
+      <c r="CI72" s="12">
+        <v>0.98252314814814812</v>
+      </c>
+      <c r="CJ72" s="11">
+        <v>42992</v>
+      </c>
+      <c r="CK72" s="12">
+        <v>0.7568287037037037</v>
+      </c>
+      <c r="CL72" s="13">
+        <v>0.41977864399996301</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN72" s="1">
+        <v>-0.65449999999999997</v>
+      </c>
+      <c r="CO72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -17341,8 +19229,33 @@
       <c r="CE73">
         <v>0.71799999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH73" s="11">
+        <v>42992</v>
+      </c>
+      <c r="CI73" s="12">
+        <v>0.76030092592592602</v>
+      </c>
+      <c r="CJ73" s="11">
+        <v>42993</v>
+      </c>
+      <c r="CK73" s="12">
+        <v>0.65532407407407411</v>
+      </c>
+      <c r="CL73" s="13">
+        <v>-0.19147822399999101</v>
+      </c>
+      <c r="CM73" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN73" s="6">
+        <v>-3.0154999999999998</v>
+      </c>
+      <c r="CO73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -17505,8 +19418,33 @@
       <c r="CE74" s="1">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH74" s="11">
+        <v>42998</v>
+      </c>
+      <c r="CI74" s="12">
+        <v>0.37835648148148149</v>
+      </c>
+      <c r="CJ74" s="11">
+        <v>42999</v>
+      </c>
+      <c r="CK74" s="12">
+        <v>0.58391203703703709</v>
+      </c>
+      <c r="CL74" s="13">
+        <v>0.12373340599993</v>
+      </c>
+      <c r="CM74" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN74">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="CO74">
+        <f t="shared" ref="CO74:CO137" si="2">CJ74-CH74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -17669,8 +19607,33 @@
       <c r="CE75" s="1">
         <v>-0.30249999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH75" s="11">
+        <v>43003</v>
+      </c>
+      <c r="CI75" s="12">
+        <v>0.71168981481481486</v>
+      </c>
+      <c r="CJ75" s="11">
+        <v>43004</v>
+      </c>
+      <c r="CK75" s="12">
+        <v>5.7870370370370378E-4</v>
+      </c>
+      <c r="CL75" s="13">
+        <v>-5.1769245999982498E-2</v>
+      </c>
+      <c r="CM75" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN75">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="CO75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -17833,8 +19796,37 @@
       <c r="CE76">
         <v>1.7164999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH76" s="11">
+        <v>43004</v>
+      </c>
+      <c r="CI76" s="12">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="CJ76" s="11">
+        <v>43004</v>
+      </c>
+      <c r="CK76" s="12">
+        <v>0.83391203703703709</v>
+      </c>
+      <c r="CL76" s="13">
+        <v>-0.141797668000016</v>
+      </c>
+      <c r="CM76" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN76">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="CO76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP76" s="12">
+        <f>CK76-CI76</f>
+        <v>0.82708333333333339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -17997,8 +19989,33 @@
       <c r="CE77">
         <v>1.2044999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH77" s="11">
+        <v>43005</v>
+      </c>
+      <c r="CI77" s="12">
+        <v>0.38877314814814817</v>
+      </c>
+      <c r="CJ77" s="11">
+        <v>43007</v>
+      </c>
+      <c r="CK77" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CL77" s="13">
+        <v>0.27330453800004301</v>
+      </c>
+      <c r="CM77" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN77" s="1">
+        <v>-0.1885</v>
+      </c>
+      <c r="CO77">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -18161,8 +20178,33 @@
       <c r="CE78" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH78" s="11">
+        <v>43007</v>
+      </c>
+      <c r="CI78" s="12">
+        <v>0.67696759259259265</v>
+      </c>
+      <c r="CJ78" s="11">
+        <v>43010</v>
+      </c>
+      <c r="CK78" s="12">
+        <v>0.75057870370370372</v>
+      </c>
+      <c r="CL78" s="13">
+        <v>-2.3233284000048999E-2</v>
+      </c>
+      <c r="CM78" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN78">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="CO78">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -18325,8 +20367,33 @@
       <c r="CE79" s="1">
         <v>-0.3075</v>
       </c>
-    </row>
-    <row r="80" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH79" s="11">
+        <v>43010</v>
+      </c>
+      <c r="CI79" s="12">
+        <v>0.89224537037037033</v>
+      </c>
+      <c r="CJ79" s="11">
+        <v>43014</v>
+      </c>
+      <c r="CK79" s="12">
+        <v>0.20891203703703706</v>
+      </c>
+      <c r="CL79" s="13">
+        <v>-0.31791976599997102</v>
+      </c>
+      <c r="CM79" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN79">
+        <v>1.556</v>
+      </c>
+      <c r="CO79">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -18489,8 +20556,33 @@
       <c r="CE80">
         <v>0.82250000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH80" s="11">
+        <v>43014</v>
+      </c>
+      <c r="CI80" s="12">
+        <v>0.99293981481481486</v>
+      </c>
+      <c r="CJ80" s="11">
+        <v>43019</v>
+      </c>
+      <c r="CK80" s="12">
+        <v>0.43391203703703707</v>
+      </c>
+      <c r="CL80" s="13">
+        <v>-0.37847254599991598</v>
+      </c>
+      <c r="CM80" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN80" s="6">
+        <v>-1.0325</v>
+      </c>
+      <c r="CO80">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -18653,8 +20745,33 @@
       <c r="CE81">
         <v>0.74750000000000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH81" s="11">
+        <v>43019</v>
+      </c>
+      <c r="CI81" s="12">
+        <v>0.43738425925925922</v>
+      </c>
+      <c r="CJ81" s="11">
+        <v>43024</v>
+      </c>
+      <c r="CK81" s="12">
+        <v>0.61099537037037044</v>
+      </c>
+      <c r="CL81" s="13">
+        <v>0.102575471999809</v>
+      </c>
+      <c r="CM81" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN81">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="CO81">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -18817,8 +20934,33 @@
       <c r="CE82" s="1">
         <v>-0.16350000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH82" s="11">
+        <v>43024</v>
+      </c>
+      <c r="CI82" s="12">
+        <v>0.61446759259259254</v>
+      </c>
+      <c r="CJ82" s="11">
+        <v>43039</v>
+      </c>
+      <c r="CK82" s="12">
+        <v>0.91655092592592602</v>
+      </c>
+      <c r="CL82" s="13">
+        <v>-3.1502901999918898E-2</v>
+      </c>
+      <c r="CM82" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN82" s="6">
+        <v>-1.49</v>
+      </c>
+      <c r="CO82">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -18981,8 +21123,33 @@
       <c r="CE83" s="1">
         <v>-0.23649999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH83" s="11">
+        <v>43039</v>
+      </c>
+      <c r="CI83" s="12">
+        <v>0.92002314814814812</v>
+      </c>
+      <c r="CJ83" s="11">
+        <v>43040</v>
+      </c>
+      <c r="CK83" s="12">
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="CL83" s="13">
+        <v>0.112554489000151</v>
+      </c>
+      <c r="CM83" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN83">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="CO83">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -19145,8 +21312,37 @@
       <c r="CE84" s="1">
         <v>-0.27750000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH84" s="11">
+        <v>43041</v>
+      </c>
+      <c r="CI84" s="12">
+        <v>0.36099537037037038</v>
+      </c>
+      <c r="CJ84" s="11">
+        <v>43041</v>
+      </c>
+      <c r="CK84" s="12">
+        <v>0.8818287037037037</v>
+      </c>
+      <c r="CL84" s="13">
+        <v>0.15211411199986699</v>
+      </c>
+      <c r="CM84" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN84" s="6">
+        <v>-1.4095</v>
+      </c>
+      <c r="CO84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP84" s="12">
+        <f>CK84-CI84</f>
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -19309,8 +21505,33 @@
       <c r="CE85" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH85" s="11">
+        <v>43041</v>
+      </c>
+      <c r="CI85" s="12">
+        <v>0.88530092592592602</v>
+      </c>
+      <c r="CJ85" s="11">
+        <v>43042</v>
+      </c>
+      <c r="CK85" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL85" s="13">
+        <v>-6.9402653000025794E-2</v>
+      </c>
+      <c r="CM85" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN85">
+        <v>1.0155000000000001</v>
+      </c>
+      <c r="CO85">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -19473,8 +21694,33 @@
       <c r="CE86">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH86" s="11">
+        <v>43045</v>
+      </c>
+      <c r="CI86" s="12">
+        <v>0.34363425925925922</v>
+      </c>
+      <c r="CJ86" s="11">
+        <v>43046</v>
+      </c>
+      <c r="CK86" s="12">
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="CL86" s="13">
+        <v>5.1260613999994598E-2</v>
+      </c>
+      <c r="CM86" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN86">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="CO86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -19637,8 +21883,33 @@
       <c r="CE87" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH87" s="11">
+        <v>43047</v>
+      </c>
+      <c r="CI87" s="12">
+        <v>0.70127314814814812</v>
+      </c>
+      <c r="CJ87" s="11">
+        <v>43048</v>
+      </c>
+      <c r="CK87" s="12">
+        <v>0.79224537037037035</v>
+      </c>
+      <c r="CL87" s="13">
+        <v>-1.18817950001763E-2</v>
+      </c>
+      <c r="CM87" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN87">
+        <v>1.052</v>
+      </c>
+      <c r="CO87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -19801,8 +22072,33 @@
       <c r="CE88" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH88" s="11">
+        <v>43049</v>
+      </c>
+      <c r="CI88" s="12">
+        <v>0.67696759259259265</v>
+      </c>
+      <c r="CJ88" s="11">
+        <v>43054</v>
+      </c>
+      <c r="CK88" s="12">
+        <v>3.8078703703703705E-2</v>
+      </c>
+      <c r="CL88" s="13">
+        <v>-0.119067161999941</v>
+      </c>
+      <c r="CM88" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN88">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="CO88">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -19965,8 +22261,37 @@
       <c r="CE89" s="1">
         <v>-0.33450000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH89" s="11">
+        <v>43054</v>
+      </c>
+      <c r="CI89" s="12">
+        <v>4.1550925925925929E-2</v>
+      </c>
+      <c r="CJ89" s="11">
+        <v>43054</v>
+      </c>
+      <c r="CK89" s="12">
+        <v>0.78460648148148149</v>
+      </c>
+      <c r="CL89" s="13">
+        <v>0.15177185099995</v>
+      </c>
+      <c r="CM89" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN89" s="1">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="CO89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP89" s="12">
+        <f>CK89-CI89</f>
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -20129,8 +22454,33 @@
       <c r="CE90" s="1">
         <v>-0.313</v>
       </c>
-    </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH90" s="11">
+        <v>43054</v>
+      </c>
+      <c r="CI90" s="12">
+        <v>0.7880787037037037</v>
+      </c>
+      <c r="CJ90" s="11">
+        <v>43055</v>
+      </c>
+      <c r="CK90" s="12">
+        <v>0.78113425925925928</v>
+      </c>
+      <c r="CL90" s="13">
+        <v>-9.7577156000053095E-2</v>
+      </c>
+      <c r="CM90" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN90" s="1">
+        <v>-0.95450000000000002</v>
+      </c>
+      <c r="CO90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -20293,8 +22643,33 @@
       <c r="CE91" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH91" s="11">
+        <v>43055</v>
+      </c>
+      <c r="CI91" s="12">
+        <v>0.78460648148148149</v>
+      </c>
+      <c r="CJ91" s="11">
+        <v>43056</v>
+      </c>
+      <c r="CK91" s="12">
+        <v>0.95474537037037033</v>
+      </c>
+      <c r="CL91" s="13">
+        <v>6.3422271999987095E-2</v>
+      </c>
+      <c r="CM91" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN91" s="1">
+        <v>-0.8095</v>
+      </c>
+      <c r="CO91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -20457,8 +22832,33 @@
       <c r="CE92">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH92" s="11">
+        <v>43056</v>
+      </c>
+      <c r="CI92" s="12">
+        <v>0.95821759259259265</v>
+      </c>
+      <c r="CJ92" s="11">
+        <v>43060</v>
+      </c>
+      <c r="CK92" s="12">
+        <v>0.89571759259259265</v>
+      </c>
+      <c r="CL92" s="13">
+        <v>-2.36307300000386E-2</v>
+      </c>
+      <c r="CM92" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN92" s="1">
+        <v>-0.79500000000000004</v>
+      </c>
+      <c r="CO92">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -20621,8 +23021,33 @@
       <c r="CE93" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH93" s="11">
+        <v>43060</v>
+      </c>
+      <c r="CI93" s="12">
+        <v>0.89918981481481486</v>
+      </c>
+      <c r="CJ93" s="11">
+        <v>43061</v>
+      </c>
+      <c r="CK93" s="12">
+        <v>0.56238425925925928</v>
+      </c>
+      <c r="CL93" s="13">
+        <v>0.32859255900006201</v>
+      </c>
+      <c r="CM93" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN93" s="1">
+        <v>-0.38250000000000001</v>
+      </c>
+      <c r="CO93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -20785,8 +23210,33 @@
       <c r="CE94" s="1">
         <v>-0.30449999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH94" s="11">
+        <v>43061</v>
+      </c>
+      <c r="CI94" s="12">
+        <v>0.56585648148148149</v>
+      </c>
+      <c r="CJ94" s="11">
+        <v>43062</v>
+      </c>
+      <c r="CK94" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL94" s="13">
+        <v>-9.9835590000015198E-2</v>
+      </c>
+      <c r="CM94" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN94">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="CO94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -20949,8 +23399,33 @@
       <c r="CE95" s="1">
         <v>-0.308</v>
       </c>
-    </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH95" s="11">
+        <v>43062</v>
+      </c>
+      <c r="CI95" s="12">
+        <v>0.68391203703703696</v>
+      </c>
+      <c r="CJ95" s="11">
+        <v>43063</v>
+      </c>
+      <c r="CK95" s="12">
+        <v>0.97210648148148149</v>
+      </c>
+      <c r="CL95" s="13">
+        <v>-0.16906368999999499</v>
+      </c>
+      <c r="CM95" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN95" s="1">
+        <v>-0.67449999999999999</v>
+      </c>
+      <c r="CO95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -21113,8 +23588,33 @@
       <c r="CE96" s="1">
         <v>-0.17150000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH96" s="11">
+        <v>43063</v>
+      </c>
+      <c r="CI96" s="12">
+        <v>0.9755787037037037</v>
+      </c>
+      <c r="CJ96" s="11">
+        <v>43067</v>
+      </c>
+      <c r="CK96" s="12">
+        <v>0.9130787037037037</v>
+      </c>
+      <c r="CL96" s="13">
+        <v>0.12678918499988601</v>
+      </c>
+      <c r="CM96" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN96" s="1">
+        <v>-0.94199999999999995</v>
+      </c>
+      <c r="CO96">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -21277,8 +23777,33 @@
       <c r="CE97">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH97" s="11">
+        <v>43067</v>
+      </c>
+      <c r="CI97" s="12">
+        <v>0.91655092592592602</v>
+      </c>
+      <c r="CJ97" s="11">
+        <v>43069</v>
+      </c>
+      <c r="CK97" s="12">
+        <v>0.44560185185185186</v>
+      </c>
+      <c r="CL97" s="13">
+        <v>-9.7812899000156106E-2</v>
+      </c>
+      <c r="CM97" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN97" s="6">
+        <v>-3.0365000000000002</v>
+      </c>
+      <c r="CO97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -21441,8 +23966,33 @@
       <c r="CE98" s="1">
         <v>-0.46450000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH98" s="11">
+        <v>43075</v>
+      </c>
+      <c r="CI98" s="12">
+        <v>0.33321759259259259</v>
+      </c>
+      <c r="CJ98" s="11">
+        <v>43076</v>
+      </c>
+      <c r="CK98" s="12">
+        <v>0.12557870370370369</v>
+      </c>
+      <c r="CL98" s="13">
+        <v>-0.27153859099993299</v>
+      </c>
+      <c r="CM98" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN98">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="CO98">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -21605,8 +24155,33 @@
       <c r="CE99" s="1">
         <v>-0.67049999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH99" s="11">
+        <v>43076</v>
+      </c>
+      <c r="CI99" s="12">
+        <v>0.54155092592592591</v>
+      </c>
+      <c r="CJ99" s="11">
+        <v>43077</v>
+      </c>
+      <c r="CK99" s="12">
+        <v>3.3564814814814811E-3</v>
+      </c>
+      <c r="CL99" s="13">
+        <v>-0.32632807599983998</v>
+      </c>
+      <c r="CM99" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN99" s="1">
+        <v>-0.72450000000000003</v>
+      </c>
+      <c r="CO99">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -21769,8 +24344,37 @@
       <c r="CE100" s="1">
         <v>-0.2495</v>
       </c>
-    </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH100" s="11">
+        <v>43077</v>
+      </c>
+      <c r="CI100" s="12">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="CJ100" s="11">
+        <v>43077</v>
+      </c>
+      <c r="CK100" s="12">
+        <v>0.66724537037037035</v>
+      </c>
+      <c r="CL100" s="13">
+        <v>0.17867346299995099</v>
+      </c>
+      <c r="CM100" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN100">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="CO100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP100" s="12">
+        <f>CK100-CI100</f>
+        <v>0.66041666666666665</v>
+      </c>
+    </row>
+    <row r="101" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -21933,8 +24537,33 @@
       <c r="CE101">
         <v>0.76700000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH101" s="11">
+        <v>43081</v>
+      </c>
+      <c r="CI101" s="12">
+        <v>0.66655092592592591</v>
+      </c>
+      <c r="CJ101" s="11">
+        <v>43084</v>
+      </c>
+      <c r="CK101" s="12">
+        <v>0.83391203703703709</v>
+      </c>
+      <c r="CL101" s="13">
+        <v>-0.25337462700014501</v>
+      </c>
+      <c r="CM101" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN101">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="CO101">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -22097,8 +24726,33 @@
       <c r="CE102">
         <v>0.92300000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH102" s="11">
+        <v>43084</v>
+      </c>
+      <c r="CI102" s="12">
+        <v>0.88530092592592602</v>
+      </c>
+      <c r="CJ102" s="11">
+        <v>43088</v>
+      </c>
+      <c r="CK102" s="12">
+        <v>0.54155092592592591</v>
+      </c>
+      <c r="CL102" s="13">
+        <v>-0.26731282300007903</v>
+      </c>
+      <c r="CM102" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN102" s="1">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="CO102">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -22261,8 +24915,33 @@
       <c r="CE103">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH103" s="11">
+        <v>43088</v>
+      </c>
+      <c r="CI103" s="12">
+        <v>0.54502314814814812</v>
+      </c>
+      <c r="CJ103" s="11">
+        <v>43089</v>
+      </c>
+      <c r="CK103" s="12">
+        <v>0.70891203703703709</v>
+      </c>
+      <c r="CL103" s="13">
+        <v>0.19192046099993601</v>
+      </c>
+      <c r="CM103" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN103">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="CO103">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -22425,8 +25104,33 @@
       <c r="CE104" s="1">
         <v>-0.20599999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH104" s="11">
+        <v>43090</v>
+      </c>
+      <c r="CI104" s="12">
+        <v>0.48946759259259259</v>
+      </c>
+      <c r="CJ104" s="11">
+        <v>43102</v>
+      </c>
+      <c r="CK104" s="12">
+        <v>0.37557870370370372</v>
+      </c>
+      <c r="CL104" s="13">
+        <v>0.125552208000108</v>
+      </c>
+      <c r="CM104" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN104">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="CO104">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -22589,8 +25293,33 @@
       <c r="CE105" s="1">
         <v>-0.33400000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH105" s="11">
+        <v>43102</v>
+      </c>
+      <c r="CI105" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CJ105" s="11">
+        <v>43103</v>
+      </c>
+      <c r="CK105" s="12">
+        <v>0.98946759259259265</v>
+      </c>
+      <c r="CL105" s="13">
+        <v>0.22818050499997999</v>
+      </c>
+      <c r="CM105" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN105" s="1">
+        <v>-0.46850000000000003</v>
+      </c>
+      <c r="CO105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -22753,8 +25482,33 @@
       <c r="CE106" s="1">
         <v>-0.2195</v>
       </c>
-    </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH106" s="11">
+        <v>43103</v>
+      </c>
+      <c r="CI106" s="12">
+        <v>0.99293981481481486</v>
+      </c>
+      <c r="CJ106" s="11">
+        <v>43105</v>
+      </c>
+      <c r="CK106" s="12">
+        <v>0.34016203703703707</v>
+      </c>
+      <c r="CL106" s="13">
+        <v>-3.2723808000031197E-2</v>
+      </c>
+      <c r="CM106" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN106" s="1">
+        <v>-0.98350000000000004</v>
+      </c>
+      <c r="CO106">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -22917,8 +25671,37 @@
       <c r="CE107" s="1">
         <v>-0.22500000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH107" s="11">
+        <v>43105</v>
+      </c>
+      <c r="CI107" s="12">
+        <v>0.34363425925925922</v>
+      </c>
+      <c r="CJ107" s="11">
+        <v>43105</v>
+      </c>
+      <c r="CK107" s="12">
+        <v>0.95891203703703709</v>
+      </c>
+      <c r="CL107" s="13">
+        <v>0.32977269299995099</v>
+      </c>
+      <c r="CM107" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN107">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="CO107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP107" s="12">
+        <f t="shared" ref="CP107:CP108" si="3">CK107-CI107</f>
+        <v>0.61527777777777781</v>
+      </c>
+    </row>
+    <row r="108" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -23081,8 +25864,37 @@
       <c r="CE108" s="1">
         <v>-0.32800000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH108" s="11">
+        <v>43108</v>
+      </c>
+      <c r="CI108" s="12">
+        <v>0.34016203703703707</v>
+      </c>
+      <c r="CJ108" s="11">
+        <v>43108</v>
+      </c>
+      <c r="CK108" s="12">
+        <v>0.93738425925925928</v>
+      </c>
+      <c r="CL108" s="13">
+        <v>0.23872338700005299</v>
+      </c>
+      <c r="CM108" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN108" s="1">
+        <v>-0.65249999999999997</v>
+      </c>
+      <c r="CO108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP108" s="12">
+        <f t="shared" si="3"/>
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -23245,8 +26057,33 @@
       <c r="CE109">
         <v>0.77649999999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH109" s="11">
+        <v>43108</v>
+      </c>
+      <c r="CI109" s="12">
+        <v>0.94085648148148149</v>
+      </c>
+      <c r="CJ109" s="11">
+        <v>43110</v>
+      </c>
+      <c r="CK109" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL109" s="13">
+        <v>-5.8971280000047498E-2</v>
+      </c>
+      <c r="CM109" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN109">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="CO109">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -23409,8 +26246,33 @@
       <c r="CE110" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH110" s="11">
+        <v>43110</v>
+      </c>
+      <c r="CI110" s="12">
+        <v>0.65613425925925928</v>
+      </c>
+      <c r="CJ110" s="11">
+        <v>43111</v>
+      </c>
+      <c r="CK110" s="12">
+        <v>8.3912037037037035E-2</v>
+      </c>
+      <c r="CL110" s="13">
+        <v>-0.52872154199979904</v>
+      </c>
+      <c r="CM110" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN110">
+        <v>0.872</v>
+      </c>
+      <c r="CO110">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -23573,8 +26435,33 @@
       <c r="CE111" s="1">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH111" s="11">
+        <v>43111</v>
+      </c>
+      <c r="CI111" s="12">
+        <v>0.87141203703703696</v>
+      </c>
+      <c r="CJ111" s="11">
+        <v>43112</v>
+      </c>
+      <c r="CK111" s="12">
+        <v>0.74988425925925928</v>
+      </c>
+      <c r="CL111" s="13">
+        <v>-0.45718735100004099</v>
+      </c>
+      <c r="CM111" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN111" s="1">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="CO111">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -23737,8 +26624,33 @@
       <c r="CE112">
         <v>1.5235000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH112" s="11">
+        <v>43112</v>
+      </c>
+      <c r="CI112" s="12">
+        <v>0.75335648148148149</v>
+      </c>
+      <c r="CJ112" s="11">
+        <v>43115</v>
+      </c>
+      <c r="CK112" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL112" s="13">
+        <v>8.4129019998073207E-3</v>
+      </c>
+      <c r="CM112" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN112">
+        <v>1.157</v>
+      </c>
+      <c r="CO112">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -23901,8 +26813,33 @@
       <c r="CE113" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH113" s="11">
+        <v>43116</v>
+      </c>
+      <c r="CI113" s="12">
+        <v>0.37488425925925922</v>
+      </c>
+      <c r="CJ113" s="11">
+        <v>43117</v>
+      </c>
+      <c r="CK113" s="12">
+        <v>0.91655092592592602</v>
+      </c>
+      <c r="CL113" s="13">
+        <v>5.92470169999725E-2</v>
+      </c>
+      <c r="CM113" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN113">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="CO113">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -24065,8 +27002,33 @@
       <c r="CE114" s="1">
         <v>-0.30099999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH114" s="11">
+        <v>43117</v>
+      </c>
+      <c r="CI114" s="12">
+        <v>0.92002314814814812</v>
+      </c>
+      <c r="CJ114" s="11">
+        <v>43118</v>
+      </c>
+      <c r="CK114" s="12">
+        <v>4.1550925925925929E-2</v>
+      </c>
+      <c r="CL114" s="13">
+        <v>-1.4905134000063601E-2</v>
+      </c>
+      <c r="CM114" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN114" s="1">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="CO114">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -24229,8 +27191,37 @@
       <c r="CE115" s="1">
         <v>-0.15049999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH115" s="11">
+        <v>43118</v>
+      </c>
+      <c r="CI115" s="12">
+        <v>4.5023148148148145E-2</v>
+      </c>
+      <c r="CJ115" s="11">
+        <v>43118</v>
+      </c>
+      <c r="CK115" s="12">
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="CL115" s="13">
+        <v>0.135099006999922</v>
+      </c>
+      <c r="CM115" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN115">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="CO115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP115" s="12">
+        <f>CK115-CI115</f>
+        <v>0.49722222222222223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -24393,8 +27384,33 @@
       <c r="CE116" s="1">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH116" s="11">
+        <v>43125</v>
+      </c>
+      <c r="CI116" s="12">
+        <v>3.4606481481481481E-2</v>
+      </c>
+      <c r="CJ116" s="11">
+        <v>43126</v>
+      </c>
+      <c r="CK116" s="12">
+        <v>0.9755787037037037</v>
+      </c>
+      <c r="CL116" s="13">
+        <v>0.129430412000099</v>
+      </c>
+      <c r="CM116" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN116" s="1">
+        <v>-0.51100000000000001</v>
+      </c>
+      <c r="CO116">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -24557,8 +27573,33 @@
       <c r="CE117" s="1">
         <v>-0.307</v>
       </c>
-    </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH117" s="11">
+        <v>43126</v>
+      </c>
+      <c r="CI117" s="12">
+        <v>0.97905092592592602</v>
+      </c>
+      <c r="CJ117" s="11">
+        <v>43129</v>
+      </c>
+      <c r="CK117" s="12">
+        <v>0.62557870370370372</v>
+      </c>
+      <c r="CL117" s="13">
+        <v>-1.3213870000068E-2</v>
+      </c>
+      <c r="CM117" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN117">
+        <v>1.1955</v>
+      </c>
+      <c r="CO117">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -24721,8 +27762,33 @@
       <c r="CE118" s="1">
         <v>-0.30549999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH118" s="11">
+        <v>43130</v>
+      </c>
+      <c r="CI118" s="12">
+        <v>0.39224537037037038</v>
+      </c>
+      <c r="CJ118" s="11">
+        <v>43132</v>
+      </c>
+      <c r="CK118" s="12">
+        <v>2.4189814814814817E-2</v>
+      </c>
+      <c r="CL118" s="13">
+        <v>-0.177141865999836</v>
+      </c>
+      <c r="CM118" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN118" s="6">
+        <v>-1.427</v>
+      </c>
+      <c r="CO118">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -24885,8 +27951,37 @@
       <c r="CE119">
         <v>0.97799999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH119" s="11">
+        <v>43132</v>
+      </c>
+      <c r="CI119" s="12">
+        <v>2.7662037037037041E-2</v>
+      </c>
+      <c r="CJ119" s="11">
+        <v>43132</v>
+      </c>
+      <c r="CK119" s="12">
+        <v>0.70891203703703709</v>
+      </c>
+      <c r="CL119" s="13">
+        <v>0.49275670099986502</v>
+      </c>
+      <c r="CM119" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN119">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="CO119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP119" s="12">
+        <f t="shared" ref="CP119:CP120" si="4">CK119-CI119</f>
+        <v>0.68125000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -25049,8 +28144,37 @@
       <c r="CE120" s="1">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH120" s="11">
+        <v>43136</v>
+      </c>
+      <c r="CI120" s="12">
+        <v>0.34016203703703707</v>
+      </c>
+      <c r="CJ120" s="11">
+        <v>43136</v>
+      </c>
+      <c r="CK120" s="12">
+        <v>0.87557870370370372</v>
+      </c>
+      <c r="CL120" s="13">
+        <v>-9.9855014999915406E-2</v>
+      </c>
+      <c r="CM120" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN120">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="CO120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP120" s="12">
+        <f t="shared" si="4"/>
+        <v>0.53541666666666665</v>
+      </c>
+    </row>
+    <row r="121" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -25213,8 +28337,33 @@
       <c r="CE121">
         <v>1.1665000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH121" s="11">
+        <v>43139</v>
+      </c>
+      <c r="CI121" s="12">
+        <v>0.71168981481481486</v>
+      </c>
+      <c r="CJ121" s="11">
+        <v>43140</v>
+      </c>
+      <c r="CK121" s="12">
+        <v>0.87557870370370372</v>
+      </c>
+      <c r="CL121" s="13">
+        <v>-0.14879546099993601</v>
+      </c>
+      <c r="CM121" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN121">
+        <v>1.2685</v>
+      </c>
+      <c r="CO121">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -25377,8 +28526,37 @@
       <c r="CE122">
         <v>0.72699999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH122" s="11">
+        <v>43144</v>
+      </c>
+      <c r="CI122" s="12">
+        <v>0.34363425925925922</v>
+      </c>
+      <c r="CJ122" s="11">
+        <v>43144</v>
+      </c>
+      <c r="CK122" s="12">
+        <v>0.67349537037037033</v>
+      </c>
+      <c r="CL122" s="13">
+        <v>0.226257152999846</v>
+      </c>
+      <c r="CM122" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN122" s="1">
+        <v>-0.871</v>
+      </c>
+      <c r="CO122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP122" s="12">
+        <f>CK122-CI122</f>
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -25541,8 +28719,33 @@
       <c r="CE123">
         <v>1.052</v>
       </c>
-    </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH123" s="11">
+        <v>43144</v>
+      </c>
+      <c r="CI123" s="12">
+        <v>0.67696759259259265</v>
+      </c>
+      <c r="CJ123" s="11">
+        <v>43145</v>
+      </c>
+      <c r="CK123" s="12">
+        <v>0.54224537037037035</v>
+      </c>
+      <c r="CL123" s="13">
+        <v>-6.7119260000065906E-2</v>
+      </c>
+      <c r="CM123" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN123">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="CO123">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -25705,8 +28908,33 @@
       <c r="CE124" s="1">
         <v>-0.33750000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH124" s="11">
+        <v>43145</v>
+      </c>
+      <c r="CI124" s="12">
+        <v>0.9443287037037037</v>
+      </c>
+      <c r="CJ124" s="11">
+        <v>43147</v>
+      </c>
+      <c r="CK124" s="12">
+        <v>0.40266203703703707</v>
+      </c>
+      <c r="CL124" s="13">
+        <v>-0.26500374900006501</v>
+      </c>
+      <c r="CM124" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN124" s="6">
+        <v>-1.4844999999999999</v>
+      </c>
+      <c r="CO124">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -25869,8 +29097,33 @@
       <c r="CE125" s="1">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH125" s="11">
+        <v>43147</v>
+      </c>
+      <c r="CI125" s="12">
+        <v>0.40613425925925922</v>
+      </c>
+      <c r="CJ125" s="11">
+        <v>43150</v>
+      </c>
+      <c r="CK125" s="12">
+        <v>0.88877314814814812</v>
+      </c>
+      <c r="CL125" s="13">
+        <v>2.0684757999896199E-2</v>
+      </c>
+      <c r="CM125" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN125" s="1">
+        <v>-0.51</v>
+      </c>
+      <c r="CO125">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -26033,8 +29286,33 @@
       <c r="CE126" s="1">
         <v>-0.32200000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH126" s="11">
+        <v>43150</v>
+      </c>
+      <c r="CI126" s="12">
+        <v>0.89224537037037033</v>
+      </c>
+      <c r="CJ126" s="11">
+        <v>43151</v>
+      </c>
+      <c r="CK126" s="12">
+        <v>0.37488425925925922</v>
+      </c>
+      <c r="CL126" s="13">
+        <v>-4.3578815999984997E-2</v>
+      </c>
+      <c r="CM126" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN126" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="CO126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -26197,8 +29475,33 @@
       <c r="CE127" s="1">
         <v>-0.32400000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH127" s="11">
+        <v>43151</v>
+      </c>
+      <c r="CI127" s="12">
+        <v>0.37835648148148149</v>
+      </c>
+      <c r="CJ127" s="11">
+        <v>43152</v>
+      </c>
+      <c r="CK127" s="12">
+        <v>0.25057870370370372</v>
+      </c>
+      <c r="CL127" s="13">
+        <v>7.43999260000172E-2</v>
+      </c>
+      <c r="CM127" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN127">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="CO127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -26361,8 +29664,33 @@
       <c r="CE128" s="1">
         <v>-0.23649999999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH128" s="11">
+        <v>43154</v>
+      </c>
+      <c r="CI128" s="12">
+        <v>0.71516203703703696</v>
+      </c>
+      <c r="CJ128" s="11">
+        <v>43155</v>
+      </c>
+      <c r="CK128" s="12">
+        <v>0.20821759259259257</v>
+      </c>
+      <c r="CL128" s="13">
+        <v>-5.6896169999932099E-2</v>
+      </c>
+      <c r="CM128" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN128" s="1">
+        <v>-0.128</v>
+      </c>
+      <c r="CO128">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -26525,8 +29853,33 @@
       <c r="CE129" s="1">
         <v>-0.30149999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH129" s="11">
+        <v>43155</v>
+      </c>
+      <c r="CI129" s="12">
+        <v>0.21168981481481483</v>
+      </c>
+      <c r="CJ129" s="11">
+        <v>43157</v>
+      </c>
+      <c r="CK129" s="12">
+        <v>0.29224537037037041</v>
+      </c>
+      <c r="CL129" s="13">
+        <v>4.4781324999978299E-2</v>
+      </c>
+      <c r="CM129" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN129">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="CO129">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -26689,8 +30042,33 @@
       <c r="CE130" s="1">
         <v>-0.22500000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH130" s="11">
+        <v>43157</v>
+      </c>
+      <c r="CI130" s="12">
+        <v>0.58668981481481486</v>
+      </c>
+      <c r="CJ130" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CK130" s="12">
+        <v>0.22210648148148149</v>
+      </c>
+      <c r="CL130" s="13">
+        <v>7.1069686000058294E-2</v>
+      </c>
+      <c r="CM130" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN130" s="1">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="CO130">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -26853,8 +30231,37 @@
       <c r="CE131" s="1">
         <v>-0.32350000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH131" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CI131" s="12">
+        <v>0.2255787037037037</v>
+      </c>
+      <c r="CJ131" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CK131" s="12">
+        <v>0.35057870370370375</v>
+      </c>
+      <c r="CL131" s="13">
+        <v>-3.1775856999945798E-2</v>
+      </c>
+      <c r="CM131" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN131" s="1">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="CO131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP131" s="12">
+        <f t="shared" ref="CP131:CP132" si="5">CK131-CI131</f>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -27017,8 +30424,37 @@
       <c r="CE132" s="1">
         <v>-0.30299999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH132" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CI132" s="12">
+        <v>0.35405092592592591</v>
+      </c>
+      <c r="CJ132" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CK132" s="12">
+        <v>0.6318287037037037</v>
+      </c>
+      <c r="CL132" s="13">
+        <v>3.8141790999996802E-2</v>
+      </c>
+      <c r="CM132" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN132" s="1">
+        <v>-0.64349999999999996</v>
+      </c>
+      <c r="CO132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP132" s="12">
+        <f t="shared" si="5"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -27181,8 +30617,33 @@
       <c r="CE133">
         <v>0.73699999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH133" s="11">
+        <v>43159</v>
+      </c>
+      <c r="CI133" s="12">
+        <v>0.63530092592592591</v>
+      </c>
+      <c r="CJ133" s="11">
+        <v>43160</v>
+      </c>
+      <c r="CK133" s="12">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="CL133" s="13">
+        <v>-0.13766647799996601</v>
+      </c>
+      <c r="CM133" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN133">
+        <v>1.9524999999999999</v>
+      </c>
+      <c r="CO133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -27345,8 +30806,33 @@
       <c r="CE134" s="1">
         <v>-0.30049999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH134" s="11">
+        <v>43161</v>
+      </c>
+      <c r="CI134" s="12">
+        <v>0.32974537037037038</v>
+      </c>
+      <c r="CJ134" s="11">
+        <v>43162</v>
+      </c>
+      <c r="CK134" s="12">
+        <v>8.3912037037037035E-2</v>
+      </c>
+      <c r="CL134" s="13">
+        <v>-0.37387316600008103</v>
+      </c>
+      <c r="CM134" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN134">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="CO134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -27509,8 +30995,37 @@
       <c r="CE135" s="1">
         <v>-0.30349999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH135" s="11">
+        <v>43164</v>
+      </c>
+      <c r="CI135" s="12">
+        <v>0.67696759259259265</v>
+      </c>
+      <c r="CJ135" s="11">
+        <v>43164</v>
+      </c>
+      <c r="CK135" s="12">
+        <v>0.98599537037037033</v>
+      </c>
+      <c r="CL135" s="13">
+        <v>-0.25069322499997998</v>
+      </c>
+      <c r="CM135" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN135" s="1">
+        <v>-0.878</v>
+      </c>
+      <c r="CO135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP135" s="12">
+        <f>CK135-CI135</f>
+        <v>0.30902777777777768</v>
+      </c>
+    </row>
+    <row r="136" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -27673,8 +31188,33 @@
       <c r="CE136" s="1">
         <v>-0.30049999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH136" s="11">
+        <v>43164</v>
+      </c>
+      <c r="CI136" s="12">
+        <v>0.98946759259259265</v>
+      </c>
+      <c r="CJ136" s="11">
+        <v>43165</v>
+      </c>
+      <c r="CK136" s="12">
+        <v>0.62557870370370372</v>
+      </c>
+      <c r="CL136" s="13">
+        <v>7.4583244000115803E-2</v>
+      </c>
+      <c r="CM136" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN136">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="CO136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -27837,8 +31377,33 @@
       <c r="CE137">
         <v>0.96950000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH137" s="11">
+        <v>43171</v>
+      </c>
+      <c r="CI137" s="12">
+        <v>0.8818287037037037</v>
+      </c>
+      <c r="CJ137" s="11">
+        <v>43172</v>
+      </c>
+      <c r="CK137" s="12">
+        <v>0.34710648148148149</v>
+      </c>
+      <c r="CL137" s="13">
+        <v>0.132406886000112</v>
+      </c>
+      <c r="CM137" t="s">
+        <v>831</v>
+      </c>
+      <c r="CN137" s="1">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="CO137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -28001,8 +31566,33 @@
       <c r="CE138" s="1">
         <v>-0.1585</v>
       </c>
-    </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CH138" s="11">
+        <v>43172</v>
+      </c>
+      <c r="CI138" s="12">
+        <v>0.35057870370370375</v>
+      </c>
+      <c r="CJ138" s="11">
+        <v>43178</v>
+      </c>
+      <c r="CK138" s="12">
+        <v>0.58391203703703709</v>
+      </c>
+      <c r="CL138" s="13">
+        <v>-2.95650889999578E-2</v>
+      </c>
+      <c r="CM138" t="s">
+        <v>830</v>
+      </c>
+      <c r="CN138">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="CO138">
+        <f t="shared" ref="CO138" si="6">CJ138-CH138</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -28166,7 +31756,7 @@
         <v>1.6065</v>
       </c>
     </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -28330,7 +31920,7 @@
         <v>-0.222</v>
       </c>
     </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -28494,7 +32084,7 @@
         <v>-0.3115</v>
       </c>
     </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -28658,7 +32248,7 @@
         <v>-0.312</v>
       </c>
     </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -28822,7 +32412,7 @@
         <v>0.9345</v>
       </c>
     </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -72408,7 +75998,7 @@
       <c r="BF823"/>
     </row>
   </sheetData>
-  <autoFilter ref="CE1:CE823"/>
+  <autoFilter ref="CN1:CN823"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1634">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5382,6 +5382,37 @@
   </si>
   <si>
     <t>StopLossは3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレールのロジックを改修</t>
+    <rPh sb="10" eb="12">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→0.5を超えたところから、0.5でついていくように改修</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→1.0を超えたところから、0.3でついていくように改修</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify_entry_logic、StopLossは3.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5773,10 +5804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR823"/>
+  <dimension ref="A1:DB823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CN7" sqref="CN7"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CL5" sqref="CL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5843,7 +5874,7 @@
     <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -5865,8 +5896,11 @@
       <c r="CA1" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS1" s="11" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -5886,8 +5920,11 @@
       <c r="CA2" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -5908,8 +5945,11 @@
       <c r="CH3" s="11" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -5948,8 +5988,11 @@
       <c r="CH4" s="11" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS4" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6145,8 +6188,38 @@
       <c r="CQ5" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CS5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CW5" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>832</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6376,7 +6449,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6609,7 +6682,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6835,7 +6908,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7046,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7248,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="224.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:106" ht="224.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7450,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7834,7 +7907,7 @@
         <v>0.13541666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8024,7 +8097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8214,7 +8287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\master\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CN$1:$CN$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CY$1:$CY$823</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1644">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5413,6 +5413,184 @@
   </si>
   <si>
     <t>modify_entry_logic、StopLossは3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窓空けで負け。週またぎでのポジション保有はやはりだめかも</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日足で天井にぶつかっている。しょうがない感じはある。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い直後で急落。ファンダメンタル的な要素か。確かに天井にはぶつかっている</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウラク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い直後で急落。これもファンダメンタル要素っぽい</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウラク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★気づき</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やはり高値安値のコントロールは必要</t>
+    <rPh sb="3" eb="5">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急落で刈り取られることが多い。5分で0.5以上動いた場合はやばいやつ</t>
+    <rPh sb="0" eb="2">
+      <t>キュウラク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天井にぶつかって落ちている。Buy_countの一回目より、二回目のほうが上じゃないと駄目だな</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>イッカイメ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ダメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy_countの一回目より二回目のほうが価格が高くないと駄目</t>
+    <rPh sb="10" eb="12">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下がりそうには見えた。。。</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5481,7 +5659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5522,6 +5700,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5806,72 +5987,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CL5" sqref="CL5"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CW74" sqref="CW74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.90625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1796875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.90625" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="18.109375" customWidth="1"/>
-    <col min="65" max="65" width="15.88671875" customWidth="1"/>
-    <col min="66" max="70" width="8.88671875" customWidth="1"/>
-    <col min="71" max="71" width="16.77734375" customWidth="1"/>
-    <col min="72" max="72" width="19.21875" customWidth="1"/>
-    <col min="73" max="73" width="13.109375" customWidth="1"/>
-    <col min="74" max="78" width="8.88671875" customWidth="1"/>
-    <col min="79" max="79" width="24.6640625" customWidth="1"/>
-    <col min="80" max="80" width="18.6640625" customWidth="1"/>
-    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
-    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
-    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
-    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
-    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.77734375" customWidth="1"/>
-    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6328125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="18.08984375" customWidth="1"/>
+    <col min="65" max="65" width="15.90625" customWidth="1"/>
+    <col min="66" max="70" width="8.90625" customWidth="1"/>
+    <col min="71" max="71" width="16.81640625" customWidth="1"/>
+    <col min="72" max="72" width="19.1796875" customWidth="1"/>
+    <col min="73" max="73" width="13.08984375" customWidth="1"/>
+    <col min="74" max="78" width="8.90625" customWidth="1"/>
+    <col min="79" max="79" width="24.6328125" customWidth="1"/>
+    <col min="80" max="80" width="18.6328125" customWidth="1"/>
+    <col min="86" max="86" width="20.6328125" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6328125" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.90625" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.90625" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.81640625" customWidth="1"/>
+    <col min="95" max="95" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.7265625" customWidth="1"/>
+    <col min="99" max="99" width="19" customWidth="1"/>
+    <col min="101" max="101" width="12.08984375" customWidth="1"/>
+    <col min="103" max="103" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.2">
@@ -5899,6 +6085,9 @@
       <c r="CS1" s="11" t="s">
         <v>1633</v>
       </c>
+      <c r="CV1" t="s">
+        <v>1638</v>
+      </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
@@ -5922,6 +6111,9 @@
       </c>
       <c r="CS2" t="s">
         <v>1630</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.2">
@@ -5948,6 +6140,9 @@
       <c r="CS3" t="s">
         <v>1631</v>
       </c>
+      <c r="CW3" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5991,6 +6186,9 @@
       <c r="CS4" t="s">
         <v>1632</v>
       </c>
+      <c r="CW4" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6448,6 +6646,21 @@
       <c r="CQ6" t="s">
         <v>1622</v>
       </c>
+      <c r="CS6" s="5">
+        <v>42796.638773148145</v>
+      </c>
+      <c r="CU6" s="5">
+        <v>42800.37835648148</v>
+      </c>
+      <c r="CW6">
+        <v>2.4928100000130501E-2</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>-0.2485</v>
+      </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6681,6 +6894,21 @@
       <c r="CR7" t="s">
         <v>1625</v>
       </c>
+      <c r="CS7" s="5">
+        <v>42800.378368055557</v>
+      </c>
+      <c r="CU7" s="5">
+        <v>42801.940868055557</v>
+      </c>
+      <c r="CW7">
+        <v>-0.103645907000026</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY7">
+        <v>0.79549999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6907,8 +7135,23 @@
       <c r="CR8" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CS8" s="5">
+        <v>42802.520729166667</v>
+      </c>
+      <c r="CU8" s="5">
+        <v>42803.725590277776</v>
+      </c>
+      <c r="CW8">
+        <v>-0.141005828999927</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY8" s="1">
+        <v>-0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7118,6 +7361,21 @@
         <f>CJ9-CH9</f>
         <v>1</v>
       </c>
+      <c r="CS9" s="5">
+        <v>42803.725601851853</v>
+      </c>
+      <c r="CU9" s="5">
+        <v>42804.024212962962</v>
+      </c>
+      <c r="CW9">
+        <v>9.7902678999995996E-2</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY9">
+        <v>0.1125</v>
+      </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7320,8 +7578,23 @@
         <f t="shared" ref="CO10:CO73" si="0">CJ10-CH10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:106" ht="224.4" x14ac:dyDescent="0.2">
+      <c r="CS10" s="5">
+        <v>42804.131851851853</v>
+      </c>
+      <c r="CU10" s="5">
+        <v>42804.999907407408</v>
+      </c>
+      <c r="CW10">
+        <v>0.30047904300005501</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY10">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7522,8 +7795,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CS11" s="5">
+        <v>42809.774189814816</v>
+      </c>
+      <c r="CU11" s="5">
+        <v>42810.711689814816</v>
+      </c>
+      <c r="CW11">
+        <v>-2.4540550999876499E-2</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7712,8 +8000,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CS12" s="5">
+        <v>42814.874884259261</v>
+      </c>
+      <c r="CU12" s="5">
+        <v>42815.52071759259</v>
+      </c>
+      <c r="CW12">
+        <v>-6.8557761000133596E-2</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY12">
+        <v>0.3695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7906,8 +8209,23 @@
         <f>CK13-CI13</f>
         <v>0.13541666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CS13" s="5">
+        <v>42817.683912037035</v>
+      </c>
+      <c r="CU13" s="5">
+        <v>42817.95821759259</v>
+      </c>
+      <c r="CW13">
+        <v>-8.6176538000175398E-2</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY13" s="1">
+        <v>-7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8096,8 +8414,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CS14" s="5">
+        <v>42818.628368055557</v>
+      </c>
+      <c r="CU14" s="5">
+        <v>42818.767256944448</v>
+      </c>
+      <c r="CW14">
+        <v>3.6862377000217897E-2</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY14" s="1">
+        <v>-0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8286,6 +8619,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="CS15" s="5">
+        <v>42818.767268518517</v>
+      </c>
+      <c r="CU15" s="5">
+        <v>42821.742939814816</v>
+      </c>
+      <c r="CW15">
+        <v>-3.03457600000758E-2</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY15">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -8476,8 +8824,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS16" s="5">
+        <v>42822.360995370371</v>
+      </c>
+      <c r="CU16" s="5">
+        <v>42825.624884259261</v>
+      </c>
+      <c r="CW16">
+        <v>0.140297893000044</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY16">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8666,8 +9029,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS17" s="5">
+        <v>42826.246412037035</v>
+      </c>
+      <c r="CU17" s="5">
+        <v>42828.732523148145</v>
+      </c>
+      <c r="CW17">
+        <v>0.21958730099995999</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY17" s="1">
+        <v>-0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8860,8 +9238,23 @@
         <f>CK18-CI18</f>
         <v>0.35763888888888895</v>
       </c>
-    </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS18" s="5">
+        <v>42828.732534722221</v>
+      </c>
+      <c r="CU18" s="5">
+        <v>42829.763784722221</v>
+      </c>
+      <c r="CW18">
+        <v>-5.634751999998E-2</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY18">
+        <v>1.706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9050,8 +9443,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS19" s="5">
+        <v>42830.520729166667</v>
+      </c>
+      <c r="CU19" s="5">
+        <v>42830.878368055557</v>
+      </c>
+      <c r="CW19">
+        <v>-0.20651108499992901</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY19" s="1">
+        <v>-0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9240,8 +9648,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS20" s="5">
+        <v>42830.878379629627</v>
+      </c>
+      <c r="CU20" s="5">
+        <v>42832.430462962962</v>
+      </c>
+      <c r="CW20">
+        <v>0.26571941799986498</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY20" s="1">
+        <v>-0.8135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9430,8 +9853,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS21" s="5">
+        <v>42832.430474537039</v>
+      </c>
+      <c r="CU21" s="5">
+        <v>42833.093668981484</v>
+      </c>
+      <c r="CW21">
+        <v>-0.102829166</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -9620,8 +10058,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS22" s="5">
+        <v>42835.954745370371</v>
+      </c>
+      <c r="CU22" s="5">
+        <v>42836.663078703707</v>
+      </c>
+      <c r="CW22">
+        <v>5.6281622000011897E-2</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY22" s="1">
+        <v>-0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -9810,8 +10263,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS23" s="5">
+        <v>42836.663090277776</v>
+      </c>
+      <c r="CU23" s="5">
+        <v>42837.680451388886</v>
+      </c>
+      <c r="CW23">
+        <v>-0.10978670700000701</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY23">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -10004,8 +10472,23 @@
         <f>CK24-CI24</f>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS24" s="5">
+        <v>42837.815868055557</v>
+      </c>
+      <c r="CU24" s="5">
+        <v>42842.850578703707</v>
+      </c>
+      <c r="CW24">
+        <v>-0.160995931000047</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY24">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -10194,8 +10677,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS25" s="5">
+        <v>42843.180439814816</v>
+      </c>
+      <c r="CU25" s="5">
+        <v>42844.031134259261</v>
+      </c>
+      <c r="CW25">
+        <v>0.15272668599998901</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY25">
+        <v>1.5445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -10384,8 +10882,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS26" s="5">
+        <v>42845.69085648148</v>
+      </c>
+      <c r="CU26" s="5">
+        <v>42846.437384259261</v>
+      </c>
+      <c r="CW26">
+        <v>3.3408481999936103E-2</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY26">
+        <v>9.9999999999899995E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -10578,8 +11091,23 @@
         <f>CK27-CI27</f>
         <v>0.36180555555555555</v>
       </c>
-    </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS27" s="5">
+        <v>42846.610995370371</v>
+      </c>
+      <c r="CU27" s="5">
+        <v>42847.00335648148</v>
+      </c>
+      <c r="CW27">
+        <v>0.227232118999913</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY27" s="1">
+        <v>-0.59050000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -10768,8 +11296,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR28" s="5">
+        <v>42846.75277777778</v>
+      </c>
+      <c r="CS28" s="5">
+        <v>42847.003368055557</v>
+      </c>
+      <c r="CU28" s="5">
+        <v>42851.015740740739</v>
+      </c>
+      <c r="CW28">
+        <v>-0.120309100999901</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY28" s="6">
+        <v>-3.016</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -10958,8 +11507,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS29" s="5">
+        <v>42852.305451388886</v>
+      </c>
+      <c r="CU29" s="5">
+        <v>42853.006840277776</v>
+      </c>
+      <c r="CW29">
+        <v>0.18190791200006801</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY29">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -11148,8 +11712,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS30" s="5">
+        <v>42853.680451388886</v>
+      </c>
+      <c r="CU30" s="5">
+        <v>42853.975590277776</v>
+      </c>
+      <c r="CW30">
+        <v>0.17791887399992901</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY30">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -11338,8 +11917,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS31" s="5">
+        <v>42856.649189814816</v>
+      </c>
+      <c r="CU31" s="5">
+        <v>42858.635300925926</v>
+      </c>
+      <c r="CW31">
+        <v>0.25683067900005502</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY31">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -11528,8 +12122,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS32" s="5">
+        <v>42858.694328703707</v>
+      </c>
+      <c r="CU32" s="5">
+        <v>42860.107523148145</v>
+      </c>
+      <c r="CW32">
+        <v>0.158599899000085</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY32">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -11718,8 +12327,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS33" s="5">
+        <v>42860.39571759259</v>
+      </c>
+      <c r="CU33" s="5">
+        <v>42863.30196759259</v>
+      </c>
+      <c r="CW33">
+        <v>8.8641691000039199E-2</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY33">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -11908,8 +12532,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS34" s="5">
+        <v>42864.08321759259</v>
+      </c>
+      <c r="CU34" s="5">
+        <v>42864.767245370371</v>
+      </c>
+      <c r="CW34">
+        <v>0.23660168800016601</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY34">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -12098,8 +12737,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR35" s="5">
+        <v>42865.895833333336</v>
+      </c>
+      <c r="CS35" s="5">
+        <v>42866.107523148145</v>
+      </c>
+      <c r="CU35" s="5">
+        <v>42871.982523148145</v>
+      </c>
+      <c r="CW35">
+        <v>0.13924407299990499</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY35" s="6">
+        <v>-1.7809999999999999</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -12288,8 +12948,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS36" s="5">
+        <v>42871.982534722221</v>
+      </c>
+      <c r="CU36" s="5">
+        <v>42872.704756944448</v>
+      </c>
+      <c r="CW36">
+        <v>-0.13344375000002601</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY36">
+        <v>0.78549999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -12478,8 +13153,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS37" s="5">
+        <v>42874.548506944448</v>
+      </c>
+      <c r="CU37" s="5">
+        <v>42874.930451388886</v>
+      </c>
+      <c r="CW37">
+        <v>8.2166392999947699E-2</v>
+      </c>
+      <c r="CX37" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY37">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -12668,8 +13358,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS38" s="5">
+        <v>42877.795023148145</v>
+      </c>
+      <c r="CU38" s="5">
+        <v>42878.006828703707</v>
+      </c>
+      <c r="CW38">
+        <v>0.146337228000048</v>
+      </c>
+      <c r="CX38" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY38" s="1">
+        <v>-0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -12858,8 +13563,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS39" s="5">
+        <v>42878.006840277776</v>
+      </c>
+      <c r="CU39" s="5">
+        <v>42878.676979166667</v>
+      </c>
+      <c r="CW39">
+        <v>-1.76559279998947E-2</v>
+      </c>
+      <c r="CX39" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY39" s="1">
+        <v>-4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -13048,8 +13768,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS40" s="5">
+        <v>42878.808935185189</v>
+      </c>
+      <c r="CU40" s="5">
+        <v>42879.308935185189</v>
+      </c>
+      <c r="CW40">
+        <v>-0.225633928000151</v>
+      </c>
+      <c r="CX40" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY40" s="1">
+        <v>-0.82450000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -13238,8 +13973,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS41" s="5">
+        <v>42879.308946759258</v>
+      </c>
+      <c r="CU41" s="5">
+        <v>42881.177002314813</v>
+      </c>
+      <c r="CW41">
+        <v>0.114738466000002</v>
+      </c>
+      <c r="CX41" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY41" s="1">
+        <v>-0.4335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -13428,8 +14178,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS42" s="5">
+        <v>42881.17701388889</v>
+      </c>
+      <c r="CU42" s="5">
+        <v>42881.920069444444</v>
+      </c>
+      <c r="CW42">
+        <v>-6.7921105000091603E-2</v>
+      </c>
+      <c r="CX42" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY42">
+        <v>1.9690000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -13618,8 +14383,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS43" s="5">
+        <v>42884.94085648148</v>
+      </c>
+      <c r="CU43" s="5">
+        <v>42885.69085648148</v>
+      </c>
+      <c r="CW43">
+        <v>-0.13018078000014299</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY43">
+        <v>0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -13812,8 +14592,23 @@
         <f t="shared" ref="CP44:CP45" si="1">CK44-CI44</f>
         <v>0.65972222222222221</v>
       </c>
-    </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS44" s="5">
+        <v>42886.274189814816</v>
+      </c>
+      <c r="CU44" s="5">
+        <v>42887.586689814816</v>
+      </c>
+      <c r="CW44">
+        <v>-0.18364950300008401</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY44" s="1">
+        <v>-0.89549999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -14006,8 +14801,23 @@
         <f t="shared" si="1"/>
         <v>0.21180555555555547</v>
       </c>
-    </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS45" s="5">
+        <v>42887.586701388886</v>
+      </c>
+      <c r="CU45" s="5">
+        <v>42888.663090277776</v>
+      </c>
+      <c r="CW45">
+        <v>0.29373261399982298</v>
+      </c>
+      <c r="CX45" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY45">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -14196,8 +15006,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS46" s="5">
+        <v>42892.104050925926</v>
+      </c>
+      <c r="CU46" s="5">
+        <v>42892.697800925926</v>
+      </c>
+      <c r="CW46">
+        <v>-0.18497973700010001</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY46">
+        <v>0.81850000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -14386,8 +15211,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS47" s="5">
+        <v>42898.621412037035</v>
+      </c>
+      <c r="CU47" s="5">
+        <v>42902.621412037035</v>
+      </c>
+      <c r="CW47">
+        <v>0.106789036999988</v>
+      </c>
+      <c r="CX47" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY47">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -14576,8 +15416,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS48" s="5">
+        <v>42905.53460648148</v>
+      </c>
+      <c r="CU48" s="5">
+        <v>42906.010300925926</v>
+      </c>
+      <c r="CW48">
+        <v>0.107180926999973</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY48" s="1">
+        <v>-0.17549999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -14766,8 +15621,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS49" s="5">
+        <v>42906.010312500002</v>
+      </c>
+      <c r="CU49" s="5">
+        <v>42906.673506944448</v>
+      </c>
+      <c r="CW49">
+        <v>-1.3712597999937E-2</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY49" s="1">
+        <v>-0.77249999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -14956,8 +15826,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR50" s="14">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="CS50" s="5">
+        <v>42906.673518518517</v>
+      </c>
+      <c r="CU50" s="5">
+        <v>42906.888796296298</v>
+      </c>
+      <c r="CW50">
+        <v>0.16068794699994801</v>
+      </c>
+      <c r="CX50" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY50" s="6">
+        <v>-1.585</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -15146,8 +16037,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS51" s="5">
+        <v>42906.888807870368</v>
+      </c>
+      <c r="CU51" s="5">
+        <v>42907.819363425922</v>
+      </c>
+      <c r="CW51">
+        <v>-0.135122571000036</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY51">
+        <v>0.41549999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -15340,8 +16246,23 @@
         <f>CK52-CI52</f>
         <v>0.41736111111111118</v>
       </c>
-    </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS52" s="5">
+        <v>42909.392280092594</v>
+      </c>
+      <c r="CU52" s="5">
+        <v>42912.774189814816</v>
+      </c>
+      <c r="CW52">
+        <v>4.4706424000072902E-2</v>
+      </c>
+      <c r="CX52" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY52">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -15530,8 +16451,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS53" s="5">
+        <v>42913.08321759259</v>
+      </c>
+      <c r="CU53" s="5">
+        <v>42914.138773148145</v>
+      </c>
+      <c r="CW53">
+        <v>0.139882688999937</v>
+      </c>
+      <c r="CX53" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY53">
+        <v>1.4045000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -15720,8 +16656,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS54" s="5">
+        <v>42916.58321759259</v>
+      </c>
+      <c r="CU54" s="5">
+        <v>42919.25335648148</v>
+      </c>
+      <c r="CW54">
+        <v>0.16541111100005501</v>
+      </c>
+      <c r="CX54" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY54">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -15910,8 +16861,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS55" s="5">
+        <v>42921.308912037035</v>
+      </c>
+      <c r="CU55" s="5">
+        <v>42922.788078703707</v>
+      </c>
+      <c r="CW55">
+        <v>-0.14016726300003601</v>
+      </c>
+      <c r="CX55" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY55" s="1">
+        <v>-0.76449999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -16100,8 +17066,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS56" s="5">
+        <v>42922.788090277776</v>
+      </c>
+      <c r="CU56" s="5">
+        <v>42923.732534722221</v>
+      </c>
+      <c r="CW56">
+        <v>0.113294642999918</v>
+      </c>
+      <c r="CX56" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY56" s="1">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -16290,8 +17271,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS57" s="5">
+        <v>42926.420023148145</v>
+      </c>
+      <c r="CU57" s="5">
+        <v>42927.913078703707</v>
+      </c>
+      <c r="CW57">
+        <v>2.6266045999986502E-2</v>
+      </c>
+      <c r="CX57" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY57">
+        <v>7.5000000000200002E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -16480,8 +17476,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS58" s="5">
+        <v>42930.166550925926</v>
+      </c>
+      <c r="CU58" s="5">
+        <v>42933.78460648148</v>
+      </c>
+      <c r="CW58">
+        <v>0.20748603700003501</v>
+      </c>
+      <c r="CX58" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY58">
+        <v>0.48449999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -16669,8 +17680,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS59" s="5">
+        <v>42933.992939814816</v>
+      </c>
+      <c r="CU59" s="5">
+        <v>42934.413078703707</v>
+      </c>
+      <c r="CW59">
+        <v>5.6008408000063098E-2</v>
+      </c>
+      <c r="CX59" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY59" s="1">
+        <v>-0.40849999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -16862,8 +17888,23 @@
         <f>CK60-CI60</f>
         <v>0.73680555555555549</v>
       </c>
-    </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS60" s="5">
+        <v>42934.413090277776</v>
+      </c>
+      <c r="CU60" s="5">
+        <v>42934.954756944448</v>
+      </c>
+      <c r="CW60">
+        <v>-9.6386581999845206E-2</v>
+      </c>
+      <c r="CX60" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY60">
+        <v>0.87150000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -17051,8 +18092,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS61" s="5">
+        <v>42935.916562500002</v>
+      </c>
+      <c r="CU61" s="5">
+        <v>42937.163090277776</v>
+      </c>
+      <c r="CW61">
+        <v>-0.32064952899988303</v>
+      </c>
+      <c r="CX61" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY61">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -17240,8 +18296,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS62" s="5">
+        <v>42937.826284722221</v>
+      </c>
+      <c r="CU62" s="5">
+        <v>42940.604050925926</v>
+      </c>
+      <c r="CW62">
+        <v>-0.25958147299988599</v>
+      </c>
+      <c r="CX62" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY62">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -17429,8 +18500,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS63" s="5">
+        <v>42941.354050925926</v>
+      </c>
+      <c r="CU63" s="5">
+        <v>42942.545023148145</v>
+      </c>
+      <c r="CW63">
+        <v>0.187503100000005</v>
+      </c>
+      <c r="CX63" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY63">
+        <v>0.76849999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -17618,8 +18704,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS64" s="5">
+        <v>42942.985995370371</v>
+      </c>
+      <c r="CU64" s="5">
+        <v>42949.975578703707</v>
+      </c>
+      <c r="CW64">
+        <v>0.37657832399989</v>
+      </c>
+      <c r="CX64" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY64">
+        <v>0.1525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -17807,8 +18908,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR65" s="5">
+        <v>42950.113888888889</v>
+      </c>
+      <c r="CS65" s="5">
+        <v>42950.36446759259</v>
+      </c>
+      <c r="CU65" s="5">
+        <v>42954.888773148145</v>
+      </c>
+      <c r="CW65">
+        <v>0.25183628600003799</v>
+      </c>
+      <c r="CX65" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY65" s="6">
+        <v>-2.0430000000000001</v>
+      </c>
+      <c r="CZ65" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -17996,8 +19118,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS66" s="5">
+        <v>42954.888784722221</v>
+      </c>
+      <c r="CU66" s="5">
+        <v>42956.180451388886</v>
+      </c>
+      <c r="CW66">
+        <v>-2.1193649999942998E-2</v>
+      </c>
+      <c r="CX66" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY66">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -18185,8 +19322,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS67" s="5">
+        <v>42957.621423611112</v>
+      </c>
+      <c r="CU67" s="5">
+        <v>42958.617951388886</v>
+      </c>
+      <c r="CW67">
+        <v>-1.4789236000029401E-2</v>
+      </c>
+      <c r="CX67" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY67">
+        <v>0.96450000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -18378,8 +19530,23 @@
         <f>CK68-CI68</f>
         <v>0.7777777777777779</v>
       </c>
-    </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS68" s="5">
+        <v>42961.541550925926</v>
+      </c>
+      <c r="CU68" s="5">
+        <v>42962.732523148145</v>
+      </c>
+      <c r="CW68">
+        <v>0.17840275299994501</v>
+      </c>
+      <c r="CX68" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY68">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -18567,8 +19734,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS69" s="5">
+        <v>42963.913078703707</v>
+      </c>
+      <c r="CU69" s="5">
+        <v>42965.44085648148</v>
+      </c>
+      <c r="CW69">
+        <v>-7.5629537999887697E-2</v>
+      </c>
+      <c r="CX69" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY69">
+        <v>1.5035000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -18756,8 +19938,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS70" s="5">
+        <v>42968.631828703707</v>
+      </c>
+      <c r="CU70" s="5">
+        <v>42969.670023148145</v>
+      </c>
+      <c r="CW70">
+        <v>-6.3883208999864105E-2</v>
+      </c>
+      <c r="CX70" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY70" s="1">
+        <v>-0.3115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -18949,8 +20146,29 @@
         <f>CK71-CI71</f>
         <v>0.61527777777777781</v>
       </c>
-    </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR71" s="5">
+        <v>42969.419444444444</v>
+      </c>
+      <c r="CS71" s="5">
+        <v>42969.670034722221</v>
+      </c>
+      <c r="CU71" s="5">
+        <v>42971.058923611112</v>
+      </c>
+      <c r="CW71">
+        <v>3.4687203000063498E-2</v>
+      </c>
+      <c r="CX71" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY71" s="6">
+        <v>-1.4279999999999999</v>
+      </c>
+      <c r="CZ71" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -19138,8 +20356,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CR72" s="5">
+        <v>42817.8125</v>
+      </c>
+      <c r="CS72" s="5">
+        <v>42971.058935185189</v>
+      </c>
+      <c r="CU72" s="5">
+        <v>42972.413101851853</v>
+      </c>
+      <c r="CW72">
+        <v>-0.24332651300004399</v>
+      </c>
+      <c r="CX72" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY72" s="6">
+        <v>-1.125</v>
+      </c>
+      <c r="CZ72" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -19327,8 +20566,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS73" s="5">
+        <v>42972.413113425922</v>
+      </c>
+      <c r="CU73" s="5">
+        <v>42975.465162037035</v>
+      </c>
+      <c r="CW73">
+        <v>0.229222520000152</v>
+      </c>
+      <c r="CX73" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY73">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -19516,8 +20770,23 @@
         <f t="shared" ref="CO74:CO137" si="2">CJ74-CH74</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS74" s="5">
+        <v>42975.850578703707</v>
+      </c>
+      <c r="CU74" s="5">
+        <v>42977.75335648148</v>
+      </c>
+      <c r="CW74">
+        <v>0.15832306399999599</v>
+      </c>
+      <c r="CX74" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY74">
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -19705,8 +20974,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS75" s="5">
+        <v>42978.371412037035</v>
+      </c>
+      <c r="CU75" s="5">
+        <v>42979.548495370371</v>
+      </c>
+      <c r="CW75">
+        <v>0.49163911200003801</v>
+      </c>
+      <c r="CX75" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY75" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -19898,8 +21182,23 @@
         <f>CK76-CI76</f>
         <v>0.82708333333333339</v>
       </c>
-    </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS76" s="5">
+        <v>42979.548506944448</v>
+      </c>
+      <c r="CU76" s="5">
+        <v>42982.86446759259</v>
+      </c>
+      <c r="CW76">
+        <v>-3.0481299000064001E-2</v>
+      </c>
+      <c r="CX76" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY76">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -20087,8 +21386,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS77" s="5">
+        <v>42983.420023148145</v>
+      </c>
+      <c r="CU77" s="5">
+        <v>42984.822800925926</v>
+      </c>
+      <c r="CW77">
+        <v>-0.357627480999961</v>
+      </c>
+      <c r="CX77" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY77" s="1">
+        <v>-0.47449999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -20276,8 +21590,23 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS78" s="5">
+        <v>42984.822812500002</v>
+      </c>
+      <c r="CU78" s="5">
+        <v>42985.670034722221</v>
+      </c>
+      <c r="CW78">
+        <v>0.12262993600010701</v>
+      </c>
+      <c r="CX78" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY78">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -20465,8 +21794,23 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS79" s="5">
+        <v>42985.815868055557</v>
+      </c>
+      <c r="CU79" s="5">
+        <v>42986.586701388886</v>
+      </c>
+      <c r="CW79">
+        <v>0.20108903699995201</v>
+      </c>
+      <c r="CX79" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY79" s="1">
+        <v>-0.67949999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -20654,8 +21998,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS80" s="5">
+        <v>42986.586712962962</v>
+      </c>
+      <c r="CU80" s="5">
+        <v>42989.256828703707</v>
+      </c>
+      <c r="CW80">
+        <v>-0.151612600000018</v>
+      </c>
+      <c r="CX80" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY80" s="1">
+        <v>-0.78849999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -20843,8 +22202,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS81" s="5">
+        <v>42989.256840277776</v>
+      </c>
+      <c r="CU81" s="5">
+        <v>42990.750358796293</v>
+      </c>
+      <c r="CW81">
+        <v>8.1451139000074002E-2</v>
+      </c>
+      <c r="CX81" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY81">
+        <v>3.0449999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -21032,8 +22406,23 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS82" s="5">
+        <v>42991.982534722221</v>
+      </c>
+      <c r="CU82" s="5">
+        <v>42992.756840277776</v>
+      </c>
+      <c r="CW82">
+        <v>0.41977864399996301</v>
+      </c>
+      <c r="CX82" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY82" s="1">
+        <v>-0.65449999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -21221,8 +22610,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS83" s="5">
+        <v>42992.756851851853</v>
+      </c>
+      <c r="CU83" s="5">
+        <v>42993.655462962961</v>
+      </c>
+      <c r="CW83">
+        <v>-0.19147822399999101</v>
+      </c>
+      <c r="CX83" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY83" s="6">
+        <v>-3.0055000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -21414,8 +22818,23 @@
         <f>CK84-CI84</f>
         <v>0.52083333333333326</v>
       </c>
-    </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS84" s="5">
+        <v>42998.37835648148</v>
+      </c>
+      <c r="CU84" s="5">
+        <v>42998.767245370371</v>
+      </c>
+      <c r="CW84">
+        <v>0.12373340599993</v>
+      </c>
+      <c r="CX84" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY84" s="1">
+        <v>-0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -21603,8 +23022,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS85" s="5">
+        <v>42999.301979166667</v>
+      </c>
+      <c r="CU85" s="5">
+        <v>42999.739479166667</v>
+      </c>
+      <c r="CW85">
+        <v>0.27434757000010002</v>
+      </c>
+      <c r="CX85" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY85">
+        <v>9.9999999999899995E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -21792,8 +23226,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS86" s="5">
+        <v>43003.711689814816</v>
+      </c>
+      <c r="CU86" s="5">
+        <v>43003.892245370371</v>
+      </c>
+      <c r="CW86">
+        <v>-5.1769245999982498E-2</v>
+      </c>
+      <c r="CX86" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -21981,8 +23430,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS87" s="5">
+        <v>43003.992939814816</v>
+      </c>
+      <c r="CU87" s="5">
+        <v>43004.069328703707</v>
+      </c>
+      <c r="CW87">
+        <v>-0.20593680500019701</v>
+      </c>
+      <c r="CX87" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY87">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -22170,8 +23634,23 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS88" s="5">
+        <v>43005.388773148145</v>
+      </c>
+      <c r="CU88" s="5">
+        <v>43007.673495370371</v>
+      </c>
+      <c r="CW88">
+        <v>0.27330453800004301</v>
+      </c>
+      <c r="CX88" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY88" s="1">
+        <v>-0.1885</v>
+      </c>
+    </row>
+    <row r="89" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -22363,8 +23842,23 @@
         <f>CK89-CI89</f>
         <v>0.74305555555555558</v>
       </c>
-    </row>
-    <row r="90" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS89" s="5">
+        <v>43007.673506944448</v>
+      </c>
+      <c r="CU89" s="5">
+        <v>43007.996423611112</v>
+      </c>
+      <c r="CW89">
+        <v>-2.3233284000048999E-2</v>
+      </c>
+      <c r="CX89" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY89">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -22552,8 +24046,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS90" s="5">
+        <v>43008.121423611112</v>
+      </c>
+      <c r="CU90" s="5">
+        <v>43010.951273148145</v>
+      </c>
+      <c r="CW90">
+        <v>-0.110269991999895</v>
+      </c>
+      <c r="CX90" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY90">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -22741,8 +24250,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS91" s="5">
+        <v>43011.888773148145</v>
+      </c>
+      <c r="CU91" s="5">
+        <v>43012.961689814816</v>
+      </c>
+      <c r="CW91">
+        <v>-0.34276733600008802</v>
+      </c>
+      <c r="CX91" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY91" s="1">
+        <v>-0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -22930,8 +24454,23 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS92" s="5">
+        <v>43013.097118055557</v>
+      </c>
+      <c r="CU92" s="5">
+        <v>43013.947812500002</v>
+      </c>
+      <c r="CW92">
+        <v>-3.3161482999890898E-2</v>
+      </c>
+      <c r="CX92" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY92">
+        <v>1.4990000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -23119,8 +24658,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS93" s="5">
+        <v>43014.992951388886</v>
+      </c>
+      <c r="CU93" s="5">
+        <v>43017.510300925926</v>
+      </c>
+      <c r="CW93">
+        <v>-0.37847254599991598</v>
+      </c>
+      <c r="CX93" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY93">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -23308,8 +24862,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS94" s="5">
+        <v>43019.433912037035</v>
+      </c>
+      <c r="CU94" s="5">
+        <v>43021.652662037035</v>
+      </c>
+      <c r="CW94">
+        <v>0.102575471999809</v>
+      </c>
+      <c r="CX94" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY94" s="1">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -23497,8 +25066,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS95" s="5">
+        <v>43024.610995370371</v>
+      </c>
+      <c r="CU95" s="5">
+        <v>43026.70821759259</v>
+      </c>
+      <c r="CW95">
+        <v>-3.1502901999918898E-2</v>
+      </c>
+      <c r="CX95" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY95">
+        <v>0.35549999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -23686,8 +25270,23 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS96" s="5">
+        <v>43032.95821759259</v>
+      </c>
+      <c r="CU96" s="5">
+        <v>43035.899189814816</v>
+      </c>
+      <c r="CW96">
+        <v>-7.9964733000011501E-2</v>
+      </c>
+      <c r="CX96" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY96">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -23875,8 +25474,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS97" s="5">
+        <v>43035.947800925926</v>
+      </c>
+      <c r="CU97" s="5">
+        <v>43039.916550925926</v>
+      </c>
+      <c r="CW97">
+        <v>-0.40513013299998801</v>
+      </c>
+      <c r="CX97" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY97" s="1">
+        <v>-0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -24064,8 +25678,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS98" s="5">
+        <v>43039.916562500002</v>
+      </c>
+      <c r="CU98" s="5">
+        <v>43040.975590277776</v>
+      </c>
+      <c r="CW98">
+        <v>9.7771578000100098E-2</v>
+      </c>
+      <c r="CX98" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY98">
+        <v>1.4370000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -24253,8 +25882,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS99" s="5">
+        <v>43041.361006944448</v>
+      </c>
+      <c r="CU99" s="5">
+        <v>43041.881840277776</v>
+      </c>
+      <c r="CW99">
+        <v>0.15211411199986699</v>
+      </c>
+      <c r="CX99" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY99" s="6">
+        <v>-1.4095</v>
+      </c>
+    </row>
+    <row r="100" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -24446,8 +26090,23 @@
         <f>CK100-CI100</f>
         <v>0.66041666666666665</v>
       </c>
-    </row>
-    <row r="101" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS100" s="5">
+        <v>43041.881851851853</v>
+      </c>
+      <c r="CU100" s="5">
+        <v>43042.069351851853</v>
+      </c>
+      <c r="CW100">
+        <v>-6.9402653000025794E-2</v>
+      </c>
+      <c r="CX100" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY100">
+        <v>0.82850000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -24635,8 +26294,23 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS101" s="5">
+        <v>43045.343634259261</v>
+      </c>
+      <c r="CU101" s="5">
+        <v>43046.951273148145</v>
+      </c>
+      <c r="CW101">
+        <v>5.1260613999994598E-2</v>
+      </c>
+      <c r="CX101" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY101">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -24824,8 +26498,23 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS102" s="5">
+        <v>43047.701273148145</v>
+      </c>
+      <c r="CU102" s="5">
+        <v>43048.121412037035</v>
+      </c>
+      <c r="CW102">
+        <v>-1.18817950001763E-2</v>
+      </c>
+      <c r="CX102" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY102">
+        <v>0.45150000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -25013,8 +26702,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS103" s="5">
+        <v>43048.760300925926</v>
+      </c>
+      <c r="CU103" s="5">
+        <v>43053.010300925926</v>
+      </c>
+      <c r="CW103">
+        <v>-0.222221578000039</v>
+      </c>
+      <c r="CX103" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY103" s="1">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -25202,8 +26906,23 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS104" s="5">
+        <v>43053.652673611112</v>
+      </c>
+      <c r="CU104" s="5">
+        <v>43054.038090277776</v>
+      </c>
+      <c r="CW104">
+        <v>-8.9235639999955693E-2</v>
+      </c>
+      <c r="CX104" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -25391,8 +27110,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS105" s="5">
+        <v>43054.041562500002</v>
+      </c>
+      <c r="CU105" s="5">
+        <v>43054.430451388886</v>
+      </c>
+      <c r="CW105">
+        <v>0.15177185099995</v>
+      </c>
+      <c r="CX105" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY105">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -25580,8 +27314,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS106" s="5">
+        <v>43054.784618055557</v>
+      </c>
+      <c r="CU106" s="5">
+        <v>43055.781145833331</v>
+      </c>
+      <c r="CW106">
+        <v>-9.7577156000053095E-2</v>
+      </c>
+      <c r="CX106" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY106" s="1">
+        <v>-0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -25773,8 +27522,23 @@
         <f t="shared" ref="CP107:CP108" si="3">CK107-CI107</f>
         <v>0.61527777777777781</v>
       </c>
-    </row>
-    <row r="108" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS107" s="5">
+        <v>43055.781157407408</v>
+      </c>
+      <c r="CU107" s="5">
+        <v>43056.954768518517</v>
+      </c>
+      <c r="CW107">
+        <v>6.3422271999987095E-2</v>
+      </c>
+      <c r="CX107" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY107" s="1">
+        <v>-0.76949999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -25966,8 +27730,23 @@
         <f t="shared" si="3"/>
         <v>0.59722222222222221</v>
       </c>
-    </row>
-    <row r="109" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS108" s="5">
+        <v>43056.954780092594</v>
+      </c>
+      <c r="CU108" s="5">
+        <v>43059.673495370371</v>
+      </c>
+      <c r="CW108">
+        <v>-2.36307300000386E-2</v>
+      </c>
+      <c r="CX108" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY108">
+        <v>0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -26155,8 +27934,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS109" s="5">
+        <v>43060.89571759259</v>
+      </c>
+      <c r="CU109" s="5">
+        <v>43061.562384259261</v>
+      </c>
+      <c r="CW109">
+        <v>0.32859255900006201</v>
+      </c>
+      <c r="CX109" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY109" s="1">
+        <v>-0.42849999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -26344,8 +28138,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS110" s="5">
+        <v>43061.562395833331</v>
+      </c>
+      <c r="CU110" s="5">
+        <v>43063.732534722221</v>
+      </c>
+      <c r="CW110">
+        <v>-9.9835590000015198E-2</v>
+      </c>
+      <c r="CX110" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY110">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -26533,8 +28342,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS111" s="5">
+        <v>43063.972118055557</v>
+      </c>
+      <c r="CU111" s="5">
+        <v>43067.913078703707</v>
+      </c>
+      <c r="CW111">
+        <v>0.12678918499988601</v>
+      </c>
+      <c r="CX111" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY111" s="1">
+        <v>-0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -26722,8 +28546,23 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS112" s="5">
+        <v>43067.913090277776</v>
+      </c>
+      <c r="CU112" s="5">
+        <v>43068.114479166667</v>
+      </c>
+      <c r="CW112">
+        <v>-9.7812899000156106E-2</v>
+      </c>
+      <c r="CX112" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY112">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -26911,8 +28750,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS113" s="5">
+        <v>43075.33321759259</v>
+      </c>
+      <c r="CU113" s="5">
+        <v>43075.729050925926</v>
+      </c>
+      <c r="CW113">
+        <v>-0.27153859099993299</v>
+      </c>
+      <c r="CX113" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY113">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -27100,8 +28954,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS114" s="5">
+        <v>43076.541550925926</v>
+      </c>
+      <c r="CU114" s="5">
+        <v>43077.00335648148</v>
+      </c>
+      <c r="CW114">
+        <v>-0.32632807599983998</v>
+      </c>
+      <c r="CX114" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY114" s="1">
+        <v>-0.72450000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -27293,8 +29162,23 @@
         <f>CK115-CI115</f>
         <v>0.49722222222222223</v>
       </c>
-    </row>
-    <row r="116" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS115" s="5">
+        <v>43077.003368055557</v>
+      </c>
+      <c r="CU115" s="5">
+        <v>43077.659618055557</v>
+      </c>
+      <c r="CW115">
+        <v>0.17867346299995099</v>
+      </c>
+      <c r="CX115" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY115">
+        <v>1.6705000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -27482,8 +29366,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS116" s="5">
+        <v>43081.666550925926</v>
+      </c>
+      <c r="CU116" s="5">
+        <v>43083.413078703707</v>
+      </c>
+      <c r="CW116">
+        <v>-0.25337462700014501</v>
+      </c>
+      <c r="CX116" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY116" s="1">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -27671,8 +29570,23 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS117" s="5">
+        <v>43084.128368055557</v>
+      </c>
+      <c r="CU117" s="5">
+        <v>43085.003368055557</v>
+      </c>
+      <c r="CW117">
+        <v>-5.7339732000068103E-2</v>
+      </c>
+      <c r="CX117" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY117">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -27860,8 +29774,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS118" s="5">
+        <v>43088.541550925926</v>
+      </c>
+      <c r="CU118" s="5">
+        <v>43090.110995370371</v>
+      </c>
+      <c r="CW118">
+        <v>0.195929093000035</v>
+      </c>
+      <c r="CX118" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY118">
+        <v>0.96350000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -28053,8 +29982,23 @@
         <f t="shared" ref="CP119:CP120" si="4">CK119-CI119</f>
         <v>0.68125000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS119" s="5">
+        <v>43090.496412037035</v>
+      </c>
+      <c r="CU119" s="5">
+        <v>43102.81585648148</v>
+      </c>
+      <c r="CW119">
+        <v>0.125552208000108</v>
+      </c>
+      <c r="CX119" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY119">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -28246,8 +30190,23 @@
         <f t="shared" si="4"/>
         <v>0.53541666666666665</v>
       </c>
-    </row>
-    <row r="121" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS120" s="5">
+        <v>43103.048495370371</v>
+      </c>
+      <c r="CU120" s="5">
+        <v>43103.843634259261</v>
+      </c>
+      <c r="CW120">
+        <v>3.5694145999950001E-2</v>
+      </c>
+      <c r="CX120" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY120">
+        <v>2.0000000000099999E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -28435,8 +30394,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS121" s="5">
+        <v>43103.98946759259</v>
+      </c>
+      <c r="CU121" s="5">
+        <v>43105.340162037035</v>
+      </c>
+      <c r="CW121">
+        <v>-3.2723808000031197E-2</v>
+      </c>
+      <c r="CX121" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY121" s="1">
+        <v>-0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -28628,8 +30602,23 @@
         <f>CK122-CI122</f>
         <v>0.3298611111111111</v>
       </c>
-    </row>
-    <row r="123" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS122" s="5">
+        <v>43105.340173611112</v>
+      </c>
+      <c r="CU122" s="5">
+        <v>43108.774189814816</v>
+      </c>
+      <c r="CW122">
+        <v>0.32977269299995099</v>
+      </c>
+      <c r="CX122" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY122">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -28817,8 +30806,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS123" s="5">
+        <v>43108.937384259261</v>
+      </c>
+      <c r="CU123" s="5">
+        <v>43110.288078703707</v>
+      </c>
+      <c r="CW123">
+        <v>-5.8971280000047498E-2</v>
+      </c>
+      <c r="CX123" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY123">
+        <v>0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -29006,8 +31010,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS124" s="5">
+        <v>43110.656134259261</v>
+      </c>
+      <c r="CU124" s="5">
+        <v>43111.420023148145</v>
+      </c>
+      <c r="CW124">
+        <v>-0.52872154199979904</v>
+      </c>
+      <c r="CX124" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY124">
+        <v>0.78649999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -29195,8 +31214,23 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS125" s="5">
+        <v>43111.871412037035</v>
+      </c>
+      <c r="CU125" s="5">
+        <v>43112.749884259261</v>
+      </c>
+      <c r="CW125">
+        <v>-0.45718735100004099</v>
+      </c>
+      <c r="CX125" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY125" s="1">
+        <v>-0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -29384,8 +31418,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS126" s="5">
+        <v>43112.749895833331</v>
+      </c>
+      <c r="CU126" s="5">
+        <v>43112.982534722221</v>
+      </c>
+      <c r="CW126">
+        <v>1.23983939999152E-2</v>
+      </c>
+      <c r="CX126" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY126">
+        <v>1.171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -29573,8 +31622,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS127" s="5">
+        <v>43116.374884259261</v>
+      </c>
+      <c r="CU127" s="5">
+        <v>43117.916550925926</v>
+      </c>
+      <c r="CW127">
+        <v>5.92470169999725E-2</v>
+      </c>
+      <c r="CX127" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY127">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -29762,8 +31826,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS128" s="5">
+        <v>43117.920023148145</v>
+      </c>
+      <c r="CU128" s="5">
+        <v>43118.041550925926</v>
+      </c>
+      <c r="CW128">
+        <v>-1.4905134000063601E-2</v>
+      </c>
+      <c r="CX128" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY128" s="1">
+        <v>-0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -29951,8 +32030,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS129" s="5">
+        <v>43118.041562500002</v>
+      </c>
+      <c r="CU129" s="5">
+        <v>43118.288090277776</v>
+      </c>
+      <c r="CW129">
+        <v>7.8175912000062506E-2</v>
+      </c>
+      <c r="CX129" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY129">
+        <v>0.72450000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -30140,8 +32234,23 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS130" s="5">
+        <v>43125.03460648148</v>
+      </c>
+      <c r="CU130" s="5">
+        <v>43126.975578703707</v>
+      </c>
+      <c r="CW130">
+        <v>0.129430412000099</v>
+      </c>
+      <c r="CX130" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY130" s="1">
+        <v>-0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -30333,8 +32442,23 @@
         <f t="shared" ref="CP131:CP132" si="5">CK131-CI131</f>
         <v>0.12500000000000006</v>
       </c>
-    </row>
-    <row r="132" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS131" s="5">
+        <v>43126.975590277776</v>
+      </c>
+      <c r="CU131" s="5">
+        <v>43127.086701388886</v>
+      </c>
+      <c r="CW131">
+        <v>-1.3213870000068E-2</v>
+      </c>
+      <c r="CX131" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY131">
+        <v>1.2925</v>
+      </c>
+    </row>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -30526,8 +32650,23 @@
         <f t="shared" si="5"/>
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="133" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS132" s="5">
+        <v>43130.392245370371</v>
+      </c>
+      <c r="CU132" s="5">
+        <v>43130.749884259261</v>
+      </c>
+      <c r="CW132">
+        <v>-0.177141865999836</v>
+      </c>
+      <c r="CX132" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY132">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -30715,8 +32854,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS133" s="5">
+        <v>43132.024189814816</v>
+      </c>
+      <c r="CU133" s="5">
+        <v>43132.170023148145</v>
+      </c>
+      <c r="CW133">
+        <v>0.49275670099986502</v>
+      </c>
+      <c r="CX133" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY133">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -30904,8 +33058,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS134" s="5">
+        <v>43136.340162037035</v>
+      </c>
+      <c r="CU134" s="5">
+        <v>43136.930439814816</v>
+      </c>
+      <c r="CW134">
+        <v>-9.9855014999915406E-2</v>
+      </c>
+      <c r="CX134" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY134">
+        <v>0.80649999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -31097,8 +33266,23 @@
         <f>CK135-CI135</f>
         <v>0.30902777777777768</v>
       </c>
-    </row>
-    <row r="136" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS135" s="5">
+        <v>43139.711689814816</v>
+      </c>
+      <c r="CU135" s="5">
+        <v>43140.138773148145</v>
+      </c>
+      <c r="CW135">
+        <v>-0.14879546099993601</v>
+      </c>
+      <c r="CX135" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY135">
+        <v>0.68149999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -31286,8 +33470,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS136" s="5">
+        <v>43144.343634259261</v>
+      </c>
+      <c r="CU136" s="5">
+        <v>43144.673495370371</v>
+      </c>
+      <c r="CW136">
+        <v>0.226257152999846</v>
+      </c>
+      <c r="CX136" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY136" s="1">
+        <v>-0.871</v>
+      </c>
+    </row>
+    <row r="137" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -31475,8 +33674,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS137" s="5">
+        <v>43144.673506944448</v>
+      </c>
+      <c r="CU137" s="5">
+        <v>43144.795034722221</v>
+      </c>
+      <c r="CW137">
+        <v>-6.7119260000065906E-2</v>
+      </c>
+      <c r="CX137" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY137">
+        <v>3.9999999999900003E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -31664,8 +33878,23 @@
         <f t="shared" ref="CO138" si="6">CJ138-CH138</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS138" s="5">
+        <v>43145.944340277776</v>
+      </c>
+      <c r="CU138" s="5">
+        <v>43147.402673611112</v>
+      </c>
+      <c r="CW138">
+        <v>-0.26500374900006501</v>
+      </c>
+      <c r="CX138" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY138" s="6">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -31828,8 +34057,23 @@
       <c r="CE139">
         <v>1.6065</v>
       </c>
-    </row>
-    <row r="140" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS139" s="5">
+        <v>43147.402685185189</v>
+      </c>
+      <c r="CU139" s="5">
+        <v>43150.888773148145</v>
+      </c>
+      <c r="CW139">
+        <v>2.0684757999896199E-2</v>
+      </c>
+      <c r="CX139" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY139" s="1">
+        <v>-0.52949999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -31992,8 +34236,23 @@
       <c r="CE140" s="1">
         <v>-0.222</v>
       </c>
-    </row>
-    <row r="141" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS140" s="5">
+        <v>43150.888784722221</v>
+      </c>
+      <c r="CU140" s="5">
+        <v>43151.374895833331</v>
+      </c>
+      <c r="CW140">
+        <v>-4.3578815999984997E-2</v>
+      </c>
+      <c r="CX140" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY140" s="1">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -32156,8 +34415,23 @@
       <c r="CE141" s="1">
         <v>-0.3115</v>
       </c>
-    </row>
-    <row r="142" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS141" s="5">
+        <v>43151.374907407408</v>
+      </c>
+      <c r="CU141" s="5">
+        <v>43152.152685185189</v>
+      </c>
+      <c r="CW141">
+        <v>5.9579867000063999E-2</v>
+      </c>
+      <c r="CX141" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY141">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -32320,8 +34594,23 @@
       <c r="CE142" s="1">
         <v>-0.312</v>
       </c>
-    </row>
-    <row r="143" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS142" s="5">
+        <v>43154.715185185189</v>
+      </c>
+      <c r="CU142" s="5">
+        <v>43155.208240740743</v>
+      </c>
+      <c r="CW142">
+        <v>-5.6896169999932099E-2</v>
+      </c>
+      <c r="CX142" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY142" s="1">
+        <v>-0.1265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -32484,8 +34773,23 @@
       <c r="CE143">
         <v>0.9345</v>
       </c>
-    </row>
-    <row r="144" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CS143" s="5">
+        <v>43155.208252314813</v>
+      </c>
+      <c r="CU143" s="5">
+        <v>43157.42696759259</v>
+      </c>
+      <c r="CW143">
+        <v>6.1503944000090197E-2</v>
+      </c>
+      <c r="CX143" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY143">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -32648,8 +34952,23 @@
       <c r="CE144" s="1">
         <v>-0.2185</v>
       </c>
-    </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS144" s="5">
+        <v>43157.593634259261</v>
+      </c>
+      <c r="CU144" s="5">
+        <v>43157.961689814816</v>
+      </c>
+      <c r="CW144">
+        <v>7.1069686000058294E-2</v>
+      </c>
+      <c r="CX144" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY144" s="1">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -32812,8 +35131,23 @@
       <c r="CE145" s="1">
         <v>-0.3135</v>
       </c>
-    </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS145" s="5">
+        <v>43159.222118055557</v>
+      </c>
+      <c r="CU145" s="5">
+        <v>43159.350590277776</v>
+      </c>
+      <c r="CW145">
+        <v>-3.1775856999945798E-2</v>
+      </c>
+      <c r="CX145" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY145" s="1">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -32976,8 +35310,23 @@
       <c r="CE146">
         <v>0.73250000000000004</v>
       </c>
-    </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS146" s="5">
+        <v>43159.350601851853</v>
+      </c>
+      <c r="CU146" s="5">
+        <v>43159.631851851853</v>
+      </c>
+      <c r="CW146">
+        <v>3.8141790999996802E-2</v>
+      </c>
+      <c r="CX146" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY146" s="1">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -33140,8 +35489,23 @@
       <c r="CE147" s="1">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS147" s="5">
+        <v>43159.631863425922</v>
+      </c>
+      <c r="CU147" s="5">
+        <v>43159.944363425922</v>
+      </c>
+      <c r="CW147">
+        <v>-0.13766647799996601</v>
+      </c>
+      <c r="CX147" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY147">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="148" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -33304,8 +35668,23 @@
       <c r="CE148" s="1">
         <v>-0.155</v>
       </c>
-    </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS148" s="5">
+        <v>43161.329780092594</v>
+      </c>
+      <c r="CU148" s="5">
+        <v>43161.940891203703</v>
+      </c>
+      <c r="CW148">
+        <v>-0.37387316600008103</v>
+      </c>
+      <c r="CX148" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY148">
+        <v>0.71650000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -33468,8 +35847,23 @@
       <c r="CE149" s="1">
         <v>-5.0500000000000003E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS149" s="5">
+        <v>43164.67696759259</v>
+      </c>
+      <c r="CU149" s="5">
+        <v>43164.985995370371</v>
+      </c>
+      <c r="CW149">
+        <v>-0.25069322499997998</v>
+      </c>
+      <c r="CX149" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY149" s="1">
+        <v>-0.878</v>
+      </c>
+    </row>
+    <row r="150" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -33632,8 +36026,23 @@
       <c r="CE150">
         <v>0.879</v>
       </c>
-    </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS150" s="5">
+        <v>43164.986006944448</v>
+      </c>
+      <c r="CU150" s="5">
+        <v>43165.576284722221</v>
+      </c>
+      <c r="CW150">
+        <v>7.4583244000115803E-2</v>
+      </c>
+      <c r="CX150" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY150">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -33796,8 +36205,23 @@
       <c r="CE151" s="1">
         <v>-0.16550000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS151" s="5">
+        <v>43171.881828703707</v>
+      </c>
+      <c r="CU151" s="5">
+        <v>43172.34710648148</v>
+      </c>
+      <c r="CW151">
+        <v>0.132406886000112</v>
+      </c>
+      <c r="CX151" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY151" s="1">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -33960,8 +36384,23 @@
       <c r="CE152" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS152" s="5">
+        <v>43172.347118055557</v>
+      </c>
+      <c r="CU152" s="5">
+        <v>43175.749895833331</v>
+      </c>
+      <c r="CW152">
+        <v>-2.95650889999578E-2</v>
+      </c>
+      <c r="CX152" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY152">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -34124,8 +36563,23 @@
       <c r="CE153" s="1">
         <v>-0.30249999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS153" s="5">
+        <v>43178.25335648148</v>
+      </c>
+      <c r="CU153" s="5">
+        <v>43178.715162037035</v>
+      </c>
+      <c r="CW153">
+        <v>-6.4647312000012502E-2</v>
+      </c>
+      <c r="CX153" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY153">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -34288,8 +36742,23 @@
       <c r="CE154" s="1">
         <v>-0.156</v>
       </c>
-    </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS154" s="5">
+        <v>43180.777662037035</v>
+      </c>
+      <c r="CU154" s="5">
+        <v>43181.39571759259</v>
+      </c>
+      <c r="CW154">
+        <v>1.6199760999999899E-2</v>
+      </c>
+      <c r="CX154" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY154">
+        <v>0.2515</v>
+      </c>
+    </row>
+    <row r="155" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -34452,8 +36921,17 @@
       <c r="CE155">
         <v>0.70899999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CS155" s="5">
+        <v>43181.590162037035</v>
+      </c>
+      <c r="CW155">
+        <v>0.18916669099990699</v>
+      </c>
+      <c r="CX155" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="156" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -34617,7 +37095,7 @@
         <v>-0.30199999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -34781,7 +37259,7 @@
         <v>-0.314</v>
       </c>
     </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -34945,7 +37423,7 @@
         <v>0.90449999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -35109,7 +37587,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -45562,7 +48040,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -45818,7 +48296,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -45946,7 +48424,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -46074,7 +48552,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -46202,7 +48680,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -46330,7 +48808,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -46458,7 +48936,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -46586,7 +49064,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -46714,7 +49192,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -46842,7 +49320,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -46970,7 +49448,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -47098,7 +49576,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -47226,7 +49704,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -47354,7 +49832,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -47610,7 +50088,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -47738,7 +50216,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -47866,7 +50344,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -47988,7 +50466,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -48101,7 +50579,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -76071,7 +78549,7 @@
       <c r="BF823"/>
     </row>
   </sheetData>
-  <autoFilter ref="CN1:CN823"/>
+  <autoFilter ref="CY1:CY823"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="1645">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5590,6 +5590,19 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売り直後に急騰。。。これはやばい。。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5988,7 +6001,7 @@
   <dimension ref="A1:DB823"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CW74" sqref="CW74"/>
+      <selection activeCell="CY82" sqref="CY82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -22014,7 +22027,7 @@
         <v>-0.78849999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -22218,7 +22231,7 @@
         <v>3.0449999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -22422,7 +22435,7 @@
         <v>-0.65449999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -22610,6 +22623,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="CR83" s="5">
+        <v>42992.506249999999</v>
+      </c>
       <c r="CS83" s="5">
         <v>42992.756851851853</v>
       </c>
@@ -22625,8 +22641,11 @@
       <c r="CY83" s="6">
         <v>-3.0055000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CZ83" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -22834,7 +22853,7 @@
         <v>-0.13800000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -23038,7 +23057,7 @@
         <v>9.9999999999899995E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -23242,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -23446,7 +23465,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -23650,7 +23669,7 @@
         <v>-0.1885</v>
       </c>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -23858,7 +23877,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -24062,7 +24081,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -24266,7 +24285,7 @@
         <v>-0.14749999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -24470,7 +24489,7 @@
         <v>1.4990000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -24674,7 +24693,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -24878,7 +24897,7 @@
         <v>-9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -25082,7 +25101,7 @@
         <v>0.35549999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="1648">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5603,6 +5603,72 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>キュウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→急落に対応済み。5分で0.5以上動いた場合</t>
+    <rPh sb="1" eb="3">
+      <t>キュウラク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→週末のロジック追加。土曜の5時以降はポジションクローズ＋エントリしない</t>
+    <rPh sb="1" eb="3">
+      <t>シュウマツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→エントリー時は過去30時間の高値、安値から＋－0.5圏内にいないことをチェック</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5998,82 +6064,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB823"/>
+  <dimension ref="A1:DF823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CY82" sqref="CY82"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DF8" sqref="DF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1796875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.1796875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.1796875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.1796875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.1796875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.6328125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.90625" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="63" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="18.08984375" customWidth="1"/>
-    <col min="65" max="65" width="15.90625" customWidth="1"/>
-    <col min="66" max="70" width="8.90625" customWidth="1"/>
-    <col min="71" max="71" width="16.81640625" customWidth="1"/>
-    <col min="72" max="72" width="19.1796875" customWidth="1"/>
-    <col min="73" max="73" width="13.08984375" customWidth="1"/>
-    <col min="74" max="78" width="8.90625" customWidth="1"/>
-    <col min="79" max="79" width="24.6328125" customWidth="1"/>
-    <col min="80" max="80" width="18.6328125" customWidth="1"/>
-    <col min="86" max="86" width="20.6328125" style="11" customWidth="1"/>
-    <col min="87" max="87" width="20.6328125" style="12" customWidth="1"/>
-    <col min="88" max="88" width="18.90625" style="11" customWidth="1"/>
-    <col min="89" max="89" width="18.90625" style="12" customWidth="1"/>
-    <col min="90" max="90" width="13.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.81640625" customWidth="1"/>
-    <col min="95" max="95" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20.7265625" customWidth="1"/>
+    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="18.109375" customWidth="1"/>
+    <col min="65" max="65" width="15.88671875" customWidth="1"/>
+    <col min="66" max="70" width="8.88671875" customWidth="1"/>
+    <col min="71" max="71" width="16.77734375" customWidth="1"/>
+    <col min="72" max="72" width="19.21875" customWidth="1"/>
+    <col min="73" max="73" width="13.109375" customWidth="1"/>
+    <col min="74" max="78" width="8.88671875" customWidth="1"/>
+    <col min="79" max="79" width="24.6640625" customWidth="1"/>
+    <col min="80" max="80" width="18.6640625" customWidth="1"/>
+    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.77734375" customWidth="1"/>
+    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.77734375" customWidth="1"/>
     <col min="99" max="99" width="19" customWidth="1"/>
-    <col min="101" max="101" width="12.08984375" customWidth="1"/>
-    <col min="103" max="103" width="12.453125" customWidth="1"/>
+    <col min="101" max="101" width="12.109375" customWidth="1"/>
+    <col min="103" max="103" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -6101,8 +6167,11 @@
       <c r="CV1" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF1" s="11" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -6128,8 +6197,11 @@
       <c r="CW2" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -6156,8 +6228,11 @@
       <c r="CW3" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -6202,8 +6277,11 @@
       <c r="CW4" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF4" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6429,8 +6507,11 @@
       <c r="DB5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6674,8 +6755,11 @@
       <c r="CY6" s="1">
         <v>-0.2485</v>
       </c>
-    </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF6" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6922,8 +7006,11 @@
       <c r="CY7">
         <v>0.79549999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="DF7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7251,7 @@
         <v>-0.55249999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7390,7 +7477,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7607,7 +7694,7 @@
         <v>0.10349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:106" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:110" ht="224.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7824,7 +7911,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8029,7 +8116,7 @@
         <v>0.3695</v>
       </c>
     </row>
-    <row r="13" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8238,7 +8325,7 @@
         <v>-7.0499999999999993E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8443,7 +8530,7 @@
         <v>-0.33750000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:106" ht="13.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8648,7 +8735,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:110" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -8853,7 +8940,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9058,7 +9145,7 @@
         <v>-0.51500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -9267,7 +9354,7 @@
         <v>1.706</v>
       </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9472,7 +9559,7 @@
         <v>-0.90400000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9677,7 +9764,7 @@
         <v>-0.8135</v>
       </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9882,7 +9969,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -10087,7 +10174,7 @@
         <v>-0.98099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10292,7 +10379,7 @@
         <v>0.17249999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -48059,7 +48146,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -48315,7 +48402,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -48443,7 +48530,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -48571,7 +48658,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -48699,7 +48786,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -48827,7 +48914,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -48955,7 +49042,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -49083,7 +49170,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -49211,7 +49298,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -49339,7 +49426,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -49467,7 +49554,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -49595,7 +49682,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -49723,7 +49810,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -49851,7 +49938,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -50107,7 +50194,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -50235,7 +50322,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -50363,7 +50450,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -50485,7 +50572,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -50598,7 +50685,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1649">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5672,6 +5672,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>高値安値は一旦やめ</t>
+    <rPh sb="0" eb="2">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -5681,7 +5694,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5692,6 +5705,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -5738,7 +5760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5782,6 +5804,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6067,7 +6092,7 @@
   <dimension ref="A1:DF823"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DF8" sqref="DF8"/>
+      <selection activeCell="DF9" sqref="DF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7006,7 +7031,7 @@
       <c r="CY7">
         <v>0.79549999999999998</v>
       </c>
-      <c r="DF7" t="s">
+      <c r="DF7" s="15" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -7249,6 +7274,9 @@
       </c>
       <c r="CY8" s="1">
         <v>-0.55249999999999999</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.2">

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\master\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$CY$1:$CY$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$DL$1:$DL$827</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="1654">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5684,6 +5684,21 @@
       <t>イッタン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weekend stl logic</t>
+  </si>
+  <si>
+    <t># Execute FirstTrail Stop</t>
+  </si>
+  <si>
+    <t># Execute Reverse Settlement</t>
+  </si>
+  <si>
+    <t># Execute SecondTrail Stop</t>
+  </si>
+  <si>
+    <t># Execute Volatility Settlement</t>
   </si>
 </sst>
 </file>
@@ -6089,82 +6104,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF823"/>
+  <dimension ref="A1:DO823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DF9" sqref="DF9"/>
+    <sheetView tabSelected="1" topLeftCell="DD173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DJ202" sqref="DJ202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.90625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1796875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.90625" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="18.109375" customWidth="1"/>
-    <col min="65" max="65" width="15.88671875" customWidth="1"/>
-    <col min="66" max="70" width="8.88671875" customWidth="1"/>
-    <col min="71" max="71" width="16.77734375" customWidth="1"/>
-    <col min="72" max="72" width="19.21875" customWidth="1"/>
-    <col min="73" max="73" width="13.109375" customWidth="1"/>
-    <col min="74" max="78" width="8.88671875" customWidth="1"/>
-    <col min="79" max="79" width="24.6640625" customWidth="1"/>
-    <col min="80" max="80" width="18.6640625" customWidth="1"/>
-    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
-    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
-    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
-    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
-    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.77734375" customWidth="1"/>
-    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20.77734375" customWidth="1"/>
+    <col min="55" max="55" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6328125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="18.08984375" customWidth="1"/>
+    <col min="65" max="65" width="15.90625" customWidth="1"/>
+    <col min="66" max="70" width="8.90625" customWidth="1"/>
+    <col min="71" max="71" width="16.81640625" customWidth="1"/>
+    <col min="72" max="72" width="19.1796875" customWidth="1"/>
+    <col min="73" max="73" width="13.08984375" customWidth="1"/>
+    <col min="74" max="78" width="8.90625" customWidth="1"/>
+    <col min="79" max="79" width="24.6328125" customWidth="1"/>
+    <col min="80" max="80" width="18.6328125" customWidth="1"/>
+    <col min="86" max="86" width="20.6328125" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6328125" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.90625" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.90625" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.81640625" customWidth="1"/>
+    <col min="95" max="95" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.81640625" customWidth="1"/>
     <col min="99" max="99" width="19" customWidth="1"/>
-    <col min="101" max="101" width="12.109375" customWidth="1"/>
-    <col min="103" max="103" width="12.44140625" customWidth="1"/>
+    <col min="101" max="101" width="12.08984375" customWidth="1"/>
+    <col min="103" max="103" width="12.453125" customWidth="1"/>
+    <col min="110" max="110" width="8.7265625" customWidth="1"/>
+    <col min="113" max="113" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -6196,7 +6214,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -6226,7 +6244,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -6257,7 +6275,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -6306,7 +6324,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6505,38 +6523,11 @@
       <c r="CS5" t="s">
         <v>0</v>
       </c>
-      <c r="CT5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV5" s="12" t="s">
-        <v>1620</v>
-      </c>
-      <c r="CW5" s="13" t="s">
-        <v>1601</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>832</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>1617</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>1618</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>811</v>
-      </c>
       <c r="DF5" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6768,23 +6759,11 @@
       <c r="CS6" s="5">
         <v>42796.638773148145</v>
       </c>
-      <c r="CU6" s="5">
-        <v>42800.37835648148</v>
-      </c>
-      <c r="CW6">
-        <v>2.4928100000130501E-2</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY6" s="1">
-        <v>-0.2485</v>
-      </c>
       <c r="DF6" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7019,23 +6998,11 @@
       <c r="CS7" s="5">
         <v>42800.378368055557</v>
       </c>
-      <c r="CU7" s="5">
-        <v>42801.940868055557</v>
-      </c>
-      <c r="CW7">
-        <v>-0.103645907000026</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY7">
-        <v>0.79549999999999998</v>
-      </c>
       <c r="DF7" s="15" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7263,23 +7230,11 @@
       <c r="CS8" s="5">
         <v>42802.520729166667</v>
       </c>
-      <c r="CU8" s="5">
-        <v>42803.725590277776</v>
-      </c>
-      <c r="CW8">
-        <v>-0.141005828999927</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY8" s="1">
-        <v>-0.55249999999999999</v>
-      </c>
       <c r="DF8" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7492,20 +7447,65 @@
       <c r="CS9" s="5">
         <v>42803.725601851853</v>
       </c>
-      <c r="CU9" s="5">
-        <v>42804.024212962962</v>
-      </c>
-      <c r="CW9">
-        <v>9.7902678999995996E-2</v>
+      <c r="CT9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV9" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CW9" s="13" t="s">
+        <v>1601</v>
       </c>
       <c r="CX9" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY9">
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>811</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI9" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="DJ9" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>832</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7710,19 +7710,34 @@
         <v>42804.131851851853</v>
       </c>
       <c r="CU10" s="5">
-        <v>42804.999907407408</v>
+        <v>42800.37835648148</v>
       </c>
       <c r="CW10">
-        <v>0.30047904300005501</v>
+        <v>2.4928100000130501E-2</v>
       </c>
       <c r="CX10" t="s">
         <v>831</v>
       </c>
-      <c r="CY10">
-        <v>0.10349999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:110" ht="224.4" x14ac:dyDescent="0.2">
+      <c r="CY10" s="1">
+        <v>-0.2485</v>
+      </c>
+      <c r="DF10" s="5">
+        <v>42796.639004629629</v>
+      </c>
+      <c r="DH10" s="5">
+        <v>42798.208333333336</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL10" s="1">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:119" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7927,19 +7942,34 @@
         <v>42809.774189814816</v>
       </c>
       <c r="CU11" s="5">
-        <v>42810.711689814816</v>
+        <v>42801.940868055557</v>
       </c>
       <c r="CW11">
-        <v>-2.4540550999876499E-2</v>
+        <v>-0.103645907000026</v>
       </c>
       <c r="CX11" t="s">
         <v>830</v>
       </c>
       <c r="CY11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.2">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="DF11" s="5">
+        <v>42800.725694444445</v>
+      </c>
+      <c r="DH11" s="5">
+        <v>42802.909722222219</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL11">
+        <v>0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8132,19 +8162,34 @@
         <v>42814.874884259261</v>
       </c>
       <c r="CU12" s="5">
-        <v>42815.52071759259</v>
+        <v>42803.725590277776</v>
       </c>
       <c r="CW12">
-        <v>-6.8557761000133596E-2</v>
+        <v>-0.141005828999927</v>
       </c>
       <c r="CX12" t="s">
         <v>830</v>
       </c>
-      <c r="CY12">
-        <v>0.3695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="CY12" s="1">
+        <v>-0.55249999999999999</v>
+      </c>
+      <c r="DF12" s="5">
+        <v>42803.71875</v>
+      </c>
+      <c r="DH12" s="5">
+        <v>42804.024421296293</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL12">
+        <v>0.1215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8341,19 +8386,34 @@
         <v>42817.683912037035</v>
       </c>
       <c r="CU13" s="5">
-        <v>42817.95821759259</v>
+        <v>42804.024212962962</v>
       </c>
       <c r="CW13">
-        <v>-8.6176538000175398E-2</v>
+        <v>9.7902678999995996E-2</v>
       </c>
       <c r="CX13" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY13" s="1">
-        <v>-7.0499999999999993E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY13">
+        <v>0.1125</v>
+      </c>
+      <c r="DF13" s="5">
+        <v>42804.128587962965</v>
+      </c>
+      <c r="DH13" s="5">
+        <v>42805</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL13">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8546,19 +8606,34 @@
         <v>42818.628368055557</v>
       </c>
       <c r="CU14" s="5">
-        <v>42818.767256944448</v>
+        <v>42804.999907407408</v>
       </c>
       <c r="CW14">
-        <v>3.6862377000217897E-2</v>
+        <v>0.30047904300005501</v>
       </c>
       <c r="CX14" t="s">
         <v>831</v>
       </c>
-      <c r="CY14" s="1">
-        <v>-0.33750000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="CY14">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="DF14" s="5">
+        <v>42809.774305555555</v>
+      </c>
+      <c r="DH14" s="5">
+        <v>42810.302199074074</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL14">
+        <v>0.20549999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8751,19 +8826,34 @@
         <v>42818.767268518517</v>
       </c>
       <c r="CU15" s="5">
-        <v>42821.742939814816</v>
+        <v>42810.711689814816</v>
       </c>
       <c r="CW15">
-        <v>-3.03457600000758E-2</v>
+        <v>-2.4540550999876499E-2</v>
       </c>
       <c r="CX15" t="s">
         <v>830</v>
       </c>
       <c r="CY15">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:110" ht="13.05" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+      <c r="DF15" s="5">
+        <v>42810.305555555555</v>
+      </c>
+      <c r="DH15" s="5">
+        <v>42811.84039351852</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL15">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -8956,19 +9046,34 @@
         <v>42822.360995370371</v>
       </c>
       <c r="CU16" s="5">
-        <v>42825.624884259261</v>
+        <v>42815.52071759259</v>
       </c>
       <c r="CW16">
-        <v>0.140297893000044</v>
+        <v>-6.8557761000133596E-2</v>
       </c>
       <c r="CX16" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY16">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+        <v>0.3695</v>
+      </c>
+      <c r="DF16" s="5">
+        <v>42814.882060185184</v>
+      </c>
+      <c r="DH16" s="5">
+        <v>42815.520833333336</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL16">
+        <v>0.2175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9161,19 +9266,34 @@
         <v>42826.246412037035</v>
       </c>
       <c r="CU17" s="5">
-        <v>42828.732523148145</v>
+        <v>42817.95821759259</v>
       </c>
       <c r="CW17">
-        <v>0.21958730099995999</v>
+        <v>-8.6176538000175398E-2</v>
       </c>
       <c r="CX17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY17" s="1">
-        <v>-0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+        <v>-7.0499999999999993E-2</v>
+      </c>
+      <c r="DF17" s="5">
+        <v>42817.889004629629</v>
+      </c>
+      <c r="DH17" s="5">
+        <v>42819.208333333336</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL17" s="1">
+        <v>-0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -9370,19 +9490,34 @@
         <v>42828.732534722221</v>
       </c>
       <c r="CU18" s="5">
-        <v>42829.763784722221</v>
+        <v>42818.767256944448</v>
       </c>
       <c r="CW18">
-        <v>-5.634751999998E-2</v>
+        <v>3.6862377000217897E-2</v>
       </c>
       <c r="CX18" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY18">
-        <v>1.706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY18" s="1">
+        <v>-0.33750000000000002</v>
+      </c>
+      <c r="DF18" s="5">
+        <v>42821.298726851855</v>
+      </c>
+      <c r="DH18" s="5">
+        <v>42822.357754629629</v>
+      </c>
+      <c r="DI18" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL18" s="1">
+        <v>-0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9575,19 +9710,34 @@
         <v>42830.520729166667</v>
       </c>
       <c r="CU19" s="5">
-        <v>42830.878368055557</v>
+        <v>42821.742939814816</v>
       </c>
       <c r="CW19">
-        <v>-0.20651108499992901</v>
+        <v>-3.03457600000758E-2</v>
       </c>
       <c r="CX19" t="s">
         <v>830</v>
       </c>
-      <c r="CY19" s="1">
-        <v>-0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CY19">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="DF19" s="5">
+        <v>42822.361122685186</v>
+      </c>
+      <c r="DH19" s="5">
+        <v>42825.628483796296</v>
+      </c>
+      <c r="DI19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL19">
+        <v>0.42249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9780,19 +9930,34 @@
         <v>42830.878379629627</v>
       </c>
       <c r="CU20" s="5">
-        <v>42832.430462962962</v>
+        <v>42825.624884259261</v>
       </c>
       <c r="CW20">
-        <v>0.26571941799986498</v>
+        <v>0.140297893000044</v>
       </c>
       <c r="CX20" t="s">
         <v>831</v>
       </c>
-      <c r="CY20" s="1">
-        <v>-0.8135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CY20">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="DF20" s="5">
+        <v>42828.253472222219</v>
+      </c>
+      <c r="DH20" s="5">
+        <v>42828.680671296293</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL20" s="1">
+        <v>-0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9985,19 +10150,34 @@
         <v>42832.430474537039</v>
       </c>
       <c r="CU21" s="5">
-        <v>42833.093668981484</v>
+        <v>42828.732523148145</v>
       </c>
       <c r="CW21">
-        <v>-0.102829166</v>
+        <v>0.21958730099995999</v>
       </c>
       <c r="CX21" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY21" s="1">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="DF21" s="5">
+        <v>42828.684039351851</v>
+      </c>
+      <c r="DH21" s="5">
+        <v>42829.76390046296</v>
+      </c>
+      <c r="DI21" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK21" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL21">
+        <v>2.0225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -10190,19 +10370,34 @@
         <v>42835.954745370371</v>
       </c>
       <c r="CU22" s="5">
-        <v>42836.663078703707</v>
+        <v>42829.763784722221</v>
       </c>
       <c r="CW22">
-        <v>5.6281622000011897E-2</v>
+        <v>-5.634751999998E-2</v>
       </c>
       <c r="CX22" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY22" s="1">
-        <v>-0.98099999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY22">
+        <v>1.706</v>
+      </c>
+      <c r="DF22" s="5">
+        <v>42830.649317129632</v>
+      </c>
+      <c r="DH22" s="5">
+        <v>42830.73265046296</v>
+      </c>
+      <c r="DI22" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL22" s="1">
+        <v>-0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10395,19 +10590,34 @@
         <v>42836.663090277776</v>
       </c>
       <c r="CU23" s="5">
-        <v>42837.680451388886</v>
+        <v>42830.878368055557</v>
       </c>
       <c r="CW23">
-        <v>-0.10978670700000701</v>
+        <v>-0.20651108499992901</v>
       </c>
       <c r="CX23" t="s">
         <v>830</v>
       </c>
-      <c r="CY23">
-        <v>0.17249999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:104" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="CY23" s="1">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="DF23" s="5">
+        <v>42830.732662037037</v>
+      </c>
+      <c r="DH23" s="5">
+        <v>42831.163217592592</v>
+      </c>
+      <c r="DI23" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL23">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -10604,19 +10814,34 @@
         <v>42837.815868055557</v>
       </c>
       <c r="CU24" s="5">
-        <v>42842.850578703707</v>
+        <v>42832.430462962962</v>
       </c>
       <c r="CW24">
-        <v>-0.160995931000047</v>
+        <v>0.26571941799986498</v>
       </c>
       <c r="CX24" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY24">
-        <v>0.91800000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY24" s="1">
+        <v>-0.8135</v>
+      </c>
+      <c r="DF24" s="5">
+        <v>42832.427106481482</v>
+      </c>
+      <c r="DH24" s="5">
+        <v>42833.208356481482</v>
+      </c>
+      <c r="DI24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK24" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL24" s="1">
+        <v>-1.35E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -10809,19 +11034,34 @@
         <v>42843.180439814816</v>
       </c>
       <c r="CU25" s="5">
-        <v>42844.031134259261</v>
+        <v>42833.093668981484</v>
       </c>
       <c r="CW25">
-        <v>0.15272668599998901</v>
+        <v>-0.102829166</v>
       </c>
       <c r="CX25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY25">
-        <v>1.5445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="DF25" s="5">
+        <v>42835.951504629629</v>
+      </c>
+      <c r="DH25" s="5">
+        <v>42836.663310185184</v>
+      </c>
+      <c r="DI25" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK25" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL25" s="1">
+        <v>-0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -11014,19 +11254,34 @@
         <v>42845.69085648148</v>
       </c>
       <c r="CU26" s="5">
-        <v>42846.437384259261</v>
+        <v>42836.663078703707</v>
       </c>
       <c r="CW26">
-        <v>3.3408481999936103E-2</v>
+        <v>5.6281622000011897E-2</v>
       </c>
       <c r="CX26" t="s">
         <v>831</v>
       </c>
-      <c r="CY26">
-        <v>9.9999999999899995E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY26" s="1">
+        <v>-0.98099999999999998</v>
+      </c>
+      <c r="DF26" s="5">
+        <v>42836.666678240741</v>
+      </c>
+      <c r="DH26" s="5">
+        <v>42837.680567129632</v>
+      </c>
+      <c r="DI26" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK26" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL26">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -11223,19 +11478,34 @@
         <v>42846.610995370371</v>
       </c>
       <c r="CU27" s="5">
-        <v>42847.00335648148</v>
+        <v>42837.680451388886</v>
       </c>
       <c r="CW27">
-        <v>0.227232118999913</v>
+        <v>-0.10978670700000701</v>
       </c>
       <c r="CX27" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY27" s="1">
-        <v>-0.59050000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY27">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="DF27" s="5">
+        <v>42838.180567129632</v>
+      </c>
+      <c r="DH27" s="5">
+        <v>42840.208344907405</v>
+      </c>
+      <c r="DI27" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK27" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL27">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -11431,22 +11701,34 @@
         <v>42847.003368055557</v>
       </c>
       <c r="CU28" s="5">
-        <v>42851.015740740739</v>
+        <v>42842.850578703707</v>
       </c>
       <c r="CW28">
-        <v>-0.120309100999901</v>
+        <v>-0.160995931000047</v>
       </c>
       <c r="CX28" t="s">
         <v>830</v>
       </c>
-      <c r="CY28" s="6">
-        <v>-3.016</v>
-      </c>
-      <c r="CZ28" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY28">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="DF28" s="5">
+        <v>42843.180671296293</v>
+      </c>
+      <c r="DH28" s="5">
+        <v>42843.882060185184</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK28" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL28">
+        <v>0.83850000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -11639,19 +11921,34 @@
         <v>42852.305451388886</v>
       </c>
       <c r="CU29" s="5">
-        <v>42853.006840277776</v>
+        <v>42844.031134259261</v>
       </c>
       <c r="CW29">
-        <v>0.18190791200006801</v>
+        <v>0.15272668599998901</v>
       </c>
       <c r="CX29" t="s">
         <v>831</v>
       </c>
       <c r="CY29">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.2">
+        <v>1.5445</v>
+      </c>
+      <c r="DF29" s="5">
+        <v>42845.923726851855</v>
+      </c>
+      <c r="DH29" s="5">
+        <v>42847.006944444445</v>
+      </c>
+      <c r="DI29" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK29" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL29" s="1">
+        <v>-0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -11844,19 +12141,34 @@
         <v>42853.680451388886</v>
       </c>
       <c r="CU30" s="5">
-        <v>42853.975590277776</v>
+        <v>42846.437384259261</v>
       </c>
       <c r="CW30">
-        <v>0.17791887399992901</v>
+        <v>3.3408481999936103E-2</v>
       </c>
       <c r="CX30" t="s">
         <v>831</v>
       </c>
       <c r="CY30">
-        <v>0.1515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.2">
+        <v>9.9999999999899995E-3</v>
+      </c>
+      <c r="DF30" s="5">
+        <v>42847.006956018522</v>
+      </c>
+      <c r="DH30" s="5">
+        <v>42847.208344907405</v>
+      </c>
+      <c r="DI30" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK30" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL30" s="1">
+        <v>-0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -12049,19 +12361,34 @@
         <v>42856.649189814816</v>
       </c>
       <c r="CU31" s="5">
-        <v>42858.635300925926</v>
+        <v>42847.00335648148</v>
       </c>
       <c r="CW31">
-        <v>0.25683067900005502</v>
+        <v>0.227232118999913</v>
       </c>
       <c r="CX31" t="s">
         <v>831</v>
       </c>
-      <c r="CY31">
-        <v>3.85E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY31" s="1">
+        <v>-0.59050000000000002</v>
+      </c>
+      <c r="DF31" s="5">
+        <v>42849.25</v>
+      </c>
+      <c r="DH31" s="5">
+        <v>42849.253587962965</v>
+      </c>
+      <c r="DI31" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK31" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL31" s="1">
+        <v>-0.49249999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -12254,19 +12581,37 @@
         <v>42858.694328703707</v>
       </c>
       <c r="CU32" s="5">
-        <v>42860.107523148145</v>
+        <v>42851.015740740739</v>
       </c>
       <c r="CW32">
-        <v>0.158599899000085</v>
+        <v>-0.120309100999901</v>
       </c>
       <c r="CX32" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY32">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY32" s="6">
+        <v>-3.016</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>1634</v>
+      </c>
+      <c r="DF32" s="5">
+        <v>42852.42015046296</v>
+      </c>
+      <c r="DH32" s="5">
+        <v>42853.006956018522</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL32">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -12459,19 +12804,34 @@
         <v>42860.39571759259</v>
       </c>
       <c r="CU33" s="5">
-        <v>42863.30196759259</v>
+        <v>42853.006840277776</v>
       </c>
       <c r="CW33">
-        <v>8.8641691000039199E-2</v>
+        <v>0.18190791200006801</v>
       </c>
       <c r="CX33" t="s">
         <v>831</v>
       </c>
       <c r="CY33">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="DF33" s="5">
+        <v>42853.680567129632</v>
+      </c>
+      <c r="DH33" s="5">
+        <v>42854.208344907405</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL33">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -12664,19 +13024,34 @@
         <v>42864.08321759259</v>
       </c>
       <c r="CU34" s="5">
-        <v>42864.767245370371</v>
+        <v>42853.975590277776</v>
       </c>
       <c r="CW34">
-        <v>0.23660168800016601</v>
+        <v>0.17791887399992901</v>
       </c>
       <c r="CX34" t="s">
         <v>831</v>
       </c>
       <c r="CY34">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.1515</v>
+      </c>
+      <c r="DF34" s="5">
+        <v>42856.645949074074</v>
+      </c>
+      <c r="DH34" s="5">
+        <v>42858.635416666664</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL34">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -12872,22 +13247,34 @@
         <v>42866.107523148145</v>
       </c>
       <c r="CU35" s="5">
-        <v>42871.982523148145</v>
+        <v>42858.635300925926</v>
       </c>
       <c r="CW35">
-        <v>0.13924407299990499</v>
+        <v>0.25683067900005502</v>
       </c>
       <c r="CX35" t="s">
         <v>831</v>
       </c>
-      <c r="CY35" s="6">
-        <v>-1.7809999999999999</v>
-      </c>
-      <c r="CZ35" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY35">
+        <v>3.85E-2</v>
+      </c>
+      <c r="DF35" s="5">
+        <v>42858.691087962965</v>
+      </c>
+      <c r="DH35" s="5">
+        <v>42860.055555555555</v>
+      </c>
+      <c r="DI35" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK35" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL35">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -13080,19 +13467,34 @@
         <v>42871.982534722221</v>
       </c>
       <c r="CU36" s="5">
-        <v>42872.704756944448</v>
+        <v>42860.107523148145</v>
       </c>
       <c r="CW36">
-        <v>-0.13344375000002601</v>
+        <v>0.158599899000085</v>
       </c>
       <c r="CX36" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY36">
-        <v>0.78549999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.158</v>
+      </c>
+      <c r="DF36" s="5">
+        <v>42860.395949074074</v>
+      </c>
+      <c r="DH36" s="5">
+        <v>42861.208333333336</v>
+      </c>
+      <c r="DI36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK36" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL36">
+        <v>0.45050000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -13285,19 +13687,34 @@
         <v>42874.548506944448</v>
       </c>
       <c r="CU37" s="5">
-        <v>42874.930451388886</v>
+        <v>42863.30196759259</v>
       </c>
       <c r="CW37">
-        <v>8.2166392999947699E-2</v>
+        <v>8.8641691000039199E-2</v>
       </c>
       <c r="CX37" t="s">
         <v>831</v>
       </c>
       <c r="CY37">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.84</v>
+      </c>
+      <c r="DF37" s="5">
+        <v>42864.079976851855</v>
+      </c>
+      <c r="DH37" s="5">
+        <v>42864.767361111109</v>
+      </c>
+      <c r="DI37" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK37" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL37">
+        <v>0.79749999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -13490,19 +13907,34 @@
         <v>42877.795023148145</v>
       </c>
       <c r="CU38" s="5">
-        <v>42878.006828703707</v>
+        <v>42864.767245370371</v>
       </c>
       <c r="CW38">
-        <v>0.146337228000048</v>
+        <v>0.23660168800016601</v>
       </c>
       <c r="CX38" t="s">
         <v>831</v>
       </c>
-      <c r="CY38" s="1">
-        <v>-0.55249999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY38">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="DF38" s="5">
+        <v>42866.000115740739</v>
+      </c>
+      <c r="DH38" s="5">
+        <v>42866.833449074074</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK38" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL38" s="1">
+        <v>-0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -13695,19 +14127,37 @@
         <v>42878.006840277776</v>
       </c>
       <c r="CU39" s="5">
-        <v>42878.676979166667</v>
+        <v>42871.982523148145</v>
       </c>
       <c r="CW39">
-        <v>-1.76559279998947E-2</v>
+        <v>0.13924407299990499</v>
       </c>
       <c r="CX39" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY39" s="1">
-        <v>-4.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY39" s="6">
+        <v>-1.7809999999999999</v>
+      </c>
+      <c r="CZ39" t="s">
+        <v>1635</v>
+      </c>
+      <c r="DF39" s="5">
+        <v>42870.250115740739</v>
+      </c>
+      <c r="DH39" s="5">
+        <v>42871.38553240741</v>
+      </c>
+      <c r="DI39" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK39" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL39" s="1">
+        <v>-0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -13900,19 +14350,34 @@
         <v>42878.808935185189</v>
       </c>
       <c r="CU40" s="5">
-        <v>42879.308935185189</v>
+        <v>42872.704756944448</v>
       </c>
       <c r="CW40">
-        <v>-0.225633928000151</v>
+        <v>-0.13344375000002601</v>
       </c>
       <c r="CX40" t="s">
         <v>830</v>
       </c>
-      <c r="CY40" s="1">
-        <v>-0.82450000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY40">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="DF40" s="5">
+        <v>42871.38890046296</v>
+      </c>
+      <c r="DH40" s="5">
+        <v>42871.986122685186</v>
+      </c>
+      <c r="DI40" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK40" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL40" s="1">
+        <v>-0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -14105,19 +14570,34 @@
         <v>42879.308946759258</v>
       </c>
       <c r="CU41" s="5">
-        <v>42881.177002314813</v>
+        <v>42874.930451388886</v>
       </c>
       <c r="CW41">
-        <v>0.114738466000002</v>
+        <v>8.2166392999947699E-2</v>
       </c>
       <c r="CX41" t="s">
         <v>831</v>
       </c>
-      <c r="CY41" s="1">
-        <v>-0.4335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY41">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="DF41" s="5">
+        <v>42871.986134259256</v>
+      </c>
+      <c r="DH41" s="5">
+        <v>42872.739606481482</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL41">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -14310,19 +14790,34 @@
         <v>42881.17701388889</v>
       </c>
       <c r="CU42" s="5">
-        <v>42881.920069444444</v>
+        <v>42878.006828703707</v>
       </c>
       <c r="CW42">
-        <v>-6.7921105000091603E-2</v>
+        <v>0.146337228000048</v>
       </c>
       <c r="CX42" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY42">
-        <v>1.9690000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY42" s="1">
+        <v>-0.55249999999999999</v>
+      </c>
+      <c r="DF42" s="5">
+        <v>42873.732662037037</v>
+      </c>
+      <c r="DH42" s="5">
+        <v>42874.107662037037</v>
+      </c>
+      <c r="DI42" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK42" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL42" s="1">
+        <v>-1.1675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -14515,19 +15010,34 @@
         <v>42884.94085648148</v>
       </c>
       <c r="CU43" s="5">
-        <v>42885.69085648148</v>
+        <v>42878.676979166667</v>
       </c>
       <c r="CW43">
-        <v>-0.13018078000014299</v>
+        <v>-1.76559279998947E-2</v>
       </c>
       <c r="CX43" t="s">
         <v>830</v>
       </c>
-      <c r="CY43">
-        <v>0.41849999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY43" s="1">
+        <v>-4.8500000000000001E-2</v>
+      </c>
+      <c r="DF43" s="5">
+        <v>42874.107673611114</v>
+      </c>
+      <c r="DH43" s="5">
+        <v>42874.111145833333</v>
+      </c>
+      <c r="DI43" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK43" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL43" s="1">
+        <v>-0.628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -14724,19 +15234,34 @@
         <v>42886.274189814816</v>
       </c>
       <c r="CU44" s="5">
-        <v>42887.586689814816</v>
+        <v>42879.308935185189</v>
       </c>
       <c r="CW44">
-        <v>-0.18364950300008401</v>
+        <v>-0.225633928000151</v>
       </c>
       <c r="CX44" t="s">
         <v>830</v>
       </c>
       <c r="CY44" s="1">
-        <v>-0.89549999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.82450000000000001</v>
+      </c>
+      <c r="DF44" s="5">
+        <v>42874.111157407409</v>
+      </c>
+      <c r="DH44" s="5">
+        <v>42874.8125462963</v>
+      </c>
+      <c r="DI44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK44" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL44">
+        <v>0.84050000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -14933,19 +15458,34 @@
         <v>42887.586701388886</v>
       </c>
       <c r="CU45" s="5">
-        <v>42888.663090277776</v>
+        <v>42881.177002314813</v>
       </c>
       <c r="CW45">
-        <v>0.29373261399982298</v>
+        <v>0.114738466000002</v>
       </c>
       <c r="CX45" t="s">
         <v>831</v>
       </c>
-      <c r="CY45">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY45" s="1">
+        <v>-0.4335</v>
+      </c>
+      <c r="DF45" s="5">
+        <v>42877.25</v>
+      </c>
+      <c r="DH45" s="5">
+        <v>42877.795254629629</v>
+      </c>
+      <c r="DI45" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK45" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL45" s="1">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -15138,19 +15678,34 @@
         <v>42892.104050925926</v>
       </c>
       <c r="CU46" s="5">
-        <v>42892.697800925926</v>
+        <v>42881.920069444444</v>
       </c>
       <c r="CW46">
-        <v>-0.18497973700010001</v>
+        <v>-6.7921105000091603E-2</v>
       </c>
       <c r="CX46" t="s">
         <v>830</v>
       </c>
       <c r="CY46">
-        <v>0.81850000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.2">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="DF46" s="5">
+        <v>42877.798622685186</v>
+      </c>
+      <c r="DH46" s="5">
+        <v>42878.003483796296</v>
+      </c>
+      <c r="DI46" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK46" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL46" s="1">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -15343,19 +15898,34 @@
         <v>42898.621412037035</v>
       </c>
       <c r="CU47" s="5">
-        <v>42902.621412037035</v>
+        <v>42885.69085648148</v>
       </c>
       <c r="CW47">
-        <v>0.106789036999988</v>
+        <v>-0.13018078000014299</v>
       </c>
       <c r="CX47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY47">
-        <v>1.042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="DF47" s="5">
+        <v>42878.003495370373</v>
+      </c>
+      <c r="DH47" s="5">
+        <v>42878.677106481482</v>
+      </c>
+      <c r="DI47" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK47" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL47">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -15548,19 +16118,34 @@
         <v>42905.53460648148</v>
       </c>
       <c r="CU48" s="5">
-        <v>42906.010300925926</v>
+        <v>42887.586689814816</v>
       </c>
       <c r="CW48">
-        <v>0.107180926999973</v>
+        <v>-0.18364950300008401</v>
       </c>
       <c r="CX48" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY48" s="1">
-        <v>-0.17549999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.89549999999999996</v>
+      </c>
+      <c r="DF48" s="5">
+        <v>42878.812523148146</v>
+      </c>
+      <c r="DH48" s="5">
+        <v>42881.923634259256</v>
+      </c>
+      <c r="DI48" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK48" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL48">
+        <v>1.4590000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -15753,19 +16338,34 @@
         <v>42906.010312500002</v>
       </c>
       <c r="CU49" s="5">
-        <v>42906.673506944448</v>
+        <v>42888.663090277776</v>
       </c>
       <c r="CW49">
-        <v>-1.3712597999937E-2</v>
+        <v>0.29373261399982298</v>
       </c>
       <c r="CX49" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY49" s="1">
-        <v>-0.77249999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY49">
+        <v>0.623</v>
+      </c>
+      <c r="DF49" s="5">
+        <v>42884.937615740739</v>
+      </c>
+      <c r="DH49" s="5">
+        <v>42885.670254629629</v>
+      </c>
+      <c r="DI49" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK49" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL49">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -15961,22 +16561,34 @@
         <v>42906.673518518517</v>
       </c>
       <c r="CU50" s="5">
-        <v>42906.888796296298</v>
+        <v>42892.697800925926</v>
       </c>
       <c r="CW50">
-        <v>0.16068794699994801</v>
+        <v>-0.18497973700010001</v>
       </c>
       <c r="CX50" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY50" s="6">
-        <v>-1.585</v>
-      </c>
-      <c r="CZ50" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY50">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="DF50" s="5">
+        <v>42886.270949074074</v>
+      </c>
+      <c r="DH50" s="5">
+        <v>42886.791666666664</v>
+      </c>
+      <c r="DI50" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK50" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL50">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -16169,19 +16781,34 @@
         <v>42906.888807870368</v>
       </c>
       <c r="CU51" s="5">
-        <v>42907.819363425922</v>
+        <v>42902.621412037035</v>
       </c>
       <c r="CW51">
-        <v>-0.135122571000036</v>
+        <v>0.106789036999988</v>
       </c>
       <c r="CX51" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY51">
-        <v>0.41549999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.2">
+        <v>1.042</v>
+      </c>
+      <c r="DF51" s="5">
+        <v>42887.722337962965</v>
+      </c>
+      <c r="DH51" s="5">
+        <v>42888.739583333336</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL51">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -16378,19 +17005,34 @@
         <v>42909.392280092594</v>
       </c>
       <c r="CU52" s="5">
-        <v>42912.774189814816</v>
+        <v>42906.010300925926</v>
       </c>
       <c r="CW52">
-        <v>4.4706424000072902E-2</v>
+        <v>0.107180926999973</v>
       </c>
       <c r="CX52" t="s">
         <v>831</v>
       </c>
-      <c r="CY52">
-        <v>0.73599999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY52" s="1">
+        <v>-0.17549999999999999</v>
+      </c>
+      <c r="DF52" s="5">
+        <v>42892.100810185184</v>
+      </c>
+      <c r="DH52" s="5">
+        <v>42892.951388888891</v>
+      </c>
+      <c r="DI52" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK52" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL52">
+        <v>1.4584999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -16583,19 +17225,34 @@
         <v>42913.08321759259</v>
       </c>
       <c r="CU53" s="5">
-        <v>42914.138773148145</v>
+        <v>42906.673506944448</v>
       </c>
       <c r="CW53">
-        <v>0.139882688999937</v>
+        <v>-1.3712597999937E-2</v>
       </c>
       <c r="CX53" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY53">
-        <v>1.4045000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY53" s="1">
+        <v>-0.77249999999999996</v>
+      </c>
+      <c r="DF53" s="5">
+        <v>42895.253472222219</v>
+      </c>
+      <c r="DH53" s="5">
+        <v>42895.256944444445</v>
+      </c>
+      <c r="DI53" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK53" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL53" s="1">
+        <v>-0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -16788,19 +17445,37 @@
         <v>42916.58321759259</v>
       </c>
       <c r="CU54" s="5">
-        <v>42919.25335648148</v>
+        <v>42906.888796296298</v>
       </c>
       <c r="CW54">
-        <v>0.16541111100005501</v>
+        <v>0.16068794699994801</v>
       </c>
       <c r="CX54" t="s">
         <v>831</v>
       </c>
-      <c r="CY54">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY54" s="6">
+        <v>-1.585</v>
+      </c>
+      <c r="CZ54" t="s">
+        <v>1636</v>
+      </c>
+      <c r="DF54" s="5">
+        <v>42895.256956018522</v>
+      </c>
+      <c r="DH54" s="5">
+        <v>42895.260428240741</v>
+      </c>
+      <c r="DI54" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK54" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL54" s="1">
+        <v>-0.503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -16993,19 +17668,34 @@
         <v>42921.308912037035</v>
       </c>
       <c r="CU55" s="5">
-        <v>42922.788078703707</v>
+        <v>42907.819363425922</v>
       </c>
       <c r="CW55">
-        <v>-0.14016726300003601</v>
+        <v>-0.135122571000036</v>
       </c>
       <c r="CX55" t="s">
         <v>830</v>
       </c>
-      <c r="CY55" s="1">
-        <v>-0.76449999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY55">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="DF55" s="5">
+        <v>42895.260439814818</v>
+      </c>
+      <c r="DH55" s="5">
+        <v>42895.309050925927</v>
+      </c>
+      <c r="DI55" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK55" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL55" s="1">
+        <v>-1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -17198,19 +17888,34 @@
         <v>42922.788090277776</v>
       </c>
       <c r="CU56" s="5">
-        <v>42923.732534722221</v>
+        <v>42912.774189814816</v>
       </c>
       <c r="CW56">
-        <v>0.113294642999918</v>
+        <v>4.4706424000072902E-2</v>
       </c>
       <c r="CX56" t="s">
         <v>831</v>
       </c>
-      <c r="CY56" s="1">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY56">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="DF56" s="5">
+        <v>42895.309062499997</v>
+      </c>
+      <c r="DH56" s="5">
+        <v>42896.208368055559</v>
+      </c>
+      <c r="DI56" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK56" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL56" s="1">
+        <v>-0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -17403,19 +18108,34 @@
         <v>42926.420023148145</v>
       </c>
       <c r="CU57" s="5">
-        <v>42927.913078703707</v>
+        <v>42914.138773148145</v>
       </c>
       <c r="CW57">
-        <v>2.6266045999986502E-2</v>
+        <v>0.139882688999937</v>
       </c>
       <c r="CX57" t="s">
         <v>831</v>
       </c>
       <c r="CY57">
-        <v>7.5000000000200002E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.2">
+        <v>1.4045000000000001</v>
+      </c>
+      <c r="DF57" s="5">
+        <v>42901.833449074074</v>
+      </c>
+      <c r="DH57" s="5">
+        <v>42902.618055555555</v>
+      </c>
+      <c r="DI57" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK57" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL57">
+        <v>1.8634999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -17608,19 +18328,34 @@
         <v>42930.166550925926</v>
       </c>
       <c r="CU58" s="5">
-        <v>42933.78460648148</v>
+        <v>42919.25335648148</v>
       </c>
       <c r="CW58">
-        <v>0.20748603700003501</v>
+        <v>0.16541111100005501</v>
       </c>
       <c r="CX58" t="s">
         <v>831</v>
       </c>
       <c r="CY58">
-        <v>0.48449999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.254</v>
+      </c>
+      <c r="DF58" s="5">
+        <v>42905.649421296293</v>
+      </c>
+      <c r="DH58" s="5">
+        <v>42906.007060185184</v>
+      </c>
+      <c r="DI58" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK58" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL58" s="1">
+        <v>-0.2555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -17812,19 +18547,34 @@
         <v>42933.992939814816</v>
       </c>
       <c r="CU59" s="5">
-        <v>42934.413078703707</v>
+        <v>42922.788078703707</v>
       </c>
       <c r="CW59">
-        <v>5.6008408000063098E-2</v>
+        <v>-0.14016726300003601</v>
       </c>
       <c r="CX59" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY59" s="1">
-        <v>-0.40849999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.76449999999999996</v>
+      </c>
+      <c r="DF59" s="5">
+        <v>42906.010428240741</v>
+      </c>
+      <c r="DH59" s="5">
+        <v>42906.673622685186</v>
+      </c>
+      <c r="DI59" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK59" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL59" s="1">
+        <v>-0.75549999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -18020,19 +18770,34 @@
         <v>42934.413090277776</v>
       </c>
       <c r="CU60" s="5">
-        <v>42934.954756944448</v>
+        <v>42923.732534722221</v>
       </c>
       <c r="CW60">
-        <v>-9.6386581999845206E-2</v>
+        <v>0.113294642999918</v>
       </c>
       <c r="CX60" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY60">
-        <v>0.87150000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY60" s="1">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="DF60" s="5">
+        <v>42906.673634259256</v>
+      </c>
+      <c r="DH60" s="5">
+        <v>42906.690995370373</v>
+      </c>
+      <c r="DI60" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK60" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL60" s="1">
+        <v>-0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -18224,19 +18989,34 @@
         <v>42935.916562500002</v>
       </c>
       <c r="CU61" s="5">
-        <v>42937.163090277776</v>
+        <v>42927.913078703707</v>
       </c>
       <c r="CW61">
-        <v>-0.32064952899988303</v>
+        <v>2.6266045999986502E-2</v>
       </c>
       <c r="CX61" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY61">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.2">
+        <v>7.5000000000200002E-3</v>
+      </c>
+      <c r="DF61" s="5">
+        <v>42906.691006944442</v>
+      </c>
+      <c r="DH61" s="5">
+        <v>42907.753506944442</v>
+      </c>
+      <c r="DI61" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK61" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL61">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -18428,19 +19208,34 @@
         <v>42937.826284722221</v>
       </c>
       <c r="CU62" s="5">
-        <v>42940.604050925926</v>
+        <v>42933.78460648148</v>
       </c>
       <c r="CW62">
-        <v>-0.25958147299988599</v>
+        <v>0.20748603700003501</v>
       </c>
       <c r="CX62" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY62">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="DF62" s="5">
+        <v>42907.836840277778</v>
+      </c>
+      <c r="DH62" s="5">
+        <v>42908.003506944442</v>
+      </c>
+      <c r="DI62" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK62" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL62">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -18632,19 +19427,34 @@
         <v>42941.354050925926</v>
       </c>
       <c r="CU63" s="5">
-        <v>42942.545023148145</v>
+        <v>42934.413078703707</v>
       </c>
       <c r="CW63">
-        <v>0.187503100000005</v>
+        <v>5.6008408000063098E-2</v>
       </c>
       <c r="CX63" t="s">
         <v>831</v>
       </c>
-      <c r="CY63">
-        <v>0.76849999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY63" s="1">
+        <v>-0.40849999999999997</v>
+      </c>
+      <c r="DF63" s="5">
+        <v>42909.416701388887</v>
+      </c>
+      <c r="DH63" s="5">
+        <v>42910.208368055559</v>
+      </c>
+      <c r="DI63" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK63" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL63">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -18836,19 +19646,34 @@
         <v>42942.985995370371</v>
       </c>
       <c r="CU64" s="5">
-        <v>42949.975578703707</v>
+        <v>42934.954756944448</v>
       </c>
       <c r="CW64">
-        <v>0.37657832399989</v>
+        <v>-9.6386581999845206E-2</v>
       </c>
       <c r="CX64" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY64">
-        <v>0.1525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="DF64" s="5">
+        <v>42912.250115740739</v>
+      </c>
+      <c r="DH64" s="5">
+        <v>42913.66678240741</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL64">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -19043,22 +19868,34 @@
         <v>42950.36446759259</v>
       </c>
       <c r="CU65" s="5">
-        <v>42954.888773148145</v>
+        <v>42937.163090277776</v>
       </c>
       <c r="CW65">
-        <v>0.25183628600003799</v>
+        <v>-0.32064952899988303</v>
       </c>
       <c r="CX65" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY65" s="6">
-        <v>-2.0430000000000001</v>
-      </c>
-      <c r="CZ65" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY65">
+        <v>0.182</v>
+      </c>
+      <c r="DF65" s="5">
+        <v>42913.861111111109</v>
+      </c>
+      <c r="DH65" s="5">
+        <v>42914.347222222219</v>
+      </c>
+      <c r="DI65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK65" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL65">
+        <v>0.9425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -19250,19 +20087,34 @@
         <v>42954.888784722221</v>
       </c>
       <c r="CU66" s="5">
-        <v>42956.180451388886</v>
+        <v>42940.604050925926</v>
       </c>
       <c r="CW66">
-        <v>-2.1193649999942998E-2</v>
+        <v>-0.25958147299988599</v>
       </c>
       <c r="CX66" t="s">
         <v>830</v>
       </c>
       <c r="CY66">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="DF66" s="5">
+        <v>42914.941087962965</v>
+      </c>
+      <c r="DH66" s="5">
+        <v>42915.020833333336</v>
+      </c>
+      <c r="DI66" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK66" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL66">
+        <v>0.29749999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -19454,19 +20306,34 @@
         <v>42957.621423611112</v>
       </c>
       <c r="CU67" s="5">
-        <v>42958.617951388886</v>
+        <v>42942.545023148145</v>
       </c>
       <c r="CW67">
-        <v>-1.4789236000029401E-2</v>
+        <v>0.187503100000005</v>
       </c>
       <c r="CX67" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY67">
-        <v>0.96450000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="DF67" s="5">
+        <v>42916.649305555555</v>
+      </c>
+      <c r="DH67" s="5">
+        <v>42917.208333333336</v>
+      </c>
+      <c r="DI67" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK67" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL67">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -19662,19 +20529,34 @@
         <v>42961.541550925926</v>
       </c>
       <c r="CU68" s="5">
-        <v>42962.732523148145</v>
+        <v>42949.975578703707</v>
       </c>
       <c r="CW68">
-        <v>0.17840275299994501</v>
+        <v>0.37657832399989</v>
       </c>
       <c r="CX68" t="s">
         <v>831</v>
       </c>
       <c r="CY68">
-        <v>3.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.1525</v>
+      </c>
+      <c r="DF68" s="5">
+        <v>42919.25</v>
+      </c>
+      <c r="DH68" s="5">
+        <v>42922.788194444445</v>
+      </c>
+      <c r="DI68" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK68" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL68" s="1">
+        <v>-1.2795000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -19866,19 +20748,37 @@
         <v>42963.913078703707</v>
       </c>
       <c r="CU69" s="5">
-        <v>42965.44085648148</v>
+        <v>42954.888773148145</v>
       </c>
       <c r="CW69">
-        <v>-7.5629537999887697E-2</v>
+        <v>0.25183628600003799</v>
       </c>
       <c r="CX69" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY69">
-        <v>1.5035000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY69" s="6">
+        <v>-2.0430000000000001</v>
+      </c>
+      <c r="CZ69" t="s">
+        <v>1637</v>
+      </c>
+      <c r="DF69" s="5">
+        <v>42922.788206018522</v>
+      </c>
+      <c r="DH69" s="5">
+        <v>42923.73265046296</v>
+      </c>
+      <c r="DI69" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK69" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL69" s="1">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -20070,19 +20970,34 @@
         <v>42968.631828703707</v>
       </c>
       <c r="CU70" s="5">
-        <v>42969.670023148145</v>
+        <v>42956.180451388886</v>
       </c>
       <c r="CW70">
-        <v>-6.3883208999864105E-2</v>
+        <v>-2.1193649999942998E-2</v>
       </c>
       <c r="CX70" t="s">
         <v>830</v>
       </c>
-      <c r="CY70" s="1">
-        <v>-0.3115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY70">
+        <v>1.022</v>
+      </c>
+      <c r="DF70" s="5">
+        <v>42923.906273148146</v>
+      </c>
+      <c r="DH70" s="5">
+        <v>42924.208356481482</v>
+      </c>
+      <c r="DI70" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK70" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL70" s="1">
+        <v>-0.1205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -20281,22 +21196,34 @@
         <v>42969.670034722221</v>
       </c>
       <c r="CU71" s="5">
-        <v>42971.058923611112</v>
+        <v>42958.617951388886</v>
       </c>
       <c r="CW71">
-        <v>3.4687203000063498E-2</v>
+        <v>-1.4789236000029401E-2</v>
       </c>
       <c r="CX71" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY71" s="6">
-        <v>-1.4279999999999999</v>
-      </c>
-      <c r="CZ71" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY71">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="DF71" s="5">
+        <v>42926.420254629629</v>
+      </c>
+      <c r="DH71" s="5">
+        <v>42926.909837962965</v>
+      </c>
+      <c r="DI71" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK71" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL71" s="1">
+        <v>-0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -20491,22 +21418,34 @@
         <v>42971.058935185189</v>
       </c>
       <c r="CU72" s="5">
-        <v>42972.413101851853</v>
+        <v>42962.732523148145</v>
       </c>
       <c r="CW72">
-        <v>-0.24332651300004399</v>
+        <v>0.17840275299994501</v>
       </c>
       <c r="CX72" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY72" s="6">
-        <v>-1.125</v>
-      </c>
-      <c r="CZ72" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY72">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="DF72" s="5">
+        <v>42926.913206018522</v>
+      </c>
+      <c r="DH72" s="5">
+        <v>42927.583344907405</v>
+      </c>
+      <c r="DI72" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK72" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL72" s="1">
+        <v>-0.27050000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -20698,19 +21637,34 @@
         <v>42972.413113425922</v>
       </c>
       <c r="CU73" s="5">
-        <v>42975.465162037035</v>
+        <v>42965.44085648148</v>
       </c>
       <c r="CW73">
-        <v>0.229222520000152</v>
+        <v>-7.5629537999887697E-2</v>
       </c>
       <c r="CX73" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY73">
-        <v>2.5499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.2">
+        <v>1.5035000000000001</v>
+      </c>
+      <c r="DF73" s="5">
+        <v>42927.583356481482</v>
+      </c>
+      <c r="DH73" s="5">
+        <v>42931.208356481482</v>
+      </c>
+      <c r="DI73" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK73" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL73">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -20902,19 +21856,34 @@
         <v>42975.850578703707</v>
       </c>
       <c r="CU74" s="5">
-        <v>42977.75335648148</v>
+        <v>42969.670023148145</v>
       </c>
       <c r="CW74">
-        <v>0.15832306399999599</v>
+        <v>-6.3883208999864105E-2</v>
       </c>
       <c r="CX74" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY74">
-        <v>0.79549999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY74" s="1">
+        <v>-0.3115</v>
+      </c>
+      <c r="DF74" s="5">
+        <v>42933.989699074074</v>
+      </c>
+      <c r="DH74" s="5">
+        <v>42934.38553240741</v>
+      </c>
+      <c r="DI74" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK74" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL74" s="1">
+        <v>-0.35649999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -21106,19 +22075,37 @@
         <v>42978.371412037035</v>
       </c>
       <c r="CU75" s="5">
-        <v>42979.548495370371</v>
+        <v>42971.058923611112</v>
       </c>
       <c r="CW75">
-        <v>0.49163911200003801</v>
+        <v>3.4687203000063498E-2</v>
       </c>
       <c r="CX75" t="s">
         <v>831</v>
       </c>
-      <c r="CY75" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY75" s="6">
+        <v>-1.4279999999999999</v>
+      </c>
+      <c r="CZ75" t="s">
+        <v>1641</v>
+      </c>
+      <c r="DF75" s="5">
+        <v>42934.38890046296</v>
+      </c>
+      <c r="DH75" s="5">
+        <v>42934.954872685186</v>
+      </c>
+      <c r="DI75" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK75" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL75">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -21314,19 +22301,37 @@
         <v>42979.548506944448</v>
       </c>
       <c r="CU76" s="5">
-        <v>42982.86446759259</v>
+        <v>42972.413101851853</v>
       </c>
       <c r="CW76">
-        <v>-3.0481299000064001E-2</v>
+        <v>-0.24332651300004399</v>
       </c>
       <c r="CX76" t="s">
         <v>830</v>
       </c>
-      <c r="CY76">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY76" s="6">
+        <v>-1.125</v>
+      </c>
+      <c r="CZ76" t="s">
+        <v>1643</v>
+      </c>
+      <c r="DF76" s="5">
+        <v>42935.916678240741</v>
+      </c>
+      <c r="DH76" s="5">
+        <v>42937.145844907405</v>
+      </c>
+      <c r="DI76" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK76" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL76">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -21518,19 +22523,34 @@
         <v>42983.420023148145</v>
       </c>
       <c r="CU77" s="5">
-        <v>42984.822800925926</v>
+        <v>42975.465162037035</v>
       </c>
       <c r="CW77">
-        <v>-0.357627480999961</v>
+        <v>0.229222520000152</v>
       </c>
       <c r="CX77" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY77" s="1">
-        <v>-0.47449999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY77">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="DF77" s="5">
+        <v>42937.815983796296</v>
+      </c>
+      <c r="DH77" s="5">
+        <v>42938.208344907405</v>
+      </c>
+      <c r="DI77" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK77" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL77">
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -21722,19 +22742,34 @@
         <v>42984.822812500002</v>
       </c>
       <c r="CU78" s="5">
-        <v>42985.670034722221</v>
+        <v>42977.75335648148</v>
       </c>
       <c r="CW78">
-        <v>0.12262993600010701</v>
+        <v>0.15832306399999599</v>
       </c>
       <c r="CX78" t="s">
         <v>831</v>
       </c>
       <c r="CY78">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="DF78" s="5">
+        <v>42941.35428240741</v>
+      </c>
+      <c r="DH78" s="5">
+        <v>42942.545138888891</v>
+      </c>
+      <c r="DI78" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK78" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL78">
+        <v>0.75749999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -21926,19 +22961,34 @@
         <v>42985.815868055557</v>
       </c>
       <c r="CU79" s="5">
-        <v>42986.586701388886</v>
+        <v>42979.548495370371</v>
       </c>
       <c r="CW79">
-        <v>0.20108903699995201</v>
+        <v>0.49163911200003801</v>
       </c>
       <c r="CX79" t="s">
         <v>831</v>
       </c>
       <c r="CY79" s="1">
-        <v>-0.67949999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+      <c r="DF79" s="5">
+        <v>42943</v>
+      </c>
+      <c r="DH79" s="5">
+        <v>42945.208333333336</v>
+      </c>
+      <c r="DI79" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK79" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL79" s="1">
+        <v>-0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -22130,19 +23180,34 @@
         <v>42986.586712962962</v>
       </c>
       <c r="CU80" s="5">
-        <v>42989.256828703707</v>
+        <v>42982.86446759259</v>
       </c>
       <c r="CW80">
-        <v>-0.151612600000018</v>
+        <v>-3.0481299000064001E-2</v>
       </c>
       <c r="CX80" t="s">
         <v>830</v>
       </c>
-      <c r="CY80" s="1">
-        <v>-0.78849999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY80">
+        <v>0.126</v>
+      </c>
+      <c r="DF80" s="5">
+        <v>42947.777777777781</v>
+      </c>
+      <c r="DH80" s="5">
+        <v>42948.24664351852</v>
+      </c>
+      <c r="DI80" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK80" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL80" s="1">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -22334,19 +23399,34 @@
         <v>42989.256840277776</v>
       </c>
       <c r="CU81" s="5">
-        <v>42990.750358796293</v>
+        <v>42984.822800925926</v>
       </c>
       <c r="CW81">
-        <v>8.1451139000074002E-2</v>
+        <v>-0.357627480999961</v>
       </c>
       <c r="CX81" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY81">
-        <v>3.0449999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY81" s="1">
+        <v>-0.47449999999999998</v>
+      </c>
+      <c r="DF81" s="5">
+        <v>42948.250011574077</v>
+      </c>
+      <c r="DH81" s="5">
+        <v>42949.875011574077</v>
+      </c>
+      <c r="DI81" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK81" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL81">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -22538,19 +23618,34 @@
         <v>42991.982534722221</v>
       </c>
       <c r="CU82" s="5">
-        <v>42992.756840277776</v>
+        <v>42985.670034722221</v>
       </c>
       <c r="CW82">
-        <v>0.41977864399996301</v>
+        <v>0.12262993600010701</v>
       </c>
       <c r="CX82" t="s">
         <v>831</v>
       </c>
-      <c r="CY82" s="1">
-        <v>-0.65449999999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY82">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="DF82" s="5">
+        <v>42950.364594907405</v>
+      </c>
+      <c r="DH82" s="5">
+        <v>42950.836817129632</v>
+      </c>
+      <c r="DI82" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK82" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL82" s="1">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -22745,22 +23840,34 @@
         <v>42992.756851851853</v>
       </c>
       <c r="CU83" s="5">
-        <v>42993.655462962961</v>
+        <v>42986.586701388886</v>
       </c>
       <c r="CW83">
-        <v>-0.19147822399999101</v>
+        <v>0.20108903699995201</v>
       </c>
       <c r="CX83" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY83" s="6">
-        <v>-3.0055000000000001</v>
-      </c>
-      <c r="CZ83" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY83" s="1">
+        <v>-0.67949999999999999</v>
+      </c>
+      <c r="DF83" s="5">
+        <v>42950.836828703701</v>
+      </c>
+      <c r="DH83" s="5">
+        <v>42951.493078703701</v>
+      </c>
+      <c r="DI83" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK83" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL83">
+        <v>0.85650000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -22956,19 +24063,34 @@
         <v>42998.37835648148</v>
       </c>
       <c r="CU84" s="5">
-        <v>42998.767245370371</v>
+        <v>42989.256828703707</v>
       </c>
       <c r="CW84">
-        <v>0.12373340599993</v>
+        <v>-0.151612600000018</v>
       </c>
       <c r="CX84" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY84" s="1">
-        <v>-0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.78849999999999998</v>
+      </c>
+      <c r="DF84" s="5">
+        <v>42954.888888888891</v>
+      </c>
+      <c r="DH84" s="5">
+        <v>42956.013888888891</v>
+      </c>
+      <c r="DI84" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK84" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL84">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -23160,19 +24282,34 @@
         <v>42999.301979166667</v>
       </c>
       <c r="CU85" s="5">
-        <v>42999.739479166667</v>
+        <v>42990.750358796293</v>
       </c>
       <c r="CW85">
-        <v>0.27434757000010002</v>
+        <v>8.1451139000074002E-2</v>
       </c>
       <c r="CX85" t="s">
         <v>831</v>
       </c>
       <c r="CY85">
-        <v>9.9999999999899995E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:104" x14ac:dyDescent="0.2">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="DF85" s="5">
+        <v>42957.885416666664</v>
+      </c>
+      <c r="DH85" s="5">
+        <v>42958.618055555555</v>
+      </c>
+      <c r="DI85" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK85" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL85">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -23364,19 +24501,34 @@
         <v>43003.711689814816</v>
       </c>
       <c r="CU86" s="5">
-        <v>43003.892245370371</v>
+        <v>42992.756840277776</v>
       </c>
       <c r="CW86">
-        <v>-5.1769245999982498E-2</v>
+        <v>0.41977864399996301</v>
       </c>
       <c r="CX86" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY86" s="1">
+        <v>-0.65449999999999997</v>
+      </c>
+      <c r="DF86" s="5">
+        <v>42961.54178240741</v>
+      </c>
+      <c r="DH86" s="5">
+        <v>42962.72928240741</v>
+      </c>
+      <c r="DI86" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK86" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL86">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -23568,19 +24720,37 @@
         <v>43003.992939814816</v>
       </c>
       <c r="CU87" s="5">
-        <v>43004.069328703707</v>
+        <v>42993.655462962961</v>
       </c>
       <c r="CW87">
-        <v>-0.20593680500019701</v>
+        <v>-0.19147822399999101</v>
       </c>
       <c r="CX87" t="s">
         <v>830</v>
       </c>
-      <c r="CY87">
-        <v>1.347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY87" s="6">
+        <v>-3.0055000000000001</v>
+      </c>
+      <c r="CZ87" t="s">
+        <v>1644</v>
+      </c>
+      <c r="DF87" s="5">
+        <v>42964.378472222219</v>
+      </c>
+      <c r="DH87" s="5">
+        <v>42965.440972222219</v>
+      </c>
+      <c r="DI87" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK87" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL87">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -23772,19 +24942,34 @@
         <v>43005.388773148145</v>
       </c>
       <c r="CU88" s="5">
-        <v>43007.673495370371</v>
+        <v>42998.767245370371</v>
       </c>
       <c r="CW88">
-        <v>0.27330453800004301</v>
+        <v>0.12373340599993</v>
       </c>
       <c r="CX88" t="s">
         <v>831</v>
       </c>
       <c r="CY88" s="1">
-        <v>-0.1885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:104" x14ac:dyDescent="0.2">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="DF88" s="5">
+        <v>42968.628587962965</v>
+      </c>
+      <c r="DH88" s="5">
+        <v>42969.66678240741</v>
+      </c>
+      <c r="DI88" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK88" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL88" s="1">
+        <v>-0.247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -23980,19 +25165,34 @@
         <v>43007.673506944448</v>
       </c>
       <c r="CU89" s="5">
-        <v>43007.996423611112</v>
+        <v>42999.739479166667</v>
       </c>
       <c r="CW89">
-        <v>-2.3233284000048999E-2</v>
+        <v>0.27434757000010002</v>
       </c>
       <c r="CX89" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY89">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:104" x14ac:dyDescent="0.2">
+        <v>9.9999999999899995E-3</v>
+      </c>
+      <c r="DF89" s="5">
+        <v>42969.67015046296</v>
+      </c>
+      <c r="DH89" s="5">
+        <v>42971.944456018522</v>
+      </c>
+      <c r="DI89" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK89" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL89" s="1">
+        <v>-0.83050000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -24184,19 +25384,34 @@
         <v>43008.121423611112</v>
       </c>
       <c r="CU90" s="5">
-        <v>43010.951273148145</v>
+        <v>43003.892245370371</v>
       </c>
       <c r="CW90">
-        <v>-0.110269991999895</v>
+        <v>-5.1769245999982498E-2</v>
       </c>
       <c r="CX90" t="s">
         <v>830</v>
       </c>
       <c r="CY90">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="DF90" s="5">
+        <v>42971.944467592592</v>
+      </c>
+      <c r="DH90" s="5">
+        <v>42972.416689814818</v>
+      </c>
+      <c r="DI90" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK90" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL90" s="1">
+        <v>-0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -24388,19 +25603,34 @@
         <v>43011.888773148145</v>
       </c>
       <c r="CU91" s="5">
-        <v>43012.961689814816</v>
+        <v>43004.069328703707</v>
       </c>
       <c r="CW91">
-        <v>-0.34276733600008802</v>
+        <v>-0.20593680500019701</v>
       </c>
       <c r="CX91" t="s">
         <v>830</v>
       </c>
-      <c r="CY91" s="1">
-        <v>-0.14749999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY91">
+        <v>1.347</v>
+      </c>
+      <c r="DF91" s="5">
+        <v>42972.416701388887</v>
+      </c>
+      <c r="DH91" s="5">
+        <v>42973.208368055559</v>
+      </c>
+      <c r="DI91" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK91" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL91">
+        <v>0.20649999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -24592,19 +25822,34 @@
         <v>43013.097118055557</v>
       </c>
       <c r="CU92" s="5">
-        <v>43013.947812500002</v>
+        <v>43007.673495370371</v>
       </c>
       <c r="CW92">
-        <v>-3.3161482999890898E-2</v>
+        <v>0.27330453800004301</v>
       </c>
       <c r="CX92" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY92">
-        <v>1.4990000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:104" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY92" s="1">
+        <v>-0.1885</v>
+      </c>
+      <c r="DF92" s="5">
+        <v>42975.250115740739</v>
+      </c>
+      <c r="DH92" s="5">
+        <v>42977.753472222219</v>
+      </c>
+      <c r="DI92" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK92" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL92">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -24796,19 +26041,34 @@
         <v>43014.992951388886</v>
       </c>
       <c r="CU93" s="5">
-        <v>43017.510300925926</v>
+        <v>43007.996423611112</v>
       </c>
       <c r="CW93">
-        <v>-0.37847254599991598</v>
+        <v>-2.3233284000048999E-2</v>
       </c>
       <c r="CX93" t="s">
         <v>830</v>
       </c>
       <c r="CY93">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:104" x14ac:dyDescent="0.2">
+        <v>0.104</v>
+      </c>
+      <c r="DF93" s="5">
+        <v>42978.368171296293</v>
+      </c>
+      <c r="DH93" s="5">
+        <v>42979.722337962965</v>
+      </c>
+      <c r="DI93" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK93" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL93" s="1">
+        <v>-0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -25000,19 +26260,34 @@
         <v>43019.433912037035</v>
       </c>
       <c r="CU94" s="5">
-        <v>43021.652662037035</v>
+        <v>43010.951273148145</v>
       </c>
       <c r="CW94">
-        <v>0.102575471999809</v>
+        <v>-0.110269991999895</v>
       </c>
       <c r="CX94" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY94" s="1">
-        <v>-9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:104" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY94">
+        <v>0.97</v>
+      </c>
+      <c r="DF94" s="5">
+        <v>42979.725706018522</v>
+      </c>
+      <c r="DH94" s="5">
+        <v>42980.208344907405</v>
+      </c>
+      <c r="DI94" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK94" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL94" s="1">
+        <v>-0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -25204,19 +26479,34 @@
         <v>43024.610995370371</v>
       </c>
       <c r="CU95" s="5">
-        <v>43026.70821759259</v>
+        <v>43012.961689814816</v>
       </c>
       <c r="CW95">
-        <v>-3.1502901999918898E-2</v>
+        <v>-0.34276733600008802</v>
       </c>
       <c r="CX95" t="s">
         <v>830</v>
       </c>
-      <c r="CY95">
-        <v>0.35549999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CY95" s="1">
+        <v>-0.14749999999999999</v>
+      </c>
+      <c r="DF95" s="5">
+        <v>42982.25</v>
+      </c>
+      <c r="DH95" s="5">
+        <v>42983.836805555555</v>
+      </c>
+      <c r="DI95" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK95" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL95">
+        <v>0.23549999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -25408,19 +26698,34 @@
         <v>43032.95821759259</v>
       </c>
       <c r="CU96" s="5">
-        <v>43035.899189814816</v>
+        <v>43013.947812500002</v>
       </c>
       <c r="CW96">
-        <v>-7.9964733000011501E-2</v>
+        <v>-3.3161482999890898E-2</v>
       </c>
       <c r="CX96" t="s">
         <v>830</v>
       </c>
       <c r="CY96">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.2">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="DF96" s="5">
+        <v>42984.322916666664</v>
+      </c>
+      <c r="DH96" s="5">
+        <v>42984.819560185184</v>
+      </c>
+      <c r="DI96" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK96" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL96" s="1">
+        <v>-0.47249999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -25612,19 +26917,34 @@
         <v>43035.947800925926</v>
       </c>
       <c r="CU97" s="5">
-        <v>43039.916550925926</v>
+        <v>43017.510300925926</v>
       </c>
       <c r="CW97">
-        <v>-0.40513013299998801</v>
+        <v>-0.37847254599991598</v>
       </c>
       <c r="CX97" t="s">
         <v>830</v>
       </c>
-      <c r="CY97" s="1">
-        <v>-0.87250000000000005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY97">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="DF97" s="5">
+        <v>42984.822928240741</v>
+      </c>
+      <c r="DH97" s="5">
+        <v>42985.67015046296</v>
+      </c>
+      <c r="DI97" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK97" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL97">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -25816,19 +27136,34 @@
         <v>43039.916562500002</v>
       </c>
       <c r="CU98" s="5">
-        <v>43040.975590277776</v>
+        <v>43021.652662037035</v>
       </c>
       <c r="CW98">
-        <v>9.7771578000100098E-2</v>
+        <v>0.102575471999809</v>
       </c>
       <c r="CX98" t="s">
         <v>831</v>
       </c>
-      <c r="CY98">
-        <v>1.4370000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY98" s="1">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="DF98" s="5">
+        <v>42985.819456018522</v>
+      </c>
+      <c r="DH98" s="5">
+        <v>42986.590289351851</v>
+      </c>
+      <c r="DI98" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK98" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL98" s="1">
+        <v>-0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -26020,19 +27355,34 @@
         <v>43041.361006944448</v>
       </c>
       <c r="CU99" s="5">
-        <v>43041.881840277776</v>
+        <v>43026.70821759259</v>
       </c>
       <c r="CW99">
-        <v>0.15211411199986699</v>
+        <v>-3.1502901999918898E-2</v>
       </c>
       <c r="CX99" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY99" s="6">
-        <v>-1.4095</v>
-      </c>
-    </row>
-    <row r="100" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY99">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="DF99" s="5">
+        <v>42986.590300925927</v>
+      </c>
+      <c r="DH99" s="5">
+        <v>42987.208356481482</v>
+      </c>
+      <c r="DI99" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK99" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL99" s="1">
+        <v>-0.5615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -26228,19 +27578,31 @@
         <v>43041.881851851853</v>
       </c>
       <c r="CU100" s="5">
-        <v>43042.069351851853</v>
+        <v>43035.899189814816</v>
       </c>
       <c r="CW100">
-        <v>-6.9402653000025794E-2</v>
+        <v>-7.9964733000011501E-2</v>
       </c>
       <c r="CX100" t="s">
         <v>830</v>
       </c>
       <c r="CY100">
-        <v>0.82850000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:103" x14ac:dyDescent="0.2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="DF100" s="5">
+        <v>42989.250115740739</v>
+      </c>
+      <c r="DH100" s="5">
+        <v>42990.750462962962</v>
+      </c>
+      <c r="DK100" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL100">
+        <v>3.0525000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -26432,19 +27794,34 @@
         <v>43045.343634259261</v>
       </c>
       <c r="CU101" s="5">
-        <v>43046.951273148145</v>
+        <v>43039.916550925926</v>
       </c>
       <c r="CW101">
-        <v>5.1260613999994598E-2</v>
+        <v>-0.40513013299998801</v>
       </c>
       <c r="CX101" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY101">
-        <v>0.3725</v>
-      </c>
-    </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY101" s="1">
+        <v>-0.87250000000000005</v>
+      </c>
+      <c r="DF101" s="5">
+        <v>42991.97928240741</v>
+      </c>
+      <c r="DH101" s="5">
+        <v>42992.833449074074</v>
+      </c>
+      <c r="DI101" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK101" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL101" s="1">
+        <v>-0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -26636,19 +28013,34 @@
         <v>43047.701273148145</v>
       </c>
       <c r="CU102" s="5">
-        <v>43048.121412037035</v>
+        <v>43040.975590277776</v>
       </c>
       <c r="CW102">
-        <v>-1.18817950001763E-2</v>
+        <v>9.7771578000100098E-2</v>
       </c>
       <c r="CX102" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY102">
-        <v>0.45150000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:103" x14ac:dyDescent="0.2">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="DF102" s="5">
+        <v>42992.836817129632</v>
+      </c>
+      <c r="DH102" s="5">
+        <v>42992.913206018522</v>
+      </c>
+      <c r="DI102" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK102" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL102">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -26840,19 +28232,34 @@
         <v>43048.760300925926</v>
       </c>
       <c r="CU103" s="5">
-        <v>43053.010300925926</v>
+        <v>43041.881840277776</v>
       </c>
       <c r="CW103">
-        <v>-0.222221578000039</v>
+        <v>0.15211411199986699</v>
       </c>
       <c r="CX103" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY103" s="1">
-        <v>-4.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:103" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY103" s="6">
+        <v>-1.4095</v>
+      </c>
+      <c r="DF103" s="5">
+        <v>42993.746539351851</v>
+      </c>
+      <c r="DH103" s="5">
+        <v>42993.82640046296</v>
+      </c>
+      <c r="DI103" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK103" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL103">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="104" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -27044,19 +28451,34 @@
         <v>43053.652673611112</v>
       </c>
       <c r="CU104" s="5">
-        <v>43054.038090277776</v>
+        <v>43042.069351851853</v>
       </c>
       <c r="CW104">
-        <v>-8.9235639999955693E-2</v>
+        <v>-6.9402653000025794E-2</v>
       </c>
       <c r="CX104" t="s">
         <v>830</v>
       </c>
       <c r="CY104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="DF104" s="5">
+        <v>42997.003472222219</v>
+      </c>
+      <c r="DH104" s="5">
+        <v>42998.732638888891</v>
+      </c>
+      <c r="DI104" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK104" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL104" s="1">
+        <v>-0.91649999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -27248,19 +28670,34 @@
         <v>43054.041562500002</v>
       </c>
       <c r="CU105" s="5">
-        <v>43054.430451388886</v>
+        <v>43046.951273148145</v>
       </c>
       <c r="CW105">
-        <v>0.15177185099995</v>
+        <v>5.1260613999994598E-2</v>
       </c>
       <c r="CX105" t="s">
         <v>831</v>
       </c>
       <c r="CY105">
-        <v>0.13150000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.3725</v>
+      </c>
+      <c r="DF105" s="5">
+        <v>42998.73265046296</v>
+      </c>
+      <c r="DH105" s="5">
+        <v>42999.739594907405</v>
+      </c>
+      <c r="DI105" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK105" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL105">
+        <v>0.20549999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -27452,19 +28889,34 @@
         <v>43054.784618055557</v>
       </c>
       <c r="CU106" s="5">
-        <v>43055.781145833331</v>
+        <v>43048.121412037035</v>
       </c>
       <c r="CW106">
-        <v>-9.7577156000053095E-2</v>
+        <v>-1.18817950001763E-2</v>
       </c>
       <c r="CX106" t="s">
         <v>830</v>
       </c>
-      <c r="CY106" s="1">
-        <v>-0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY106">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="DF106" s="5">
+        <v>43003.996527777781</v>
+      </c>
+      <c r="DH106" s="5">
+        <v>43004.069444444445</v>
+      </c>
+      <c r="DI106" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK106" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL106">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -27660,19 +29112,34 @@
         <v>43055.781157407408</v>
       </c>
       <c r="CU107" s="5">
-        <v>43056.954768518517</v>
+        <v>43053.010300925926</v>
       </c>
       <c r="CW107">
-        <v>6.3422271999987095E-2</v>
+        <v>-0.222221578000039</v>
       </c>
       <c r="CX107" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY107" s="1">
-        <v>-0.76949999999999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="DF107" s="5">
+        <v>43005.388888888891</v>
+      </c>
+      <c r="DH107" s="5">
+        <v>43007.239699074074</v>
+      </c>
+      <c r="DI107" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK107" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL107" s="1">
+        <v>-0.29649999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -27868,19 +29335,34 @@
         <v>43056.954780092594</v>
       </c>
       <c r="CU108" s="5">
-        <v>43059.673495370371</v>
+        <v>43054.038090277776</v>
       </c>
       <c r="CW108">
-        <v>-2.36307300000386E-2</v>
+        <v>-8.9235639999955693E-2</v>
       </c>
       <c r="CX108" t="s">
         <v>830</v>
       </c>
       <c r="CY108">
-        <v>0.20150000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="DF108" s="5">
+        <v>43007.243067129632</v>
+      </c>
+      <c r="DH108" s="5">
+        <v>43007.996539351851</v>
+      </c>
+      <c r="DI108" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK108" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL108">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -28072,19 +29554,34 @@
         <v>43060.89571759259</v>
       </c>
       <c r="CU109" s="5">
-        <v>43061.562384259261</v>
+        <v>43054.430451388886</v>
       </c>
       <c r="CW109">
-        <v>0.32859255900006201</v>
+        <v>0.15177185099995</v>
       </c>
       <c r="CX109" t="s">
         <v>831</v>
       </c>
-      <c r="CY109" s="1">
-        <v>-0.42849999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY109">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="DF109" s="5">
+        <v>43008.121539351851</v>
+      </c>
+      <c r="DH109" s="5">
+        <v>43008.208344907405</v>
+      </c>
+      <c r="DI109" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK109" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL109" s="1">
+        <v>-0.1265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -28276,19 +29773,34 @@
         <v>43061.562395833331</v>
       </c>
       <c r="CU110" s="5">
-        <v>43063.732534722221</v>
+        <v>43055.781145833331</v>
       </c>
       <c r="CW110">
-        <v>-9.9835590000015198E-2</v>
+        <v>-9.7577156000053095E-2</v>
       </c>
       <c r="CX110" t="s">
         <v>830</v>
       </c>
-      <c r="CY110">
-        <v>0.308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY110" s="1">
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="DF110" s="5">
+        <v>43010.256944444445</v>
+      </c>
+      <c r="DH110" s="5">
+        <v>43010.951388888891</v>
+      </c>
+      <c r="DI110" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK110" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL110">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -28480,19 +29992,34 @@
         <v>43063.972118055557</v>
       </c>
       <c r="CU111" s="5">
-        <v>43067.913078703707</v>
+        <v>43056.954768518517</v>
       </c>
       <c r="CW111">
-        <v>0.12678918499988601</v>
+        <v>6.3422271999987095E-2</v>
       </c>
       <c r="CX111" t="s">
         <v>831</v>
       </c>
       <c r="CY111" s="1">
-        <v>-0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-0.76949999999999996</v>
+      </c>
+      <c r="DF111" s="5">
+        <v>43011.88553240741</v>
+      </c>
+      <c r="DH111" s="5">
+        <v>43013.947916666664</v>
+      </c>
+      <c r="DI111" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK111" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL111">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -28684,19 +30211,34 @@
         <v>43067.913090277776</v>
       </c>
       <c r="CU112" s="5">
-        <v>43068.114479166667</v>
+        <v>43059.673495370371</v>
       </c>
       <c r="CW112">
-        <v>-9.7812899000156106E-2</v>
+        <v>-2.36307300000386E-2</v>
       </c>
       <c r="CX112" t="s">
         <v>830</v>
       </c>
       <c r="CY112">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="DF112" s="5">
+        <v>43014.986226851855</v>
+      </c>
+      <c r="DH112" s="5">
+        <v>43015.208333333336</v>
+      </c>
+      <c r="DI112" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK112" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL112">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -28888,19 +30430,34 @@
         <v>43075.33321759259</v>
       </c>
       <c r="CU113" s="5">
-        <v>43075.729050925926</v>
+        <v>43061.562384259261</v>
       </c>
       <c r="CW113">
-        <v>-0.27153859099993299</v>
+        <v>0.32859255900006201</v>
       </c>
       <c r="CX113" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY113">
-        <v>0.76249999999999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:103" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY113" s="1">
+        <v>-0.42849999999999999</v>
+      </c>
+      <c r="DF113" s="5">
+        <v>43017.305671296293</v>
+      </c>
+      <c r="DH113" s="5">
+        <v>43019.434027777781</v>
+      </c>
+      <c r="DI113" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK113" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL113" s="1">
+        <v>-1.5985</v>
+      </c>
+    </row>
+    <row r="114" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -29092,19 +30649,34 @@
         <v>43076.541550925926</v>
       </c>
       <c r="CU114" s="5">
-        <v>43077.00335648148</v>
+        <v>43063.732534722221</v>
       </c>
       <c r="CW114">
-        <v>-0.32632807599983998</v>
+        <v>-9.9835590000015198E-2</v>
       </c>
       <c r="CX114" t="s">
         <v>830</v>
       </c>
-      <c r="CY114" s="1">
-        <v>-0.72450000000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY114">
+        <v>0.308</v>
+      </c>
+      <c r="DF114" s="5">
+        <v>43019.434039351851</v>
+      </c>
+      <c r="DH114" s="5">
+        <v>43021.652789351851</v>
+      </c>
+      <c r="DI114" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK114" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL114" s="1">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -29300,19 +30872,34 @@
         <v>43077.003368055557</v>
       </c>
       <c r="CU115" s="5">
-        <v>43077.659618055557</v>
+        <v>43067.913078703707</v>
       </c>
       <c r="CW115">
-        <v>0.17867346299995099</v>
+        <v>0.12678918499988601</v>
       </c>
       <c r="CX115" t="s">
         <v>831</v>
       </c>
-      <c r="CY115">
-        <v>1.6705000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY115" s="1">
+        <v>-0.90249999999999997</v>
+      </c>
+      <c r="DF115" s="5">
+        <v>43024.611226851855</v>
+      </c>
+      <c r="DH115" s="5">
+        <v>43026.708333333336</v>
+      </c>
+      <c r="DI115" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK115" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL115">
+        <v>0.34949999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -29504,19 +31091,34 @@
         <v>43081.666550925926</v>
       </c>
       <c r="CU116" s="5">
-        <v>43083.413078703707</v>
+        <v>43068.114479166667</v>
       </c>
       <c r="CW116">
-        <v>-0.25337462700014501</v>
+        <v>-9.7812899000156106E-2</v>
       </c>
       <c r="CX116" t="s">
         <v>830</v>
       </c>
-      <c r="CY116" s="1">
-        <v>-3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY116">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="DF116" s="5">
+        <v>43032.09039351852</v>
+      </c>
+      <c r="DH116" s="5">
+        <v>43033.402777777781</v>
+      </c>
+      <c r="DI116" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK116" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL116" s="1">
+        <v>-0.83150000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -29708,19 +31310,34 @@
         <v>43084.128368055557</v>
       </c>
       <c r="CU117" s="5">
-        <v>43085.003368055557</v>
+        <v>43075.729050925926</v>
       </c>
       <c r="CW117">
-        <v>-5.7339732000068103E-2</v>
+        <v>-0.27153859099993299</v>
       </c>
       <c r="CX117" t="s">
         <v>830</v>
       </c>
       <c r="CY117">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="DF117" s="5">
+        <v>43033.402789351851</v>
+      </c>
+      <c r="DH117" s="5">
+        <v>43033.73265046296</v>
+      </c>
+      <c r="DI117" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK117" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL117" s="1">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -29912,19 +31529,34 @@
         <v>43088.541550925926</v>
       </c>
       <c r="CU118" s="5">
-        <v>43090.110995370371</v>
+        <v>43077.00335648148</v>
       </c>
       <c r="CW118">
-        <v>0.195929093000035</v>
+        <v>-0.32632807599983998</v>
       </c>
       <c r="CX118" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY118">
-        <v>0.96350000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY118" s="1">
+        <v>-0.72450000000000003</v>
+      </c>
+      <c r="DF118" s="5">
+        <v>43033.732662037037</v>
+      </c>
+      <c r="DH118" s="5">
+        <v>43033.930578703701</v>
+      </c>
+      <c r="DI118" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK118" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL118">
+        <v>1.0654999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -30120,19 +31752,34 @@
         <v>43090.496412037035</v>
       </c>
       <c r="CU119" s="5">
-        <v>43102.81585648148</v>
+        <v>43077.659618055557</v>
       </c>
       <c r="CW119">
-        <v>0.125552208000108</v>
+        <v>0.17867346299995099</v>
       </c>
       <c r="CX119" t="s">
         <v>831</v>
       </c>
       <c r="CY119">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:103" x14ac:dyDescent="0.2">
+        <v>1.6705000000000001</v>
+      </c>
+      <c r="DF119" s="5">
+        <v>43035.711828703701</v>
+      </c>
+      <c r="DH119" s="5">
+        <v>43036.208356481482</v>
+      </c>
+      <c r="DI119" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK119" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL119">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -30328,19 +31975,34 @@
         <v>43103.048495370371</v>
       </c>
       <c r="CU120" s="5">
-        <v>43103.843634259261</v>
+        <v>43083.413078703707</v>
       </c>
       <c r="CW120">
-        <v>3.5694145999950001E-2</v>
+        <v>-0.25337462700014501</v>
       </c>
       <c r="CX120" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY120">
-        <v>2.0000000000099999E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY120" s="1">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="DF120" s="5">
+        <v>43038.677199074074</v>
+      </c>
+      <c r="DH120" s="5">
+        <v>43039.91678240741</v>
+      </c>
+      <c r="DI120" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK120" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL120" s="1">
+        <v>-0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -30532,19 +32194,34 @@
         <v>43103.98946759259</v>
       </c>
       <c r="CU121" s="5">
-        <v>43105.340162037035</v>
+        <v>43085.003368055557</v>
       </c>
       <c r="CW121">
-        <v>-3.2723808000031197E-2</v>
+        <v>-5.7339732000068103E-2</v>
       </c>
       <c r="CX121" t="s">
         <v>830</v>
       </c>
-      <c r="CY121" s="1">
-        <v>-0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY121">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="DF121" s="5">
+        <v>43039.92015046296</v>
+      </c>
+      <c r="DH121" s="5">
+        <v>43040.975706018522</v>
+      </c>
+      <c r="DI121" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK121" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL121">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -30740,19 +32417,34 @@
         <v>43105.340173611112</v>
       </c>
       <c r="CU122" s="5">
-        <v>43108.774189814816</v>
+        <v>43090.110995370371</v>
       </c>
       <c r="CW122">
-        <v>0.32977269299995099</v>
+        <v>0.195929093000035</v>
       </c>
       <c r="CX122" t="s">
         <v>831</v>
       </c>
       <c r="CY122">
-        <v>0.2455</v>
-      </c>
-    </row>
-    <row r="123" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="DF122" s="5">
+        <v>43041.361122685186</v>
+      </c>
+      <c r="DH122" s="5">
+        <v>43041.878483796296</v>
+      </c>
+      <c r="DI122" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK122" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL122" s="1">
+        <v>-1.5024999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -30944,19 +32636,34 @@
         <v>43108.937384259261</v>
       </c>
       <c r="CU123" s="5">
-        <v>43110.288078703707</v>
+        <v>43102.81585648148</v>
       </c>
       <c r="CW123">
-        <v>-5.8971280000047498E-2</v>
+        <v>0.125552208000108</v>
       </c>
       <c r="CX123" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY123">
-        <v>0.42349999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="DF123" s="5">
+        <v>43041.878495370373</v>
+      </c>
+      <c r="DH123" s="5">
+        <v>43042.069467592592</v>
+      </c>
+      <c r="DI123" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK123" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL123">
+        <v>0.75649999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -31148,19 +32855,34 @@
         <v>43110.656134259261</v>
       </c>
       <c r="CU124" s="5">
-        <v>43111.420023148145</v>
+        <v>43103.843634259261</v>
       </c>
       <c r="CW124">
-        <v>-0.52872154199979904</v>
+        <v>3.5694145999950001E-2</v>
       </c>
       <c r="CX124" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY124">
-        <v>0.78649999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.2">
+        <v>2.0000000000099999E-3</v>
+      </c>
+      <c r="DF124" s="5">
+        <v>43045.34039351852</v>
+      </c>
+      <c r="DH124" s="5">
+        <v>43046.951388888891</v>
+      </c>
+      <c r="DI124" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK124" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL124">
+        <v>0.34050000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -31352,19 +33074,34 @@
         <v>43111.871412037035</v>
       </c>
       <c r="CU125" s="5">
-        <v>43112.749884259261</v>
+        <v>43105.340162037035</v>
       </c>
       <c r="CW125">
-        <v>-0.45718735100004099</v>
+        <v>-3.2723808000031197E-2</v>
       </c>
       <c r="CX125" t="s">
         <v>830</v>
       </c>
       <c r="CY125" s="1">
-        <v>-0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="126" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="DF125" s="5">
+        <v>43047.697916666664</v>
+      </c>
+      <c r="DH125" s="5">
+        <v>43048.045138888891</v>
+      </c>
+      <c r="DI125" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK125" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL125">
+        <v>0.66449999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -31556,19 +33293,34 @@
         <v>43112.749895833331</v>
       </c>
       <c r="CU126" s="5">
-        <v>43112.982534722221</v>
+        <v>43108.774189814816</v>
       </c>
       <c r="CW126">
-        <v>1.23983939999152E-2</v>
+        <v>0.32977269299995099</v>
       </c>
       <c r="CX126" t="s">
         <v>831</v>
       </c>
       <c r="CY126">
-        <v>1.171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.2455</v>
+      </c>
+      <c r="DF126" s="5">
+        <v>43048.757060185184</v>
+      </c>
+      <c r="DH126" s="5">
+        <v>43050.208333333336</v>
+      </c>
+      <c r="DI126" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK126" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL126" s="1">
+        <v>-1.1485000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -31760,19 +33512,34 @@
         <v>43116.374884259261</v>
       </c>
       <c r="CU127" s="5">
-        <v>43117.916550925926</v>
+        <v>43110.288078703707</v>
       </c>
       <c r="CW127">
-        <v>5.92470169999725E-2</v>
+        <v>-5.8971280000047498E-2</v>
       </c>
       <c r="CX127" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY127">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="DF127" s="5">
+        <v>43053.645949074074</v>
+      </c>
+      <c r="DH127" s="5">
+        <v>43054.086805555555</v>
+      </c>
+      <c r="DI127" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK127" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL127" s="1">
+        <v>-0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -31964,19 +33731,34 @@
         <v>43117.920023148145</v>
       </c>
       <c r="CU128" s="5">
-        <v>43118.041550925926</v>
+        <v>43111.420023148145</v>
       </c>
       <c r="CW128">
-        <v>-1.4905134000063601E-2</v>
+        <v>-0.52872154199979904</v>
       </c>
       <c r="CX128" t="s">
         <v>830</v>
       </c>
-      <c r="CY128" s="1">
-        <v>-0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="129" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY128">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="DF128" s="5">
+        <v>43054.086817129632</v>
+      </c>
+      <c r="DH128" s="5">
+        <v>43054.784733796296</v>
+      </c>
+      <c r="DI128" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK128" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL128" s="1">
+        <v>-1.0265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -32168,19 +33950,34 @@
         <v>43118.041562500002</v>
       </c>
       <c r="CU129" s="5">
-        <v>43118.288090277776</v>
+        <v>43112.749884259261</v>
       </c>
       <c r="CW129">
-        <v>7.8175912000062506E-2</v>
+        <v>-0.45718735100004099</v>
       </c>
       <c r="CX129" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY129">
-        <v>0.72450000000000003</v>
-      </c>
-    </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY129" s="1">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="DF129" s="5">
+        <v>43054.784745370373</v>
+      </c>
+      <c r="DH129" s="5">
+        <v>43055.784745370373</v>
+      </c>
+      <c r="DI129" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK129" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL129" s="1">
+        <v>-0.94750000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -32372,19 +34169,34 @@
         <v>43125.03460648148</v>
       </c>
       <c r="CU130" s="5">
-        <v>43126.975578703707</v>
+        <v>43112.982534722221</v>
       </c>
       <c r="CW130">
-        <v>0.129430412000099</v>
+        <v>1.23983939999152E-2</v>
       </c>
       <c r="CX130" t="s">
         <v>831</v>
       </c>
-      <c r="CY130" s="1">
-        <v>-0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY130">
+        <v>1.171</v>
+      </c>
+      <c r="DF130" s="5">
+        <v>43055.784756944442</v>
+      </c>
+      <c r="DH130" s="5">
+        <v>43056.958368055559</v>
+      </c>
+      <c r="DI130" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK130" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL130" s="1">
+        <v>-0.85750000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -32580,19 +34392,34 @@
         <v>43126.975590277776</v>
       </c>
       <c r="CU131" s="5">
-        <v>43127.086701388886</v>
+        <v>43117.916550925926</v>
       </c>
       <c r="CW131">
-        <v>-1.3213870000068E-2</v>
+        <v>5.92470169999725E-2</v>
       </c>
       <c r="CX131" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY131">
-        <v>1.2925</v>
-      </c>
-    </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="DF131" s="5">
+        <v>43056.958379629628</v>
+      </c>
+      <c r="DH131" s="5">
+        <v>43057.208379629628</v>
+      </c>
+      <c r="DI131" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK131" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL131">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -32788,19 +34615,34 @@
         <v>43130.392245370371</v>
       </c>
       <c r="CU132" s="5">
-        <v>43130.749884259261</v>
+        <v>43118.041550925926</v>
       </c>
       <c r="CW132">
-        <v>-0.177141865999836</v>
+        <v>-1.4905134000063601E-2</v>
       </c>
       <c r="CX132" t="s">
         <v>830</v>
       </c>
-      <c r="CY132">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY132" s="1">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="DF132" s="5">
+        <v>43061.562615740739</v>
+      </c>
+      <c r="DH132" s="5">
+        <v>43063.722337962965</v>
+      </c>
+      <c r="DI132" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK132" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL132">
+        <v>0.35549999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -32992,19 +34834,34 @@
         <v>43132.024189814816</v>
       </c>
       <c r="CU133" s="5">
-        <v>43132.170023148145</v>
+        <v>43118.288090277776</v>
       </c>
       <c r="CW133">
-        <v>0.49275670099986502</v>
+        <v>7.8175912000062506E-2</v>
       </c>
       <c r="CX133" t="s">
         <v>831</v>
       </c>
       <c r="CY133">
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="DF133" s="5">
+        <v>43063.968865740739</v>
+      </c>
+      <c r="DH133" s="5">
+        <v>43064.208333333336</v>
+      </c>
+      <c r="DI133" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK133" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL133" s="1">
+        <v>-2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -33196,19 +35053,34 @@
         <v>43136.340162037035</v>
       </c>
       <c r="CU134" s="5">
-        <v>43136.930439814816</v>
+        <v>43126.975578703707</v>
       </c>
       <c r="CW134">
-        <v>-9.9855014999915406E-2</v>
+        <v>0.129430412000099</v>
       </c>
       <c r="CX134" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY134">
-        <v>0.80649999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY134" s="1">
+        <v>-0.51100000000000001</v>
+      </c>
+      <c r="DF134" s="5">
+        <v>43067.913194444445</v>
+      </c>
+      <c r="DH134" s="5">
+        <v>43068.114583333336</v>
+      </c>
+      <c r="DI134" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK134" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL134">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -33404,19 +35276,34 @@
         <v>43139.711689814816</v>
       </c>
       <c r="CU135" s="5">
-        <v>43140.138773148145</v>
+        <v>43127.086701388886</v>
       </c>
       <c r="CW135">
-        <v>-0.14879546099993601</v>
+        <v>-1.3213870000068E-2</v>
       </c>
       <c r="CX135" t="s">
         <v>830</v>
       </c>
       <c r="CY135">
-        <v>0.68149999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.2">
+        <v>1.2925</v>
+      </c>
+      <c r="DF135" s="5">
+        <v>43068.114699074074</v>
+      </c>
+      <c r="DH135" s="5">
+        <v>43068.139004629629</v>
+      </c>
+      <c r="DI135" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK135" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL135">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -33608,19 +35495,34 @@
         <v>43144.343634259261</v>
       </c>
       <c r="CU136" s="5">
-        <v>43144.673495370371</v>
+        <v>43130.749884259261</v>
       </c>
       <c r="CW136">
-        <v>0.226257152999846</v>
+        <v>-0.177141865999836</v>
       </c>
       <c r="CX136" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY136" s="1">
-        <v>-0.871</v>
-      </c>
-    </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY136">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="DF136" s="5">
+        <v>43068.142361111109</v>
+      </c>
+      <c r="DH136" s="5">
+        <v>43069.632754629631</v>
+      </c>
+      <c r="DI136" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK136" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL136" s="1">
+        <v>-3.0009999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -33812,19 +35714,31 @@
         <v>43144.673506944448</v>
       </c>
       <c r="CU137" s="5">
-        <v>43144.795034722221</v>
+        <v>43132.170023148145</v>
       </c>
       <c r="CW137">
-        <v>-6.7119260000065906E-2</v>
+        <v>0.49275670099986502</v>
       </c>
       <c r="CX137" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY137">
-        <v>3.9999999999900003E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="DF137" s="5">
+        <v>43073.847222222219</v>
+      </c>
+      <c r="DH137" s="5">
+        <v>43074.020833333336</v>
+      </c>
+      <c r="DK137" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL137" s="1">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -34016,19 +35930,34 @@
         <v>43145.944340277776</v>
       </c>
       <c r="CU138" s="5">
-        <v>43147.402673611112</v>
+        <v>43136.930439814816</v>
       </c>
       <c r="CW138">
-        <v>-0.26500374900006501</v>
+        <v>-9.9855014999915406E-2</v>
       </c>
       <c r="CX138" t="s">
         <v>830</v>
       </c>
-      <c r="CY138" s="6">
-        <v>-1.48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY138">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="DF138" s="5">
+        <v>43074.038206018522</v>
+      </c>
+      <c r="DH138" s="5">
+        <v>43074.788206018522</v>
+      </c>
+      <c r="DI138" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK138" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL138">
+        <v>0.80049999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -34195,19 +36124,34 @@
         <v>43147.402685185189</v>
       </c>
       <c r="CU139" s="5">
-        <v>43150.888773148145</v>
+        <v>43140.138773148145</v>
       </c>
       <c r="CW139">
-        <v>2.0684757999896199E-2</v>
+        <v>-0.14879546099993601</v>
       </c>
       <c r="CX139" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY139" s="1">
-        <v>-0.52949999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY139">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="DF139" s="5">
+        <v>43075.333344907405</v>
+      </c>
+      <c r="DH139" s="5">
+        <v>43075.840289351851</v>
+      </c>
+      <c r="DI139" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK139" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL139">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -34374,19 +36318,34 @@
         <v>43150.888784722221</v>
       </c>
       <c r="CU140" s="5">
-        <v>43151.374895833331</v>
+        <v>43144.673495370371</v>
       </c>
       <c r="CW140">
-        <v>-4.3578815999984997E-2</v>
+        <v>0.226257152999846</v>
       </c>
       <c r="CX140" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY140" s="1">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-0.871</v>
+      </c>
+      <c r="DF140" s="5">
+        <v>43077.142372685186</v>
+      </c>
+      <c r="DH140" s="5">
+        <v>43077.659733796296</v>
+      </c>
+      <c r="DI140" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK140" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL140">
+        <v>0.86350000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -34553,19 +36512,34 @@
         <v>43151.374907407408</v>
       </c>
       <c r="CU141" s="5">
-        <v>43152.152685185189</v>
+        <v>43144.795034722221</v>
       </c>
       <c r="CW141">
-        <v>5.9579867000063999E-2</v>
+        <v>-6.7119260000065906E-2</v>
       </c>
       <c r="CX141" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY141">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.2">
+        <v>3.9999999999900003E-3</v>
+      </c>
+      <c r="DF141" s="5">
+        <v>43082.104166666664</v>
+      </c>
+      <c r="DH141" s="5">
+        <v>43083.767476851855</v>
+      </c>
+      <c r="DI141" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK141" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL141" s="1">
+        <v>-0.57950000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -34732,19 +36706,34 @@
         <v>43154.715185185189</v>
       </c>
       <c r="CU142" s="5">
-        <v>43155.208240740743</v>
+        <v>43147.402673611112</v>
       </c>
       <c r="CW142">
-        <v>-5.6896169999932099E-2</v>
+        <v>-0.26500374900006501</v>
       </c>
       <c r="CX142" t="s">
         <v>830</v>
       </c>
-      <c r="CY142" s="1">
-        <v>-0.1265</v>
-      </c>
-    </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY142" s="6">
+        <v>-1.48</v>
+      </c>
+      <c r="DF142" s="5">
+        <v>43083.770844907405</v>
+      </c>
+      <c r="DH142" s="5">
+        <v>43084.131956018522</v>
+      </c>
+      <c r="DI142" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK142" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL142" s="1">
+        <v>-0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -34911,19 +36900,34 @@
         <v>43155.208252314813</v>
       </c>
       <c r="CU143" s="5">
-        <v>43157.42696759259</v>
+        <v>43150.888773148145</v>
       </c>
       <c r="CW143">
-        <v>6.1503944000090197E-2</v>
+        <v>2.0684757999896199E-2</v>
       </c>
       <c r="CX143" t="s">
         <v>831</v>
       </c>
-      <c r="CY143">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY143" s="1">
+        <v>-0.52949999999999997</v>
+      </c>
+      <c r="DF143" s="5">
+        <v>43084.131967592592</v>
+      </c>
+      <c r="DH143" s="5">
+        <v>43085.000023148146</v>
+      </c>
+      <c r="DI143" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK143" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL143">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -35090,19 +37094,34 @@
         <v>43157.593634259261</v>
       </c>
       <c r="CU144" s="5">
-        <v>43157.961689814816</v>
+        <v>43151.374895833331</v>
       </c>
       <c r="CW144">
-        <v>7.1069686000058294E-2</v>
+        <v>-4.3578815999984997E-2</v>
       </c>
       <c r="CX144" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY144" s="1">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="DF144" s="5">
+        <v>43088.378587962965</v>
+      </c>
+      <c r="DH144" s="5">
+        <v>43090.111111111109</v>
+      </c>
+      <c r="DI144" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK144" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL144">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -35269,19 +37288,34 @@
         <v>43159.222118055557</v>
       </c>
       <c r="CU145" s="5">
-        <v>43159.350590277776</v>
+        <v>43152.152685185189</v>
       </c>
       <c r="CW145">
-        <v>-3.1775856999945798E-2</v>
+        <v>5.9579867000063999E-2</v>
       </c>
       <c r="CX145" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY145" s="1">
-        <v>-1.6E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:103" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY145">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="DF145" s="5">
+        <v>43090.49664351852</v>
+      </c>
+      <c r="DH145" s="5">
+        <v>43092.208333333336</v>
+      </c>
+      <c r="DI145" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK145" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL145" s="1">
+        <v>-0.1055</v>
+      </c>
+    </row>
+    <row r="146" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -35448,19 +37482,34 @@
         <v>43159.350601851853</v>
       </c>
       <c r="CU146" s="5">
-        <v>43159.631851851853</v>
+        <v>43155.208240740743</v>
       </c>
       <c r="CW146">
-        <v>3.8141790999996802E-2</v>
+        <v>-5.6896169999932099E-2</v>
       </c>
       <c r="CX146" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CY146" s="1">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-0.1265</v>
+      </c>
+      <c r="DF146" s="5">
+        <v>43095.642476851855</v>
+      </c>
+      <c r="DH146" s="5">
+        <v>43097.625</v>
+      </c>
+      <c r="DI146" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK146" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL146">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -35627,19 +37676,34 @@
         <v>43159.631863425922</v>
       </c>
       <c r="CU147" s="5">
-        <v>43159.944363425922</v>
+        <v>43157.42696759259</v>
       </c>
       <c r="CW147">
-        <v>-0.13766647799996601</v>
+        <v>6.1503944000090197E-2</v>
       </c>
       <c r="CX147" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CY147">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.109</v>
+      </c>
+      <c r="DF147" s="5">
+        <v>43097.722337962965</v>
+      </c>
+      <c r="DH147" s="5">
+        <v>43099.208333333336</v>
+      </c>
+      <c r="DI147" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK147" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL147">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -35806,19 +37870,34 @@
         <v>43161.329780092594</v>
       </c>
       <c r="CU148" s="5">
-        <v>43161.940891203703</v>
+        <v>43157.961689814816</v>
       </c>
       <c r="CW148">
-        <v>-0.37387316600008103</v>
+        <v>7.1069686000058294E-2</v>
       </c>
       <c r="CX148" t="s">
-        <v>830</v>
-      </c>
-      <c r="CY148">
-        <v>0.71650000000000003</v>
-      </c>
-    </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="CY148" s="1">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="DF148" s="5">
+        <v>43102.35428240741</v>
+      </c>
+      <c r="DH148" s="5">
+        <v>43103.993171296293</v>
+      </c>
+      <c r="DI148" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK148" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL148" s="1">
+        <v>-0.53049999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -35985,19 +38064,34 @@
         <v>43164.67696759259</v>
       </c>
       <c r="CU149" s="5">
-        <v>43164.985995370371</v>
+        <v>43159.350590277776</v>
       </c>
       <c r="CW149">
-        <v>-0.25069322499997998</v>
+        <v>-3.1775856999945798E-2</v>
       </c>
       <c r="CX149" t="s">
         <v>830</v>
       </c>
       <c r="CY149" s="1">
-        <v>-0.878</v>
-      </c>
-    </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.2">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="DF149" s="5">
+        <v>43103.996539351851</v>
+      </c>
+      <c r="DH149" s="5">
+        <v>43105.340289351851</v>
+      </c>
+      <c r="DI149" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK149" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL149" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -36164,19 +38258,34 @@
         <v>43164.986006944448</v>
       </c>
       <c r="CU150" s="5">
-        <v>43165.576284722221</v>
+        <v>43159.631851851853</v>
       </c>
       <c r="CW150">
-        <v>7.4583244000115803E-2</v>
+        <v>3.8141790999996802E-2</v>
       </c>
       <c r="CX150" t="s">
         <v>831</v>
       </c>
-      <c r="CY150">
-        <v>0.96399999999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY150" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="DF150" s="5">
+        <v>43105.340300925927</v>
+      </c>
+      <c r="DH150" s="5">
+        <v>43106.208356481482</v>
+      </c>
+      <c r="DI150" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK150" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL150">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -36343,19 +38452,34 @@
         <v>43171.881828703707</v>
       </c>
       <c r="CU151" s="5">
-        <v>43172.34710648148</v>
+        <v>43159.944363425922</v>
       </c>
       <c r="CW151">
-        <v>0.132406886000112</v>
+        <v>-0.13766647799996601</v>
       </c>
       <c r="CX151" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY151" s="1">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="CY151">
+        <v>0.627</v>
+      </c>
+      <c r="DF151" s="5">
+        <v>43108.336921296293</v>
+      </c>
+      <c r="DH151" s="5">
+        <v>43108.93414351852</v>
+      </c>
+      <c r="DI151" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK151" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL151" s="1">
+        <v>-0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -36522,19 +38646,34 @@
         <v>43172.347118055557</v>
       </c>
       <c r="CU152" s="5">
-        <v>43175.749895833331</v>
+        <v>43161.940891203703</v>
       </c>
       <c r="CW152">
-        <v>-2.95650889999578E-2</v>
+        <v>-0.37387316600008103</v>
       </c>
       <c r="CX152" t="s">
         <v>830</v>
       </c>
       <c r="CY152">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="DF152" s="5">
+        <v>43108.937511574077</v>
+      </c>
+      <c r="DH152" s="5">
+        <v>43110.288206018522</v>
+      </c>
+      <c r="DI152" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK152" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL152">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -36701,19 +38840,34 @@
         <v>43178.25335648148</v>
       </c>
       <c r="CU153" s="5">
-        <v>43178.715162037035</v>
+        <v>43164.985995370371</v>
       </c>
       <c r="CW153">
-        <v>-6.4647312000012502E-2</v>
+        <v>-0.25069322499997998</v>
       </c>
       <c r="CX153" t="s">
         <v>830</v>
       </c>
-      <c r="CY153">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY153" s="1">
+        <v>-0.878</v>
+      </c>
+      <c r="DF153" s="5">
+        <v>43110.656261574077</v>
+      </c>
+      <c r="DH153" s="5">
+        <v>43111.42015046296</v>
+      </c>
+      <c r="DI153" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK153" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL153">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -36880,19 +39034,34 @@
         <v>43180.777662037035</v>
       </c>
       <c r="CU154" s="5">
-        <v>43181.39571759259</v>
+        <v>43165.576284722221</v>
       </c>
       <c r="CW154">
-        <v>1.6199760999999899E-2</v>
+        <v>7.4583244000115803E-2</v>
       </c>
       <c r="CX154" t="s">
         <v>831</v>
       </c>
       <c r="CY154">
-        <v>0.2515</v>
-      </c>
-    </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="DF154" s="5">
+        <v>43111.871539351851</v>
+      </c>
+      <c r="DH154" s="5">
+        <v>43112.854178240741</v>
+      </c>
+      <c r="DI154" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK154" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL154" s="1">
+        <v>-1.117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -37058,14 +39227,35 @@
       <c r="CS155" s="5">
         <v>43181.590162037035</v>
       </c>
+      <c r="CU155" s="5">
+        <v>43172.34710648148</v>
+      </c>
       <c r="CW155">
-        <v>0.18916669099990699</v>
+        <v>0.132406886000112</v>
       </c>
       <c r="CX155" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CY155" s="1">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="DF155" s="5">
+        <v>43112.854189814818</v>
+      </c>
+      <c r="DH155" s="5">
+        <v>43112.982662037037</v>
+      </c>
+      <c r="DI155" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK155" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL155">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="156" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -37228,8 +39418,35 @@
       <c r="CE156" s="1">
         <v>-0.30199999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CU156" s="5">
+        <v>43175.749895833331</v>
+      </c>
+      <c r="CW156">
+        <v>-2.95650889999578E-2</v>
+      </c>
+      <c r="CX156" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY156">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="DF156" s="5">
+        <v>43116.378472222219</v>
+      </c>
+      <c r="DH156" s="5">
+        <v>43117.704861111109</v>
+      </c>
+      <c r="DI156" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK156" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL156" s="1">
+        <v>-0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -37392,8 +39609,35 @@
       <c r="CE157" s="1">
         <v>-0.314</v>
       </c>
-    </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CU157" s="5">
+        <v>43178.715162037035</v>
+      </c>
+      <c r="CW157">
+        <v>-6.4647312000012502E-2</v>
+      </c>
+      <c r="CX157" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY157">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="DF157" s="5">
+        <v>43117.704872685186</v>
+      </c>
+      <c r="DH157" s="5">
+        <v>43118.048622685186</v>
+      </c>
+      <c r="DI157" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK157" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL157" s="1">
+        <v>-0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -37556,8 +39800,35 @@
       <c r="CE158">
         <v>0.90449999999999997</v>
       </c>
-    </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CU158" s="5">
+        <v>43181.39571759259</v>
+      </c>
+      <c r="CW158">
+        <v>1.6199760999999899E-2</v>
+      </c>
+      <c r="CX158" t="s">
+        <v>831</v>
+      </c>
+      <c r="CY158">
+        <v>0.2515</v>
+      </c>
+      <c r="DF158" s="5">
+        <v>43118.048634259256</v>
+      </c>
+      <c r="DH158" s="5">
+        <v>43118.322939814818</v>
+      </c>
+      <c r="DI158" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK158" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL158">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -37720,8 +39991,29 @@
       <c r="CE159">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="CW159">
+        <v>0.18916669099990699</v>
+      </c>
+      <c r="CX159" t="s">
+        <v>831</v>
+      </c>
+      <c r="DF159" s="5">
+        <v>43125.034837962965</v>
+      </c>
+      <c r="DH159" s="5">
+        <v>43126.010416666664</v>
+      </c>
+      <c r="DI159" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK159" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL159" s="1">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -37884,8 +40176,23 @@
       <c r="CE160" s="1">
         <v>-0.28100000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF160" s="5">
+        <v>43126.975706018522</v>
+      </c>
+      <c r="DH160" s="5">
+        <v>43127.121539351851</v>
+      </c>
+      <c r="DI160" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK160" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL160">
+        <v>1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>313</v>
       </c>
@@ -38048,8 +40355,23 @@
       <c r="CE161">
         <v>1.117</v>
       </c>
-    </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF161" s="5">
+        <v>43127.184039351851</v>
+      </c>
+      <c r="DH161" s="5">
+        <v>43127.208344907405</v>
+      </c>
+      <c r="DI161" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK161" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL161" s="1">
+        <v>-0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -38212,8 +40534,23 @@
       <c r="CE162" s="1">
         <v>-0.19600000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF162" s="5">
+        <v>43130.389004629629</v>
+      </c>
+      <c r="DH162" s="5">
+        <v>43130.75</v>
+      </c>
+      <c r="DI162" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK162" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL162">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -38376,8 +40713,23 @@
       <c r="CE163" s="1">
         <v>-0.27800000000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF163" s="5">
+        <v>43132.020949074074</v>
+      </c>
+      <c r="DH163" s="5">
+        <v>43132.173611111109</v>
+      </c>
+      <c r="DI163" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK163" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL163">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -38540,8 +40892,23 @@
       <c r="CE164">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF164" s="5">
+        <v>43133.850810185184</v>
+      </c>
+      <c r="DH164" s="5">
+        <v>43134.208333333336</v>
+      </c>
+      <c r="DI164" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK164" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL164" s="1">
+        <v>-0.64049999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -38704,8 +41071,23 @@
       <c r="CE165" s="1">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF165" s="5">
+        <v>43136.340277777781</v>
+      </c>
+      <c r="DH165" s="5">
+        <v>43136.927083333336</v>
+      </c>
+      <c r="DI165" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK165" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL165">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -38868,8 +41250,23 @@
       <c r="CE166">
         <v>1.2665</v>
       </c>
-    </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF166" s="5">
+        <v>43139.708449074074</v>
+      </c>
+      <c r="DH166" s="5">
+        <v>43139.878472222219</v>
+      </c>
+      <c r="DI166" t="s">
+        <v>1653</v>
+      </c>
+      <c r="DK166" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL166" s="1">
+        <v>-1.3445</v>
+      </c>
+    </row>
+    <row r="167" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -39032,8 +41429,23 @@
       <c r="CE167" s="1">
         <v>-0.17799999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF167" s="5">
+        <v>43139.878483796296</v>
+      </c>
+      <c r="DH167" s="5">
+        <v>43140.020844907405</v>
+      </c>
+      <c r="DI167" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK167" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL167" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="168" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>327</v>
       </c>
@@ -39196,8 +41608,23 @@
       <c r="CE168">
         <v>0.71950000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF168" s="5">
+        <v>43143.739583333336</v>
+      </c>
+      <c r="DH168" s="5">
+        <v>43144.670254629629</v>
+      </c>
+      <c r="DI168" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK168" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL168" s="1">
+        <v>-1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>329</v>
       </c>
@@ -39360,8 +41787,23 @@
       <c r="CE169">
         <v>1.0455000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF169" s="5">
+        <v>43144.673622685186</v>
+      </c>
+      <c r="DH169" s="5">
+        <v>43144.770844907405</v>
+      </c>
+      <c r="DI169" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK169" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL169" s="1">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>331</v>
       </c>
@@ -39524,8 +41966,23 @@
       <c r="CE170" s="1">
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF170" s="5">
+        <v>43145.944467592592</v>
+      </c>
+      <c r="DH170" s="5">
+        <v>43148.208356481482</v>
+      </c>
+      <c r="DI170" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK170" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL170" s="1">
+        <v>-0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -39688,8 +42145,23 @@
       <c r="CE171" s="1">
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF171" s="5">
+        <v>43150.889004629629</v>
+      </c>
+      <c r="DH171" s="5">
+        <v>43151.350694444445</v>
+      </c>
+      <c r="DI171" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK171" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL171" s="1">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>335</v>
       </c>
@@ -39852,8 +42324,23 @@
       <c r="CE172">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF172" s="5">
+        <v>43151.350706018522</v>
+      </c>
+      <c r="DH172" s="5">
+        <v>43151.85765046296</v>
+      </c>
+      <c r="DI172" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK172" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL172">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -40016,8 +42503,23 @@
       <c r="CE173" s="1">
         <v>-0.29599999999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF173" s="5">
+        <v>43154.715289351851</v>
+      </c>
+      <c r="DH173" s="5">
+        <v>43155.208344907405</v>
+      </c>
+      <c r="DI173" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK173" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL173" s="1">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>339</v>
       </c>
@@ -40180,8 +42682,23 @@
       <c r="CE174" s="1">
         <v>-0.29199999999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF174" s="5">
+        <v>43157.29178240741</v>
+      </c>
+      <c r="DH174" s="5">
+        <v>43159.597337962965</v>
+      </c>
+      <c r="DI174" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK174" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL174" s="1">
+        <v>-0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>341</v>
       </c>
@@ -40344,8 +42861,23 @@
       <c r="CE175" s="1">
         <v>-0.22800000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF175" s="5">
+        <v>43159.600706018522</v>
+      </c>
+      <c r="DH175" s="5">
+        <v>43159.944456018522</v>
+      </c>
+      <c r="DI175" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK175" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL175">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>343</v>
       </c>
@@ -40508,8 +43040,23 @@
       <c r="CE176" s="1">
         <v>-0.28699999999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF176" s="5">
+        <v>43164.677083333336</v>
+      </c>
+      <c r="DH176" s="5">
+        <v>43164.982638888891</v>
+      </c>
+      <c r="DI176" t="s">
+        <v>1651</v>
+      </c>
+      <c r="DK176" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL176" s="1">
+        <v>-0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>345</v>
       </c>
@@ -40672,8 +43219,23 @@
       <c r="CE177" s="1">
         <v>-0.28199999999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF177" s="5">
+        <v>43164.98265046296</v>
+      </c>
+      <c r="DH177" s="5">
+        <v>43165.579872685186</v>
+      </c>
+      <c r="DI177" t="s">
+        <v>1652</v>
+      </c>
+      <c r="DK177" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL177">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -40836,8 +43398,23 @@
       <c r="CE178" s="1">
         <v>-0.29399999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF178" s="5">
+        <v>43172.336921296293</v>
+      </c>
+      <c r="DH178" s="5">
+        <v>43175.75</v>
+      </c>
+      <c r="DI178" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK178" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL178">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>349</v>
       </c>
@@ -41000,8 +43577,23 @@
       <c r="CE179" s="1">
         <v>-0.28199999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF179" s="5">
+        <v>43178.253472222219</v>
+      </c>
+      <c r="DH179" s="5">
+        <v>43178.715277777781</v>
+      </c>
+      <c r="DI179" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK179" t="s">
+        <v>830</v>
+      </c>
+      <c r="DL179">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="180" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>351</v>
       </c>
@@ -41164,8 +43756,23 @@
       <c r="CE180" s="1">
         <v>-0.27800000000000002</v>
       </c>
-    </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF180" s="5">
+        <v>43180.774305555555</v>
+      </c>
+      <c r="DH180" s="5">
+        <v>43181.364583333336</v>
+      </c>
+      <c r="DI180" t="s">
+        <v>1650</v>
+      </c>
+      <c r="DK180" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL180">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -41328,8 +43935,23 @@
       <c r="CE181">
         <v>1.4924999999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF181" s="5">
+        <v>43181.586921296293</v>
+      </c>
+      <c r="DH181" s="5">
+        <v>43183.208333333336</v>
+      </c>
+      <c r="DI181" t="s">
+        <v>1649</v>
+      </c>
+      <c r="DK181" t="s">
+        <v>831</v>
+      </c>
+      <c r="DL181" s="1">
+        <v>-1.6060000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -41492,8 +44114,14 @@
       <c r="CE182">
         <v>0.76149999999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="DF182" s="5">
+        <v>43185.677083333336</v>
+      </c>
+      <c r="DK182" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="183" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -41657,7 +44285,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -41821,7 +44449,7 @@
         <v>0.87350000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -41985,7 +44613,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -42149,7 +44777,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>365</v>
       </c>
@@ -42313,7 +44941,7 @@
         <v>0.98650000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>367</v>
       </c>
@@ -42477,7 +45105,7 @@
         <v>-0.27550000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>369</v>
       </c>
@@ -42641,7 +45269,7 @@
         <v>-0.27250000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -42805,7 +45433,7 @@
         <v>-0.25700000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -42964,7 +45592,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -48174,7 +50802,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -48430,7 +51058,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -48558,7 +51186,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -48686,7 +51314,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -48814,7 +51442,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -48942,7 +51570,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -49070,7 +51698,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -49198,7 +51826,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -49326,7 +51954,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -49454,7 +52082,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -49582,7 +52210,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -49710,7 +52338,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -49838,7 +52466,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -49966,7 +52594,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -50222,7 +52850,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -50350,7 +52978,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -50478,7 +53106,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -50600,7 +53228,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -50713,7 +53341,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -78683,7 +81311,7 @@
       <c r="BF823"/>
     </row>
   </sheetData>
-  <autoFilter ref="CY1:CY823"/>
+  <autoFilter ref="DL1:DL827"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\master\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\master\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1656">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5699,6 +5699,32 @@
   </si>
   <si>
     <t># Execute Volatility Settlement</t>
+  </si>
+  <si>
+    <t>modify_entry_logic、StopLossは0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→エントリー時は過去30時間の高値、安値から＋－0.5圏内にいないことをチェック（レジスタンスは＋－0.2）</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5775,7 +5801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5822,6 +5848,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6104,85 +6133,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO823"/>
+  <dimension ref="A1:ED823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ202" sqref="DJ202"/>
+    <sheetView tabSelected="1" topLeftCell="DQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="ED8" sqref="ED8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1796875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.1796875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.1796875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.1796875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.1796875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.6328125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.90625" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="63" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="18.08984375" customWidth="1"/>
-    <col min="65" max="65" width="15.90625" customWidth="1"/>
-    <col min="66" max="70" width="8.90625" customWidth="1"/>
-    <col min="71" max="71" width="16.81640625" customWidth="1"/>
-    <col min="72" max="72" width="19.1796875" customWidth="1"/>
-    <col min="73" max="73" width="13.08984375" customWidth="1"/>
-    <col min="74" max="78" width="8.90625" customWidth="1"/>
-    <col min="79" max="79" width="24.6328125" customWidth="1"/>
-    <col min="80" max="80" width="18.6328125" customWidth="1"/>
-    <col min="86" max="86" width="20.6328125" style="11" customWidth="1"/>
-    <col min="87" max="87" width="20.6328125" style="12" customWidth="1"/>
-    <col min="88" max="88" width="18.90625" style="11" customWidth="1"/>
-    <col min="89" max="89" width="18.90625" style="12" customWidth="1"/>
-    <col min="90" max="90" width="13.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.81640625" customWidth="1"/>
-    <col min="95" max="95" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20.81640625" customWidth="1"/>
+    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="18.109375" customWidth="1"/>
+    <col min="65" max="65" width="15.88671875" customWidth="1"/>
+    <col min="66" max="70" width="8.88671875" customWidth="1"/>
+    <col min="71" max="71" width="16.77734375" customWidth="1"/>
+    <col min="72" max="72" width="19.21875" customWidth="1"/>
+    <col min="73" max="73" width="13.109375" customWidth="1"/>
+    <col min="74" max="78" width="8.88671875" customWidth="1"/>
+    <col min="79" max="79" width="24.6640625" customWidth="1"/>
+    <col min="80" max="80" width="18.6640625" customWidth="1"/>
+    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.77734375" customWidth="1"/>
+    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.77734375" customWidth="1"/>
     <col min="99" max="99" width="19" customWidth="1"/>
-    <col min="101" max="101" width="12.08984375" customWidth="1"/>
-    <col min="103" max="103" width="12.453125" customWidth="1"/>
-    <col min="110" max="110" width="8.7265625" customWidth="1"/>
-    <col min="113" max="113" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.26953125" customWidth="1"/>
+    <col min="101" max="101" width="12.109375" customWidth="1"/>
+    <col min="103" max="103" width="12.44140625" customWidth="1"/>
+    <col min="110" max="110" width="8.77734375" customWidth="1"/>
+    <col min="113" max="113" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:134" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -6213,8 +6242,14 @@
       <c r="DF1" s="11" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP1" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="ED1" s="11" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:134" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -6243,8 +6278,14 @@
       <c r="DF2" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:134" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -6274,8 +6315,14 @@
       <c r="DF3" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -6323,8 +6370,14 @@
       <c r="DF4" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6526,8 +6579,14 @@
       <c r="DF5" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6762,8 +6821,14 @@
       <c r="DF6" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7001,8 +7066,14 @@
       <c r="DF7" s="15" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="DP7" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="ED7" s="16" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7234,7 +7305,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7505,7 +7576,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7737,7 +7808,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:119" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="224.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7969,7 +8040,7 @@
         <v>0.34849999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8189,7 +8260,7 @@
         <v>0.1215</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8413,7 +8484,7 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8633,7 +8704,7 @@
         <v>0.20549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8853,7 +8924,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -9073,7 +9144,7 @@
         <v>0.2175</v>
       </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9293,7 +9364,7 @@
         <v>-0.22800000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -9517,7 +9588,7 @@
         <v>-0.77900000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9737,7 +9808,7 @@
         <v>0.42249999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9957,7 +10028,7 @@
         <v>-0.26250000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10177,7 +10248,7 @@
         <v>2.0225</v>
       </c>
     </row>
-    <row r="22" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -10397,7 +10468,7 @@
         <v>-0.73250000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10617,7 +10688,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -10841,7 +10912,7 @@
         <v>-1.35E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -11061,7 +11132,7 @@
         <v>-0.99399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -11281,7 +11352,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -11505,7 +11576,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -11728,7 +11799,7 @@
         <v>0.83850000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -11948,7 +12019,7 @@
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -12168,7 +12239,7 @@
         <v>-0.33900000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -12611,7 +12682,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -12831,7 +12902,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -13051,7 +13122,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -13274,7 +13345,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -13494,7 +13565,7 @@
         <v>0.45050000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -13714,7 +13785,7 @@
         <v>0.79749999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -14157,7 +14228,7 @@
         <v>-0.96199999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -14377,7 +14448,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -14597,7 +14668,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -14817,7 +14888,7 @@
         <v>-1.1675</v>
       </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -15037,7 +15108,7 @@
         <v>-0.628</v>
       </c>
     </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -15261,7 +15332,7 @@
         <v>0.84050000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -15485,7 +15556,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -15705,7 +15776,7 @@
         <v>-0.46500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -15925,7 +15996,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -16145,7 +16216,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -16365,7 +16436,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -16588,7 +16659,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="51" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -16808,7 +16879,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -17032,7 +17103,7 @@
         <v>1.4584999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -17475,7 +17546,7 @@
         <v>-0.503</v>
       </c>
     </row>
-    <row r="55" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -17695,7 +17766,7 @@
         <v>-1.2769999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -17915,7 +17986,7 @@
         <v>-0.75249999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -18135,7 +18206,7 @@
         <v>1.8634999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -18355,7 +18426,7 @@
         <v>-0.2555</v>
       </c>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -18574,7 +18645,7 @@
         <v>-0.75549999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -18797,7 +18868,7 @@
         <v>-0.94899999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -19016,7 +19087,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -19235,7 +19306,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -19454,7 +19525,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="64" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -19673,7 +19744,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -19895,7 +19966,7 @@
         <v>0.9425</v>
       </c>
     </row>
-    <row r="66" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -20114,7 +20185,7 @@
         <v>0.29749999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -20333,7 +20404,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -20778,7 +20849,7 @@
         <v>-5.9499999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -20997,7 +21068,7 @@
         <v>-0.1205</v>
       </c>
     </row>
-    <row r="71" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -21223,7 +21294,7 @@
         <v>-0.29799999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -21445,7 +21516,7 @@
         <v>-0.27050000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -21664,7 +21735,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="74" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -22331,7 +22402,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -22550,7 +22621,7 @@
         <v>0.72050000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -22769,7 +22840,7 @@
         <v>0.75749999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -22988,7 +23059,7 @@
         <v>-0.82299999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -23207,7 +23278,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="81" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -23426,7 +23497,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -23645,7 +23716,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="83" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -23867,7 +23938,7 @@
         <v>0.85650000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -24090,7 +24161,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -24309,7 +24380,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -24750,7 +24821,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -24969,7 +25040,7 @@
         <v>-0.247</v>
       </c>
     </row>
-    <row r="89" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -25192,7 +25263,7 @@
         <v>-0.83050000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -25411,7 +25482,7 @@
         <v>-0.46150000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -25630,7 +25701,7 @@
         <v>0.20649999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -25849,7 +25920,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="93" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -26068,7 +26139,7 @@
         <v>-0.61199999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -26287,7 +26358,7 @@
         <v>-0.71250000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -26506,7 +26577,7 @@
         <v>0.23549999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -26725,7 +26796,7 @@
         <v>-0.47249999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -26944,7 +27015,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="98" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -27163,7 +27234,7 @@
         <v>-0.81200000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -27382,7 +27453,7 @@
         <v>-0.5615</v>
       </c>
     </row>
-    <row r="100" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -27602,7 +27673,7 @@
         <v>3.0525000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -27821,7 +27892,7 @@
         <v>-0.90400000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -28040,7 +28111,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -28259,7 +28330,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="104" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -28478,7 +28549,7 @@
         <v>-0.91649999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -28697,7 +28768,7 @@
         <v>0.20549999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -28916,7 +28987,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -29139,7 +29210,7 @@
         <v>-0.29649999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -29362,7 +29433,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -29581,7 +29652,7 @@
         <v>-0.1265</v>
       </c>
     </row>
-    <row r="110" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -29800,7 +29871,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -30019,7 +30090,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="112" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -30238,7 +30309,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="113" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -30457,7 +30528,7 @@
         <v>-1.5985</v>
       </c>
     </row>
-    <row r="114" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -30676,7 +30747,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -30899,7 +30970,7 @@
         <v>0.34949999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -31118,7 +31189,7 @@
         <v>-0.83150000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -31337,7 +31408,7 @@
         <v>-0.61</v>
       </c>
     </row>
-    <row r="118" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -31556,7 +31627,7 @@
         <v>1.0654999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -31779,7 +31850,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -32002,7 +32073,7 @@
         <v>-0.90100000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -32221,7 +32292,7 @@
         <v>1.319</v>
       </c>
     </row>
-    <row r="122" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -32444,7 +32515,7 @@
         <v>-1.5024999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -32663,7 +32734,7 @@
         <v>0.75649999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -32882,7 +32953,7 @@
         <v>0.34050000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -33101,7 +33172,7 @@
         <v>0.66449999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -33320,7 +33391,7 @@
         <v>-1.1485000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -33539,7 +33610,7 @@
         <v>-0.33150000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -33758,7 +33829,7 @@
         <v>-1.0265</v>
       </c>
     </row>
-    <row r="129" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -33977,7 +34048,7 @@
         <v>-0.94750000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -34196,7 +34267,7 @@
         <v>-0.85750000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -34419,7 +34490,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -34642,7 +34713,7 @@
         <v>0.35549999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -34861,7 +34932,7 @@
         <v>-2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -35080,7 +35151,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="135" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -35303,7 +35374,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -35522,7 +35593,7 @@
         <v>-3.0009999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -35738,7 +35809,7 @@
         <v>-2.35E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -35957,7 +36028,7 @@
         <v>0.80049999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -36151,7 +36222,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -36345,7 +36416,7 @@
         <v>0.86350000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -36539,7 +36610,7 @@
         <v>-0.57950000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -36733,7 +36804,7 @@
         <v>-0.88300000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -36927,7 +36998,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -37121,7 +37192,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="145" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -37315,7 +37386,7 @@
         <v>-0.1055</v>
       </c>
     </row>
-    <row r="146" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -37509,7 +37580,7 @@
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -37703,7 +37774,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -37897,7 +37968,7 @@
         <v>-0.53049999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -38091,7 +38162,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -38285,7 +38356,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="151" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -38479,7 +38550,7 @@
         <v>-0.71299999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -38673,7 +38744,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -38867,7 +38938,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -39061,7 +39132,7 @@
         <v>-1.117</v>
       </c>
     </row>
-    <row r="155" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -39255,7 +39326,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="156" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -39446,7 +39517,7 @@
         <v>-0.28749999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -39637,7 +39708,7 @@
         <v>-0.85399999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -39828,7 +39899,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="159" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -40013,7 +40084,7 @@
         <v>-1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -40192,7 +40263,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>313</v>
       </c>
@@ -40371,7 +40442,7 @@
         <v>-0.61750000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -40550,7 +40621,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="163" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -40729,7 +40800,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -40908,7 +40979,7 @@
         <v>-0.64049999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -41087,7 +41158,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -41266,7 +41337,7 @@
         <v>-1.3445</v>
       </c>
     </row>
-    <row r="167" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -41445,7 +41516,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="168" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>327</v>
       </c>
@@ -41624,7 +41695,7 @@
         <v>-1.1719999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>329</v>
       </c>
@@ -41803,7 +41874,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>331</v>
       </c>
@@ -41982,7 +42053,7 @@
         <v>-0.73750000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -42161,7 +42232,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>335</v>
       </c>
@@ -42340,7 +42411,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="173" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -42519,7 +42590,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="174" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>339</v>
       </c>
@@ -42698,7 +42769,7 @@
         <v>-0.98499999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>341</v>
       </c>
@@ -42877,7 +42948,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>343</v>
       </c>
@@ -43056,7 +43127,7 @@
         <v>-0.82399999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>345</v>
       </c>
@@ -43235,7 +43306,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -43414,7 +43485,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>349</v>
       </c>
@@ -43593,7 +43664,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="180" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>351</v>
       </c>
@@ -43772,7 +43843,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="181" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -43951,7 +44022,7 @@
         <v>-1.6060000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -44121,7 +44192,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="183" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -44285,7 +44356,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -44449,7 +44520,7 @@
         <v>0.87350000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -44613,7 +44684,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -44777,7 +44848,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="187" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>365</v>
       </c>
@@ -44941,7 +45012,7 @@
         <v>0.98650000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>367</v>
       </c>
@@ -45105,7 +45176,7 @@
         <v>-0.27550000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>369</v>
       </c>
@@ -45269,7 +45340,7 @@
         <v>-0.27250000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -45433,7 +45504,7 @@
         <v>-0.25700000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -45592,7 +45663,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="192" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -45746,7 +45817,7 @@
       <c r="CD192" s="4"/>
       <c r="CE192" s="4"/>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>377</v>
       </c>
@@ -45900,7 +45971,7 @@
       <c r="CD193" s="4"/>
       <c r="CE193" s="4"/>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -46054,7 +46125,7 @@
       <c r="CD194" s="4"/>
       <c r="CE194" s="4"/>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>381</v>
       </c>
@@ -46208,7 +46279,7 @@
       <c r="CD195" s="4"/>
       <c r="CE195" s="4"/>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>383</v>
       </c>
@@ -46362,7 +46433,7 @@
       <c r="CD196" s="4"/>
       <c r="CE196" s="4"/>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -46516,7 +46587,7 @@
       <c r="CD197" s="4"/>
       <c r="CE197" s="4"/>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -46670,7 +46741,7 @@
       <c r="CD198" s="4"/>
       <c r="CE198" s="4"/>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -46818,7 +46889,7 @@
       <c r="CD199" s="4"/>
       <c r="CE199" s="4"/>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>391</v>
       </c>
@@ -46952,7 +47023,7 @@
         <v>-0.1545</v>
       </c>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -47086,7 +47157,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>395</v>
       </c>
@@ -47220,7 +47291,7 @@
         <v>-0.30099999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>397</v>
       </c>
@@ -47354,7 +47425,7 @@
         <v>-0.30049999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -47488,7 +47559,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -47622,7 +47693,7 @@
         <v>1.0435000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -47756,7 +47827,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -47890,7 +47961,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -48024,7 +48095,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="209" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>409</v>
       </c>
@@ -48158,7 +48229,7 @@
         <v>-0.17050000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>411</v>
       </c>
@@ -48292,7 +48363,7 @@
         <v>-0.28349999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -48426,7 +48497,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -48560,7 +48631,7 @@
         <v>0.72650000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>417</v>
       </c>
@@ -48694,7 +48765,7 @@
         <v>-0.26850000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>419</v>
       </c>
@@ -48828,7 +48899,7 @@
         <v>-0.27650000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -50802,7 +50873,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -51058,7 +51129,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -51186,7 +51257,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -51314,7 +51385,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -51442,7 +51513,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -51570,7 +51641,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -51698,7 +51769,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -51826,7 +51897,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -51954,7 +52025,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -52082,7 +52153,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -52210,7 +52281,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -52338,7 +52409,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -52466,7 +52537,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -52594,7 +52665,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -52850,7 +52921,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -52978,7 +53049,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -53106,7 +53177,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -53228,7 +53299,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -53341,7 +53412,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>

--- a/kensho/expantion.xlsx
+++ b/kensho/expantion.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
   </bookViews>
   <sheets>
     <sheet name="マスター" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$DL$1:$DL$827</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">マスター!$DW$1:$DW$823</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="1824">
   <si>
     <t>約定日</t>
     <rPh sb="0" eb="2">
@@ -5725,6 +5726,510 @@
       <t>ケンナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:04:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:27:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:10:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:31:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:25:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:56:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:43:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:18:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:25:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:15:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:30:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:19:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:00:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:48:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:30:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:00:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:01:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:51:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:56:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:30:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13:31:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:56:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:35:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:00:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:15:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:08:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:10:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:05:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:00:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:05:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:10:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:15:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:34:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:07:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:33:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:05:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:00:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:04:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:02:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:50:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:48:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:02:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:12:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:31:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:10:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:46:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:30:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:41:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:39:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:00:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:50:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:02:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:08:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:19:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:30:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:05:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:34:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:56:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:49:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:30:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:49:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:39:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:01:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:17:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:34:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:00:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:02:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:50:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:15:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:37:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:30:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:11:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:50:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:07:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:45:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:40:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:02:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:36:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:40:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:01:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:43:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:32:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:08:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:25:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:06:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:40:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:25:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:33:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:13:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:00:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:14:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:03:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:44:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:25:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:50:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:35:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:08:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:57:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:05:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:24:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:05:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:40:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:35:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:57:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:49:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:28:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:57:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:26:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:05:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:40:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:53:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13:30:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:20:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:27:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:31:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:04:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:57:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:01:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:21:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:00:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:37:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:30:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:45:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:35:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:49:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:40:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:35:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:57:00</t>
   </si>
 </sst>
 </file>
@@ -5801,7 +6306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5853,6 +6358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5868,6 +6376,1902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$176</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="176"/>
+                <c:pt idx="0">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42949</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42951</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42959</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42966</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42972</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42982</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42984</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42985</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42987</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42990</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42992</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42992</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43010</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43010</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43013</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43015</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43017</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43021</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43025</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43036</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43057</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43085</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43090</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43092</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43099</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43103</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43104</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43105</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43108</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43109</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43111</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43127</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43127</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="176"/>
+                <c:pt idx="0">
+                  <c:v>-0.20349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.62050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5634999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3725000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1644999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7905000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7915000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.234</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2395</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2985000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.492</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.274</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9714999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6115000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4104999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.2084999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.2270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.2605000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.6035000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2084999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.2714999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0694999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.3934999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1854999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.3279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.1080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.9030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.7360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.5005000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.042</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.6275</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.209</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.798500000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.044</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.8405</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.6395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.4335</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10.230499999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.0055</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.7774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.5370000000000008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.3175000000000008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.2334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.1325</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.847</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.634</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.045</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12.842000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.073</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.773999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.5625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.432499999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.218500000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12.994999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.66</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.4575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.2515</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.005000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.8155</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.672499999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.46</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.749499999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.5085</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15.561500000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.3485</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.105</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15.903</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15.941000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15.7285</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.311500000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.8865</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.6655</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.448</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.1815</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.583500000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>15.384</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16.340499999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17.2285</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>17.0245</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>18.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18.204499999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19.047000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18.842500000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19.121500000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>19.189499999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>19.9575</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19.7715</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19.5945</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19.418500000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19.641500000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>19.4175</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20.531500000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>20.323</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20.108499999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>19.743500000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>19.5685</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>19.379000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>19.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>18.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>18.802</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>18.628</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>18.429500000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>18.1815</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>18.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>17.721</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>18.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>18.800999999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>19.178999999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>18.992999999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>19.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>19.55</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19.449000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>19.698499999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>20.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>20.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>20.198</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>20.198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="433669792"/>
+        <c:axId val="287711152"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="433669792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287711152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="287711152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433669792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6133,85 +8537,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ED823"/>
+  <dimension ref="A1:EE823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="ED8" sqref="ED8"/>
+    <sheetView tabSelected="1" topLeftCell="DR72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DW54" sqref="DW54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="8.90625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="21.21875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.77734375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.21875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="19.21875" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.109375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1796875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="18.54296875" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6328125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="36" max="39" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.1796875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.90625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="16.54296875" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.90625" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="22" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="59" max="63" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="18.109375" customWidth="1"/>
-    <col min="65" max="65" width="15.88671875" customWidth="1"/>
-    <col min="66" max="70" width="8.88671875" customWidth="1"/>
-    <col min="71" max="71" width="16.77734375" customWidth="1"/>
-    <col min="72" max="72" width="19.21875" customWidth="1"/>
-    <col min="73" max="73" width="13.109375" customWidth="1"/>
-    <col min="74" max="78" width="8.88671875" customWidth="1"/>
-    <col min="79" max="79" width="24.6640625" customWidth="1"/>
-    <col min="80" max="80" width="18.6640625" customWidth="1"/>
-    <col min="86" max="86" width="20.6640625" style="11" customWidth="1"/>
-    <col min="87" max="87" width="20.6640625" style="12" customWidth="1"/>
-    <col min="88" max="88" width="18.88671875" style="11" customWidth="1"/>
-    <col min="89" max="89" width="18.88671875" style="12" customWidth="1"/>
-    <col min="90" max="90" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.77734375" customWidth="1"/>
-    <col min="95" max="95" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20.77734375" customWidth="1"/>
+    <col min="55" max="55" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17.6328125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="22.1796875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" style="4" hidden="1" customWidth="1"/>
+    <col min="59" max="63" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="18.08984375" customWidth="1"/>
+    <col min="65" max="65" width="15.90625" customWidth="1"/>
+    <col min="66" max="70" width="8.90625" customWidth="1"/>
+    <col min="71" max="71" width="16.81640625" customWidth="1"/>
+    <col min="72" max="72" width="19.1796875" customWidth="1"/>
+    <col min="73" max="73" width="13.08984375" customWidth="1"/>
+    <col min="74" max="78" width="8.90625" customWidth="1"/>
+    <col min="79" max="79" width="24.6328125" customWidth="1"/>
+    <col min="80" max="80" width="18.6328125" customWidth="1"/>
+    <col min="86" max="86" width="20.6328125" style="11" customWidth="1"/>
+    <col min="87" max="87" width="20.6328125" style="12" customWidth="1"/>
+    <col min="88" max="88" width="18.90625" style="11" customWidth="1"/>
+    <col min="89" max="89" width="18.90625" style="12" customWidth="1"/>
+    <col min="90" max="90" width="13.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.81640625" customWidth="1"/>
+    <col min="95" max="95" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.81640625" customWidth="1"/>
     <col min="99" max="99" width="19" customWidth="1"/>
-    <col min="101" max="101" width="12.109375" customWidth="1"/>
-    <col min="103" max="103" width="12.44140625" customWidth="1"/>
-    <col min="110" max="110" width="8.77734375" customWidth="1"/>
-    <col min="113" max="113" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.21875" customWidth="1"/>
+    <col min="101" max="101" width="12.08984375" customWidth="1"/>
+    <col min="103" max="103" width="12.453125" customWidth="1"/>
+    <col min="110" max="110" width="8.81640625" customWidth="1"/>
+    <col min="113" max="113" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.1796875" customWidth="1"/>
+    <col min="121" max="121" width="15.6328125" customWidth="1"/>
+    <col min="123" max="123" width="16" customWidth="1"/>
+    <col min="125" max="125" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
@@ -6242,14 +8649,14 @@
       <c r="DF1" s="11" t="s">
         <v>1633</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>1654</v>
       </c>
-      <c r="ED1" s="11" t="s">
+      <c r="EE1" s="11" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:135" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>806</v>
       </c>
@@ -6278,14 +8685,14 @@
       <c r="DF2" t="s">
         <v>1630</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DQ2" t="s">
         <v>1630</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EE2" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.2">
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>821</v>
@@ -6315,14 +8722,14 @@
       <c r="DF3" t="s">
         <v>1631</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="DQ3" t="s">
         <v>1631</v>
       </c>
-      <c r="ED3" t="s">
+      <c r="EE3" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -6370,14 +8777,14 @@
       <c r="DF4" t="s">
         <v>1632</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DQ4" t="s">
         <v>1632</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="EE4" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6579,14 +8986,14 @@
       <c r="DF5" t="s">
         <v>1645</v>
       </c>
-      <c r="DP5" t="s">
+      <c r="DQ5" t="s">
         <v>1645</v>
       </c>
-      <c r="ED5" t="s">
+      <c r="EE5" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6821,14 +9228,14 @@
       <c r="DF6" t="s">
         <v>1646</v>
       </c>
-      <c r="DP6" t="s">
+      <c r="DQ6" t="s">
         <v>1646</v>
       </c>
-      <c r="ED6" t="s">
+      <c r="EE6" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7066,14 +9473,14 @@
       <c r="DF7" s="15" t="s">
         <v>1647</v>
       </c>
-      <c r="DP7" s="16" t="s">
+      <c r="DQ7" s="16" t="s">
         <v>1647</v>
       </c>
-      <c r="ED7" s="16" t="s">
+      <c r="EE7" s="16" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7305,7 +9712,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7575,8 +9982,38 @@
       <c r="DO9" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.2">
+      <c r="DQ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT9" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="DU9" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>832</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7807,8 +10244,23 @@
       <c r="DL10" s="1">
         <v>-2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:134" ht="224.4" x14ac:dyDescent="0.2">
+      <c r="DQ10" s="5">
+        <v>42796.639004629629</v>
+      </c>
+      <c r="DS10" s="5">
+        <v>42796.794560185182</v>
+      </c>
+      <c r="DU10">
+        <v>2.4928100000130501E-2</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW10" s="1">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:135" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -8039,8 +10491,23 @@
       <c r="DL11">
         <v>0.34849999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ11" s="5">
+        <v>42802.927199074074</v>
+      </c>
+      <c r="DS11" s="5">
+        <v>42802.935416666667</v>
+      </c>
+      <c r="DU11">
+        <v>-0.22700493699999599</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW11" s="1">
+        <v>-0.20949999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8259,8 +10726,23 @@
       <c r="DL12">
         <v>0.1215</v>
       </c>
-    </row>
-    <row r="13" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ12" s="5">
+        <v>42805.000011574077</v>
+      </c>
+      <c r="DS12" s="5">
+        <v>42805.007418981484</v>
+      </c>
+      <c r="DU12">
+        <v>0.29906242500008801</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW12" s="1">
+        <v>-0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8483,8 +10965,23 @@
       <c r="DL13">
         <v>9.7500000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ13" s="5">
+        <v>42809.774305555555</v>
+      </c>
+      <c r="DS13" s="5">
+        <v>42809.897106481483</v>
+      </c>
+      <c r="DU13">
+        <v>-2.4540550999876499E-2</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW13" s="1">
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8703,8 +11200,23 @@
       <c r="DL14">
         <v>0.20549999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ14" s="5">
+        <v>42810.878483796296</v>
+      </c>
+      <c r="DS14" s="5">
+        <v>42811.850706018522</v>
+      </c>
+      <c r="DU14">
+        <v>-3.3859250999969399E-2</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW14">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8923,8 +11435,23 @@
       <c r="DL15">
         <v>0.39500000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:134" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ15" s="5">
+        <v>42814.885416666664</v>
+      </c>
+      <c r="DS15" s="5">
+        <v>42815.520833333336</v>
+      </c>
+      <c r="DU15">
+        <v>-0.15680193499997</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW15">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:135" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -9143,8 +11670,23 @@
       <c r="DL16">
         <v>0.2175</v>
       </c>
-    </row>
-    <row r="17" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ16" s="5">
+        <v>42817.889004629629</v>
+      </c>
+      <c r="DS16" s="5">
+        <v>42817.955671296295</v>
+      </c>
+      <c r="DU16">
+        <v>-0.26548043099998098</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW16" s="1">
+        <v>-0.21049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9363,8 +11905,23 @@
       <c r="DL17" s="1">
         <v>-0.22800000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ17" s="5">
+        <v>42821.711805555555</v>
+      </c>
+      <c r="DS17" s="5">
+        <v>42821.780439814815</v>
+      </c>
+      <c r="DU17">
+        <v>0.33337772899996498</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW17" s="1">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -9587,8 +12144,23 @@
       <c r="DL18" s="1">
         <v>-0.77900000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ18" s="5">
+        <v>42822.850706018522</v>
+      </c>
+      <c r="DS18" s="5">
+        <v>42822.888090277775</v>
+      </c>
+      <c r="DU18">
+        <v>1.01267849998456E-2</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW18" s="1">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9807,8 +12379,23 @@
       <c r="DL19">
         <v>0.42249999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ19" s="5">
+        <v>42824.770856481482</v>
+      </c>
+      <c r="DS19" s="5">
+        <v>42825.600717592592</v>
+      </c>
+      <c r="DU19">
+        <v>0.21156235200005399</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW19">
+        <v>1.5669999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -10027,8 +12614,23 @@
       <c r="DL20" s="1">
         <v>-0.26250000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ20" s="5">
+        <v>42828.368055555555</v>
+      </c>
+      <c r="DS20" s="5">
+        <v>42828.680671296293</v>
+      </c>
+      <c r="DU20">
+        <v>-1.6409026999981601E-2</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW20">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10247,8 +12849,23 @@
       <c r="DL21">
         <v>2.0225</v>
       </c>
-    </row>
-    <row r="22" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ21" s="5">
+        <v>42828.684027777781</v>
+      </c>
+      <c r="DS21" s="5">
+        <v>42829.76053240741</v>
+      </c>
+      <c r="DU21">
+        <v>-0.20651108499992901</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW21">
+        <v>2.0585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -10467,8 +13084,23 @@
       <c r="DL22" s="1">
         <v>-0.73250000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ22" s="5">
+        <v>42830.520949074074</v>
+      </c>
+      <c r="DS22" s="5">
+        <v>42830.72928240741</v>
+      </c>
+      <c r="DU22">
+        <v>-2.21730409999326E-2</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW22" s="1">
+        <v>-0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10687,8 +13319,23 @@
       <c r="DL23">
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ23" s="5">
+        <v>42830.73265046296</v>
+      </c>
+      <c r="DS23" s="5">
+        <v>42831.163206018522</v>
+      </c>
+      <c r="DU23">
+        <v>0.18861488099986701</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW23">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -10911,8 +13558,23 @@
       <c r="DL24" s="1">
         <v>-1.35E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ24" s="5">
+        <v>42832.427094907405</v>
+      </c>
+      <c r="DS24" s="5">
+        <v>42832.430451388886</v>
+      </c>
+      <c r="DU24">
+        <v>-0.324379316000034</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW24" s="1">
+        <v>-0.20050000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -11131,8 +13793,23 @@
       <c r="DL25" s="1">
         <v>-0.99399999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ25" s="5">
+        <v>42832.725717592592</v>
+      </c>
+      <c r="DS25" s="5">
+        <v>42833.083356481482</v>
+      </c>
+      <c r="DU25">
+        <v>-4.7829837000141602E-2</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW25">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -11351,8 +14028,23 @@
       <c r="DL26">
         <v>0.17799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ26" s="5">
+        <v>42836.052083333336</v>
+      </c>
+      <c r="DS26" s="5">
+        <v>42836.491782407407</v>
+      </c>
+      <c r="DU26">
+        <v>0.15272668599998901</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW26" s="1">
+        <v>-0.2155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -11575,8 +14267,23 @@
       <c r="DL27">
         <v>0.627</v>
       </c>
-    </row>
-    <row r="28" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ27" s="5">
+        <v>42837.684039351851</v>
+      </c>
+      <c r="DS27" s="5">
+        <v>42837.72929398148</v>
+      </c>
+      <c r="DU27">
+        <v>0.24652433000002</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW27" s="1">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -11798,8 +14505,23 @@
       <c r="DL28">
         <v>0.83850000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ28" s="5">
+        <v>42838.631967592592</v>
+      </c>
+      <c r="DS28" s="5">
+        <v>42840.208356481482</v>
+      </c>
+      <c r="DU28">
+        <v>0.115976115000007</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW28">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -12018,8 +14740,23 @@
       <c r="DL29" s="1">
         <v>-0.70250000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ29" s="5">
+        <v>42843.180671296293</v>
+      </c>
+      <c r="DS29" s="5">
+        <v>42843.753472222219</v>
+      </c>
+      <c r="DU29">
+        <v>0.30311872600015</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW29" s="1">
+        <v>-0.24149999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -12238,8 +14975,23 @@
       <c r="DL30" s="1">
         <v>-0.33900000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ30" s="5">
+        <v>42846.725706018522</v>
+      </c>
+      <c r="DS30" s="5">
+        <v>42846.72929398148</v>
+      </c>
+      <c r="DU30">
+        <v>0.21584228600005101</v>
+      </c>
+      <c r="DV30" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW30" s="1">
+        <v>-0.20549999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -12458,8 +15210,23 @@
       <c r="DL31" s="1">
         <v>-0.49249999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ31" s="5">
+        <v>42849.25</v>
+      </c>
+      <c r="DS31" s="5">
+        <v>42849.25104166667</v>
+      </c>
+      <c r="DU31">
+        <v>0.14104806700005501</v>
+      </c>
+      <c r="DV31" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW31" s="1">
+        <v>-0.215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -12681,8 +15448,23 @@
       <c r="DL32">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="33" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ32" s="5">
+        <v>42852.444456018522</v>
+      </c>
+      <c r="DS32" s="5">
+        <v>42853.006956018522</v>
+      </c>
+      <c r="DU32">
+        <v>0.23660168800016601</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW32">
+        <v>0.28549999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -12901,8 +15683,23 @@
       <c r="DL33">
         <v>0.65600000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ33" s="5">
+        <v>42856.25</v>
+      </c>
+      <c r="DS33" s="5">
+        <v>42856.96875</v>
+      </c>
+      <c r="DU33">
+        <v>0.11352157699988601</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW33">
+        <v>0.13950000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -13121,8 +15918,23 @@
       <c r="DL34">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ34" s="5">
+        <v>42858.635416666664</v>
+      </c>
+      <c r="DS34" s="5">
+        <v>42859.65625</v>
+      </c>
+      <c r="DU34">
+        <v>-0.205137151999952</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW34">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -13344,8 +16156,23 @@
       <c r="DL35">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="36" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ35" s="5">
+        <v>42860.527777777781</v>
+      </c>
+      <c r="DS35" s="5">
+        <v>42860.535879629628</v>
+      </c>
+      <c r="DU35">
+        <v>0.239816938999873</v>
+      </c>
+      <c r="DV35" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW35" s="1">
+        <v>-0.22950000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -13564,8 +16391,23 @@
       <c r="DL36">
         <v>0.45050000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ36" s="5">
+        <v>42864.079861111109</v>
+      </c>
+      <c r="DS36" s="5">
+        <v>42864.767361111109</v>
+      </c>
+      <c r="DU36">
+        <v>-0.36654010399987902</v>
+      </c>
+      <c r="DV36" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW36">
+        <v>0.78649999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -13784,8 +16626,23 @@
       <c r="DL37">
         <v>0.79749999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ37" s="5">
+        <v>42866.003472222219</v>
+      </c>
+      <c r="DS37" s="5">
+        <v>42866.747685185182</v>
+      </c>
+      <c r="DU37">
+        <v>-7.5141370000090302E-2</v>
+      </c>
+      <c r="DV37" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW37" s="1">
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -14004,8 +16861,23 @@
       <c r="DL38" s="1">
         <v>-0.83299999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ38" s="5">
+        <v>42870.541666666664</v>
+      </c>
+      <c r="DS38" s="5">
+        <v>42870.634027777778</v>
+      </c>
+      <c r="DU38">
+        <v>-0.118406671000059</v>
+      </c>
+      <c r="DV38" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW38" s="1">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -14227,8 +17099,23 @@
       <c r="DL39" s="1">
         <v>-0.96199999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ39" s="5">
+        <v>42871.479178240741</v>
+      </c>
+      <c r="DS39" s="5">
+        <v>42871.770960648151</v>
+      </c>
+      <c r="DU39">
+        <v>-8.7320411000190695E-2</v>
+      </c>
+      <c r="DV39" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW39" s="1">
+        <v>-0.2205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -14447,8 +17334,23 @@
       <c r="DL40" s="1">
         <v>-0.72499999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ40" s="5">
+        <v>42872.493078703701</v>
+      </c>
+      <c r="DS40" s="5">
+        <v>42872.563680555555</v>
+      </c>
+      <c r="DU40">
+        <v>-0.13018078000014299</v>
+      </c>
+      <c r="DV40" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW40" s="1">
+        <v>-0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -14667,8 +17569,23 @@
       <c r="DL41">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ41" s="5">
+        <v>42873.732673611114</v>
+      </c>
+      <c r="DS41" s="5">
+        <v>42873.747719907406</v>
+      </c>
+      <c r="DU41">
+        <v>-0.321851264000176</v>
+      </c>
+      <c r="DV41" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW41" s="1">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -14887,8 +17804,23 @@
       <c r="DL42" s="1">
         <v>-1.1675</v>
       </c>
-    </row>
-    <row r="43" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ42" s="5">
+        <v>42874.107685185183</v>
+      </c>
+      <c r="DS42" s="5">
+        <v>42874.107916666668</v>
+      </c>
+      <c r="DU42">
+        <v>-0.18497973700010001</v>
+      </c>
+      <c r="DV42" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW42" s="1">
+        <v>-0.34350000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -15107,8 +18039,23 @@
       <c r="DL43" s="1">
         <v>-0.628</v>
       </c>
-    </row>
-    <row r="44" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ43" s="5">
+        <v>42877.25</v>
+      </c>
+      <c r="DS43" s="5">
+        <v>42877.250578703701</v>
+      </c>
+      <c r="DU43">
+        <v>-5.0850098999995499E-2</v>
+      </c>
+      <c r="DV43" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW43" s="1">
+        <v>-0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -15331,8 +18278,23 @@
       <c r="DL44">
         <v>0.84050000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ44" s="5">
+        <v>42878.059039351851</v>
+      </c>
+      <c r="DS44" s="5">
+        <v>42878.677094907405</v>
+      </c>
+      <c r="DU44">
+        <v>0.13969382299997099</v>
+      </c>
+      <c r="DV44" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW44">
+        <v>0.23350000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -15555,8 +18517,23 @@
       <c r="DL45" s="1">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ45" s="5">
+        <v>42878.916678240741</v>
+      </c>
+      <c r="DS45" s="5">
+        <v>42879.005682870367</v>
+      </c>
+      <c r="DU45">
+        <v>0.102307192000004</v>
+      </c>
+      <c r="DV45" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW45" s="1">
+        <v>-0.39150000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -15775,8 +18752,23 @@
       <c r="DL46" s="1">
         <v>-0.46500000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ46" s="5">
+        <v>42881.458356481482</v>
+      </c>
+      <c r="DS46" s="5">
+        <v>42881.923634259256</v>
+      </c>
+      <c r="DU46">
+        <v>-0.145591097999971</v>
+      </c>
+      <c r="DV46" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW46">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -15995,8 +18987,23 @@
       <c r="DL47">
         <v>1.6500000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ47" s="5">
+        <v>42884.937615740739</v>
+      </c>
+      <c r="DS47" s="5">
+        <v>42885.670254629629</v>
+      </c>
+      <c r="DU47">
+        <v>0.138327455000026</v>
+      </c>
+      <c r="DV47" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW47">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -16215,8 +19222,23 @@
       <c r="DL48">
         <v>1.4590000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ48" s="5">
+        <v>42886.427083333336</v>
+      </c>
+      <c r="DS48" s="5">
+        <v>42886.500462962962</v>
+      </c>
+      <c r="DU48">
+        <v>0.15656068899994999</v>
+      </c>
+      <c r="DV48" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW48" s="1">
+        <v>-0.2225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -16435,8 +19457,23 @@
       <c r="DL49">
         <v>0.48099999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ49" s="5">
+        <v>42892.100810185184</v>
+      </c>
+      <c r="DS49" s="5">
+        <v>42892.951388888891</v>
+      </c>
+      <c r="DU49">
+        <v>4.58628299997829E-3</v>
+      </c>
+      <c r="DV49" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW49">
+        <v>1.4584999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -16658,8 +19695,23 @@
       <c r="DL50">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="51" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ50" s="5">
+        <v>42895.253472222219</v>
+      </c>
+      <c r="DS50" s="5">
+        <v>42895.253819444442</v>
+      </c>
+      <c r="DU50">
+        <v>9.3864408000066193E-2</v>
+      </c>
+      <c r="DV50" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW50" s="1">
+        <v>-0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -16878,8 +19930,23 @@
       <c r="DL51">
         <v>0.26800000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ51" s="5">
+        <v>42895.256956018522</v>
+      </c>
+      <c r="DS51" s="5">
+        <v>42895.257303240738</v>
+      </c>
+      <c r="DU51">
+        <v>0.30898841899982699</v>
+      </c>
+      <c r="DV51" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW51" s="1">
+        <v>-0.218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -17102,8 +20169,23 @@
       <c r="DL52">
         <v>1.4584999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ52" s="5">
+        <v>42895.260439814818</v>
+      </c>
+      <c r="DS52" s="5">
+        <v>42895.26090277778</v>
+      </c>
+      <c r="DU52">
+        <v>0.13999608200015901</v>
+      </c>
+      <c r="DV52" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW52" s="1">
+        <v>-0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -17322,8 +20404,23 @@
       <c r="DL53" s="1">
         <v>-0.59250000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ53" s="5">
+        <v>42895.309062499997</v>
+      </c>
+      <c r="DS53" s="5">
+        <v>42895.315312500003</v>
+      </c>
+      <c r="DU53">
+        <v>-0.22035126500001601</v>
+      </c>
+      <c r="DV53" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW53" s="1">
+        <v>-0.2235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -17545,8 +20642,23 @@
       <c r="DL54" s="1">
         <v>-0.503</v>
       </c>
-    </row>
-    <row r="55" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ54" s="5">
+        <v>42901.833449074074</v>
+      </c>
+      <c r="DS54" s="5">
+        <v>42902.618055555555</v>
+      </c>
+      <c r="DU54">
+        <v>-6.6713740000128696E-2</v>
+      </c>
+      <c r="DV54" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW54">
+        <v>1.8634999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -17765,8 +20877,23 @@
       <c r="DL55" s="1">
         <v>-1.2769999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ55" s="5">
+        <v>42906.069444444445</v>
+      </c>
+      <c r="DS55" s="5">
+        <v>42906.255208333336</v>
+      </c>
+      <c r="DU55">
+        <v>-0.38528149899994102</v>
+      </c>
+      <c r="DV55" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW55" s="1">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -17985,8 +21112,23 @@
       <c r="DL56" s="1">
         <v>-0.75249999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ56" s="5">
+        <v>42906.690983796296</v>
+      </c>
+      <c r="DS56" s="5">
+        <v>42906.772928240738</v>
+      </c>
+      <c r="DU56">
+        <v>0.17068459799987601</v>
+      </c>
+      <c r="DV56" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW56" s="1">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -18205,8 +21347,23 @@
       <c r="DL57">
         <v>1.8634999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ57" s="5">
+        <v>42907.836828703701</v>
+      </c>
+      <c r="DS57" s="5">
+        <v>42908.003495370373</v>
+      </c>
+      <c r="DU57">
+        <v>0.24070300000009501</v>
+      </c>
+      <c r="DV57" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW57">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -18425,8 +21582,23 @@
       <c r="DL58" s="1">
         <v>-0.2555</v>
       </c>
-    </row>
-    <row r="59" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ58" s="5">
+        <v>42913.711805555555</v>
+      </c>
+      <c r="DS58" s="5">
+        <v>42914.347222222219</v>
+      </c>
+      <c r="DU58">
+        <v>-0.13086621999995601</v>
+      </c>
+      <c r="DV58" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW58">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -18644,8 +21816,23 @@
       <c r="DL59" s="1">
         <v>-0.75549999999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ59" s="5">
+        <v>42914.941087962965</v>
+      </c>
+      <c r="DS59" s="5">
+        <v>42915.020833333336</v>
+      </c>
+      <c r="DU59">
+        <v>0.29073960699999402</v>
+      </c>
+      <c r="DV59" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW59">
+        <v>0.29749999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -18867,8 +22054,23 @@
       <c r="DL60" s="1">
         <v>-0.94899999999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ60" s="5">
+        <v>42916.649305555555</v>
+      </c>
+      <c r="DS60" s="5">
+        <v>42916.66678240741</v>
+      </c>
+      <c r="DU60">
+        <v>0.266547048000076</v>
+      </c>
+      <c r="DV60" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW60" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -19086,8 +22288,23 @@
       <c r="DL61">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="62" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ61" s="5">
+        <v>42919.25</v>
+      </c>
+      <c r="DS61" s="5">
+        <v>42919.253125000003</v>
+      </c>
+      <c r="DU61">
+        <v>-0.13909712300002999</v>
+      </c>
+      <c r="DV61" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW61" s="1">
+        <v>-0.20649999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -19305,8 +22522,23 @@
       <c r="DL62">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ62" s="5">
+        <v>42921.697928240741</v>
+      </c>
+      <c r="DS62" s="5">
+        <v>42921.793414351851</v>
+      </c>
+      <c r="DU62">
+        <v>-0.15650627499981901</v>
+      </c>
+      <c r="DV62" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW62" s="1">
+        <v>-0.20050000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -19524,8 +22756,23 @@
       <c r="DL63">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="64" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ63" s="5">
+        <v>42922.947939814818</v>
+      </c>
+      <c r="DS63" s="5">
+        <v>42923.701412037037</v>
+      </c>
+      <c r="DU63">
+        <v>0.23277901700004899</v>
+      </c>
+      <c r="DV63" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW63">
+        <v>1.0365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -19743,8 +22990,23 @@
       <c r="DL64">
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ64" s="5">
+        <v>42923.906273148146</v>
+      </c>
+      <c r="DS64" s="5">
+        <v>42923.908819444441</v>
+      </c>
+      <c r="DU64">
+        <v>0.18268789800013499</v>
+      </c>
+      <c r="DV64" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW64" s="1">
+        <v>-0.223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -19965,8 +23227,23 @@
       <c r="DL65">
         <v>0.9425</v>
       </c>
-    </row>
-    <row r="66" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ65" s="5">
+        <v>42926.722222222219</v>
+      </c>
+      <c r="DS65" s="5">
+        <v>42926.751851851855</v>
+      </c>
+      <c r="DU65">
+        <v>-0.39062415599997102</v>
+      </c>
+      <c r="DV65" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW65" s="1">
+        <v>-0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -20184,8 +23461,23 @@
       <c r="DL66">
         <v>0.29749999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ66" s="5">
+        <v>42927.958344907405</v>
+      </c>
+      <c r="DS66" s="5">
+        <v>42928.00880787037</v>
+      </c>
+      <c r="DU66">
+        <v>-6.3883208999864105E-2</v>
+      </c>
+      <c r="DV66" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW66" s="1">
+        <v>-0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -20403,8 +23695,23 @@
       <c r="DL67">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ67" s="5">
+        <v>42930.899328703701</v>
+      </c>
+      <c r="DS67" s="5">
+        <v>42931.208356481482</v>
+      </c>
+      <c r="DU67">
+        <v>3.1672989999893798E-2</v>
+      </c>
+      <c r="DV67" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW67">
+        <v>1.2949999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -20626,8 +23933,23 @@
       <c r="DL68" s="1">
         <v>-1.2795000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ68" s="5">
+        <v>42934.100694444445</v>
+      </c>
+      <c r="DS68" s="5">
+        <v>42934.188425925924</v>
+      </c>
+      <c r="DU68">
+        <v>-1.74829360000332E-2</v>
+      </c>
+      <c r="DV68" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW68" s="1">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -20848,8 +24170,23 @@
       <c r="DL69" s="1">
         <v>-5.9499999999999997E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ69" s="5">
+        <v>42934.708344907405</v>
+      </c>
+      <c r="DS69" s="5">
+        <v>42934.954872685186</v>
+      </c>
+      <c r="DU69">
+        <v>0.170392112000119</v>
+      </c>
+      <c r="DV69" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW69">
+        <v>1.3240000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -21067,8 +24404,23 @@
       <c r="DL70" s="1">
         <v>-0.1205</v>
       </c>
-    </row>
-    <row r="71" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ70" s="5">
+        <v>42936.250011574077</v>
+      </c>
+      <c r="DS70" s="5">
+        <v>42936.507303240738</v>
+      </c>
+      <c r="DU70">
+        <v>6.7587549000102304E-2</v>
+      </c>
+      <c r="DV70" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW70" s="1">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -21293,8 +24645,23 @@
       <c r="DL71" s="1">
         <v>-0.29799999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ71" s="5">
+        <v>42938.006967592592</v>
+      </c>
+      <c r="DS71" s="5">
+        <v>42938.115416666667</v>
+      </c>
+      <c r="DU71">
+        <v>0.19568740199993001</v>
+      </c>
+      <c r="DV71" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW71" s="1">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -21515,8 +24882,23 @@
       <c r="DL72" s="1">
         <v>-0.27050000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ72" s="5">
+        <v>42941.871527777781</v>
+      </c>
+      <c r="DS72" s="5">
+        <v>42943.145949074074</v>
+      </c>
+      <c r="DU72">
+        <v>-0.16355920200007501</v>
+      </c>
+      <c r="DV72" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW72">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -21734,8 +25116,23 @@
       <c r="DL73">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="74" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ73" s="5">
+        <v>42944.024305555555</v>
+      </c>
+      <c r="DS73" s="5">
+        <v>42944.070254629631</v>
+      </c>
+      <c r="DU73">
+        <v>-0.244227976999985</v>
+      </c>
+      <c r="DV73" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW73" s="1">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -21953,8 +25350,23 @@
       <c r="DL74" s="1">
         <v>-0.35649999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ74" s="5">
+        <v>42948</v>
+      </c>
+      <c r="DS74" s="5">
+        <v>42948.735532407409</v>
+      </c>
+      <c r="DU74">
+        <v>0.213183705999965</v>
+      </c>
+      <c r="DV74" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW74" s="1">
+        <v>-0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -22175,8 +25587,23 @@
       <c r="DL75">
         <v>0.99450000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ75" s="5">
+        <v>42949.006956018522</v>
+      </c>
+      <c r="DS75" s="5">
+        <v>42949.875011574077</v>
+      </c>
+      <c r="DU75">
+        <v>0.29406433499999202</v>
+      </c>
+      <c r="DV75" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW75">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -22401,8 +25828,23 @@
       <c r="DL76">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ76" s="5">
+        <v>42950.444456018522</v>
+      </c>
+      <c r="DS76" s="5">
+        <v>42950.833460648151</v>
+      </c>
+      <c r="DU76">
+        <v>-0.20616926999992799</v>
+      </c>
+      <c r="DV76" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW76" s="1">
+        <v>-0.23549999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -22620,8 +26062,23 @@
       <c r="DL77">
         <v>0.72050000000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ77" s="5">
+        <v>42950.836828703701</v>
+      </c>
+      <c r="DS77" s="5">
+        <v>42951.493078703701</v>
+      </c>
+      <c r="DU77">
+        <v>-5.9722246999907497E-2</v>
+      </c>
+      <c r="DV77" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW77">
+        <v>0.85650000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -22839,8 +26296,23 @@
       <c r="DL78">
         <v>0.75749999999999995</v>
       </c>
-    </row>
-    <row r="79" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ78" s="5">
+        <v>42955.861111111109</v>
+      </c>
+      <c r="DS78" s="5">
+        <v>42956.489583333336</v>
+      </c>
+      <c r="DU78">
+        <v>0.55672313900008497</v>
+      </c>
+      <c r="DV78" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW78">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -23058,8 +26530,23 @@
       <c r="DL79" s="1">
         <v>-0.82299999999999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ79" s="5">
+        <v>42958.052083333336</v>
+      </c>
+      <c r="DS79" s="5">
+        <v>42959.085185185184</v>
+      </c>
+      <c r="DU79">
+        <v>0.31845210900011101</v>
+      </c>
+      <c r="DV79" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW79" s="1">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -23277,8 +26764,23 @@
       <c r="DL80" s="1">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="81" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ80" s="5">
+        <v>42961.548611111109</v>
+      </c>
+      <c r="DS80" s="5">
+        <v>42961.589120370372</v>
+      </c>
+      <c r="DU80">
+        <v>-0.141797668000016</v>
+      </c>
+      <c r="DV80" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW80" s="1">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -23496,8 +26998,23 @@
       <c r="DL81">
         <v>0.71299999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ81" s="5">
+        <v>42962.784733796296</v>
+      </c>
+      <c r="DS81" s="5">
+        <v>42962.805219907408</v>
+      </c>
+      <c r="DU81">
+        <v>0.15429632899996901</v>
+      </c>
+      <c r="DV81" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW81" s="1">
+        <v>-0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -23715,8 +27232,23 @@
       <c r="DL82" s="1">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="83" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ82" s="5">
+        <v>42965.197939814818</v>
+      </c>
+      <c r="DS82" s="5">
+        <v>42966.020856481482</v>
+      </c>
+      <c r="DU82">
+        <v>7.8489358999892303E-2</v>
+      </c>
+      <c r="DV82" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW82">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -23937,8 +27469,23 @@
       <c r="DL83">
         <v>0.85650000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ83" s="5">
+        <v>42968.628587962965</v>
+      </c>
+      <c r="DS83" s="5">
+        <v>42969.378587962965</v>
+      </c>
+      <c r="DU83">
+        <v>-2.3233284000048999E-2</v>
+      </c>
+      <c r="DV83" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW83" s="1">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -24160,8 +27707,23 @@
       <c r="DL84">
         <v>0.93200000000000005</v>
       </c>
-    </row>
-    <row r="85" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ84" s="5">
+        <v>42969.711817129632</v>
+      </c>
+      <c r="DS84" s="5">
+        <v>42969.774201388886</v>
+      </c>
+      <c r="DU84">
+        <v>-0.111356896000138</v>
+      </c>
+      <c r="DV84" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW84" s="1">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -24379,8 +27941,23 @@
       <c r="DL85">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ85" s="5">
+        <v>42971.944467592592</v>
+      </c>
+      <c r="DS85" s="5">
+        <v>42972.206157407411</v>
+      </c>
+      <c r="DU85">
+        <v>-0.20007004000008899</v>
+      </c>
+      <c r="DV85" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW85" s="1">
+        <v>-0.20050000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -24598,8 +28175,23 @@
       <c r="DL86">
         <v>1.35E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="DQ86" s="5">
+        <v>42975.541666666664</v>
+      </c>
+      <c r="DS86" s="5">
+        <v>42976.267361111109</v>
+      </c>
+      <c r="DU86">
+        <v>-0.31791976599997102</v>
+      </c>
+      <c r="DV86" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW86">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -24820,8 +28412,23 @@
       <c r="DL87">
         <v>0.78400000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ87" s="5">
+        <v>42976.781365740739</v>
+      </c>
+      <c r="DS87" s="5">
+        <v>42976.802083333336</v>
+      </c>
+      <c r="DU87">
+        <v>-0.24118576500005701</v>
+      </c>
+      <c r="DV87" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW87" s="1">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -25039,8 +28646,23 @@
       <c r="DL88" s="1">
         <v>-0.247</v>
       </c>
-    </row>
-    <row r="89" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ88" s="5">
+        <v>42978.836817129632</v>
+      </c>
+      <c r="DS88" s="5">
+        <v>42978.867604166669</v>
+      </c>
+      <c r="DU88">
+        <v>-0.30274821600006002</v>
+      </c>
+      <c r="DV88" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW88" s="1">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -25262,8 +28884,23 @@
       <c r="DL89" s="1">
         <v>-0.83050000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ89" s="5">
+        <v>42979.725717592592</v>
+      </c>
+      <c r="DS89" s="5">
+        <v>42979.729537037034</v>
+      </c>
+      <c r="DU89">
+        <v>-0.19368107699998699</v>
+      </c>
+      <c r="DV89" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW89" s="1">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -25481,8 +29118,23 @@
       <c r="DL90" s="1">
         <v>-0.46150000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ90" s="5">
+        <v>42982.25</v>
+      </c>
+      <c r="DS90" s="5">
+        <v>42982.28460648148</v>
+      </c>
+      <c r="DU90">
+        <v>0.110490428000006</v>
+      </c>
+      <c r="DV90" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW90" s="1">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -25700,8 +29352,23 @@
       <c r="DL91">
         <v>0.20649999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ91" s="5">
+        <v>42983.836817129632</v>
+      </c>
+      <c r="DS91" s="5">
+        <v>42984.819224537037</v>
+      </c>
+      <c r="DU91">
+        <v>-0.12568496999996301</v>
+      </c>
+      <c r="DV91" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW91" s="1">
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -25919,8 +29586,23 @@
       <c r="DL92">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="93" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ92" s="5">
+        <v>42985.090300925927</v>
+      </c>
+      <c r="DS92" s="5">
+        <v>42985.251064814816</v>
+      </c>
+      <c r="DU92">
+        <v>0.27295520900001402</v>
+      </c>
+      <c r="DV92" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW92" s="1">
+        <v>-0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -26138,8 +29820,23 @@
       <c r="DL93" s="1">
         <v>-0.61199999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ93" s="5">
+        <v>42985.961840277778</v>
+      </c>
+      <c r="DS93" s="5">
+        <v>42986.012418981481</v>
+      </c>
+      <c r="DU93">
+        <v>-0.30440734199996899</v>
+      </c>
+      <c r="DV93" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW93" s="1">
+        <v>-0.24049999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -26357,8 +30054,23 @@
       <c r="DL94" s="1">
         <v>-0.71250000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ94" s="5">
+        <v>42986.895879629628</v>
+      </c>
+      <c r="DS94" s="5">
+        <v>42986.89912037037</v>
+      </c>
+      <c r="DU94">
+        <v>-0.32253779899997298</v>
+      </c>
+      <c r="DV94" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW94" s="1">
+        <v>-0.2195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -26576,8 +30288,23 @@
       <c r="DL95">
         <v>0.23549999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ95" s="5">
+        <v>42987.18408564815</v>
+      </c>
+      <c r="DS95" s="5">
+        <v>42987.208391203705</v>
+      </c>
+      <c r="DU95">
+        <v>-0.171921799999982</v>
+      </c>
+      <c r="DV95" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW95" s="1">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -26795,8 +30522,23 @@
       <c r="DL96" s="1">
         <v>-0.47249999999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ96" s="5">
+        <v>42989.885416666664</v>
+      </c>
+      <c r="DS96" s="5">
+        <v>42990.979166666664</v>
+      </c>
+      <c r="DU96">
+        <v>0.18656639300005901</v>
+      </c>
+      <c r="DV96" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW96">
+        <v>1.899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -27014,8 +30756,23 @@
       <c r="DL97">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="98" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ97" s="5">
+        <v>42992.027777777781</v>
+      </c>
+      <c r="DS97" s="5">
+        <v>42992.085300925923</v>
+      </c>
+      <c r="DU97">
+        <v>0.15211411199986699</v>
+      </c>
+      <c r="DV97" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW97" s="1">
+        <v>-0.28549999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -27233,8 +30990,23 @@
       <c r="DL98" s="1">
         <v>-0.81200000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ98" s="5">
+        <v>42992.836817129632</v>
+      </c>
+      <c r="DS98" s="5">
+        <v>42992.913206018522</v>
+      </c>
+      <c r="DU98">
+        <v>0.21344771800002699</v>
+      </c>
+      <c r="DV98" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW98">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -27452,8 +31224,23 @@
       <c r="DL99" s="1">
         <v>-0.5615</v>
       </c>
-    </row>
-    <row r="100" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ99" s="5">
+        <v>42993.746539351851</v>
+      </c>
+      <c r="DS99" s="5">
+        <v>42993.82640046296</v>
+      </c>
+      <c r="DU99">
+        <v>-0.15420143899981001</v>
+      </c>
+      <c r="DV99" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW99">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -27672,8 +31459,23 @@
       <c r="DL100">
         <v>3.0525000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ100" s="5">
+        <v>42997.003472222219</v>
+      </c>
+      <c r="DS100" s="5">
+        <v>42997.010648148149</v>
+      </c>
+      <c r="DU100">
+        <v>-0.119067161999941</v>
+      </c>
+      <c r="DV100" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW100" s="1">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>193</v>
       </c>
@@ -27891,8 +31693,23 @@
       <c r="DL101" s="1">
         <v>-0.90400000000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ101" s="5">
+        <v>42998.73265046296</v>
+      </c>
+      <c r="DS101" s="5">
+        <v>42998.734039351853</v>
+      </c>
+      <c r="DU101">
+        <v>-8.9235639999955693E-2</v>
+      </c>
+      <c r="DV101" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW101" s="1">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -28110,8 +31927,23 @@
       <c r="DL102">
         <v>0.78700000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ102" s="5">
+        <v>43004.027777777781</v>
+      </c>
+      <c r="DS102" s="5">
+        <v>43004.100694444445</v>
+      </c>
+      <c r="DU102">
+        <v>0.124336507999963</v>
+      </c>
+      <c r="DV102" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW102">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -28329,8 +32161,23 @@
       <c r="DL103">
         <v>1.627</v>
       </c>
-    </row>
-    <row r="104" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ103" s="5">
+        <v>43005.663194444445</v>
+      </c>
+      <c r="DS103" s="5">
+        <v>43005.97928240741</v>
+      </c>
+      <c r="DU103">
+        <v>-0.214021279999868</v>
+      </c>
+      <c r="DV103" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW103">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -28548,8 +32395,23 @@
       <c r="DL104" s="1">
         <v>-0.91649999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ104" s="5">
+        <v>43006.430555555555</v>
+      </c>
+      <c r="DS104" s="5">
+        <v>43006.716203703705</v>
+      </c>
+      <c r="DU104">
+        <v>0.190768625999896</v>
+      </c>
+      <c r="DV104" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW104" s="1">
+        <v>-0.21149999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -28767,8 +32629,23 @@
       <c r="DL105">
         <v>0.20549999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ105" s="5">
+        <v>43007.67015046296</v>
+      </c>
+      <c r="DS105" s="5">
+        <v>43007.996539351851</v>
+      </c>
+      <c r="DU105">
+        <v>-9.0155728999910506E-2</v>
+      </c>
+      <c r="DV105" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW105">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -28986,8 +32863,23 @@
       <c r="DL106">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ106" s="5">
+        <v>43008.125011574077</v>
+      </c>
+      <c r="DS106" s="5">
+        <v>43008.201979166668</v>
+      </c>
+      <c r="DU106">
+        <v>2.5621519999787798E-3</v>
+      </c>
+      <c r="DV106" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW106" s="1">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -29209,8 +33101,23 @@
       <c r="DL107" s="1">
         <v>-0.29649999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ107" s="5">
+        <v>43010.295138888891</v>
+      </c>
+      <c r="DS107" s="5">
+        <v>43010.306481481479</v>
+      </c>
+      <c r="DU107">
+        <v>-0.20444124500007199</v>
+      </c>
+      <c r="DV107" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW107" s="1">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -29432,8 +33339,23 @@
       <c r="DL108">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ108" s="5">
+        <v>43010.892372685186</v>
+      </c>
+      <c r="DS108" s="5">
+        <v>43010.963437500002</v>
+      </c>
+      <c r="DU108">
+        <v>-0.20641478100000801</v>
+      </c>
+      <c r="DV108" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW108" s="1">
+        <v>-0.2235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -29651,8 +33573,23 @@
       <c r="DL109" s="1">
         <v>-0.1265</v>
       </c>
-    </row>
-    <row r="110" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ109" s="5">
+        <v>43012.961828703701</v>
+      </c>
+      <c r="DS109" s="5">
+        <v>43013.947939814818</v>
+      </c>
+      <c r="DU109">
+        <v>-8.5275743999880499E-2</v>
+      </c>
+      <c r="DV109" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW109">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="110" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -29870,8 +33807,23 @@
       <c r="DL110">
         <v>0.79800000000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ110" s="5">
+        <v>43015.013912037037</v>
+      </c>
+      <c r="DS110" s="5">
+        <v>43015.027800925927</v>
+      </c>
+      <c r="DU110">
+        <v>3.2048956999928102E-2</v>
+      </c>
+      <c r="DV110" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW110" s="1">
+        <v>-0.20250000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -30089,8 +34041,23 @@
       <c r="DL111">
         <v>1.492</v>
       </c>
-    </row>
-    <row r="112" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ111" s="5">
+        <v>43017.583449074074</v>
+      </c>
+      <c r="DS111" s="5">
+        <v>43017.626620370371</v>
+      </c>
+      <c r="DU111">
+        <v>-0.26731282300007903</v>
+      </c>
+      <c r="DV111" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW111" s="1">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -30308,8 +34275,23 @@
       <c r="DL112">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="113" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ112" s="5">
+        <v>43020.750011574077</v>
+      </c>
+      <c r="DS112" s="5">
+        <v>43020.81690972222</v>
+      </c>
+      <c r="DU112">
+        <v>0.21244727299999799</v>
+      </c>
+      <c r="DV112" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW112" s="1">
+        <v>-0.2465</v>
+      </c>
+    </row>
+    <row r="113" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -30527,8 +34509,23 @@
       <c r="DL113" s="1">
         <v>-1.5985</v>
       </c>
-    </row>
-    <row r="114" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ113" s="5">
+        <v>43021.052106481482</v>
+      </c>
+      <c r="DS113" s="5">
+        <v>43021.652800925927</v>
+      </c>
+      <c r="DU113">
+        <v>0.12214558600001001</v>
+      </c>
+      <c r="DV113" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW113">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -30746,8 +34743,23 @@
       <c r="DL114" s="1">
         <v>-2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ114" s="5">
+        <v>43025.236111111109</v>
+      </c>
+      <c r="DS114" s="5">
+        <v>43025.709143518521</v>
+      </c>
+      <c r="DU114">
+        <v>0.133722918000032</v>
+      </c>
+      <c r="DV114" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW114" s="1">
+        <v>-0.20150000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -30969,8 +34981,23 @@
       <c r="DL115">
         <v>0.34949999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ115" s="5">
+        <v>43032.1875</v>
+      </c>
+      <c r="DS115" s="5">
+        <v>43032.196875000001</v>
+      </c>
+      <c r="DU115">
+        <v>0.23523139900002701</v>
+      </c>
+      <c r="DV115" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW115" s="1">
+        <v>-0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -31188,8 +35215,23 @@
       <c r="DL116" s="1">
         <v>-0.83150000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ116" s="5">
+        <v>43033.73265046296</v>
+      </c>
+      <c r="DS116" s="5">
+        <v>43033.930567129632</v>
+      </c>
+      <c r="DU116">
+        <v>-0.180963294000064</v>
+      </c>
+      <c r="DV116" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW116">
+        <v>1.0654999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -31407,8 +35449,23 @@
       <c r="DL117" s="1">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="118" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ117" s="5">
+        <v>43035.729178240741</v>
+      </c>
+      <c r="DS117" s="5">
+        <v>43035.772581018522</v>
+      </c>
+      <c r="DU117">
+        <v>0.32117559400019202</v>
+      </c>
+      <c r="DV117" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW117" s="1">
+        <v>-0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -31626,8 +35683,23 @@
       <c r="DL118">
         <v>1.0654999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ118" s="5">
+        <v>43036.131967592592</v>
+      </c>
+      <c r="DS118" s="5">
+        <v>43036.208356481482</v>
+      </c>
+      <c r="DU118">
+        <v>0.163938715000293</v>
+      </c>
+      <c r="DV118" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW118">
+        <v>0.28949999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -31849,8 +35921,23 @@
       <c r="DL119">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ119" s="5">
+        <v>43038.708449074074</v>
+      </c>
+      <c r="DS119" s="5">
+        <v>43038.714004629626</v>
+      </c>
+      <c r="DU119">
+        <v>-0.30308896500010002</v>
+      </c>
+      <c r="DV119" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW119" s="1">
+        <v>-0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -32072,8 +36159,23 @@
       <c r="DL120" s="1">
         <v>-0.90100000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ120" s="5">
+        <v>43040.034733796296</v>
+      </c>
+      <c r="DS120" s="5">
+        <v>43040.975706018522</v>
+      </c>
+      <c r="DU120">
+        <v>-0.488643800000023</v>
+      </c>
+      <c r="DV120" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW120">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -32291,8 +36393,23 @@
       <c r="DL121">
         <v>1.319</v>
       </c>
-    </row>
-    <row r="122" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ121" s="5">
+        <v>43041.361122685186</v>
+      </c>
+      <c r="DS121" s="5">
+        <v>43041.754641203705</v>
+      </c>
+      <c r="DU121">
+        <v>-0.27864893400012902</v>
+      </c>
+      <c r="DV121" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW121" s="1">
+        <v>-0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -32514,8 +36631,23 @@
       <c r="DL122" s="1">
         <v>-1.5024999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ122" s="5">
+        <v>43041.878495370373</v>
+      </c>
+      <c r="DS122" s="5">
+        <v>43042.069467592592</v>
+      </c>
+      <c r="DU122">
+        <v>9.1153345999992696E-2</v>
+      </c>
+      <c r="DV122" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW122">
+        <v>0.75649999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -32733,8 +36865,23 @@
       <c r="DL123">
         <v>0.75649999999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ123" s="5">
+        <v>43046.951388888891</v>
+      </c>
+      <c r="DS123" s="5">
+        <v>43047.726157407407</v>
+      </c>
+      <c r="DU123">
+        <v>0.22205427099997899</v>
+      </c>
+      <c r="DV123" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW123" s="1">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -32952,8 +37099,23 @@
       <c r="DL124">
         <v>0.34050000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ124" s="5">
+        <v>43047.809039351851</v>
+      </c>
+      <c r="DS124" s="5">
+        <v>43048.121539351851</v>
+      </c>
+      <c r="DU124">
+        <v>-1.4905134000063601E-2</v>
+      </c>
+      <c r="DV124" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW124">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -33171,8 +37333,23 @@
       <c r="DL125">
         <v>0.66449999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ125" s="5">
+        <v>43049.677094907405</v>
+      </c>
+      <c r="DS125" s="5">
+        <v>43049.708692129629</v>
+      </c>
+      <c r="DU125">
+        <v>0.135099006999922</v>
+      </c>
+      <c r="DV125" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW125" s="1">
+        <v>-0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -33390,8 +37567,23 @@
       <c r="DL126" s="1">
         <v>-1.1485000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ126" s="5">
+        <v>43053.645949074074</v>
+      </c>
+      <c r="DS126" s="5">
+        <v>43053.714236111111</v>
+      </c>
+      <c r="DU126">
+        <v>0.28263127600006199</v>
+      </c>
+      <c r="DV126" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW126" s="1">
+        <v>-0.21049999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -33609,8 +37801,23 @@
       <c r="DL127" s="1">
         <v>-0.33150000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ127" s="5">
+        <v>43054.430567129632</v>
+      </c>
+      <c r="DS127" s="5">
+        <v>43054.439826388887</v>
+      </c>
+      <c r="DU127">
+        <v>0.129430412000099</v>
+      </c>
+      <c r="DV127" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW127" s="1">
+        <v>-0.20649999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -33828,8 +38035,23 @@
       <c r="DL128" s="1">
         <v>-1.0265</v>
       </c>
-    </row>
-    <row r="129" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ128" s="5">
+        <v>43055.041689814818</v>
+      </c>
+      <c r="DS128" s="5">
+        <v>43055.675717592596</v>
+      </c>
+      <c r="DU128">
+        <v>-1.3213870000068E-2</v>
+      </c>
+      <c r="DV128" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW128" s="1">
+        <v>-0.20050000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -34047,8 +38269,23 @@
       <c r="DL129" s="1">
         <v>-0.94750000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ129" s="5">
+        <v>43056.090312499997</v>
+      </c>
+      <c r="DS129" s="5">
+        <v>43056.833599537036</v>
+      </c>
+      <c r="DU129">
+        <v>-0.408738203000091</v>
+      </c>
+      <c r="DV129" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW129" s="1">
+        <v>-0.22450000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -34266,8 +38503,23 @@
       <c r="DL130" s="1">
         <v>-0.85750000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ130" s="5">
+        <v>43056.965324074074</v>
+      </c>
+      <c r="DS130" s="5">
+        <v>43057.010231481479</v>
+      </c>
+      <c r="DU130">
+        <v>0.49275670099986502</v>
+      </c>
+      <c r="DV130" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW130" s="1">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -34489,8 +38741,23 @@
       <c r="DL131">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ131" s="5">
+        <v>43063.71539351852</v>
+      </c>
+      <c r="DS131" s="5">
+        <v>43063.793865740743</v>
+      </c>
+      <c r="DU131">
+        <v>-9.9855014999915406E-2</v>
+      </c>
+      <c r="DV131" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW131" s="1">
+        <v>-0.2175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -34712,8 +38979,23 @@
       <c r="DL132">
         <v>0.35549999999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ132" s="5">
+        <v>43068.034722222219</v>
+      </c>
+      <c r="DS132" s="5">
+        <v>43068.114004629628</v>
+      </c>
+      <c r="DU132">
+        <v>8.1470773000066193E-2</v>
+      </c>
+      <c r="DV132" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW132" s="1">
+        <v>-0.26650000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -34931,8 +39213,23 @@
       <c r="DL133" s="1">
         <v>-2.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ133" s="5">
+        <v>43068.114594907405</v>
+      </c>
+      <c r="DS133" s="5">
+        <v>43068.142372685186</v>
+      </c>
+      <c r="DU133">
+        <v>-0.157605064999885</v>
+      </c>
+      <c r="DV133" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW133">
+        <v>0.42549999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -35150,8 +39447,23 @@
       <c r="DL134">
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="135" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ134" s="5">
+        <v>43073.847222222219</v>
+      </c>
+      <c r="DS134" s="5">
+        <v>43074.020833333336</v>
+      </c>
+      <c r="DU134">
+        <v>-0.31035990699996502</v>
+      </c>
+      <c r="DV134" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW134" s="1">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -35373,8 +39685,23 @@
       <c r="DL135">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ135" s="5">
+        <v>43074.038206018522</v>
+      </c>
+      <c r="DS135" s="5">
+        <v>43074.788206018522</v>
+      </c>
+      <c r="DU135">
+        <v>-0.1043914540001</v>
+      </c>
+      <c r="DV135" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW135">
+        <v>0.80049999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -35592,8 +39919,23 @@
       <c r="DL136" s="1">
         <v>-3.0009999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ136" s="5">
+        <v>43075.333344907405</v>
+      </c>
+      <c r="DS136" s="5">
+        <v>43075.840289351851</v>
+      </c>
+      <c r="DU136">
+        <v>3.9609185000003697E-2</v>
+      </c>
+      <c r="DV136" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW136">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -35808,8 +40150,23 @@
       <c r="DL137" s="1">
         <v>-2.35E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ137" s="5">
+        <v>43077.142372685186</v>
+      </c>
+      <c r="DS137" s="5">
+        <v>43077.659733796296</v>
+      </c>
+      <c r="DU137">
+        <v>-2.4714281000144799E-2</v>
+      </c>
+      <c r="DV137" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW137">
+        <v>0.86350000000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -36027,8 +40384,23 @@
       <c r="DL138">
         <v>0.80049999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ138" s="5">
+        <v>43082.791666666664</v>
+      </c>
+      <c r="DS138" s="5">
+        <v>43083.024305555555</v>
+      </c>
+      <c r="DU138">
+        <v>7.1069686000058294E-2</v>
+      </c>
+      <c r="DV138" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW138">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -36221,8 +40593,23 @@
       <c r="DL139">
         <v>0.95650000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ139" s="5">
+        <v>43084.024305555555</v>
+      </c>
+      <c r="DS139" s="5">
+        <v>43084.13113425926</v>
+      </c>
+      <c r="DU139">
+        <v>0.21660963300001901</v>
+      </c>
+      <c r="DV139" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW139" s="1">
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -36415,8 +40802,23 @@
       <c r="DL140">
         <v>0.86350000000000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ140" s="5">
+        <v>43084.885428240741</v>
+      </c>
+      <c r="DS140" s="5">
+        <v>43085.01390046296</v>
+      </c>
+      <c r="DU140">
+        <v>5.99325700000371E-2</v>
+      </c>
+      <c r="DV140" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW140" s="1">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -36609,8 +41011,23 @@
       <c r="DL141" s="1">
         <v>-0.57950000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ141" s="5">
+        <v>43088.427083333336</v>
+      </c>
+      <c r="DS141" s="5">
+        <v>43090.111111111109</v>
+      </c>
+      <c r="DU141">
+        <v>-0.15467069500001701</v>
+      </c>
+      <c r="DV141" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW141">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -36803,8 +41220,23 @@
       <c r="DL142" s="1">
         <v>-0.88300000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ142" s="5">
+        <v>43090.53125</v>
+      </c>
+      <c r="DS142" s="5">
+        <v>43092.208333333336</v>
+      </c>
+      <c r="DU142">
+        <v>-0.25289401200015599</v>
+      </c>
+      <c r="DV142" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW142">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -36997,8 +41429,23 @@
       <c r="DL143">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="144" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ143" s="5">
+        <v>43097.625</v>
+      </c>
+      <c r="DS143" s="5">
+        <v>43099.208333333336</v>
+      </c>
+      <c r="DU143">
+        <v>0.105554698999966</v>
+      </c>
+      <c r="DV143" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW143">
+        <v>0.70750000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -37191,8 +41638,23 @@
       <c r="DL144">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="145" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ144" s="5">
+        <v>43102.815972222219</v>
+      </c>
+      <c r="DS144" s="5">
+        <v>43103.84375</v>
+      </c>
+      <c r="DU144">
+        <v>-8.6564480001713896E-3</v>
+      </c>
+      <c r="DV144" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW144">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -37385,8 +41847,23 @@
       <c r="DL145" s="1">
         <v>-0.1055</v>
       </c>
-    </row>
-    <row r="146" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ145" s="5">
+        <v>43104.402777777781</v>
+      </c>
+      <c r="DS145" s="5">
+        <v>43104.748148148145</v>
+      </c>
+      <c r="DU145">
+        <v>-0.306114408999972</v>
+      </c>
+      <c r="DV145" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW145" s="1">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -37579,8 +42056,23 @@
       <c r="DL146">
         <v>4.5499999999999999E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ146" s="5">
+        <v>43105.645844907405</v>
+      </c>
+      <c r="DS146" s="5">
+        <v>43105.67015046296</v>
+      </c>
+      <c r="DU146">
+        <v>-7.9363535999989895E-2</v>
+      </c>
+      <c r="DV146" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW146" s="1">
+        <v>-0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -37773,8 +42265,23 @@
       <c r="DL147">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ147" s="5">
+        <v>43108.774305555555</v>
+      </c>
+      <c r="DS147" s="5">
+        <v>43108.933333333334</v>
+      </c>
+      <c r="DU147">
+        <v>-6.4647312000012502E-2</v>
+      </c>
+      <c r="DV147" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW147" s="1">
+        <v>-0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -37967,8 +42474,23 @@
       <c r="DL148" s="1">
         <v>-0.53049999999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ148" s="5">
+        <v>43109.923622685186</v>
+      </c>
+      <c r="DS148" s="5">
+        <v>43109.975243055553</v>
+      </c>
+      <c r="DU148">
+        <v>-8.0009652999994296E-2</v>
+      </c>
+      <c r="DV148" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW148" s="1">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>289</v>
       </c>
@@ -38161,8 +42683,23 @@
       <c r="DL149" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="150" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ149" s="5">
+        <v>43110.677106481482</v>
+      </c>
+      <c r="DS149" s="5">
+        <v>43111.420162037037</v>
+      </c>
+      <c r="DU149">
+        <v>5.6298015000135801E-2</v>
+      </c>
+      <c r="DV149" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW149">
+        <v>0.70750000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -38355,8 +42892,23 @@
       <c r="DL150">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="151" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ150" s="5">
+        <v>43111.972245370373</v>
+      </c>
+      <c r="DS150" s="5">
+        <v>43112.402800925927</v>
+      </c>
+      <c r="DU150">
+        <v>0.14731099600006101</v>
+      </c>
+      <c r="DV150" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW150">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -38549,8 +43101,23 @@
       <c r="DL151" s="1">
         <v>-0.71299999999999997</v>
       </c>
-    </row>
-    <row r="152" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ151" s="5">
+        <v>43112.864606481482</v>
+      </c>
+      <c r="DS151" s="5">
+        <v>43112.982662037037</v>
+      </c>
+      <c r="DU151">
+        <v>0.36973808000007902</v>
+      </c>
+      <c r="DV151" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW151">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -38743,8 +43310,20 @@
       <c r="DL152">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ152" s="5">
+        <v>43116.75</v>
+      </c>
+      <c r="DS152" s="5">
+        <v>43116.789930555555</v>
+      </c>
+      <c r="DV152" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW152" s="1">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -38937,8 +43516,20 @@
       <c r="DL153">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="154" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ153" s="5">
+        <v>43117.916678240741</v>
+      </c>
+      <c r="DS153" s="5">
+        <v>43117.951053240744</v>
+      </c>
+      <c r="DV153" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW153" s="1">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>299</v>
       </c>
@@ -39131,8 +43722,20 @@
       <c r="DL154" s="1">
         <v>-1.117</v>
       </c>
-    </row>
-    <row r="155" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ154" s="5">
+        <v>43118.052106481482</v>
+      </c>
+      <c r="DS154" s="5">
+        <v>43118.061249999999</v>
+      </c>
+      <c r="DV154" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW154" s="1">
+        <v>-0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -39325,8 +43928,20 @@
       <c r="DL155">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="156" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ155" s="5">
+        <v>43118.135451388887</v>
+      </c>
+      <c r="DS155" s="5">
+        <v>43118.965312499997</v>
+      </c>
+      <c r="DV155" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW155">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>303</v>
       </c>
@@ -39516,8 +44131,20 @@
       <c r="DL156" s="1">
         <v>-0.28749999999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ156" s="5">
+        <v>43125.034837962965</v>
+      </c>
+      <c r="DS156" s="5">
+        <v>43125.039583333331</v>
+      </c>
+      <c r="DV156" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW156" s="1">
+        <v>-0.224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -39707,8 +44334,20 @@
       <c r="DL157" s="1">
         <v>-0.85399999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ157" s="5">
+        <v>43126.975706018522</v>
+      </c>
+      <c r="DS157" s="5">
+        <v>43127.121539351851</v>
+      </c>
+      <c r="DV157" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW157">
+        <v>1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -39898,8 +44537,20 @@
       <c r="DL158">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="159" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ158" s="5">
+        <v>43127.184039351851</v>
+      </c>
+      <c r="DS158" s="5">
+        <v>43127.184733796297</v>
+      </c>
+      <c r="DV158" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW158" s="1">
+        <v>-0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -40083,8 +44734,20 @@
       <c r="DL159" s="1">
         <v>-1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ159" s="5">
+        <v>43130.708333333336</v>
+      </c>
+      <c r="DS159" s="5">
+        <v>43130.748726851853</v>
+      </c>
+      <c r="DV159" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW159" s="1">
+        <v>-0.2145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>311</v>
       </c>
@@ -40262,8 +44925,20 @@
       <c r="DL160">
         <v>1.1140000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ160" s="5">
+        <v>43132.041678240741</v>
+      </c>
+      <c r="DS160" s="5">
+        <v>43132.045381944445</v>
+      </c>
+      <c r="DV160" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW160" s="1">
+        <v>-0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>313</v>
       </c>
@@ -40441,8 +45116,20 @@
       <c r="DL161" s="1">
         <v>-0.61750000000000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ161" s="5">
+        <v>43136.34375</v>
+      </c>
+      <c r="DS161" s="5">
+        <v>43136.361689814818</v>
+      </c>
+      <c r="DV161" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW161" s="1">
+        <v>-0.16850000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -40620,8 +45307,20 @@
       <c r="DL162">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="163" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ162" s="5">
+        <v>43139.878483796296</v>
+      </c>
+      <c r="DS162" s="5">
+        <v>43139.88890046296</v>
+      </c>
+      <c r="DV162" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW162" s="1">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -40799,8 +45498,20 @@
       <c r="DL163">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ163" s="5">
+        <v>43143.739583333336</v>
+      </c>
+      <c r="DS163" s="5">
+        <v>43143.745486111111</v>
+      </c>
+      <c r="DV163" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW163" s="1">
+        <v>-0.1895</v>
+      </c>
+    </row>
+    <row r="164" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>319</v>
       </c>
@@ -40978,8 +45689,20 @@
       <c r="DL164" s="1">
         <v>-0.64049999999999996</v>
       </c>
-    </row>
-    <row r="165" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ164" s="5">
+        <v>43144.538206018522</v>
+      </c>
+      <c r="DS164" s="5">
+        <v>43144.562743055554</v>
+      </c>
+      <c r="DV164" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW164" s="1">
+        <v>-0.218</v>
+      </c>
+    </row>
+    <row r="165" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>321</v>
       </c>
@@ -41157,8 +45880,20 @@
       <c r="DL165">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ165" s="5">
+        <v>43144.715300925927</v>
+      </c>
+      <c r="DS165" s="5">
+        <v>43144.722708333335</v>
+      </c>
+      <c r="DV165" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW165" s="1">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>323</v>
       </c>
@@ -41336,8 +46071,20 @@
       <c r="DL166" s="1">
         <v>-1.3445</v>
       </c>
-    </row>
-    <row r="167" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ166" s="5">
+        <v>43146.041701388887</v>
+      </c>
+      <c r="DS166" s="5">
+        <v>43146.060567129629</v>
+      </c>
+      <c r="DV166" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW166" s="1">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="167" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>325</v>
       </c>
@@ -41515,8 +46262,20 @@
       <c r="DL167" s="1">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="168" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ167" s="5">
+        <v>43151.111111111109</v>
+      </c>
+      <c r="DS167" s="5">
+        <v>43151.396643518521</v>
+      </c>
+      <c r="DV167" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW167" s="1">
+        <v>-0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>327</v>
       </c>
@@ -41694,8 +46453,20 @@
       <c r="DL168" s="1">
         <v>-1.1719999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ168" s="5">
+        <v>43151.784733796296</v>
+      </c>
+      <c r="DS168" s="5">
+        <v>43151.794687499998</v>
+      </c>
+      <c r="DV168" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW168" s="1">
+        <v>-0.19850000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>329</v>
       </c>
@@ -41873,8 +46644,20 @@
       <c r="DL169" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ169" s="5">
+        <v>43154.840300925927</v>
+      </c>
+      <c r="DS169" s="5">
+        <v>43154.873171296298</v>
+      </c>
+      <c r="DV169" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW169" s="1">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>331</v>
       </c>
@@ -42052,8 +46835,20 @@
       <c r="DL170" s="1">
         <v>-0.73750000000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ170" s="5">
+        <v>43157.29178240741</v>
+      </c>
+      <c r="DS170" s="5">
+        <v>43157.292592592596</v>
+      </c>
+      <c r="DV170" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW170" s="1">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -42231,8 +47026,20 @@
       <c r="DL171" s="1">
         <v>-4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ171" s="5">
+        <v>43157.586817129632</v>
+      </c>
+      <c r="DS171" s="5">
+        <v>43157.681377314817</v>
+      </c>
+      <c r="DV171" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW171" s="1">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>335</v>
       </c>
@@ -42410,8 +47217,20 @@
       <c r="DL172">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="173" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ172" s="5">
+        <v>43157.961828703701</v>
+      </c>
+      <c r="DS172" s="5">
+        <v>43158.00037037037</v>
+      </c>
+      <c r="DV172" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW172" s="1">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -42589,8 +47408,20 @@
       <c r="DL173" s="1">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="174" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ173" s="5">
+        <v>43158.770868055559</v>
+      </c>
+      <c r="DS173" s="5">
+        <v>43158.776192129626</v>
+      </c>
+      <c r="DV173" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW173" s="1">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>339</v>
       </c>
@@ -42768,8 +47599,20 @@
       <c r="DL174" s="1">
         <v>-0.98499999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ174" s="5">
+        <v>43159.868101851855</v>
+      </c>
+      <c r="DS174" s="5">
+        <v>43160.520879629628</v>
+      </c>
+      <c r="DV174" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW174">
+        <v>1.4630000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>341</v>
       </c>
@@ -42947,8 +47790,20 @@
       <c r="DL175">
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ175" s="5">
+        <v>43164.725694444445</v>
+      </c>
+      <c r="DS175" s="5">
+        <v>43164.740162037036</v>
+      </c>
+      <c r="DV175" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW175" s="1">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>343</v>
       </c>
@@ -43126,8 +47981,20 @@
       <c r="DL176" s="1">
         <v>-0.82399999999999995</v>
       </c>
-    </row>
-    <row r="177" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ176" s="5">
+        <v>43165.038206018522</v>
+      </c>
+      <c r="DS176" s="5">
+        <v>43165.649317129632</v>
+      </c>
+      <c r="DV176" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW176">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="177" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>345</v>
       </c>
@@ -43305,8 +48172,20 @@
       <c r="DL177">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ177" s="5">
+        <v>43172.423611111109</v>
+      </c>
+      <c r="DS177" s="5">
+        <v>43172.534259259257</v>
+      </c>
+      <c r="DV177" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW177" s="1">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -43484,8 +48363,20 @@
       <c r="DL178">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ178" s="5">
+        <v>43174.673622685186</v>
+      </c>
+      <c r="DS178" s="5">
+        <v>43174.944456018522</v>
+      </c>
+      <c r="DV178" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW178">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>349</v>
       </c>
@@ -43663,8 +48554,20 @@
       <c r="DL179">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="180" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ179" s="5">
+        <v>43175.381956018522</v>
+      </c>
+      <c r="DS179" s="5">
+        <v>43175.750011574077</v>
+      </c>
+      <c r="DV179" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW179">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>351</v>
       </c>
@@ -43842,8 +48745,20 @@
       <c r="DL180">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="181" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ180" s="5">
+        <v>43178.256944444445</v>
+      </c>
+      <c r="DS180" s="5">
+        <v>43178.274884259263</v>
+      </c>
+      <c r="DV180" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW180" s="1">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -44021,8 +48936,20 @@
       <c r="DL181" s="1">
         <v>-1.6060000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ181" s="5">
+        <v>43178.378483796296</v>
+      </c>
+      <c r="DS181" s="5">
+        <v>43178.715289351851</v>
+      </c>
+      <c r="DV181" t="s">
+        <v>830</v>
+      </c>
+      <c r="DW181">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -44191,8 +49118,20 @@
       <c r="DK182" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="183" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ182" s="5">
+        <v>43180.868067129632</v>
+      </c>
+      <c r="DS182" s="5">
+        <v>43181.166678240741</v>
+      </c>
+      <c r="DV182" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW182">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="183" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -44355,8 +49294,20 @@
       <c r="CE183" s="1">
         <v>-0.28899999999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ183" s="5">
+        <v>43181.875011574077</v>
+      </c>
+      <c r="DS183" s="5">
+        <v>43181.875011574077</v>
+      </c>
+      <c r="DV183" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -44519,8 +49470,20 @@
       <c r="CE184">
         <v>0.87350000000000005</v>
       </c>
-    </row>
-    <row r="185" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+      <c r="DQ184" s="5">
+        <v>43185.798611111109</v>
+      </c>
+      <c r="DS184" s="5">
+        <v>43185.914583333331</v>
+      </c>
+      <c r="DV184" t="s">
+        <v>831</v>
+      </c>
+      <c r="DW184" s="1">
+        <v>-0.191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -44684,7 +49647,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>363</v>
       </c>
@@ -44848,7 +49811,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="187" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>365</v>
       </c>
@@ -45012,7 +49975,7 @@
         <v>0.98650000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>367</v>
       </c>
@@ -45176,7 +50139,7 @@
         <v>-0.27550000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>369</v>
       </c>
@@ -45340,7 +50303,7 @@
         <v>-0.27250000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -45504,7 +50467,7 @@
         <v>-0.25700000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -45663,7 +50626,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="192" spans="1:116" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -45817,7 +50780,7 @@
       <c r="CD192" s="4"/>
       <c r="CE192" s="4"/>
     </row>
-    <row r="193" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>377</v>
       </c>
@@ -45971,7 +50934,7 @@
       <c r="CD193" s="4"/>
       <c r="CE193" s="4"/>
     </row>
-    <row r="194" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -46125,7 +51088,7 @@
       <c r="CD194" s="4"/>
       <c r="CE194" s="4"/>
     </row>
-    <row r="195" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>381</v>
       </c>
@@ -46279,7 +51242,7 @@
       <c r="CD195" s="4"/>
       <c r="CE195" s="4"/>
     </row>
-    <row r="196" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>383</v>
       </c>
@@ -46433,7 +51396,7 @@
       <c r="CD196" s="4"/>
       <c r="CE196" s="4"/>
     </row>
-    <row r="197" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -46587,7 +51550,7 @@
       <c r="CD197" s="4"/>
       <c r="CE197" s="4"/>
     </row>
-    <row r="198" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -46741,7 +51704,7 @@
       <c r="CD198" s="4"/>
       <c r="CE198" s="4"/>
     </row>
-    <row r="199" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>389</v>
       </c>
@@ -46889,7 +51852,7 @@
       <c r="CD199" s="4"/>
       <c r="CE199" s="4"/>
     </row>
-    <row r="200" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>391</v>
       </c>
@@ -47023,7 +51986,7 @@
         <v>-0.1545</v>
       </c>
     </row>
-    <row r="201" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -47157,7 +52120,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>395</v>
       </c>
@@ -47291,7 +52254,7 @@
         <v>-0.30099999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>397</v>
       </c>
@@ -47425,7 +52388,7 @@
         <v>-0.30049999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -47559,7 +52522,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="205" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -47693,7 +52656,7 @@
         <v>1.0435000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -47827,7 +52790,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -47961,7 +52924,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:83" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -48095,7 +53058,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="209" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>409</v>
       </c>
@@ -48229,7 +53192,7 @@
         <v>-0.17050000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>411</v>
       </c>
@@ -48363,7 +53326,7 @@
         <v>-0.28349999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -48497,7 +53460,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -48631,7 +53594,7 @@
         <v>0.72650000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>417</v>
       </c>
@@ -48765,7 +53728,7 @@
         <v>-0.26850000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>419</v>
       </c>
@@ -48899,7 +53862,7 @@
         <v>-0.27650000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:68" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>421</v>
       </c>
@@ -50873,7 +55836,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:68" ht="66" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="65" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>451</v>
       </c>
@@ -51129,7 +56092,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:68" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="104" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>455</v>
       </c>
@@ -51257,7 +56220,7 @@
         <v>-0.27600000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -51385,7 +56348,7 @@
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:68" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="39" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -51513,7 +56476,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -51641,7 +56604,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -51769,7 +56732,7 @@
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -51897,7 +56860,7 @@
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -52025,7 +56988,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -52153,7 +57116,7 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -52281,7 +57244,7 @@
         <v>1.0075000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>473</v>
       </c>
@@ -52409,7 +57372,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>475</v>
       </c>
@@ -52537,7 +57500,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>477</v>
       </c>
@@ -52665,7 +57628,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>479</v>
       </c>
@@ -52921,7 +57884,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:68" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>483</v>
       </c>
@@ -53049,7 +58012,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>485</v>
       </c>
@@ -53177,7 +58140,7 @@
         <v>-0.27800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>487</v>
       </c>
@@ -53299,7 +58262,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -53412,7 +58375,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:68" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="52" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -81382,9 +86345,1965 @@
       <c r="BF823"/>
     </row>
   </sheetData>
-  <autoFilter ref="DL1:DL827"/>
+  <autoFilter ref="DW1:DW823"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C176"/>
+  <sheetViews>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A176 C1:C176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11">
+        <v>42796</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C1">
+        <v>-0.20349999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>42802</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C2">
+        <v>-0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>42805</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C3">
+        <v>-0.62050000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>42809</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C4">
+        <v>-0.82450000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>42811</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C5">
+        <v>-0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>42815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C6">
+        <v>-0.51949999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>42817</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C7">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>42821</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C8">
+        <v>-0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>42822</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C9">
+        <v>-1.1319999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>42825</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C10">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>42828</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C11">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>42829</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C12">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>42830</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C13">
+        <v>2.2845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>42831</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C14">
+        <v>2.5634999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>42832</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C15">
+        <v>2.363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C16">
+        <v>2.5880000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>42836</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C17">
+        <v>2.3725000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>42837</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C18">
+        <v>2.1644999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>42840</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C19">
+        <v>3.1669999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>42843</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C20">
+        <v>2.9255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>42846</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C21">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>42849</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C22">
+        <v>2.5049999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>42853</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C23">
+        <v>2.7905000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>42856</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C24">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>42859</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C25">
+        <v>3.0710000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>42860</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C26">
+        <v>2.8414999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>42864</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C27">
+        <v>3.6280000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>42866</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C28">
+        <v>3.4239999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>42870</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C29">
+        <v>3.2229999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>42871</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C30">
+        <v>3.0024999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>42872</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C31">
+        <v>2.7915000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>42873</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C32">
+        <v>2.5775000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>42874</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C33">
+        <v>2.234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>42877</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C34">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>42878</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C35">
+        <v>2.2395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>42879</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C36">
+        <v>1.8480000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>42881</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C37">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>42885</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C38">
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>42886</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C39">
+        <v>3.2985000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>42892</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C40">
+        <v>4.7569999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>42895</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C41">
+        <v>4.492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>42895</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C42">
+        <v>4.274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>42895</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C43">
+        <v>3.9714999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>42895</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C44">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>42902</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C45">
+        <v>5.6115000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>42906</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C46">
+        <v>5.4104999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>42906</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C47">
+        <v>5.2084999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>42908</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C48">
+        <v>5.2270000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>42914</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C49">
+        <v>6.9630000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>42915</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C50">
+        <v>7.2605000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>42916</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C51">
+        <v>7.0105000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>42919</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C52">
+        <v>6.8040000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>42921</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C53">
+        <v>6.6035000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>42923</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C54">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>42923</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C55">
+        <v>7.4169999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>42926</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C56">
+        <v>7.2084999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>42928</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C57">
+        <v>6.9764999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>42931</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C58">
+        <v>8.2714999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>42934</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C59">
+        <v>8.0694999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>42934</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C60">
+        <v>9.3934999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>42936</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C61">
+        <v>9.1854999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>42938</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C62">
+        <v>8.9819999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>42943</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C63">
+        <v>9.3279999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>42944</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C64">
+        <v>9.1080000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>42948</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C65">
+        <v>8.9030000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>42949</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C66">
+        <v>9.7360000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>42950</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C67">
+        <v>9.5005000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>42951</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C68">
+        <v>10.356999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>42956</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C69">
+        <v>11.242000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>42959</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C70">
+        <v>11.042</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>42961</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C71">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>42962</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C72">
+        <v>10.6275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>42966</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C73">
+        <v>11.414999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>42969</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C74">
+        <v>11.209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>42969</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C75">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>42972</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C76">
+        <v>10.798500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>42976</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C77">
+        <v>11.044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>42976</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C78">
+        <v>10.8405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>42978</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C79">
+        <v>10.6395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>42979</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C80">
+        <v>10.4335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>42982</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C81">
+        <v>10.230499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>42984</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C82">
+        <v>10.0055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>42985</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C83">
+        <v>9.7774999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>42986</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C84">
+        <v>9.5370000000000008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>42986</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C85">
+        <v>9.3175000000000008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>42987</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C86">
+        <v>9.2334999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>42990</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C87">
+        <v>11.1325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>42992</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C88">
+        <v>10.847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>42992</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C89">
+        <v>11.634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>42993</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C90">
+        <v>13.260999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>42997</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C91">
+        <v>13.045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>42998</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C92">
+        <v>12.842000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>43004</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C93">
+        <v>13.073</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>43005</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C94">
+        <v>13.773999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>43006</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C95">
+        <v>13.5625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>43007</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C96">
+        <v>13.635999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>43008</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C97">
+        <v>13.432499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>43010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C98">
+        <v>13.218500000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>43010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C99">
+        <v>12.994999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>43013</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C100">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>43015</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C101">
+        <v>14.4575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>43017</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C102">
+        <v>14.2515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>43020</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C103">
+        <v>14.005000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="11">
+        <v>43021</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C104">
+        <v>14.016999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>43025</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C105">
+        <v>13.8155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>43032</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C106">
+        <v>13.606999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>43033</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C107">
+        <v>14.672499999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>43035</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C108">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>43036</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C109">
+        <v>14.749499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="11">
+        <v>43038</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C110">
+        <v>14.5085</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>43040</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C111">
+        <v>15.561500000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>43041</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C112">
+        <v>15.3485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>43042</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C113">
+        <v>16.105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>43047</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C114">
+        <v>15.903</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>43048</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C115">
+        <v>15.941000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>43049</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C116">
+        <v>15.7285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>43053</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C117">
+        <v>15.518000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>43054</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C118">
+        <v>15.311500000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="11">
+        <v>43055</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C119">
+        <v>15.111000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="11">
+        <v>43056</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C120">
+        <v>14.8865</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>43057</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C121">
+        <v>14.6655</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
+        <v>43063</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C122">
+        <v>14.448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
+        <v>43068</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C123">
+        <v>14.1815</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
+        <v>43068</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C124">
+        <v>14.606999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="11">
+        <v>43074</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C125">
+        <v>14.583500000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="11">
+        <v>43074</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C126">
+        <v>15.384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="11">
+        <v>43075</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C127">
+        <v>16.340499999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="11">
+        <v>43077</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C128">
+        <v>17.204000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="11">
+        <v>43083</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C129">
+        <v>17.2285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="11">
+        <v>43084</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C130">
+        <v>17.0245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="11">
+        <v>43085</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C131">
+        <v>17.007000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="11">
+        <v>43090</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C132">
+        <v>18.201000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="11">
+        <v>43092</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C133">
+        <v>18.204499999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="11">
+        <v>43099</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C134">
+        <v>18.911999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="11">
+        <v>43103</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C135">
+        <v>19.254999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="11">
+        <v>43104</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C136">
+        <v>19.047000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>43105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C137">
+        <v>18.842500000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>43108</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C138">
+        <v>18.635000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>43109</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C139">
+        <v>18.414000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>43111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C140">
+        <v>19.121500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>43112</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C141">
+        <v>19.189499999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>43112</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C142">
+        <v>19.9575</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>43116</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C143">
+        <v>19.7715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>43117</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C144">
+        <v>19.5945</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>43118</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C145">
+        <v>19.418500000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>43118</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C146">
+        <v>19.641500000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>43125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C147">
+        <v>19.4175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
+        <v>43127</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C148">
+        <v>20.531500000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="11">
+        <v>43127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C149">
+        <v>20.323</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="11">
+        <v>43130</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C150">
+        <v>20.108499999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="11">
+        <v>43132</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C151">
+        <v>19.911999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="11">
+        <v>43136</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C152">
+        <v>19.743500000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="11">
+        <v>43139</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C153">
+        <v>19.5685</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="11">
+        <v>43143</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C154">
+        <v>19.379000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="11">
+        <v>43144</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C155">
+        <v>19.161000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="11">
+        <v>43144</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C156">
+        <v>18.984000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="11">
+        <v>43146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C157">
+        <v>18.802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
+        <v>43151</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C158">
+        <v>18.628</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>43151</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C159">
+        <v>18.429500000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
+        <v>43154</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C160">
+        <v>18.1815</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
+        <v>43157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C161">
+        <v>18.103999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
+        <v>43157</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C162">
+        <v>17.923999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
+        <v>43158</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C163">
+        <v>17.721</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
+        <v>43158</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C164">
+        <v>17.521000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
+        <v>43160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C165">
+        <v>18.984000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="11">
+        <v>43164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C166">
+        <v>18.800999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="11">
+        <v>43165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C167">
+        <v>19.178999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="11">
+        <v>43172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C168">
+        <v>18.992999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="11">
+        <v>43174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C169">
+        <v>19.283999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="11">
+        <v>43175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C170">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="11">
+        <v>43178</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C171">
+        <v>19.449000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="11">
+        <v>43178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C172">
+        <v>19.698499999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="11">
+        <v>43181</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C173">
+        <v>20.388999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="11">
+        <v>43181</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C174">
+        <v>20.388999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="11">
+        <v>43185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C175">
+        <v>20.198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="11">
+        <v>43185</v>
+      </c>
+      <c r="B176" s="17">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="C176">
+        <v>20.198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>